--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -265,7 +265,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +287,13 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -364,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -434,48 +441,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -564,6 +541,17 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -605,6 +593,34 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -633,21 +649,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L5641" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L5641" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A1:L5640"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Date" dataDxfId="36" totalsRowDxfId="11"/>
-    <tableColumn id="13" name="UserID" dataDxfId="35" totalsRowDxfId="10"/>
-    <tableColumn id="8" name="Name" dataDxfId="34" totalsRowDxfId="9"/>
-    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="33" totalsRowDxfId="8"/>
-    <tableColumn id="17" name="Transaction_ID" dataDxfId="32" totalsRowDxfId="7"/>
-    <tableColumn id="16" name="Transaction_Date" dataDxfId="31" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="30" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="29" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Total_Profit" dataDxfId="28" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Profit_%" dataDxfId="27" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Profit" dataDxfId="26" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="Payment_Status" dataDxfId="25" totalsRowDxfId="0"/>
+    <tableColumn id="9" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="13" name="UserID" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="8" name="Name" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="17" name="Transaction_ID" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="16" name="Transaction_Date" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="10" name="Total_Profit" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="11" name="Profit_%" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="7" name="Profit" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Payment_Status" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -661,7 +677,7 @@
     <tableColumn id="2" name="Contact_Name"/>
     <tableColumn id="9" name="Name"/>
     <tableColumn id="3" name="Total_Invested_Amount"/>
-    <tableColumn id="6" name="Total Profit Earned" dataDxfId="24">
+    <tableColumn id="6" name="Total Profit Earned" dataDxfId="13">
       <calculatedColumnFormula>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="UPI"/>
@@ -671,15 +687,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F602" totalsRowShown="0" headerRowDxfId="23" dataDxfId="21" headerRowBorderDxfId="22" tableBorderDxfId="20" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:F602"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Date" dataDxfId="18"/>
-    <tableColumn id="2" name="UserID" dataDxfId="17"/>
-    <tableColumn id="3" name="Invest_Amount" dataDxfId="16"/>
-    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="15"/>
-    <tableColumn id="4" name="Profit" dataDxfId="14"/>
-    <tableColumn id="5" name="Payment" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:G602"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" name="UserID" dataDxfId="6"/>
+    <tableColumn id="3" name="Invest_Amount" dataDxfId="5"/>
+    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="4"/>
+    <tableColumn id="4" name="Profit" dataDxfId="3"/>
+    <tableColumn id="5" name="Payment" dataDxfId="2"/>
+    <tableColumn id="7" name="Total_Profit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -705,7 +722,7 @@
     <tableColumn id="3" name="Charge_Amt"/>
     <tableColumn id="6" name="Charge_Per_Head"/>
     <tableColumn id="4" name="Paid_Amt"/>
-    <tableColumn id="5" name="Pending_Amt" dataDxfId="12">
+    <tableColumn id="5" name="Pending_Amt" dataDxfId="1">
       <calculatedColumnFormula>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1002,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="D106" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119:K126"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,7 +5685,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1198.6487662696618</v>
+        <v>1338.5387662696621</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -5837,10 +5854,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F602"/>
+  <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5851,10 +5868,11 @@
     <col min="4" max="4" width="26.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="14"/>
+    <col min="7" max="7" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -5873,296 +5891,304 @@
       <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
-        <v>45981</v>
+      <c r="G1" s="32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>45978</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="14">
         <v>1700</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="16">
+        <v>1700</v>
+      </c>
+      <c r="E2" s="15">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="15">
+        <v>10.130000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28">
+        <v>45979</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1700</v>
+      </c>
+      <c r="D3" s="16">
+        <v>1700</v>
+      </c>
+      <c r="E3" s="15">
+        <v>31.68</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="15">
+        <v>31.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>45980</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1700</v>
+      </c>
+      <c r="D4" s="16">
+        <v>1700</v>
+      </c>
+      <c r="E4" s="15">
+        <v>98.08</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="15">
+        <v>98.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="16"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
+        <v>45981</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1700</v>
+      </c>
+      <c r="D6" s="31">
         <v>2700</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E6" s="9">
         <v>64.159259259259258</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
         <v>45981</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C7" s="10">
         <v>500</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D7" s="16">
         <v>2700</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E7" s="11">
         <v>18.87037037037037</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="F7" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="15">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
         <v>45981</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C8" s="12">
         <v>500</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D8" s="31">
         <v>2700</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E8" s="13">
         <v>18.87037037037037</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
-        <v>45982</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1700</v>
-      </c>
-      <c r="D5" s="14">
-        <v>6700</v>
-      </c>
-      <c r="E5" s="15">
-        <v>26.692537313432837</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
-        <v>45982</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="14">
-        <v>500</v>
-      </c>
-      <c r="D6" s="14">
-        <v>6700</v>
-      </c>
-      <c r="E6" s="15">
-        <v>7.8507462686567155</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>45982</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="14">
-        <v>500</v>
-      </c>
-      <c r="D7" s="14">
-        <v>6700</v>
-      </c>
-      <c r="E7" s="15">
-        <v>7.8507462686567155</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>45982</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1500</v>
-      </c>
-      <c r="D8" s="14">
-        <v>6700</v>
-      </c>
-      <c r="E8" s="15">
-        <v>23.552238805970152</v>
-      </c>
       <c r="F8" s="8" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>45982</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14">
-        <v>500</v>
-      </c>
-      <c r="D9" s="14">
-        <v>6700</v>
-      </c>
-      <c r="E9" s="15">
-        <v>7.8507462686567155</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="15">
+        <v>101.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D9" s="16"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C10" s="14">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="14">
+        <v>1700</v>
+      </c>
+      <c r="D10" s="16">
         <v>6700</v>
       </c>
       <c r="E10" s="15">
-        <v>31.402985074626862</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>26.692537313432837</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="15">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
+        <v>45982</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="14">
+        <v>500</v>
+      </c>
+      <c r="D11" s="16">
+        <v>6700</v>
+      </c>
+      <c r="E11" s="15">
+        <v>7.8507462686567155</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="15">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
-        <v>45992</v>
+        <v>45982</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C12" s="14">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D12" s="16">
-        <v>8000</v>
+        <v>6700</v>
       </c>
       <c r="E12" s="15">
-        <v>57.5</v>
+        <v>7.8507462686567155</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="15">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
-        <v>45992</v>
+        <v>45982</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="14">
         <v>1500</v>
       </c>
       <c r="D13" s="16">
-        <v>8000</v>
+        <v>6700</v>
       </c>
       <c r="E13" s="15">
-        <v>43.125</v>
+        <v>23.552238805970152</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="15">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
-        <v>45992</v>
+        <v>45982</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" s="14">
         <v>500</v>
       </c>
       <c r="D14" s="16">
-        <v>8000</v>
+        <v>6700</v>
       </c>
       <c r="E14" s="15">
-        <v>14.375</v>
+        <v>7.8507462686567155</v>
       </c>
       <c r="F14" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="15">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
-        <v>45992</v>
+        <v>45982</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C15" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D15" s="16">
-        <v>8000</v>
+        <v>6700</v>
       </c>
       <c r="E15" s="15">
-        <v>43.125</v>
+        <v>31.402985074626862</v>
       </c>
       <c r="F15" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28">
-        <v>45992</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="14">
-        <v>500</v>
-      </c>
-      <c r="D16" s="16">
-        <v>8000</v>
-      </c>
-      <c r="E16" s="15">
-        <v>14.375</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="15">
+        <v>105.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D16" s="16"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45992</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C17" s="14">
         <v>2000</v>
@@ -6176,36 +6202,62 @@
       <c r="F17" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
+        <v>45992</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D18" s="16">
+        <v>8000</v>
+      </c>
+      <c r="E18" s="15">
+        <v>43.125</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C19" s="14">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D19" s="16">
         <v>8000</v>
       </c>
       <c r="E19" s="15">
-        <v>104</v>
+        <v>14.375</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C20" s="14">
         <v>1500</v>
@@ -6214,18 +6266,21 @@
         <v>8000</v>
       </c>
       <c r="E20" s="15">
-        <v>78</v>
+        <v>43.125</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21" s="14">
         <v>500</v>
@@ -6234,58 +6289,48 @@
         <v>8000</v>
       </c>
       <c r="E21" s="15">
-        <v>26</v>
+        <v>14.375</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D22" s="16">
         <v>8000</v>
       </c>
       <c r="E22" s="15">
-        <v>78</v>
+        <v>57.5</v>
       </c>
       <c r="F22" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28">
-        <v>45993</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="14">
-        <v>500</v>
-      </c>
-      <c r="D23" s="16">
-        <v>8000</v>
-      </c>
-      <c r="E23" s="15">
-        <v>26</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="15">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="16"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45993</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C24" s="14">
         <v>2000</v>
@@ -6299,116 +6344,135 @@
       <c r="F24" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="28">
+        <v>45993</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D25" s="16">
+        <v>8000</v>
+      </c>
+      <c r="E25" s="15">
+        <v>78</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C26" s="14">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D26" s="16">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E26" s="15">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="F26" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C27" s="14">
         <v>1500</v>
       </c>
       <c r="D27" s="16">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E27" s="15">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="F27" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C28" s="14">
         <v>500</v>
       </c>
       <c r="D28" s="16">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E28" s="15">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F28" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
-        <v>45994</v>
+        <v>45993</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C29" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D29" s="16">
-        <v>10000</v>
+        <v>8000</v>
       </c>
       <c r="E29" s="15">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
-        <v>45994</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="14">
-        <v>500</v>
-      </c>
-      <c r="D30" s="16">
-        <v>10000</v>
-      </c>
-      <c r="E30" s="15">
-        <v>15</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="15">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D30" s="16"/>
+      <c r="G30" s="15"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45994</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C31" s="14">
         <v>2000</v>
@@ -6422,136 +6486,158 @@
       <c r="F31" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C32" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D32" s="16">
         <v>10000</v>
       </c>
       <c r="E32" s="15">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F32" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="28">
+        <v>45994</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="14">
+        <v>500</v>
+      </c>
+      <c r="D33" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E33" s="15">
+        <v>15</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C34" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D34" s="16">
         <v>10000</v>
       </c>
       <c r="E34" s="15">
-        <v>82.2</v>
+        <v>45</v>
       </c>
       <c r="F34" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C35" s="14">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D35" s="16">
         <v>10000</v>
       </c>
       <c r="E35" s="15">
-        <v>61.65</v>
+        <v>15</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C36" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D36" s="16">
         <v>10000</v>
       </c>
       <c r="E36" s="15">
-        <v>20.55</v>
+        <v>60</v>
       </c>
       <c r="F36" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
-        <v>45995</v>
+        <v>45994</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C37" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D37" s="16">
         <v>10000</v>
       </c>
       <c r="E37" s="15">
-        <v>61.65</v>
+        <v>60</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28">
-        <v>45995</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="14">
-        <v>500</v>
-      </c>
-      <c r="D38" s="16">
-        <v>10000</v>
-      </c>
-      <c r="E38" s="15">
-        <v>20.55</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D38" s="16"/>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45995</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C39" s="14">
         <v>2000</v>
@@ -6565,136 +6651,158 @@
       <c r="F39" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C40" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D40" s="16">
         <v>10000</v>
       </c>
       <c r="E40" s="15">
-        <v>82.2</v>
+        <v>61.65</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>45995</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="14">
+        <v>500</v>
+      </c>
+      <c r="D41" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E41" s="15">
+        <v>20.55</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
-        <v>45998</v>
+        <v>45995</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C42" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D42" s="16">
         <v>10000</v>
       </c>
       <c r="E42" s="15">
-        <v>18.2</v>
+        <v>61.65</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
-        <v>45998</v>
+        <v>45995</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C43" s="14">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D43" s="16">
         <v>10000</v>
       </c>
       <c r="E43" s="15">
-        <v>13.65</v>
+        <v>20.55</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
-        <v>45998</v>
+        <v>45995</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C44" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D44" s="16">
         <v>10000</v>
       </c>
       <c r="E44" s="15">
-        <v>4.55</v>
+        <v>82.2</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
-        <v>45998</v>
+        <v>45995</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C45" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D45" s="16">
         <v>10000</v>
       </c>
       <c r="E45" s="15">
-        <v>13.65</v>
+        <v>82.2</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="28">
-        <v>45998</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="14">
-        <v>500</v>
-      </c>
-      <c r="D46" s="16">
-        <v>10000</v>
-      </c>
-      <c r="E46" s="15">
-        <v>4.55</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="15">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D46" s="16"/>
+      <c r="G46" s="15"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45998</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C47" s="14">
         <v>2000</v>
@@ -6708,136 +6816,158 @@
       <c r="F47" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C48" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D48" s="16">
         <v>10000</v>
       </c>
       <c r="E48" s="15">
-        <v>18.2</v>
+        <v>13.65</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28">
+        <v>45998</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="14">
+        <v>500</v>
+      </c>
+      <c r="D49" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E49" s="15">
+        <v>4.55</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C50" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D50" s="16">
         <v>10000</v>
       </c>
       <c r="E50" s="15">
-        <v>140.6</v>
+        <v>13.65</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C51" s="14">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D51" s="16">
         <v>10000</v>
       </c>
       <c r="E51" s="15">
-        <v>105.45</v>
+        <v>4.55</v>
       </c>
       <c r="F51" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C52" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D52" s="16">
         <v>10000</v>
       </c>
       <c r="E52" s="15">
-        <v>35.15</v>
+        <v>18.2</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C53" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D53" s="16">
         <v>10000</v>
       </c>
       <c r="E53" s="15">
-        <v>105.45</v>
+        <v>18.2</v>
       </c>
       <c r="F53" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
-        <v>45999</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="14">
-        <v>500</v>
-      </c>
-      <c r="D54" s="16">
-        <v>10000</v>
-      </c>
-      <c r="E54" s="15">
-        <v>35.15</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D54" s="16"/>
+      <c r="G54" s="15"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45999</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C55" s="14">
         <v>2000</v>
@@ -6851,136 +6981,158 @@
       <c r="F55" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="15">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C56" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D56" s="16">
         <v>10000</v>
       </c>
       <c r="E56" s="15">
-        <v>140.6</v>
+        <v>105.45</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D57" s="16"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="15">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="28">
+        <v>45999</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="14">
+        <v>500</v>
+      </c>
+      <c r="D57" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E57" s="15">
+        <v>35.15</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="15">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C58" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D58" s="16">
         <v>10000</v>
       </c>
       <c r="E58" s="15">
-        <v>144.6</v>
+        <v>105.45</v>
       </c>
       <c r="F58" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="15">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C59" s="14">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="D59" s="16">
         <v>10000</v>
       </c>
       <c r="E59" s="15">
-        <v>108.45</v>
+        <v>35.15</v>
       </c>
       <c r="F59" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="15">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C60" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D60" s="16">
         <v>10000</v>
       </c>
       <c r="E60" s="15">
-        <v>36.15</v>
+        <v>140.6</v>
       </c>
       <c r="F60" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G60" s="15">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="C61" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D61" s="16">
         <v>10000</v>
       </c>
       <c r="E61" s="15">
-        <v>108.45</v>
+        <v>140.6</v>
       </c>
       <c r="F61" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="28">
-        <v>46000</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C62" s="14">
-        <v>500</v>
-      </c>
-      <c r="D62" s="16">
-        <v>10000</v>
-      </c>
-      <c r="E62" s="15">
-        <v>36.15</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="15">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D62" s="16"/>
+      <c r="G62" s="15"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>46000</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C63" s="14">
         <v>2000</v>
@@ -6994,136 +7146,158 @@
       <c r="F63" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C64" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D64" s="16">
         <v>10000</v>
       </c>
       <c r="E64" s="15">
+        <v>108.45</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G64" s="15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="28">
+        <v>46000</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="14">
+        <v>500</v>
+      </c>
+      <c r="D65" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E65" s="15">
+        <v>36.15</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G65" s="15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="28">
+        <v>46000</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D66" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E66" s="15">
+        <v>108.45</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G66" s="15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="28">
+        <v>46000</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="14">
+        <v>500</v>
+      </c>
+      <c r="D67" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E67" s="15">
+        <v>36.15</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G67" s="15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="28">
+        <v>46000</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D68" s="16">
+        <v>10000</v>
+      </c>
+      <c r="E68" s="15">
         <v>144.6</v>
       </c>
-      <c r="F64" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="28">
-        <v>46001</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="14">
+      <c r="F68" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G68" s="15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="28">
+        <v>46000</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="14">
         <v>2000</v>
       </c>
-      <c r="D66" s="16">
-        <v>11000</v>
-      </c>
-      <c r="E66" s="15">
-        <v>34.545454545454547</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="28">
-        <v>46001</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="14">
-        <v>1500</v>
-      </c>
-      <c r="D67" s="16">
-        <v>11000</v>
-      </c>
-      <c r="E67" s="15">
-        <v>25.909090909090907</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="28">
-        <v>46001</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="14">
-        <v>500</v>
-      </c>
-      <c r="D68" s="16">
-        <v>11000</v>
-      </c>
-      <c r="E68" s="15">
-        <v>8.6363636363636367</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="28">
-        <v>46001</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="14">
-        <v>1500</v>
-      </c>
       <c r="D69" s="16">
-        <v>11000</v>
+        <v>10000</v>
       </c>
       <c r="E69" s="15">
-        <v>25.909090909090907</v>
+        <v>144.6</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="28">
-        <v>46001</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C70" s="14">
-        <v>500</v>
-      </c>
-      <c r="D70" s="16">
-        <v>11000</v>
-      </c>
-      <c r="E70" s="15">
-        <v>8.6363636363636367</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="15">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D70" s="16"/>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>46001</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C71" s="14">
         <v>2000</v>
@@ -7137,156 +7311,181 @@
       <c r="F71" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C72" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D72" s="16">
         <v>11000</v>
       </c>
       <c r="E72" s="15">
-        <v>34.545454545454547</v>
+        <v>25.909090909090907</v>
       </c>
       <c r="F72" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C73" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D73" s="16">
         <v>11000</v>
       </c>
       <c r="E73" s="15">
-        <v>17.272727272727273</v>
+        <v>8.6363636363636367</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D74" s="16"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="28">
+        <v>46001</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D74" s="16">
+        <v>11000</v>
+      </c>
+      <c r="E74" s="15">
+        <v>25.909090909090907</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C75" s="14">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D75" s="16">
         <v>11000</v>
       </c>
       <c r="E75" s="15">
-        <v>149.27272727272728</v>
+        <v>8.6363636363636367</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C76" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D76" s="16">
         <v>11000</v>
       </c>
       <c r="E76" s="15">
-        <v>111.95454545454545</v>
+        <v>34.545454545454547</v>
       </c>
       <c r="F76" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C77" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D77" s="16">
         <v>11000</v>
       </c>
       <c r="E77" s="15">
-        <v>37.31818181818182</v>
+        <v>34.545454545454547</v>
       </c>
       <c r="F77" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C78" s="14">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D78" s="16">
         <v>11000</v>
       </c>
       <c r="E78" s="15">
-        <v>111.95454545454545</v>
+        <v>17.272727272727273</v>
       </c>
       <c r="F78" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="28">
-        <v>46002</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="14">
-        <v>500</v>
-      </c>
-      <c r="D79" s="16">
-        <v>11000</v>
-      </c>
-      <c r="E79" s="15">
-        <v>37.31818181818182</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D79" s="16"/>
+      <c r="G79" s="15"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>46002</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C80" s="14">
         <v>2000</v>
@@ -7300,156 +7499,183 @@
       <c r="F80" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C81" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D81" s="16">
         <v>11000</v>
       </c>
       <c r="E81" s="15">
-        <v>149.27272727272728</v>
+        <v>111.95454545454545</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C82" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D82" s="16">
         <v>11000</v>
       </c>
       <c r="E82" s="15">
-        <v>74.63636363636364</v>
+        <v>37.31818181818182</v>
       </c>
       <c r="F82" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D83" s="16"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="28">
+        <v>46002</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D83" s="16">
+        <v>11000</v>
+      </c>
+      <c r="E83" s="15">
+        <v>111.95454545454545</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" s="15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C84" s="14">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="D84" s="16">
         <v>11000</v>
       </c>
       <c r="E84" s="15">
-        <v>128.54545454545456</v>
+        <v>37.31818181818182</v>
       </c>
       <c r="F84" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C85" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D85" s="16">
         <v>11000</v>
       </c>
       <c r="E85" s="15">
-        <v>96.409090909090907</v>
+        <v>149.27272727272728</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C86" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D86" s="16">
         <v>11000</v>
       </c>
       <c r="E86" s="15">
-        <v>32.13636363636364</v>
+        <v>149.27272727272728</v>
       </c>
       <c r="F86" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C87" s="14">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D87" s="16">
         <v>11000</v>
       </c>
       <c r="E87" s="15">
-        <v>96.409090909090907</v>
+        <v>74.63636363636364</v>
       </c>
       <c r="F87" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="28">
-        <v>46003</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="14">
-        <v>500</v>
-      </c>
-      <c r="D88" s="16">
-        <v>11000</v>
-      </c>
-      <c r="E88" s="15">
-        <v>32.13636363636364</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="15">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D88" s="16"/>
+      <c r="G88" s="15" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>46003</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C89" s="14">
         <v>2000</v>
@@ -7463,428 +7689,587 @@
       <c r="F89" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C90" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D90" s="16">
         <v>11000</v>
       </c>
       <c r="E90" s="15">
-        <v>128.54545454545456</v>
+        <v>96.409090909090907</v>
       </c>
       <c r="F90" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C91" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D91" s="16">
         <v>11000</v>
       </c>
       <c r="E91" s="15">
+        <v>32.13636363636364</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G91" s="15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="28">
+        <v>46003</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D92" s="16">
+        <v>11000</v>
+      </c>
+      <c r="E92" s="15">
+        <v>96.409090909090907</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" s="15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="28">
+        <v>46003</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="14">
+        <v>500</v>
+      </c>
+      <c r="D93" s="16">
+        <v>11000</v>
+      </c>
+      <c r="E93" s="15">
+        <v>32.13636363636364</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G93" s="15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="28">
+        <v>46003</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D94" s="16">
+        <v>11000</v>
+      </c>
+      <c r="E94" s="15">
+        <v>128.54545454545456</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G94" s="15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="28">
+        <v>46003</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D95" s="16">
+        <v>11000</v>
+      </c>
+      <c r="E95" s="15">
+        <v>128.54545454545456</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G95" s="15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="28">
+        <v>46003</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D96" s="16">
+        <v>11000</v>
+      </c>
+      <c r="E96" s="15">
         <v>64.27272727272728</v>
       </c>
-      <c r="F91" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D92" s="16"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="28">
-        <v>46004</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="14">
-        <v>2500</v>
-      </c>
-      <c r="D93" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E93" s="15">
-        <v>97.916666666666671</v>
-      </c>
-      <c r="F93" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="28">
-        <v>46004</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94" s="14">
-        <v>1500</v>
-      </c>
-      <c r="D94" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E94" s="15">
-        <v>58.75</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="28">
-        <v>46004</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="14">
-        <v>500</v>
-      </c>
-      <c r="D95" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E95" s="15">
-        <v>19.583333333333332</v>
-      </c>
-      <c r="F95" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="28">
-        <v>46004</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="14">
-        <v>1500</v>
-      </c>
-      <c r="D96" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E96" s="15">
-        <v>58.75</v>
-      </c>
       <c r="F96" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="28">
-        <v>46004</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D97" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E97" s="15">
-        <v>39.166666666666664</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="G96" s="15">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D97" s="16"/>
+      <c r="G97" s="15"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>46004</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C98" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D98" s="16">
         <v>12000</v>
       </c>
       <c r="E98" s="15">
-        <v>78.333333333333329</v>
+        <v>97.916666666666671</v>
       </c>
       <c r="F98" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C99" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D99" s="16">
         <v>12000</v>
       </c>
       <c r="E99" s="15">
-        <v>78.333333333333329</v>
+        <v>58.75</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C100" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D100" s="16">
         <v>12000</v>
       </c>
       <c r="E100" s="15">
-        <v>39.166666666666664</v>
+        <v>19.583333333333332</v>
       </c>
       <c r="F100" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D101" s="16"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="28">
+        <v>46004</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D101" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E101" s="15">
+        <v>58.75</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G101" s="15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C102" s="14">
-        <v>2500</v>
+        <v>1000</v>
       </c>
       <c r="D102" s="16">
         <v>12000</v>
       </c>
       <c r="E102" s="15">
-        <v>90.416666666666671</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="F102" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C103" s="14">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="D103" s="16">
         <v>12000</v>
       </c>
       <c r="E103" s="15">
-        <v>54.25</v>
+        <v>78.333333333333329</v>
       </c>
       <c r="F103" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C104" s="14">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="D104" s="16">
         <v>12000</v>
       </c>
       <c r="E104" s="15">
-        <v>18.083333333333332</v>
+        <v>78.333333333333329</v>
       </c>
       <c r="F104" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="C105" s="14">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="D105" s="16">
         <v>12000</v>
       </c>
       <c r="E105" s="15">
-        <v>54.25</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="28">
-        <v>46005</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D106" s="16">
-        <v>12000</v>
-      </c>
-      <c r="E106" s="15">
-        <v>36.166666666666664</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="15">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D106" s="16"/>
+      <c r="G106" s="15"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>46005</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C107" s="14">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="D107" s="16">
         <v>12000</v>
       </c>
       <c r="E107" s="15">
-        <v>72.333333333333329</v>
+        <v>90.416666666666671</v>
       </c>
       <c r="F107" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="C108" s="14">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D108" s="16">
         <v>12000</v>
       </c>
       <c r="E108" s="15">
-        <v>72.333333333333329</v>
+        <v>54.25</v>
       </c>
       <c r="F108" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C109" s="14">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D109" s="16">
         <v>12000</v>
       </c>
       <c r="E109" s="15">
-        <v>36.166666666666664</v>
+        <v>18.083333333333332</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D110" s="16"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D111" s="16"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D112" s="16"/>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D113" s="16"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D114" s="16"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G109" s="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D110" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E110" s="15">
+        <v>54.25</v>
+      </c>
+      <c r="F110" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G110" s="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B111" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D111" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E111" s="15">
+        <v>36.166666666666664</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G111" s="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D112" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E112" s="15">
+        <v>72.333333333333329</v>
+      </c>
+      <c r="F112" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G112" s="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D113" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E113" s="15">
+        <v>72.333333333333329</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G113" s="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="28">
+        <v>46005</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D114" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E114" s="15">
+        <v>36.166666666666664</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G114" s="15">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D116" s="16"/>
     </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D117" s="16"/>
     </row>
-    <row r="118" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D118" s="16"/>
     </row>
-    <row r="119" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D119" s="16"/>
     </row>
-    <row r="120" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D120" s="16"/>
     </row>
-    <row r="121" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D121" s="16"/>
     </row>
-    <row r="122" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D122" s="16"/>
     </row>
-    <row r="123" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D123" s="16"/>
     </row>
-    <row r="124" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
     </row>
-    <row r="125" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D125" s="16"/>
     </row>
-    <row r="126" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D126" s="16"/>
     </row>
-    <row r="127" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D127" s="16"/>
     </row>
-    <row r="128" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D128" s="16"/>
     </row>
     <row r="129" spans="4:4" x14ac:dyDescent="0.25">

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -456,7 +456,46 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -541,17 +580,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -581,34 +609,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -652,18 +652,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L5641" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A1:L5640"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="13" name="UserID" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="8" name="Name" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="17" name="Transaction_ID" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="16" name="Transaction_Date" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="10" name="Total_Profit" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="11" name="Profit_%" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" name="Profit" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="Payment_Status" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="9" name="Date" dataDxfId="37" totalsRowDxfId="11"/>
+    <tableColumn id="13" name="UserID" dataDxfId="36" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="Name" dataDxfId="35" totalsRowDxfId="9"/>
+    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="34" totalsRowDxfId="8"/>
+    <tableColumn id="17" name="Transaction_ID" dataDxfId="33" totalsRowDxfId="7"/>
+    <tableColumn id="16" name="Transaction_Date" dataDxfId="32" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="31" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="30" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Total_Profit" dataDxfId="29" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Profit_%" dataDxfId="28" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Profit" dataDxfId="27" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Payment_Status" dataDxfId="26" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -677,7 +677,7 @@
     <tableColumn id="2" name="Contact_Name"/>
     <tableColumn id="9" name="Name"/>
     <tableColumn id="3" name="Total_Invested_Amount"/>
-    <tableColumn id="6" name="Total Profit Earned" dataDxfId="13">
+    <tableColumn id="6" name="Total Profit Earned" dataDxfId="25">
       <calculatedColumnFormula>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="UPI"/>
@@ -687,16 +687,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:G602"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" name="UserID" dataDxfId="6"/>
-    <tableColumn id="3" name="Invest_Amount" dataDxfId="5"/>
-    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="4"/>
-    <tableColumn id="4" name="Profit" dataDxfId="3"/>
-    <tableColumn id="5" name="Payment" dataDxfId="2"/>
-    <tableColumn id="7" name="Total_Profit" dataDxfId="0"/>
+    <tableColumn id="1" name="Date" dataDxfId="19"/>
+    <tableColumn id="2" name="UserID" dataDxfId="18"/>
+    <tableColumn id="3" name="Invest_Amount" dataDxfId="17"/>
+    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="16"/>
+    <tableColumn id="4" name="Profit" dataDxfId="15"/>
+    <tableColumn id="5" name="Payment" dataDxfId="14"/>
+    <tableColumn id="7" name="Total_Profit" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -722,7 +722,7 @@
     <tableColumn id="3" name="Charge_Amt"/>
     <tableColumn id="6" name="Charge_Per_Head"/>
     <tableColumn id="4" name="Paid_Amt"/>
-    <tableColumn id="5" name="Pending_Amt" dataDxfId="1">
+    <tableColumn id="5" name="Pending_Amt" dataDxfId="12">
       <calculatedColumnFormula>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="I131" sqref="I131"/>
+    <sheetView topLeftCell="D108" workbookViewId="0">
+      <selection activeCell="I130" sqref="I130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4676,54 +4676,278 @@
       <c r="I127" s="15"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I128" s="15"/>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I129" s="15"/>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I130" s="15"/>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I131" s="15"/>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I132" s="15"/>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I133" s="15"/>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I134" s="15"/>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I135" s="15"/>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G128" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H128" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I128" s="15">
+        <v>460</v>
+      </c>
+      <c r="J128" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K128" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>95.833333333333343</v>
+      </c>
+      <c r="L128" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H129" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I129" s="15">
+        <v>460</v>
+      </c>
+      <c r="J129" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K129" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>57.5</v>
+      </c>
+      <c r="L129" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C130" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G130" s="14">
+        <v>500</v>
+      </c>
+      <c r="H130" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I130" s="15">
+        <v>460</v>
+      </c>
+      <c r="J130" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K130" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>19.166666666666664</v>
+      </c>
+      <c r="L130" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C131" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H131" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I131" s="15">
+        <v>460</v>
+      </c>
+      <c r="J131" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K131" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>57.5</v>
+      </c>
+      <c r="L131" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H132" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I132" s="15">
+        <v>460</v>
+      </c>
+      <c r="J132" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K132" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>38.333333333333329</v>
+      </c>
+      <c r="L132" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G133" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H133" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I133" s="15">
+        <v>460</v>
+      </c>
+      <c r="J133" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K133" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>76.666666666666657</v>
+      </c>
+      <c r="L133" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G134" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H134" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I134" s="15">
+        <v>460</v>
+      </c>
+      <c r="J134" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K134" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>76.666666666666657</v>
+      </c>
+      <c r="L134" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G135" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H135" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I135" s="15">
+        <v>460</v>
+      </c>
+      <c r="J135" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K135" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>38.333333333333329</v>
+      </c>
+      <c r="L135" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I136" s="15"/>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I137" s="15"/>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I138" s="15"/>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I139" s="15"/>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I140" s="15"/>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I141" s="15"/>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I142" s="15"/>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I143" s="15"/>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I144" s="15"/>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.25">
@@ -5685,7 +5909,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1338.5387662696621</v>
+        <v>1434.3720996029954</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -5706,7 +5930,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>829.31884391175436</v>
+        <v>886.81884391175436</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -5727,7 +5951,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>294.25369239660279</v>
+        <v>313.42035906326947</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -5748,7 +5972,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>826.14996607869739</v>
+        <v>883.64996607869739</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -5769,7 +5993,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>313.04998869289915</v>
+        <v>351.38332202623246</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -5790,7 +6014,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1101.5332881049296</v>
+        <v>1178.1999547715964</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -5811,7 +6035,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>908.63030303030314</v>
+        <v>985.29696969696977</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -5832,7 +6056,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>231.5151515151515</v>
+        <v>269.84848484848482</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -5857,7 +6081,7 @@
   <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8234,1002 +8458,1472 @@
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D116" s="16"/>
+      <c r="A116" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D116" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E116" s="15">
+        <v>95.833333333333343</v>
+      </c>
+      <c r="F116" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G116" s="15">
+        <v>460</v>
+      </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D117" s="16"/>
+      <c r="A117" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D117" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E117" s="15">
+        <v>57.5</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G117" s="15">
+        <v>460</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D118" s="16"/>
+      <c r="A118" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" s="14">
+        <v>500</v>
+      </c>
+      <c r="D118" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E118" s="15">
+        <v>19.166666666666664</v>
+      </c>
+      <c r="F118" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G118" s="15">
+        <v>460</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D119" s="16"/>
+      <c r="A119" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D119" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E119" s="15">
+        <v>57.5</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G119" s="15">
+        <v>460</v>
+      </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D120" s="16"/>
+      <c r="A120" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D120" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E120" s="15">
+        <v>38.333333333333329</v>
+      </c>
+      <c r="F120" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G120" s="15">
+        <v>460</v>
+      </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D121" s="16"/>
+      <c r="A121" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C121" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D121" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E121" s="15">
+        <v>76.666666666666657</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G121" s="15">
+        <v>460</v>
+      </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D122" s="16"/>
+      <c r="A122" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D122" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E122" s="15">
+        <v>76.666666666666657</v>
+      </c>
+      <c r="F122" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G122" s="15">
+        <v>460</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D123" s="16"/>
+      <c r="A123" s="28">
+        <v>46006</v>
+      </c>
+      <c r="B123" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D123" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E123" s="15">
+        <v>38.333333333333329</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G123" s="15">
+        <v>460</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
+      <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D125" s="16"/>
+      <c r="G125" s="15"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D126" s="16"/>
+      <c r="G126" s="15"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D127" s="16"/>
+      <c r="G127" s="15"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D128" s="16"/>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G128" s="15"/>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D129" s="16"/>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G129" s="15"/>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D130" s="16"/>
-    </row>
-    <row r="131" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G130" s="15"/>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D131" s="16"/>
-    </row>
-    <row r="132" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G131" s="15"/>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D132" s="16"/>
-    </row>
-    <row r="133" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G132" s="15"/>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
-    </row>
-    <row r="134" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G133" s="15"/>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D134" s="16"/>
-    </row>
-    <row r="135" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G134" s="15"/>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D135" s="16"/>
-    </row>
-    <row r="136" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G135" s="15"/>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D136" s="16"/>
-    </row>
-    <row r="137" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G136" s="15"/>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D137" s="16"/>
-    </row>
-    <row r="138" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G137" s="15"/>
+    </row>
+    <row r="138" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D138" s="16"/>
-    </row>
-    <row r="139" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G138" s="15"/>
+    </row>
+    <row r="139" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D139" s="16"/>
-    </row>
-    <row r="140" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G139" s="15"/>
+    </row>
+    <row r="140" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D140" s="16"/>
-    </row>
-    <row r="141" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G140" s="15"/>
+    </row>
+    <row r="141" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D141" s="16"/>
-    </row>
-    <row r="142" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G141" s="15"/>
+    </row>
+    <row r="142" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
-    </row>
-    <row r="143" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G142" s="15"/>
+    </row>
+    <row r="143" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D143" s="16"/>
-    </row>
-    <row r="144" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G143" s="15"/>
+    </row>
+    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D144" s="16"/>
-    </row>
-    <row r="145" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G144" s="15"/>
+    </row>
+    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D145" s="16"/>
-    </row>
-    <row r="146" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G145" s="15"/>
+    </row>
+    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D146" s="16"/>
-    </row>
-    <row r="147" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G146" s="15"/>
+    </row>
+    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D147" s="16"/>
-    </row>
-    <row r="148" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G147" s="15"/>
+    </row>
+    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D148" s="16"/>
-    </row>
-    <row r="149" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G148" s="15"/>
+    </row>
+    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D149" s="16"/>
-    </row>
-    <row r="150" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G149" s="15"/>
+    </row>
+    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D150" s="16"/>
-    </row>
-    <row r="151" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G150" s="15"/>
+    </row>
+    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
-    </row>
-    <row r="152" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G151" s="15"/>
+    </row>
+    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D152" s="16"/>
-    </row>
-    <row r="153" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G152" s="15"/>
+    </row>
+    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D153" s="16"/>
-    </row>
-    <row r="154" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G153" s="15"/>
+    </row>
+    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D154" s="16"/>
-    </row>
-    <row r="155" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G154" s="15"/>
+    </row>
+    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D155" s="16"/>
-    </row>
-    <row r="156" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G155" s="15"/>
+    </row>
+    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D156" s="16"/>
-    </row>
-    <row r="157" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G156" s="15"/>
+    </row>
+    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D157" s="16"/>
-    </row>
-    <row r="158" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G157" s="15"/>
+    </row>
+    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D158" s="16"/>
-    </row>
-    <row r="159" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G158" s="15"/>
+    </row>
+    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D159" s="16"/>
-    </row>
-    <row r="160" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G159" s="15"/>
+    </row>
+    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
-    </row>
-    <row r="161" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G160" s="15"/>
+    </row>
+    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D161" s="16"/>
-    </row>
-    <row r="162" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G161" s="15"/>
+    </row>
+    <row r="162" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D162" s="16"/>
-    </row>
-    <row r="163" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G162" s="15"/>
+    </row>
+    <row r="163" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D163" s="16"/>
-    </row>
-    <row r="164" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G163" s="15"/>
+    </row>
+    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D164" s="16"/>
-    </row>
-    <row r="165" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G164" s="15"/>
+    </row>
+    <row r="165" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D165" s="16"/>
-    </row>
-    <row r="166" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G165" s="15"/>
+    </row>
+    <row r="166" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D166" s="16"/>
-    </row>
-    <row r="167" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G166" s="15"/>
+    </row>
+    <row r="167" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D167" s="16"/>
-    </row>
-    <row r="168" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G167" s="15"/>
+    </row>
+    <row r="168" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D168" s="16"/>
-    </row>
-    <row r="169" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G168" s="15"/>
+    </row>
+    <row r="169" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
-    </row>
-    <row r="170" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G169" s="15"/>
+    </row>
+    <row r="170" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D170" s="16"/>
-    </row>
-    <row r="171" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G170" s="15"/>
+    </row>
+    <row r="171" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D171" s="16"/>
-    </row>
-    <row r="172" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G171" s="15"/>
+    </row>
+    <row r="172" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D172" s="16"/>
-    </row>
-    <row r="173" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G172" s="15"/>
+    </row>
+    <row r="173" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D173" s="16"/>
-    </row>
-    <row r="174" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G173" s="15"/>
+    </row>
+    <row r="174" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D174" s="16"/>
-    </row>
-    <row r="175" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G174" s="15"/>
+    </row>
+    <row r="175" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D175" s="16"/>
-    </row>
-    <row r="176" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G175" s="15"/>
+    </row>
+    <row r="176" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D176" s="16"/>
-    </row>
-    <row r="177" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G176" s="15"/>
+    </row>
+    <row r="177" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D177" s="16"/>
-    </row>
-    <row r="178" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G177" s="15"/>
+    </row>
+    <row r="178" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
-    </row>
-    <row r="179" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G178" s="15"/>
+    </row>
+    <row r="179" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D179" s="16"/>
-    </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G179" s="15"/>
+    </row>
+    <row r="180" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D180" s="16"/>
-    </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G180" s="15"/>
+    </row>
+    <row r="181" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D181" s="16"/>
-    </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G181" s="15"/>
+    </row>
+    <row r="182" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D182" s="16"/>
-    </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G182" s="15"/>
+    </row>
+    <row r="183" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D183" s="16"/>
-    </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G183" s="15"/>
+    </row>
+    <row r="184" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D184" s="16"/>
-    </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G184" s="15"/>
+    </row>
+    <row r="185" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D185" s="16"/>
-    </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G185" s="15"/>
+    </row>
+    <row r="186" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D186" s="16"/>
-    </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G186" s="15"/>
+    </row>
+    <row r="187" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
-    </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G187" s="15"/>
+    </row>
+    <row r="188" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D188" s="16"/>
-    </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G188" s="15"/>
+    </row>
+    <row r="189" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D189" s="16"/>
-    </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G189" s="15"/>
+    </row>
+    <row r="190" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D190" s="16"/>
-    </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G190" s="15"/>
+    </row>
+    <row r="191" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D191" s="16"/>
-    </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G191" s="15"/>
+    </row>
+    <row r="192" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D192" s="16"/>
-    </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G192" s="15"/>
+    </row>
+    <row r="193" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D193" s="16"/>
-    </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G193" s="15"/>
+    </row>
+    <row r="194" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D194" s="16"/>
-    </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G194" s="15"/>
+    </row>
+    <row r="195" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D195" s="16"/>
-    </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G195" s="15"/>
+    </row>
+    <row r="196" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
-    </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G196" s="15"/>
+    </row>
+    <row r="197" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D197" s="16"/>
-    </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G197" s="15"/>
+    </row>
+    <row r="198" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D198" s="16"/>
-    </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G198" s="15"/>
+    </row>
+    <row r="199" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D199" s="16"/>
-    </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G199" s="15"/>
+    </row>
+    <row r="200" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D200" s="16"/>
-    </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G200" s="15"/>
+    </row>
+    <row r="201" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D201" s="16"/>
-    </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G201" s="15"/>
+    </row>
+    <row r="202" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D202" s="16"/>
-    </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G202" s="15"/>
+    </row>
+    <row r="203" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D203" s="16"/>
-    </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G203" s="15"/>
+    </row>
+    <row r="204" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D204" s="16"/>
-    </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G204" s="15"/>
+    </row>
+    <row r="205" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
-    </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G205" s="15"/>
+    </row>
+    <row r="206" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D206" s="16"/>
-    </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G206" s="15"/>
+    </row>
+    <row r="207" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D207" s="16"/>
-    </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G207" s="15"/>
+    </row>
+    <row r="208" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D208" s="16"/>
-    </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G208" s="15"/>
+    </row>
+    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D209" s="16"/>
-    </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G209" s="15"/>
+    </row>
+    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D210" s="16"/>
-    </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G210" s="15"/>
+    </row>
+    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D211" s="16"/>
-    </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G211" s="15"/>
+    </row>
+    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D212" s="16"/>
-    </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G212" s="15"/>
+    </row>
+    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D213" s="16"/>
-    </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G213" s="15"/>
+    </row>
+    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
-    </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G214" s="15"/>
+    </row>
+    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D215" s="16"/>
-    </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G215" s="15"/>
+    </row>
+    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D216" s="16"/>
-    </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G216" s="15"/>
+    </row>
+    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D217" s="16"/>
-    </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G217" s="15"/>
+    </row>
+    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D218" s="16"/>
-    </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G218" s="15"/>
+    </row>
+    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D219" s="16"/>
-    </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G219" s="15"/>
+    </row>
+    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D220" s="16"/>
-    </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G220" s="15"/>
+    </row>
+    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D221" s="16"/>
-    </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G221" s="15"/>
+    </row>
+    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D222" s="16"/>
-    </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G222" s="15"/>
+    </row>
+    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
-    </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G223" s="15"/>
+    </row>
+    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D224" s="16"/>
-    </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G224" s="15"/>
+    </row>
+    <row r="225" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D225" s="16"/>
-    </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G225" s="15"/>
+    </row>
+    <row r="226" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D226" s="16"/>
-    </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G226" s="15"/>
+    </row>
+    <row r="227" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D227" s="16"/>
-    </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G227" s="15"/>
+    </row>
+    <row r="228" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D228" s="16"/>
-    </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G228" s="15"/>
+    </row>
+    <row r="229" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D229" s="16"/>
-    </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G229" s="15"/>
+    </row>
+    <row r="230" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D230" s="16"/>
-    </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G230" s="15"/>
+    </row>
+    <row r="231" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D231" s="16"/>
-    </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G231" s="15"/>
+    </row>
+    <row r="232" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
-    </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G232" s="15"/>
+    </row>
+    <row r="233" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D233" s="16"/>
-    </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G233" s="15"/>
+    </row>
+    <row r="234" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D234" s="16"/>
-    </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G234" s="15"/>
+    </row>
+    <row r="235" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D235" s="16"/>
-    </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G235" s="15"/>
+    </row>
+    <row r="236" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D236" s="16"/>
-    </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G236" s="15"/>
+    </row>
+    <row r="237" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D237" s="16"/>
-    </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G237" s="15"/>
+    </row>
+    <row r="238" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D238" s="16"/>
-    </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G238" s="15"/>
+    </row>
+    <row r="239" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D239" s="16"/>
-    </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G239" s="15"/>
+    </row>
+    <row r="240" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D240" s="16"/>
-    </row>
-    <row r="241" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G240" s="15"/>
+    </row>
+    <row r="241" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
-    </row>
-    <row r="242" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G241" s="15"/>
+    </row>
+    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D242" s="16"/>
-    </row>
-    <row r="243" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G242" s="15"/>
+    </row>
+    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D243" s="16"/>
-    </row>
-    <row r="244" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G243" s="15"/>
+    </row>
+    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D244" s="16"/>
-    </row>
-    <row r="245" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G244" s="15"/>
+    </row>
+    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D245" s="16"/>
-    </row>
-    <row r="246" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G245" s="15"/>
+    </row>
+    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D246" s="16"/>
-    </row>
-    <row r="247" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G246" s="15"/>
+    </row>
+    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D247" s="16"/>
-    </row>
-    <row r="248" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G247" s="15"/>
+    </row>
+    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D248" s="16"/>
-    </row>
-    <row r="249" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G248" s="15"/>
+    </row>
+    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D249" s="16"/>
-    </row>
-    <row r="250" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G249" s="15"/>
+    </row>
+    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
-    </row>
-    <row r="251" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G250" s="15"/>
+    </row>
+    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D251" s="16"/>
-    </row>
-    <row r="252" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G251" s="15"/>
+    </row>
+    <row r="252" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D252" s="16"/>
-    </row>
-    <row r="253" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G252" s="15"/>
+    </row>
+    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D253" s="16"/>
-    </row>
-    <row r="254" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G253" s="15"/>
+    </row>
+    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D254" s="16"/>
-    </row>
-    <row r="255" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G254" s="15"/>
+    </row>
+    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D255" s="16"/>
-    </row>
-    <row r="256" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G255" s="15"/>
+    </row>
+    <row r="256" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D256" s="16"/>
-    </row>
-    <row r="257" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G256" s="15"/>
+    </row>
+    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D257" s="16"/>
-    </row>
-    <row r="258" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G257" s="15"/>
+    </row>
+    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D258" s="16"/>
-    </row>
-    <row r="259" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G258" s="15"/>
+    </row>
+    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
-    </row>
-    <row r="260" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G259" s="15"/>
+    </row>
+    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D260" s="16"/>
-    </row>
-    <row r="261" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G260" s="15"/>
+    </row>
+    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D261" s="16"/>
-    </row>
-    <row r="262" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G261" s="15"/>
+    </row>
+    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D262" s="16"/>
-    </row>
-    <row r="263" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G262" s="15"/>
+    </row>
+    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D263" s="16"/>
-    </row>
-    <row r="264" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G263" s="15"/>
+    </row>
+    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D264" s="16"/>
-    </row>
-    <row r="265" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G264" s="15"/>
+    </row>
+    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D265" s="16"/>
-    </row>
-    <row r="266" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G265" s="15"/>
+    </row>
+    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D266" s="16"/>
-    </row>
-    <row r="267" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G266" s="15"/>
+    </row>
+    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D267" s="16"/>
-    </row>
-    <row r="268" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G267" s="15"/>
+    </row>
+    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D268" s="16"/>
-    </row>
-    <row r="269" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G268" s="15"/>
+    </row>
+    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
-    </row>
-    <row r="270" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G269" s="15"/>
+    </row>
+    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D270" s="16"/>
-    </row>
-    <row r="271" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G270" s="15"/>
+    </row>
+    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D271" s="16"/>
-    </row>
-    <row r="272" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G271" s="15"/>
+    </row>
+    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D272" s="16"/>
-    </row>
-    <row r="273" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G272" s="15"/>
+    </row>
+    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D273" s="16"/>
-    </row>
-    <row r="274" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G273" s="15"/>
+    </row>
+    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D274" s="16"/>
-    </row>
-    <row r="275" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G274" s="15"/>
+    </row>
+    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D275" s="16"/>
-    </row>
-    <row r="276" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G275" s="15"/>
+    </row>
+    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D276" s="16"/>
-    </row>
-    <row r="277" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G276" s="15"/>
+    </row>
+    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D277" s="16"/>
-    </row>
-    <row r="278" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G277" s="15"/>
+    </row>
+    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D278" s="16"/>
-    </row>
-    <row r="279" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G278" s="15"/>
+    </row>
+    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
-    </row>
-    <row r="280" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G279" s="15"/>
+    </row>
+    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D280" s="16"/>
-    </row>
-    <row r="281" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G280" s="15"/>
+    </row>
+    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D281" s="16"/>
-    </row>
-    <row r="282" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G281" s="15"/>
+    </row>
+    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D282" s="16"/>
-    </row>
-    <row r="283" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G282" s="15"/>
+    </row>
+    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D283" s="16"/>
-    </row>
-    <row r="284" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G283" s="15"/>
+    </row>
+    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D284" s="16"/>
-    </row>
-    <row r="285" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G284" s="15"/>
+    </row>
+    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D285" s="16"/>
-    </row>
-    <row r="286" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G285" s="15"/>
+    </row>
+    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D286" s="16"/>
-    </row>
-    <row r="287" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G286" s="15"/>
+    </row>
+    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
-    </row>
-    <row r="288" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G287" s="15"/>
+    </row>
+    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D288" s="16"/>
-    </row>
-    <row r="289" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G288" s="15"/>
+    </row>
+    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
-    </row>
-    <row r="290" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G289" s="15"/>
+    </row>
+    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
-    </row>
-    <row r="291" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G290" s="15"/>
+    </row>
+    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
-    </row>
-    <row r="292" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G291" s="15"/>
+    </row>
+    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
-    </row>
-    <row r="293" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G292" s="15"/>
+    </row>
+    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
-    </row>
-    <row r="294" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G293" s="15"/>
+    </row>
+    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
-    </row>
-    <row r="295" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G294" s="15"/>
+    </row>
+    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
-    </row>
-    <row r="296" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G295" s="15"/>
+    </row>
+    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
-    </row>
-    <row r="297" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G296" s="15"/>
+    </row>
+    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
-    </row>
-    <row r="298" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G297" s="15"/>
+    </row>
+    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
-    </row>
-    <row r="299" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G298" s="15"/>
+    </row>
+    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
-    </row>
-    <row r="300" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G299" s="15"/>
+    </row>
+    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
-    </row>
-    <row r="301" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G300" s="15"/>
+    </row>
+    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
-    </row>
-    <row r="302" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G301" s="15"/>
+    </row>
+    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
-    </row>
-    <row r="303" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G302" s="15"/>
+    </row>
+    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
-    </row>
-    <row r="304" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G303" s="15"/>
+    </row>
+    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
-    </row>
-    <row r="305" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G304" s="15"/>
+    </row>
+    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
-    </row>
-    <row r="306" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G305" s="15"/>
+    </row>
+    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
-    </row>
-    <row r="307" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G306" s="15"/>
+    </row>
+    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
-    </row>
-    <row r="308" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G307" s="15"/>
+    </row>
+    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
-    </row>
-    <row r="309" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G308" s="15"/>
+    </row>
+    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
-    </row>
-    <row r="310" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G309" s="15"/>
+    </row>
+    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
-    </row>
-    <row r="311" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G310" s="15"/>
+    </row>
+    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
-    </row>
-    <row r="312" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G311" s="15"/>
+    </row>
+    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
-    </row>
-    <row r="313" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G312" s="15"/>
+    </row>
+    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
-    </row>
-    <row r="314" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G313" s="15"/>
+    </row>
+    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
-    </row>
-    <row r="315" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G314" s="15"/>
+    </row>
+    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
-    </row>
-    <row r="316" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G315" s="15"/>
+    </row>
+    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
-    </row>
-    <row r="317" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G316" s="15"/>
+    </row>
+    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
-    </row>
-    <row r="318" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G317" s="15"/>
+    </row>
+    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
-    </row>
-    <row r="319" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G318" s="15"/>
+    </row>
+    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
-    </row>
-    <row r="320" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G319" s="15"/>
+    </row>
+    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
-    </row>
-    <row r="321" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G320" s="15"/>
+    </row>
+    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
-    </row>
-    <row r="322" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G321" s="15"/>
+    </row>
+    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
-    </row>
-    <row r="323" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G322" s="15"/>
+    </row>
+    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
-    </row>
-    <row r="324" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G323" s="15"/>
+    </row>
+    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
-    </row>
-    <row r="325" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G324" s="15"/>
+    </row>
+    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
-    </row>
-    <row r="326" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G325" s="15"/>
+    </row>
+    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
-    </row>
-    <row r="327" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G326" s="15"/>
+    </row>
+    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
-    </row>
-    <row r="328" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G327" s="15"/>
+    </row>
+    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
-    </row>
-    <row r="329" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G328" s="15"/>
+    </row>
+    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
-    </row>
-    <row r="330" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G329" s="15"/>
+    </row>
+    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
-    </row>
-    <row r="331" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G330" s="15"/>
+    </row>
+    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
-    </row>
-    <row r="332" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G331" s="15"/>
+    </row>
+    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
-    </row>
-    <row r="333" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G332" s="15"/>
+    </row>
+    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
-    </row>
-    <row r="334" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G333" s="15"/>
+    </row>
+    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
-    </row>
-    <row r="335" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G334" s="15"/>
+    </row>
+    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
-    </row>
-    <row r="336" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G335" s="15"/>
+    </row>
+    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
-    </row>
-    <row r="337" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G336" s="15"/>
+    </row>
+    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
-    </row>
-    <row r="338" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G337" s="15"/>
+    </row>
+    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
-    </row>
-    <row r="339" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G338" s="15"/>
+    </row>
+    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
-    </row>
-    <row r="340" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G339" s="15"/>
+    </row>
+    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
-    </row>
-    <row r="341" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G340" s="15"/>
+    </row>
+    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
-    </row>
-    <row r="342" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G341" s="15"/>
+    </row>
+    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
-    </row>
-    <row r="343" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G342" s="15"/>
+    </row>
+    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
-    </row>
-    <row r="344" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G343" s="15"/>
+    </row>
+    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
-    </row>
-    <row r="345" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G344" s="15"/>
+    </row>
+    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
-    </row>
-    <row r="346" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G345" s="15"/>
+    </row>
+    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
-    </row>
-    <row r="347" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G346" s="15"/>
+    </row>
+    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
-    </row>
-    <row r="348" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G347" s="15"/>
+    </row>
+    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
-    </row>
-    <row r="349" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G348" s="15"/>
+    </row>
+    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
-    </row>
-    <row r="350" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G349" s="15"/>
+    </row>
+    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
-    </row>
-    <row r="351" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G350" s="15"/>
+    </row>
+    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
-    </row>
-    <row r="352" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G351" s="15"/>
+    </row>
+    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
-    </row>
-    <row r="353" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G352" s="15"/>
+    </row>
+    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
-    </row>
-    <row r="354" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G353" s="15"/>
+    </row>
+    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
-    </row>
-    <row r="355" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G354" s="15"/>
+    </row>
+    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
-    </row>
-    <row r="356" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G355" s="15"/>
+    </row>
+    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
-    </row>
-    <row r="357" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G356" s="15"/>
+    </row>
+    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
-    </row>
-    <row r="358" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G357" s="15"/>
+    </row>
+    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
-    </row>
-    <row r="359" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G358" s="15"/>
+    </row>
+    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
-    </row>
-    <row r="360" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G359" s="15"/>
+    </row>
+    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
-    </row>
-    <row r="361" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G360" s="15"/>
+    </row>
+    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
-    </row>
-    <row r="362" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G361" s="15"/>
+    </row>
+    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
-    </row>
-    <row r="363" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G362" s="15"/>
+    </row>
+    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
-    </row>
-    <row r="364" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G363" s="15"/>
+    </row>
+    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
-    </row>
-    <row r="365" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G364" s="15"/>
+    </row>
+    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
-    </row>
-    <row r="366" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G365" s="15"/>
+    </row>
+    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
-    </row>
-    <row r="367" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G366" s="15"/>
+    </row>
+    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
-    </row>
-    <row r="368" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G367" s="15"/>
+    </row>
+    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
-    </row>
-    <row r="369" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G368" s="15"/>
+    </row>
+    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
-    </row>
-    <row r="370" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G369" s="15"/>
+    </row>
+    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
-    </row>
-    <row r="371" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G370" s="15"/>
+    </row>
+    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
-    </row>
-    <row r="372" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G371" s="15"/>
+    </row>
+    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
-    </row>
-    <row r="373" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G372" s="15"/>
+    </row>
+    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
-    </row>
-    <row r="374" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G373" s="15"/>
+    </row>
+    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
-    </row>
-    <row r="375" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G374" s="15"/>
+    </row>
+    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
-    </row>
-    <row r="376" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G375" s="15"/>
+    </row>
+    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
-    </row>
-    <row r="377" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G376" s="15"/>
+    </row>
+    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
-    </row>
-    <row r="378" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G377" s="15"/>
+    </row>
+    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
-    </row>
-    <row r="379" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G378" s="15"/>
+    </row>
+    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
-    </row>
-    <row r="380" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G379" s="15"/>
+    </row>
+    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
-    </row>
-    <row r="381" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G380" s="15"/>
+    </row>
+    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
-    </row>
-    <row r="382" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G381" s="15"/>
+    </row>
+    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
-    </row>
-    <row r="383" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G382" s="15"/>
+    </row>
+    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
-    </row>
-    <row r="384" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G383" s="15"/>
+    </row>
+    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
-    </row>
-    <row r="385" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G384" s="15"/>
+    </row>
+    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
-    </row>
-    <row r="386" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G385" s="15"/>
+    </row>
+    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
-    </row>
-    <row r="387" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G386" s="15"/>
+    </row>
+    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
-    </row>
-    <row r="388" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G387" s="15"/>
+    </row>
+    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
-    </row>
-    <row r="389" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G388" s="15"/>
+    </row>
+    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
-    </row>
-    <row r="390" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G389" s="15"/>
+    </row>
+    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
-    </row>
-    <row r="391" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G390" s="15"/>
+    </row>
+    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
-    </row>
-    <row r="392" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G391" s="15"/>
+    </row>
+    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
-    </row>
-    <row r="393" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G392" s="15"/>
+    </row>
+    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
-    </row>
-    <row r="394" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G393" s="15"/>
+    </row>
+    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
-    </row>
-    <row r="395" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G394" s="15"/>
+    </row>
+    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
-    </row>
-    <row r="396" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G395" s="15"/>
+    </row>
+    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
-    </row>
-    <row r="397" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G396" s="15"/>
+    </row>
+    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
-    </row>
-    <row r="398" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G397" s="15"/>
+    </row>
+    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
-    </row>
-    <row r="399" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G398" s="15"/>
+    </row>
+    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
-    </row>
-    <row r="400" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G399" s="15"/>
+    </row>
+    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
-    </row>
-    <row r="401" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G400" s="15"/>
+    </row>
+    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
-    </row>
-    <row r="402" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G401" s="15"/>
+    </row>
+    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
-    </row>
-    <row r="403" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G402" s="15"/>
+    </row>
+    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
-    </row>
-    <row r="404" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G403" s="15"/>
+    </row>
+    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
-    </row>
-    <row r="405" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G404" s="15"/>
+    </row>
+    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
-    </row>
-    <row r="406" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G405" s="15"/>
+    </row>
+    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
-    </row>
-    <row r="407" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G406" s="15"/>
+    </row>
+    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
-    </row>
-    <row r="408" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G407" s="15"/>
+    </row>
+    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
-    </row>
-    <row r="409" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G408" s="15"/>
+    </row>
+    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
-    </row>
-    <row r="410" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G409" s="15"/>
+    </row>
+    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
-    </row>
-    <row r="411" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G410" s="15"/>
+    </row>
+    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
-    </row>
-    <row r="412" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G411" s="15"/>
+    </row>
+    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
-    </row>
-    <row r="413" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G412" s="15"/>
+    </row>
+    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
-    </row>
-    <row r="414" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G413" s="15"/>
+    </row>
+    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
-    </row>
-    <row r="415" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G414" s="15"/>
+    </row>
+    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
-    </row>
-    <row r="416" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G415" s="15"/>
+    </row>
+    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
-    </row>
-    <row r="417" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G416" s="15"/>
+    </row>
+    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
-    </row>
-    <row r="418" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G417" s="15"/>
+    </row>
+    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
-    </row>
-    <row r="419" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G418" s="15"/>
+    </row>
+    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
-    </row>
-    <row r="420" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G419" s="15"/>
+    </row>
+    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
-    </row>
-    <row r="421" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G420" s="15"/>
+    </row>
+    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
-    </row>
-    <row r="422" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G421" s="15"/>
+    </row>
+    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
-    </row>
-    <row r="423" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G422" s="15"/>
+    </row>
+    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
-    </row>
-    <row r="424" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G423" s="15"/>
+    </row>
+    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
-    </row>
-    <row r="425" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G424" s="15"/>
+    </row>
+    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
-    </row>
-    <row r="426" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G425" s="15"/>
+    </row>
+    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
-    </row>
-    <row r="427" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G426" s="15"/>
+    </row>
+    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
-    </row>
-    <row r="428" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G427" s="15"/>
+    </row>
+    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
-    </row>
-    <row r="429" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G428" s="15"/>
+    </row>
+    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
-    </row>
-    <row r="430" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G429" s="15"/>
+    </row>
+    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
-    </row>
-    <row r="431" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G430" s="15"/>
+    </row>
+    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
-    </row>
-    <row r="432" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G431" s="15"/>
+    </row>
+    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
-    </row>
-    <row r="433" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G432" s="15"/>
+    </row>
+    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
-    </row>
-    <row r="434" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="G433" s="15"/>
+    </row>
+    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
     <row r="449" spans="4:4" x14ac:dyDescent="0.25">

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="79">
   <si>
     <t>UserID</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Aathithya</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="D108" workbookViewId="0">
-      <selection activeCell="I130" sqref="I130"/>
+    <sheetView tabSelected="1" topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="L128" sqref="L128:L135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4192,7 +4189,7 @@
         <v>97.916666666666671</v>
       </c>
       <c r="L110" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4223,7 +4220,7 @@
         <v>58.75</v>
       </c>
       <c r="L111" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
@@ -4254,7 +4251,7 @@
         <v>19.583333333333332</v>
       </c>
       <c r="L112" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
@@ -4285,7 +4282,7 @@
         <v>58.75</v>
       </c>
       <c r="L113" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
@@ -4325,7 +4322,7 @@
         <v>39.166666666666664</v>
       </c>
       <c r="L114" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
@@ -4356,7 +4353,7 @@
         <v>78.333333333333329</v>
       </c>
       <c r="L115" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
@@ -4387,7 +4384,7 @@
         <v>78.333333333333329</v>
       </c>
       <c r="L116" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
@@ -4418,7 +4415,7 @@
         <v>39.166666666666664</v>
       </c>
       <c r="L117" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
@@ -4452,7 +4449,7 @@
         <v>90.416666666666671</v>
       </c>
       <c r="L119" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
@@ -4483,7 +4480,7 @@
         <v>54.25</v>
       </c>
       <c r="L120" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
@@ -4514,7 +4511,7 @@
         <v>18.083333333333332</v>
       </c>
       <c r="L121" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -4545,7 +4542,7 @@
         <v>54.25</v>
       </c>
       <c r="L122" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
@@ -4576,7 +4573,7 @@
         <v>36.166666666666664</v>
       </c>
       <c r="L123" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
@@ -4607,7 +4604,7 @@
         <v>72.333333333333329</v>
       </c>
       <c r="L124" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
@@ -4638,7 +4635,7 @@
         <v>72.333333333333329</v>
       </c>
       <c r="L125" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -4669,7 +4666,7 @@
         <v>36.166666666666664</v>
       </c>
       <c r="L126" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
@@ -4703,7 +4700,7 @@
         <v>95.833333333333343</v>
       </c>
       <c r="L128" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
@@ -4734,7 +4731,7 @@
         <v>57.5</v>
       </c>
       <c r="L129" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -4765,7 +4762,7 @@
         <v>19.166666666666664</v>
       </c>
       <c r="L130" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -4796,7 +4793,7 @@
         <v>57.5</v>
       </c>
       <c r="L131" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
@@ -4827,7 +4824,7 @@
         <v>38.333333333333329</v>
       </c>
       <c r="L132" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -4858,7 +4855,7 @@
         <v>76.666666666666657</v>
       </c>
       <c r="L133" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -4889,7 +4886,7 @@
         <v>76.666666666666657</v>
       </c>
       <c r="L134" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -4920,7 +4917,7 @@
         <v>38.333333333333329</v>
       </c>
       <c r="L135" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -5861,7 +5858,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6080,8 +6077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8099,7 +8096,7 @@
         <v>97.916666666666671</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G98" s="15">
         <v>470</v>
@@ -8122,7 +8119,7 @@
         <v>58.75</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G99" s="15">
         <v>470</v>
@@ -8145,7 +8142,7 @@
         <v>19.583333333333332</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G100" s="15">
         <v>470</v>
@@ -8168,7 +8165,7 @@
         <v>58.75</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G101" s="15">
         <v>470</v>
@@ -8191,7 +8188,7 @@
         <v>39.166666666666664</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G102" s="15">
         <v>470</v>
@@ -8214,7 +8211,7 @@
         <v>78.333333333333329</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G103" s="15">
         <v>470</v>
@@ -8237,7 +8234,7 @@
         <v>78.333333333333329</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G104" s="15">
         <v>470</v>
@@ -8260,7 +8257,7 @@
         <v>39.166666666666664</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G105" s="15">
         <v>470</v>
@@ -8287,7 +8284,7 @@
         <v>90.416666666666671</v>
       </c>
       <c r="F107" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G107" s="15">
         <v>434</v>
@@ -8310,7 +8307,7 @@
         <v>54.25</v>
       </c>
       <c r="F108" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G108" s="15">
         <v>434</v>
@@ -8333,7 +8330,7 @@
         <v>18.083333333333332</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G109" s="15">
         <v>434</v>
@@ -8356,7 +8353,7 @@
         <v>54.25</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G110" s="15">
         <v>434</v>
@@ -8379,7 +8376,7 @@
         <v>36.166666666666664</v>
       </c>
       <c r="F111" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G111" s="15">
         <v>434</v>
@@ -8402,7 +8399,7 @@
         <v>72.333333333333329</v>
       </c>
       <c r="F112" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G112" s="15">
         <v>434</v>
@@ -8425,7 +8422,7 @@
         <v>72.333333333333329</v>
       </c>
       <c r="F113" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G113" s="15">
         <v>434</v>
@@ -8448,7 +8445,7 @@
         <v>36.166666666666664</v>
       </c>
       <c r="F114" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G114" s="15">
         <v>434</v>
@@ -8474,7 +8471,7 @@
         <v>95.833333333333343</v>
       </c>
       <c r="F116" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G116" s="15">
         <v>460</v>
@@ -8497,7 +8494,7 @@
         <v>57.5</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G117" s="15">
         <v>460</v>
@@ -8520,7 +8517,7 @@
         <v>19.166666666666664</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G118" s="15">
         <v>460</v>
@@ -8543,7 +8540,7 @@
         <v>57.5</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G119" s="15">
         <v>460</v>
@@ -8566,7 +8563,7 @@
         <v>38.333333333333329</v>
       </c>
       <c r="F120" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G120" s="15">
         <v>460</v>
@@ -8589,7 +8586,7 @@
         <v>76.666666666666657</v>
       </c>
       <c r="F121" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G121" s="15">
         <v>460</v>
@@ -8612,7 +8609,7 @@
         <v>76.666666666666657</v>
       </c>
       <c r="F122" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G122" s="15">
         <v>460</v>
@@ -8635,7 +8632,7 @@
         <v>38.333333333333329</v>
       </c>
       <c r="F123" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G123" s="15">
         <v>460</v>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Aathithya</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1016,14 +1019,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D109" workbookViewId="0">
-      <selection activeCell="L128" sqref="L128:L135"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="H139" sqref="H139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.42578125" style="14" customWidth="1"/>
-    <col min="3" max="6" width="20.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="11" style="14" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" style="14" customWidth="1"/>
     <col min="7" max="7" width="26" style="14" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="14" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="14" customWidth="1"/>
@@ -4924,28 +4929,252 @@
       <c r="I136" s="15"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I137" s="15"/>
+      <c r="A137" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H137" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I137" s="15">
+        <v>341</v>
+      </c>
+      <c r="J137" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K137" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>71.041666666666671</v>
+      </c>
+      <c r="L137" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I138" s="15"/>
+      <c r="A138" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G138" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H138" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I138" s="15">
+        <v>341</v>
+      </c>
+      <c r="J138" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K138" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>42.625</v>
+      </c>
+      <c r="L138" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I139" s="15"/>
+      <c r="A139" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G139" s="14">
+        <v>500</v>
+      </c>
+      <c r="H139" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I139" s="15">
+        <v>341</v>
+      </c>
+      <c r="J139" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K139" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>14.208333333333332</v>
+      </c>
+      <c r="L139" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I140" s="15"/>
+      <c r="A140" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H140" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I140" s="15">
+        <v>341</v>
+      </c>
+      <c r="J140" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K140" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>42.625</v>
+      </c>
+      <c r="L140" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I141" s="15"/>
+      <c r="A141" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H141" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I141" s="15">
+        <v>341</v>
+      </c>
+      <c r="J141" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K141" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>28.416666666666664</v>
+      </c>
+      <c r="L141" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I142" s="15"/>
+      <c r="A142" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C142" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G142" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H142" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I142" s="15">
+        <v>341</v>
+      </c>
+      <c r="J142" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K142" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>56.833333333333329</v>
+      </c>
+      <c r="L142" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I143" s="15"/>
+      <c r="A143" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C143" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G143" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H143" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I143" s="15">
+        <v>341</v>
+      </c>
+      <c r="J143" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K143" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>56.833333333333329</v>
+      </c>
+      <c r="L143" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I144" s="15"/>
+      <c r="A144" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C144" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G144" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H144" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I144" s="15">
+        <v>341</v>
+      </c>
+      <c r="J144" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K144" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>28.416666666666664</v>
+      </c>
+      <c r="L144" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="145" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I145" s="15"/>
@@ -5906,7 +6135,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1434.3720996029954</v>
+        <v>1505.4137662696621</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -5927,7 +6156,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>886.81884391175436</v>
+        <v>929.44384391175436</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -5948,7 +6177,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>313.42035906326947</v>
+        <v>327.62869239660279</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -5969,7 +6198,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>883.64996607869739</v>
+        <v>926.27496607869739</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -5990,7 +6219,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>351.38332202623246</v>
+        <v>379.79998869289915</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -6011,7 +6240,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1178.1999547715964</v>
+        <v>1235.0332881049296</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -6032,7 +6261,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>985.29696969696977</v>
+        <v>1042.1303030303031</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -6053,7 +6282,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>269.84848484848482</v>
+        <v>298.2651515151515</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -6078,7 +6307,7 @@
   <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+      <selection activeCell="G125" sqref="G125:G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8643,82 +8872,234 @@
       <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D125" s="16"/>
-      <c r="G125" s="15"/>
+      <c r="A125" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B125" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D125" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E125" s="15">
+        <v>71.041666666666671</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G125" s="15">
+        <v>341</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D126" s="16"/>
-      <c r="G126" s="15"/>
+      <c r="A126" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B126" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D126" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E126" s="15">
+        <v>42.625</v>
+      </c>
+      <c r="F126" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G126" s="15">
+        <v>341</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D127" s="16"/>
-      <c r="G127" s="15"/>
+      <c r="A127" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" s="14">
+        <v>500</v>
+      </c>
+      <c r="D127" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E127" s="15">
+        <v>14.208333333333332</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G127" s="15">
+        <v>341</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D128" s="16"/>
-      <c r="G128" s="15"/>
-    </row>
-    <row r="129" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D129" s="16"/>
-      <c r="G129" s="15"/>
-    </row>
-    <row r="130" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D130" s="16"/>
-      <c r="G130" s="15"/>
-    </row>
-    <row r="131" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D131" s="16"/>
-      <c r="G131" s="15"/>
-    </row>
-    <row r="132" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D132" s="16"/>
-      <c r="G132" s="15"/>
-    </row>
-    <row r="133" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B128" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C128" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D128" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E128" s="15">
+        <v>42.625</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G128" s="15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D129" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E129" s="15">
+        <v>28.416666666666664</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G129" s="15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D130" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E130" s="15">
+        <v>56.833333333333329</v>
+      </c>
+      <c r="F130" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G130" s="15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C131" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D131" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E131" s="15">
+        <v>56.833333333333329</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G131" s="15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="28">
+        <v>46007</v>
+      </c>
+      <c r="B132" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C132" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D132" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E132" s="15">
+        <v>28.416666666666664</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G132" s="15">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D134" s="16"/>
       <c r="G134" s="15"/>
     </row>
-    <row r="135" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D135" s="16"/>
       <c r="G135" s="15"/>
     </row>
-    <row r="136" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D136" s="16"/>
       <c r="G136" s="15"/>
     </row>
-    <row r="137" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D137" s="16"/>
       <c r="G137" s="15"/>
     </row>
-    <row r="138" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D138" s="16"/>
       <c r="G138" s="15"/>
     </row>
-    <row r="139" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D139" s="16"/>
       <c r="G139" s="15"/>
     </row>
-    <row r="140" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D140" s="16"/>
       <c r="G140" s="15"/>
     </row>
-    <row r="141" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D141" s="16"/>
       <c r="G141" s="15"/>
     </row>
-    <row r="142" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D143" s="16"/>
       <c r="G143" s="15"/>
     </row>
-    <row r="144" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D144" s="16"/>
       <c r="G144" s="15"/>
     </row>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="H139" sqref="H139"/>
+    <sheetView topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="K146" sqref="K146:K153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5176,52 +5176,276 @@
         <v>79</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I145" s="15"/>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I146" s="15"/>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I147" s="15"/>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I148" s="15"/>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I149" s="15"/>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I150" s="15"/>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I151" s="15"/>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I152" s="15"/>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I153" s="15"/>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A146" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H146" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I146" s="15">
+        <v>346</v>
+      </c>
+      <c r="J146" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K146" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>72.083333333333343</v>
+      </c>
+      <c r="L146" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H147" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I147" s="15">
+        <v>346</v>
+      </c>
+      <c r="J147" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K147" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>43.25</v>
+      </c>
+      <c r="L147" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G148" s="14">
+        <v>500</v>
+      </c>
+      <c r="H148" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I148" s="15">
+        <v>346</v>
+      </c>
+      <c r="J148" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K148" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>14.416666666666666</v>
+      </c>
+      <c r="L148" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C149" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H149" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I149" s="15">
+        <v>346</v>
+      </c>
+      <c r="J149" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K149" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>43.25</v>
+      </c>
+      <c r="L149" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A150" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H150" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I150" s="15">
+        <v>346</v>
+      </c>
+      <c r="J150" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K150" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="L150" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C151" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G151" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H151" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I151" s="15">
+        <v>346</v>
+      </c>
+      <c r="J151" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K151" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>57.666666666666664</v>
+      </c>
+      <c r="L151" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G152" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H152" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I152" s="15">
+        <v>346</v>
+      </c>
+      <c r="J152" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K152" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>57.666666666666664</v>
+      </c>
+      <c r="L152" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C153" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G153" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H153" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I153" s="15">
+        <v>346</v>
+      </c>
+      <c r="J153" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K153" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="L153" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I154" s="15"/>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I155" s="15"/>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I156" s="15"/>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I157" s="15"/>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I158" s="15"/>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I159" s="15"/>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I160" s="15"/>
     </row>
     <row r="161" spans="9:9" x14ac:dyDescent="0.25">
@@ -6135,7 +6359,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1505.4137662696621</v>
+        <v>1577.4970996029954</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -6156,7 +6380,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>929.44384391175436</v>
+        <v>972.69384391175436</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -6177,7 +6401,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>327.62869239660279</v>
+        <v>342.04535906326947</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -6198,7 +6422,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>926.27496607869739</v>
+        <v>969.52496607869739</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -6219,7 +6443,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>379.79998869289915</v>
+        <v>408.63332202623246</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -6240,7 +6464,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1235.0332881049296</v>
+        <v>1292.6999547715964</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -6261,7 +6485,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1042.1303030303031</v>
+        <v>1099.7969696969699</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -6282,7 +6506,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>298.2651515151515</v>
+        <v>327.09848484848482</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -6306,8 +6530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125:G132"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9060,36 +9284,188 @@
       <c r="G133" s="15"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D134" s="16"/>
-      <c r="G134" s="15"/>
+      <c r="A134" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B134" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D134" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E134" s="15">
+        <v>72.083333333333343</v>
+      </c>
+      <c r="F134" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G134" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D135" s="16"/>
-      <c r="G135" s="15"/>
+      <c r="A135" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D135" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E135" s="15">
+        <v>43.25</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G135" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D136" s="16"/>
-      <c r="G136" s="15"/>
+      <c r="A136" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="14">
+        <v>500</v>
+      </c>
+      <c r="D136" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E136" s="15">
+        <v>14.416666666666666</v>
+      </c>
+      <c r="F136" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G136" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D137" s="16"/>
-      <c r="G137" s="15"/>
+      <c r="A137" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D137" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E137" s="15">
+        <v>43.25</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G137" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D138" s="16"/>
-      <c r="G138" s="15"/>
+      <c r="A138" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C138" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D138" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E138" s="15">
+        <v>28.833333333333332</v>
+      </c>
+      <c r="F138" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G138" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D139" s="16"/>
-      <c r="G139" s="15"/>
+      <c r="A139" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D139" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E139" s="15">
+        <v>57.666666666666664</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G139" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D140" s="16"/>
-      <c r="G140" s="15"/>
+      <c r="A140" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C140" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D140" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E140" s="15">
+        <v>57.666666666666664</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G140" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D141" s="16"/>
-      <c r="G141" s="15"/>
+      <c r="A141" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C141" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D141" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E141" s="15">
+        <v>28.833333333333332</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G141" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -453,45 +453,6 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -580,6 +541,17 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -609,6 +581,34 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -652,18 +652,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L5641" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A1:L5640"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Date" dataDxfId="37" totalsRowDxfId="11"/>
-    <tableColumn id="13" name="UserID" dataDxfId="36" totalsRowDxfId="10"/>
-    <tableColumn id="8" name="Name" dataDxfId="35" totalsRowDxfId="9"/>
-    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="34" totalsRowDxfId="8"/>
-    <tableColumn id="17" name="Transaction_ID" dataDxfId="33" totalsRowDxfId="7"/>
-    <tableColumn id="16" name="Transaction_Date" dataDxfId="32" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="31" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="30" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Total_Profit" dataDxfId="29" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Profit_%" dataDxfId="28" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Profit" dataDxfId="27" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="Payment_Status" dataDxfId="26" totalsRowDxfId="0"/>
+    <tableColumn id="9" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="13" name="UserID" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="8" name="Name" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="17" name="Transaction_ID" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="16" name="Transaction_Date" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="10" name="Total_Profit" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="11" name="Profit_%" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="7" name="Profit" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="4" name="Payment_Status" dataDxfId="15" totalsRowDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -677,7 +677,7 @@
     <tableColumn id="2" name="Contact_Name"/>
     <tableColumn id="9" name="Name"/>
     <tableColumn id="3" name="Total_Invested_Amount"/>
-    <tableColumn id="6" name="Total Profit Earned" dataDxfId="25">
+    <tableColumn id="6" name="Total Profit Earned" dataDxfId="13">
       <calculatedColumnFormula>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="UPI"/>
@@ -687,16 +687,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <autoFilter ref="A1:G602"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="19"/>
-    <tableColumn id="2" name="UserID" dataDxfId="18"/>
-    <tableColumn id="3" name="Invest_Amount" dataDxfId="17"/>
-    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="16"/>
-    <tableColumn id="4" name="Profit" dataDxfId="15"/>
-    <tableColumn id="5" name="Payment" dataDxfId="14"/>
-    <tableColumn id="7" name="Total_Profit" dataDxfId="13"/>
+    <tableColumn id="1" name="Date" dataDxfId="7"/>
+    <tableColumn id="2" name="UserID" dataDxfId="6"/>
+    <tableColumn id="3" name="Invest_Amount" dataDxfId="5"/>
+    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="4"/>
+    <tableColumn id="4" name="Profit" dataDxfId="3"/>
+    <tableColumn id="5" name="Payment" dataDxfId="2"/>
+    <tableColumn id="7" name="Total_Profit" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -722,7 +722,7 @@
     <tableColumn id="3" name="Charge_Amt"/>
     <tableColumn id="6" name="Charge_Per_Head"/>
     <tableColumn id="4" name="Paid_Amt"/>
-    <tableColumn id="5" name="Pending_Amt" dataDxfId="12">
+    <tableColumn id="5" name="Pending_Amt" dataDxfId="0">
       <calculatedColumnFormula>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1020,7 +1020,7 @@
   <dimension ref="A1:L5641"/>
   <sheetViews>
     <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="K146" sqref="K146:K153"/>
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6311,7 +6311,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6530,8 +6530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H134" sqref="H134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9112,7 +9112,7 @@
         <v>71.041666666666671</v>
       </c>
       <c r="F125" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G125" s="15">
         <v>341</v>
@@ -9135,7 +9135,7 @@
         <v>42.625</v>
       </c>
       <c r="F126" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G126" s="15">
         <v>341</v>
@@ -9158,7 +9158,7 @@
         <v>14.208333333333332</v>
       </c>
       <c r="F127" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G127" s="15">
         <v>341</v>
@@ -9181,7 +9181,7 @@
         <v>42.625</v>
       </c>
       <c r="F128" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G128" s="15">
         <v>341</v>
@@ -9204,7 +9204,7 @@
         <v>28.416666666666664</v>
       </c>
       <c r="F129" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G129" s="15">
         <v>341</v>
@@ -9227,7 +9227,7 @@
         <v>56.833333333333329</v>
       </c>
       <c r="F130" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G130" s="15">
         <v>341</v>
@@ -9250,7 +9250,7 @@
         <v>56.833333333333329</v>
       </c>
       <c r="F131" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G131" s="15">
         <v>341</v>
@@ -9273,7 +9273,7 @@
         <v>28.416666666666664</v>
       </c>
       <c r="F132" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G132" s="15">
         <v>341</v>
@@ -9300,7 +9300,7 @@
         <v>72.083333333333343</v>
       </c>
       <c r="F134" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G134" s="15">
         <v>346</v>
@@ -9323,7 +9323,7 @@
         <v>43.25</v>
       </c>
       <c r="F135" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G135" s="15">
         <v>346</v>
@@ -9346,7 +9346,7 @@
         <v>14.416666666666666</v>
       </c>
       <c r="F136" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G136" s="15">
         <v>346</v>
@@ -9369,7 +9369,7 @@
         <v>43.25</v>
       </c>
       <c r="F137" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G137" s="15">
         <v>346</v>
@@ -9392,7 +9392,7 @@
         <v>28.833333333333332</v>
       </c>
       <c r="F138" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G138" s="15">
         <v>346</v>
@@ -9415,7 +9415,7 @@
         <v>57.666666666666664</v>
       </c>
       <c r="F139" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G139" s="15">
         <v>346</v>
@@ -9438,7 +9438,7 @@
         <v>57.666666666666664</v>
       </c>
       <c r="F140" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G140" s="15">
         <v>346</v>
@@ -9461,7 +9461,7 @@
         <v>28.833333333333332</v>
       </c>
       <c r="F141" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G141" s="15">
         <v>346</v>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="79">
   <si>
     <t>UserID</t>
   </si>
@@ -257,9 +257,6 @@
   <si>
     <t>Aathithya</t>
   </si>
-  <si>
-    <t>Pending</t>
-  </si>
 </sst>
 </file>
 
@@ -453,6 +450,45 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -541,17 +577,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -581,34 +606,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -652,18 +649,18 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L5641" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A1:L5640"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Date" dataDxfId="37" totalsRowDxfId="36"/>
-    <tableColumn id="13" name="UserID" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="8" name="Name" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="17" name="Transaction_ID" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="16" name="Transaction_Date" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="10" name="Total_Profit" dataDxfId="21" totalsRowDxfId="20"/>
-    <tableColumn id="11" name="Profit_%" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="7" name="Profit" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="4" name="Payment_Status" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="9" name="Date" dataDxfId="37" totalsRowDxfId="11"/>
+    <tableColumn id="13" name="UserID" dataDxfId="36" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="Name" dataDxfId="35" totalsRowDxfId="9"/>
+    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="34" totalsRowDxfId="8"/>
+    <tableColumn id="17" name="Transaction_ID" dataDxfId="33" totalsRowDxfId="7"/>
+    <tableColumn id="16" name="Transaction_Date" dataDxfId="32" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="31" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="30" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Total_Profit" dataDxfId="29" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Profit_%" dataDxfId="28" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Profit" dataDxfId="27" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Payment_Status" dataDxfId="26" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -677,7 +674,7 @@
     <tableColumn id="2" name="Contact_Name"/>
     <tableColumn id="9" name="Name"/>
     <tableColumn id="3" name="Total_Invested_Amount"/>
-    <tableColumn id="6" name="Total Profit Earned" dataDxfId="13">
+    <tableColumn id="6" name="Total Profit Earned" dataDxfId="25">
       <calculatedColumnFormula>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="UPI"/>
@@ -687,16 +684,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <autoFilter ref="A1:G602"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="7"/>
-    <tableColumn id="2" name="UserID" dataDxfId="6"/>
-    <tableColumn id="3" name="Invest_Amount" dataDxfId="5"/>
-    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="4"/>
-    <tableColumn id="4" name="Profit" dataDxfId="3"/>
-    <tableColumn id="5" name="Payment" dataDxfId="2"/>
-    <tableColumn id="7" name="Total_Profit" dataDxfId="1"/>
+    <tableColumn id="1" name="Date" dataDxfId="19"/>
+    <tableColumn id="2" name="UserID" dataDxfId="18"/>
+    <tableColumn id="3" name="Invest_Amount" dataDxfId="17"/>
+    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="16"/>
+    <tableColumn id="4" name="Profit" dataDxfId="15"/>
+    <tableColumn id="5" name="Payment" dataDxfId="14"/>
+    <tableColumn id="7" name="Total_Profit" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -722,7 +719,7 @@
     <tableColumn id="3" name="Charge_Amt"/>
     <tableColumn id="6" name="Charge_Per_Head"/>
     <tableColumn id="4" name="Paid_Amt"/>
-    <tableColumn id="5" name="Pending_Amt" dataDxfId="0">
+    <tableColumn id="5" name="Pending_Amt" dataDxfId="12">
       <calculatedColumnFormula>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1019,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4956,7 +4953,7 @@
         <v>71.041666666666671</v>
       </c>
       <c r="L137" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -4987,7 +4984,7 @@
         <v>42.625</v>
       </c>
       <c r="L138" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
@@ -5018,7 +5015,7 @@
         <v>14.208333333333332</v>
       </c>
       <c r="L139" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -5049,7 +5046,7 @@
         <v>42.625</v>
       </c>
       <c r="L140" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
@@ -5080,7 +5077,7 @@
         <v>28.416666666666664</v>
       </c>
       <c r="L141" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -5111,7 +5108,7 @@
         <v>56.833333333333329</v>
       </c>
       <c r="L142" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
@@ -5142,7 +5139,7 @@
         <v>56.833333333333329</v>
       </c>
       <c r="L143" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
@@ -5173,7 +5170,7 @@
         <v>28.416666666666664</v>
       </c>
       <c r="L144" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
@@ -5207,7 +5204,7 @@
         <v>72.083333333333343</v>
       </c>
       <c r="L146" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
@@ -5238,7 +5235,7 @@
         <v>43.25</v>
       </c>
       <c r="L147" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -5269,7 +5266,7 @@
         <v>14.416666666666666</v>
       </c>
       <c r="L148" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
@@ -5300,7 +5297,7 @@
         <v>43.25</v>
       </c>
       <c r="L149" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
@@ -5331,7 +5328,7 @@
         <v>28.833333333333332</v>
       </c>
       <c r="L150" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
@@ -5362,7 +5359,7 @@
         <v>57.666666666666664</v>
       </c>
       <c r="L151" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
@@ -5393,7 +5390,7 @@
         <v>57.666666666666664</v>
       </c>
       <c r="L152" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -5424,7 +5421,7 @@
         <v>28.833333333333332</v>
       </c>
       <c r="L153" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -6530,7 +6527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Aathithya</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="G141" sqref="G141"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5428,69 +5431,293 @@
       <c r="I154" s="15"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I155" s="15"/>
+      <c r="A155" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H155" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I155" s="15">
+        <v>244</v>
+      </c>
+      <c r="J155" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K155" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>50.833333333333336</v>
+      </c>
+      <c r="L155" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I156" s="15"/>
+      <c r="A156" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G156" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H156" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I156" s="15">
+        <v>244</v>
+      </c>
+      <c r="J156" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K156" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>30.5</v>
+      </c>
+      <c r="L156" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I157" s="15"/>
+      <c r="A157" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G157" s="14">
+        <v>500</v>
+      </c>
+      <c r="H157" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I157" s="15">
+        <v>244</v>
+      </c>
+      <c r="J157" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K157" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>10.166666666666666</v>
+      </c>
+      <c r="L157" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I158" s="15"/>
+      <c r="A158" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C158" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H158" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I158" s="15">
+        <v>244</v>
+      </c>
+      <c r="J158" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K158" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>30.5</v>
+      </c>
+      <c r="L158" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I159" s="15"/>
+      <c r="A159" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C159" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G159" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H159" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I159" s="15">
+        <v>244</v>
+      </c>
+      <c r="J159" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K159" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="L159" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I160" s="15"/>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I161" s="15"/>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I162" s="15"/>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G160" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H160" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I160" s="15">
+        <v>244</v>
+      </c>
+      <c r="J160" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K160" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="L160" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C161" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G161" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H161" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I161" s="15">
+        <v>244</v>
+      </c>
+      <c r="J161" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K161" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>40.666666666666664</v>
+      </c>
+      <c r="L161" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162" s="28">
+        <v>46008</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G162" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H162" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I162" s="15">
+        <v>244</v>
+      </c>
+      <c r="J162" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K162" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>20.333333333333332</v>
+      </c>
+      <c r="L162" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I163" s="15"/>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I164" s="15"/>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I165" s="15"/>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I166" s="15"/>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I167" s="15"/>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I168" s="15"/>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I169" s="15"/>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I170" s="15"/>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I171" s="15"/>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I172" s="15"/>
     </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I173" s="15"/>
     </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I174" s="15"/>
     </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I175" s="15"/>
     </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I176" s="15"/>
     </row>
     <row r="177" spans="9:9" x14ac:dyDescent="0.25">
@@ -6527,8 +6754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143:G150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9469,74 +9696,202 @@
       <c r="G142" s="15"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D143" s="16"/>
-      <c r="G143" s="15"/>
+      <c r="A143" s="28">
+        <v>46009</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D143" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G143" s="15">
+        <v>244</v>
+      </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D144" s="16"/>
-      <c r="G144" s="15"/>
-    </row>
-    <row r="145" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D145" s="16"/>
-      <c r="G145" s="15"/>
-    </row>
-    <row r="146" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D146" s="16"/>
-      <c r="G146" s="15"/>
-    </row>
-    <row r="147" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D147" s="16"/>
-      <c r="G147" s="15"/>
-    </row>
-    <row r="148" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D148" s="16"/>
-      <c r="G148" s="15"/>
-    </row>
-    <row r="149" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D149" s="16"/>
-      <c r="G149" s="15"/>
-    </row>
-    <row r="150" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D150" s="16"/>
-      <c r="G150" s="15"/>
-    </row>
-    <row r="151" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="28">
+        <v>46009</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D144" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G144" s="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="28">
+        <v>46009</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="14">
+        <v>500</v>
+      </c>
+      <c r="D145" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G145" s="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="28">
+        <v>46009</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D146" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F146" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G146" s="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="28">
+        <v>46009</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C147" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D147" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G147" s="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="28">
+        <v>46009</v>
+      </c>
+      <c r="B148" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C148" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D148" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F148" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G148" s="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="28">
+        <v>46009</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C149" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D149" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G149" s="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="28">
+        <v>46009</v>
+      </c>
+      <c r="B150" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C150" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D150" s="16">
+        <v>12000</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G150" s="15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D152" s="16"/>
       <c r="G152" s="15"/>
     </row>
-    <row r="153" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D153" s="16"/>
       <c r="G153" s="15"/>
     </row>
-    <row r="154" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D154" s="16"/>
       <c r="G154" s="15"/>
     </row>
-    <row r="155" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D155" s="16"/>
       <c r="G155" s="15"/>
     </row>
-    <row r="156" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D156" s="16"/>
       <c r="G156" s="15"/>
     </row>
-    <row r="157" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D157" s="16"/>
       <c r="G157" s="15"/>
     </row>
-    <row r="158" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D158" s="16"/>
       <c r="G158" s="15"/>
     </row>
-    <row r="159" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D159" s="16"/>
       <c r="G159" s="15"/>
     </row>
-    <row r="160" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="K155" sqref="K155:K162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1577.4970996029954</v>
+        <v>1628.3304329363286</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -6604,7 +6604,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>972.69384391175436</v>
+        <v>1003.1938439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>342.04535906326947</v>
+        <v>352.21202572993616</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -6646,7 +6646,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>969.52496607869739</v>
+        <v>1000.0249660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>408.63332202623246</v>
+        <v>428.96665535956578</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -6688,7 +6688,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1292.6999547715964</v>
+        <v>1333.3666214382631</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -6709,7 +6709,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1099.7969696969699</v>
+        <v>1140.4636363636366</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -6730,7 +6730,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>327.09848484848482</v>
+        <v>347.43181818181813</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -6754,8 +6754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143:G150"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9708,6 +9708,9 @@
       <c r="D143" s="16">
         <v>12000</v>
       </c>
+      <c r="E143" s="15">
+        <v>50.833333333333336</v>
+      </c>
       <c r="F143" s="14" t="s">
         <v>79</v>
       </c>
@@ -9728,6 +9731,9 @@
       <c r="D144" s="16">
         <v>12000</v>
       </c>
+      <c r="E144" s="15">
+        <v>30.5</v>
+      </c>
       <c r="F144" s="14" t="s">
         <v>79</v>
       </c>
@@ -9748,6 +9754,9 @@
       <c r="D145" s="16">
         <v>12000</v>
       </c>
+      <c r="E145" s="15">
+        <v>10.166666666666666</v>
+      </c>
       <c r="F145" s="14" t="s">
         <v>79</v>
       </c>
@@ -9768,6 +9777,9 @@
       <c r="D146" s="16">
         <v>12000</v>
       </c>
+      <c r="E146" s="15">
+        <v>30.5</v>
+      </c>
       <c r="F146" s="14" t="s">
         <v>79</v>
       </c>
@@ -9788,6 +9800,9 @@
       <c r="D147" s="16">
         <v>12000</v>
       </c>
+      <c r="E147" s="15">
+        <v>20.333333333333332</v>
+      </c>
       <c r="F147" s="14" t="s">
         <v>79</v>
       </c>
@@ -9808,6 +9823,9 @@
       <c r="D148" s="16">
         <v>12000</v>
       </c>
+      <c r="E148" s="15">
+        <v>40.666666666666664</v>
+      </c>
       <c r="F148" s="14" t="s">
         <v>79</v>
       </c>
@@ -9828,6 +9846,9 @@
       <c r="D149" s="16">
         <v>12000</v>
       </c>
+      <c r="E149" s="15">
+        <v>40.666666666666664</v>
+      </c>
       <c r="F149" s="14" t="s">
         <v>79</v>
       </c>
@@ -9847,6 +9868,9 @@
       </c>
       <c r="D150" s="16">
         <v>12000</v>
+      </c>
+      <c r="E150" s="15">
+        <v>20.333333333333332</v>
       </c>
       <c r="F150" s="14" t="s">
         <v>79</v>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="K155" sqref="K155:K162"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>7</v>
@@ -5463,7 +5463,7 @@
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B156" s="14" t="s">
         <v>12</v>
@@ -5494,7 +5494,7 @@
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>14</v>
@@ -5525,7 +5525,7 @@
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>17</v>
@@ -5556,7 +5556,7 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>19</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="28">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>21</v>
@@ -5618,7 +5618,7 @@
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="28">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B161" s="14" t="s">
         <v>50</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="28">
-        <v>46008</v>
+        <v>46009</v>
       </c>
       <c r="B162" s="14" t="s">
         <v>59</v>
@@ -5682,28 +5682,252 @@
       <c r="I163" s="15"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I164" s="15"/>
+      <c r="A164" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H164" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I164" s="15">
+        <v>426</v>
+      </c>
+      <c r="J164" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K164" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>88.75</v>
+      </c>
+      <c r="L164" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I165" s="15"/>
+      <c r="A165" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G165" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H165" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I165" s="15">
+        <v>426</v>
+      </c>
+      <c r="J165" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K165" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>53.25</v>
+      </c>
+      <c r="L165" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I166" s="15"/>
+      <c r="A166" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C166" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G166" s="14">
+        <v>500</v>
+      </c>
+      <c r="H166" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I166" s="15">
+        <v>426</v>
+      </c>
+      <c r="J166" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K166" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>17.75</v>
+      </c>
+      <c r="L166" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I167" s="15"/>
+      <c r="A167" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H167" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I167" s="15">
+        <v>426</v>
+      </c>
+      <c r="J167" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K167" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>53.25</v>
+      </c>
+      <c r="L167" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I168" s="15"/>
+      <c r="A168" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G168" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H168" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I168" s="15">
+        <v>426</v>
+      </c>
+      <c r="J168" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K168" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>35.5</v>
+      </c>
+      <c r="L168" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I169" s="15"/>
+      <c r="A169" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B169" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G169" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H169" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I169" s="15">
+        <v>426</v>
+      </c>
+      <c r="J169" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K169" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>71</v>
+      </c>
+      <c r="L169" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I170" s="15"/>
+      <c r="A170" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C170" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G170" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H170" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I170" s="15">
+        <v>426</v>
+      </c>
+      <c r="J170" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K170" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>71</v>
+      </c>
+      <c r="L170" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I171" s="15"/>
+      <c r="A171" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C171" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G171" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H171" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I171" s="15">
+        <v>426</v>
+      </c>
+      <c r="J171" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K171" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>35.5</v>
+      </c>
+      <c r="L171" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I172" s="15"/>
@@ -6583,7 +6807,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1628.3304329363286</v>
+        <v>1717.0804329363286</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -6604,7 +6828,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1003.1938439117544</v>
+        <v>1056.4438439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -6625,7 +6849,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>352.21202572993616</v>
+        <v>369.96202572993616</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -6646,7 +6870,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1000.0249660786974</v>
+        <v>1053.2749660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -6667,7 +6891,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>428.96665535956578</v>
+        <v>464.46665535956578</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -6688,7 +6912,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1333.3666214382631</v>
+        <v>1404.3666214382631</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -6709,7 +6933,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1140.4636363636366</v>
+        <v>1211.4636363636366</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -6730,7 +6954,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>347.43181818181813</v>
+        <v>382.93181818181813</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -6754,8 +6978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G148" sqref="G148"/>
+    <sheetView topLeftCell="A138" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152:E159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9884,36 +10108,188 @@
       <c r="G151" s="15"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D152" s="16"/>
-      <c r="G152" s="15"/>
+      <c r="A152" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B152" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D152" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E152" s="15">
+        <v>88.75</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G152" s="15">
+        <v>426</v>
+      </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D153" s="16"/>
-      <c r="G153" s="15"/>
+      <c r="A153" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D153" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E153" s="15">
+        <v>53.25</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G153" s="15">
+        <v>426</v>
+      </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D154" s="16"/>
-      <c r="G154" s="15"/>
+      <c r="A154" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B154" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C154" s="14">
+        <v>500</v>
+      </c>
+      <c r="D154" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E154" s="15">
+        <v>17.75</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G154" s="15">
+        <v>426</v>
+      </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D155" s="16"/>
-      <c r="G155" s="15"/>
+      <c r="A155" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B155" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C155" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D155" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E155" s="15">
+        <v>53.25</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G155" s="15">
+        <v>426</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D156" s="16"/>
-      <c r="G156" s="15"/>
+      <c r="A156" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B156" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D156" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E156" s="15">
+        <v>35.5</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G156" s="15">
+        <v>426</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D157" s="16"/>
-      <c r="G157" s="15"/>
+      <c r="A157" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B157" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D157" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E157" s="15">
+        <v>71</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G157" s="15">
+        <v>426</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D158" s="16"/>
-      <c r="G158" s="15"/>
+      <c r="A158" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C158" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D158" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E158" s="15">
+        <v>71</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G158" s="15">
+        <v>426</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D159" s="16"/>
-      <c r="G159" s="15"/>
+      <c r="A159" s="28">
+        <v>46010</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C159" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D159" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E159" s="15">
+        <v>35.5</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G159" s="15">
+        <v>426</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="79">
   <si>
     <t>UserID</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Aathithya</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -688,7 +685,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G602"/>
+  <autoFilter ref="A1:G602">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
     <tableColumn id="2" name="UserID" dataDxfId="18"/>
@@ -1020,7 +1023,7 @@
   <dimension ref="A1:L5641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+      <selection activeCell="G167" sqref="G167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5458,7 +5461,7 @@
         <v>50.833333333333336</v>
       </c>
       <c r="L155" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -5489,7 +5492,7 @@
         <v>30.5</v>
       </c>
       <c r="L156" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -5520,7 +5523,7 @@
         <v>10.166666666666666</v>
       </c>
       <c r="L157" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -5551,7 +5554,7 @@
         <v>30.5</v>
       </c>
       <c r="L158" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -5582,7 +5585,7 @@
         <v>20.333333333333332</v>
       </c>
       <c r="L159" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -5613,7 +5616,7 @@
         <v>40.666666666666664</v>
       </c>
       <c r="L160" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -5644,7 +5647,7 @@
         <v>40.666666666666664</v>
       </c>
       <c r="L161" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -5675,7 +5678,7 @@
         <v>20.333333333333332</v>
       </c>
       <c r="L162" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -5709,7 +5712,7 @@
         <v>88.75</v>
       </c>
       <c r="L164" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -5740,7 +5743,7 @@
         <v>53.25</v>
       </c>
       <c r="L165" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -5771,7 +5774,7 @@
         <v>17.75</v>
       </c>
       <c r="L166" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -5802,7 +5805,7 @@
         <v>53.25</v>
       </c>
       <c r="L167" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -5833,7 +5836,7 @@
         <v>35.5</v>
       </c>
       <c r="L168" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -5864,7 +5867,7 @@
         <v>71</v>
       </c>
       <c r="L169" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -5895,7 +5898,7 @@
         <v>71</v>
       </c>
       <c r="L170" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -5926,7 +5929,7 @@
         <v>35.5</v>
       </c>
       <c r="L171" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -6759,7 +6762,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6978,8 +6981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A138" workbookViewId="0">
-      <selection activeCell="E152" sqref="E152:E159"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F603" sqref="F603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7017,7 +7020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -7063,7 +7066,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -7086,11 +7089,11 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45981</v>
       </c>
@@ -7113,7 +7116,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -7136,7 +7139,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -7159,11 +7162,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -7186,7 +7189,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -7232,7 +7235,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -7255,7 +7258,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -7278,7 +7281,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -7301,11 +7304,11 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45992</v>
       </c>
@@ -7328,7 +7331,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -7351,7 +7354,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -7374,7 +7377,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -7397,7 +7400,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -7420,7 +7423,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -7443,11 +7446,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45993</v>
       </c>
@@ -7470,7 +7473,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -7493,7 +7496,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -7516,7 +7519,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -7539,7 +7542,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -7562,7 +7565,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -7585,11 +7588,11 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45994</v>
       </c>
@@ -7612,7 +7615,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -7658,7 +7661,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -7681,7 +7684,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -7727,7 +7730,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -7750,11 +7753,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45995</v>
       </c>
@@ -7777,7 +7780,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -7800,7 +7803,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -7823,7 +7826,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -7869,7 +7872,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -7892,7 +7895,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -7915,11 +7918,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45998</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -8034,7 +8037,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -8057,7 +8060,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -8080,11 +8083,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45999</v>
       </c>
@@ -8107,7 +8110,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -8130,7 +8133,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -8153,7 +8156,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -8199,7 +8202,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -8222,7 +8225,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -8245,11 +8248,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>46000</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -8295,7 +8298,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -8318,7 +8321,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -8341,7 +8344,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -8410,11 +8413,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>46001</v>
       </c>
@@ -8437,7 +8440,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -8460,7 +8463,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -8483,7 +8486,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -8506,7 +8509,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -8529,7 +8532,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -8552,7 +8555,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -8575,7 +8578,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -8598,11 +8601,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>46002</v>
       </c>
@@ -8625,7 +8628,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -8648,7 +8651,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -8671,7 +8674,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -8717,7 +8720,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -8786,13 +8789,13 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="G88" s="15" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>46003</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -8838,7 +8841,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -8861,7 +8864,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -8884,7 +8887,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -8907,7 +8910,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -8930,7 +8933,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -8953,7 +8956,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -8976,11 +8979,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>46004</v>
       </c>
@@ -9003,7 +9006,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -9026,7 +9029,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -9049,7 +9052,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -9072,7 +9075,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -9095,7 +9098,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -9118,7 +9121,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -9141,7 +9144,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -9164,11 +9167,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>46005</v>
       </c>
@@ -9191,7 +9194,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -9237,7 +9240,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -9260,7 +9263,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -9283,7 +9286,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -9306,7 +9309,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -9329,7 +9332,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -9352,10 +9355,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>46006</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -9401,7 +9404,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -9424,7 +9427,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -9470,7 +9473,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -9493,7 +9496,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -9516,7 +9519,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -9539,11 +9542,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>46007</v>
       </c>
@@ -9566,7 +9569,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -9589,7 +9592,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -9612,7 +9615,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -9635,7 +9638,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -9658,7 +9661,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -9681,7 +9684,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -9704,7 +9707,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -9727,11 +9730,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>46008</v>
       </c>
@@ -9754,7 +9757,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -9777,7 +9780,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -9800,7 +9803,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -9823,7 +9826,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -9846,7 +9849,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -9869,7 +9872,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -9892,7 +9895,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
@@ -9936,13 +9939,13 @@
         <v>50.833333333333336</v>
       </c>
       <c r="F143" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G143" s="15">
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -9959,13 +9962,13 @@
         <v>30.5</v>
       </c>
       <c r="F144" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G144" s="15">
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -9982,13 +9985,13 @@
         <v>10.166666666666666</v>
       </c>
       <c r="F145" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G145" s="15">
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -10005,13 +10008,13 @@
         <v>30.5</v>
       </c>
       <c r="F146" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G146" s="15">
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -10028,13 +10031,13 @@
         <v>20.333333333333332</v>
       </c>
       <c r="F147" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G147" s="15">
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -10051,13 +10054,13 @@
         <v>40.666666666666664</v>
       </c>
       <c r="F148" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G148" s="15">
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -10074,13 +10077,13 @@
         <v>40.666666666666664</v>
       </c>
       <c r="F149" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G149" s="15">
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -10097,13 +10100,13 @@
         <v>20.333333333333332</v>
       </c>
       <c r="F150" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G150" s="15">
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
@@ -10124,13 +10127,13 @@
         <v>88.75</v>
       </c>
       <c r="F152" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G152" s="15">
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -10147,13 +10150,13 @@
         <v>53.25</v>
       </c>
       <c r="F153" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G153" s="15">
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -10170,13 +10173,13 @@
         <v>17.75</v>
       </c>
       <c r="F154" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G154" s="15">
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -10193,13 +10196,13 @@
         <v>53.25</v>
       </c>
       <c r="F155" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G155" s="15">
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -10216,13 +10219,13 @@
         <v>35.5</v>
       </c>
       <c r="F156" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G156" s="15">
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -10239,13 +10242,13 @@
         <v>71</v>
       </c>
       <c r="F157" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G157" s="15">
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -10262,13 +10265,13 @@
         <v>71</v>
       </c>
       <c r="F158" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G158" s="15">
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -10285,1613 +10288,1613 @@
         <v>35.5</v>
       </c>
       <c r="F159" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G159" s="15">
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D161" s="16"/>
       <c r="G161" s="15"/>
     </row>
-    <row r="162" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D162" s="16"/>
       <c r="G162" s="15"/>
     </row>
-    <row r="163" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D163" s="16"/>
       <c r="G163" s="15"/>
     </row>
-    <row r="164" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D164" s="16"/>
       <c r="G164" s="15"/>
     </row>
-    <row r="165" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D165" s="16"/>
       <c r="G165" s="15"/>
     </row>
-    <row r="166" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D166" s="16"/>
       <c r="G166" s="15"/>
     </row>
-    <row r="167" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D167" s="16"/>
       <c r="G167" s="15"/>
     </row>
-    <row r="168" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D168" s="16"/>
       <c r="G168" s="15"/>
     </row>
-    <row r="169" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" s="16"/>
       <c r="G170" s="15"/>
     </row>
-    <row r="171" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D171" s="16"/>
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" s="16"/>
       <c r="G172" s="15"/>
     </row>
-    <row r="173" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" s="16"/>
       <c r="G173" s="15"/>
     </row>
-    <row r="174" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" s="16"/>
       <c r="G174" s="15"/>
     </row>
-    <row r="175" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" s="16"/>
       <c r="G175" s="15"/>
     </row>
-    <row r="176" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" s="16"/>
       <c r="G176" s="15"/>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="16"/>
       <c r="G177" s="15"/>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" s="16"/>
       <c r="G179" s="15"/>
     </row>
-    <row r="180" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" s="16"/>
       <c r="G180" s="15"/>
     </row>
-    <row r="181" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D181" s="16"/>
       <c r="G181" s="15"/>
     </row>
-    <row r="182" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" s="16"/>
       <c r="G182" s="15"/>
     </row>
-    <row r="183" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" s="16"/>
       <c r="G183" s="15"/>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" s="16"/>
       <c r="G184" s="15"/>
     </row>
-    <row r="185" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" s="16"/>
       <c r="G185" s="15"/>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" s="16"/>
       <c r="G186" s="15"/>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D188" s="16"/>
       <c r="G188" s="15"/>
     </row>
-    <row r="189" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" s="16"/>
       <c r="G189" s="15"/>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" s="16"/>
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" s="16"/>
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" s="16"/>
       <c r="G192" s="15"/>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" s="16"/>
       <c r="G193" s="15"/>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" s="16"/>
       <c r="G194" s="15"/>
     </row>
-    <row r="195" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" s="16"/>
       <c r="G195" s="15"/>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" s="16"/>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" s="16"/>
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" s="16"/>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" s="16"/>
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D201" s="16"/>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" s="16"/>
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" s="16"/>
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" s="16"/>
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" s="16"/>
       <c r="G206" s="15"/>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" s="16"/>
       <c r="G207" s="15"/>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D208" s="16"/>
       <c r="G208" s="15"/>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" s="16"/>
       <c r="G209" s="15"/>
     </row>
-    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" s="16"/>
       <c r="G210" s="15"/>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" s="16"/>
       <c r="G211" s="15"/>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" s="16"/>
       <c r="G212" s="15"/>
     </row>
-    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" s="16"/>
       <c r="G213" s="15"/>
     </row>
-    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D215" s="16"/>
       <c r="G215" s="15"/>
     </row>
-    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" s="16"/>
       <c r="G216" s="15"/>
     </row>
-    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" s="16"/>
       <c r="G217" s="15"/>
     </row>
-    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" s="16"/>
       <c r="G218" s="15"/>
     </row>
-    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D219" s="16"/>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D220" s="16"/>
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D221" s="16"/>
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D222" s="16"/>
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D224" s="16"/>
       <c r="G224" s="15"/>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D225" s="16"/>
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D226" s="16"/>
       <c r="G226" s="15"/>
     </row>
-    <row r="227" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D227" s="16"/>
       <c r="G227" s="15"/>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D228" s="16"/>
       <c r="G228" s="15"/>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D229" s="16"/>
       <c r="G229" s="15"/>
     </row>
-    <row r="230" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D230" s="16"/>
       <c r="G230" s="15"/>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D231" s="16"/>
       <c r="G231" s="15"/>
     </row>
-    <row r="232" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D233" s="16"/>
       <c r="G233" s="15"/>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D234" s="16"/>
       <c r="G234" s="15"/>
     </row>
-    <row r="235" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D235" s="16"/>
       <c r="G235" s="15"/>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D236" s="16"/>
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D237" s="16"/>
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D238" s="16"/>
       <c r="G238" s="15"/>
     </row>
-    <row r="239" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D239" s="16"/>
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D240" s="16"/>
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D242" s="16"/>
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D243" s="16"/>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D244" s="16"/>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D245" s="16"/>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D246" s="16"/>
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D247" s="16"/>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D248" s="16"/>
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D249" s="16"/>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D251" s="16"/>
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D252" s="16"/>
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D253" s="16"/>
       <c r="G253" s="15"/>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D254" s="16"/>
       <c r="G254" s="15"/>
     </row>
-    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D255" s="16"/>
       <c r="G255" s="15"/>
     </row>
-    <row r="256" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D256" s="16"/>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D257" s="16"/>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D258" s="16"/>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D260" s="16"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D261" s="16"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D262" s="16"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D263" s="16"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D264" s="16"/>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D265" s="16"/>
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D266" s="16"/>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D267" s="16"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D268" s="16"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D270" s="16"/>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D271" s="16"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D272" s="16"/>
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D273" s="16"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D274" s="16"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D275" s="16"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D276" s="16"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D277" s="16"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D278" s="16"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D280" s="16"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D281" s="16"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D282" s="16"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D283" s="16"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D284" s="16"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D285" s="16"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D286" s="16"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D288" s="16"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Aathithya</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -685,13 +688,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G602">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G602"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
     <tableColumn id="2" name="UserID" dataDxfId="18"/>
@@ -1022,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="K173" sqref="K173:K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5936,63 +5933,287 @@
       <c r="I172" s="15"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I173" s="15"/>
+      <c r="A173" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H173" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I173" s="15">
+        <v>258</v>
+      </c>
+      <c r="J173" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K173" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>53.75</v>
+      </c>
+      <c r="L173" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I174" s="15"/>
+      <c r="A174" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G174" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H174" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I174" s="15">
+        <v>258</v>
+      </c>
+      <c r="J174" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K174" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>32.25</v>
+      </c>
+      <c r="L174" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I175" s="15"/>
+      <c r="A175" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C175" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G175" s="14">
+        <v>500</v>
+      </c>
+      <c r="H175" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I175" s="15">
+        <v>258</v>
+      </c>
+      <c r="J175" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K175" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>10.75</v>
+      </c>
+      <c r="L175" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I176" s="15"/>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I177" s="15"/>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I178" s="15"/>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I179" s="15"/>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I180" s="15"/>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="A176" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C176" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G176" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H176" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I176" s="15">
+        <v>258</v>
+      </c>
+      <c r="J176" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K176" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>32.25</v>
+      </c>
+      <c r="L176" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G177" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H177" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I177" s="15">
+        <v>258</v>
+      </c>
+      <c r="J177" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K177" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>21.5</v>
+      </c>
+      <c r="L177" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G178" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H178" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I178" s="15">
+        <v>258</v>
+      </c>
+      <c r="J178" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K178" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>43</v>
+      </c>
+      <c r="L178" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C179" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G179" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H179" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I179" s="15">
+        <v>258</v>
+      </c>
+      <c r="J179" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K179" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>43</v>
+      </c>
+      <c r="L179" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C180" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G180" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H180" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I180" s="15">
+        <v>258</v>
+      </c>
+      <c r="J180" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K180" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>21.5</v>
+      </c>
+      <c r="L180" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I181" s="15"/>
     </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I182" s="15"/>
     </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I183" s="15"/>
     </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I184" s="15"/>
     </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I185" s="15"/>
     </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I186" s="15"/>
     </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I187" s="15"/>
     </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I188" s="15"/>
     </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I189" s="15"/>
     </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I190" s="15"/>
     </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I191" s="15"/>
     </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I192" s="15"/>
     </row>
     <row r="193" spans="9:9" x14ac:dyDescent="0.25">
@@ -6810,7 +7031,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1717.0804329363286</v>
+        <v>1770.8304329363286</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -6831,7 +7052,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1056.4438439117544</v>
+        <v>1088.6938439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -6852,7 +7073,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>369.96202572993616</v>
+        <v>380.71202572993616</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -6873,7 +7094,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1053.2749660786974</v>
+        <v>1085.5249660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -6894,7 +7115,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>464.46665535956578</v>
+        <v>485.96665535956578</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -6915,7 +7136,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1404.3666214382631</v>
+        <v>1447.3666214382631</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -6936,7 +7157,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1211.4636363636366</v>
+        <v>1254.4636363636366</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -6957,7 +7178,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>382.93181818181813</v>
+        <v>404.43181818181813</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -6981,8 +7202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F603" sqref="F603"/>
+    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
+      <selection activeCell="E170" sqref="E170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7020,7 +7241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -7043,7 +7264,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -7066,7 +7287,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -7089,11 +7310,11 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45981</v>
       </c>
@@ -7116,7 +7337,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -7139,7 +7360,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -7162,11 +7383,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -7189,7 +7410,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -7212,7 +7433,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -7235,7 +7456,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -7258,7 +7479,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -7281,7 +7502,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -7304,11 +7525,11 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45992</v>
       </c>
@@ -7331,7 +7552,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -7354,7 +7575,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -7377,7 +7598,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -7400,7 +7621,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -7423,7 +7644,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -7446,11 +7667,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45993</v>
       </c>
@@ -7473,7 +7694,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -7496,7 +7717,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -7519,7 +7740,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -7542,7 +7763,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -7565,7 +7786,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -7588,11 +7809,11 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45994</v>
       </c>
@@ -7615,7 +7836,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -7638,7 +7859,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -7661,7 +7882,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -7684,7 +7905,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -7707,7 +7928,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -7730,7 +7951,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -7753,11 +7974,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45995</v>
       </c>
@@ -7780,7 +8001,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -7803,7 +8024,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -7826,7 +8047,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -7849,7 +8070,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -7872,7 +8093,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -7895,7 +8116,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -7918,11 +8139,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45998</v>
       </c>
@@ -7945,7 +8166,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -7968,7 +8189,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -7991,7 +8212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -8014,7 +8235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -8037,7 +8258,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -8060,7 +8281,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -8083,11 +8304,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45999</v>
       </c>
@@ -8110,7 +8331,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -8133,7 +8354,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -8156,7 +8377,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -8179,7 +8400,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -8202,7 +8423,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -8225,7 +8446,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -8248,11 +8469,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>46000</v>
       </c>
@@ -8275,7 +8496,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -8298,7 +8519,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -8321,7 +8542,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -8344,7 +8565,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -8367,7 +8588,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -8390,7 +8611,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -8413,11 +8634,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>46001</v>
       </c>
@@ -8440,7 +8661,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -8463,7 +8684,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -8486,7 +8707,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -8509,7 +8730,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -8532,7 +8753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -8555,7 +8776,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -8578,7 +8799,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -8601,11 +8822,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>46002</v>
       </c>
@@ -8628,7 +8849,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -8651,7 +8872,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -8674,7 +8895,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -8697,7 +8918,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -8720,7 +8941,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -8743,7 +8964,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -8766,7 +8987,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -8789,13 +9010,11 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
-      <c r="G88" s="15" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G88" s="15"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>46003</v>
       </c>
@@ -8818,7 +9037,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -8841,7 +9060,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -8864,7 +9083,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -8887,7 +9106,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -8910,7 +9129,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -8933,7 +9152,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -8956,7 +9175,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -8979,11 +9198,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>46004</v>
       </c>
@@ -9006,7 +9225,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -9029,7 +9248,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -9052,7 +9271,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -9075,7 +9294,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -9098,7 +9317,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -9121,7 +9340,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -9144,7 +9363,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -9167,11 +9386,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>46005</v>
       </c>
@@ -9194,7 +9413,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -9217,7 +9436,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -9240,7 +9459,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -9263,7 +9482,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -9286,7 +9505,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -9309,7 +9528,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -9332,7 +9551,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -9355,10 +9574,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>46006</v>
       </c>
@@ -9381,7 +9600,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -9404,7 +9623,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -9427,7 +9646,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -9450,7 +9669,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -9473,7 +9692,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -9496,7 +9715,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -9519,7 +9738,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -9542,11 +9761,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>46007</v>
       </c>
@@ -9569,7 +9788,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -9592,7 +9811,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -9615,7 +9834,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -9638,7 +9857,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -9661,7 +9880,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -9684,7 +9903,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -9707,7 +9926,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -9730,11 +9949,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>46008</v>
       </c>
@@ -9757,7 +9976,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -9780,7 +9999,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -9803,7 +10022,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -9826,7 +10045,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -9849,7 +10068,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -9872,7 +10091,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -9895,7 +10114,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -9918,7 +10137,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
@@ -9945,7 +10164,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -9968,7 +10187,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -9991,7 +10210,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -10014,7 +10233,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -10037,7 +10256,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -10060,7 +10279,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -10083,7 +10302,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -10106,7 +10325,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
@@ -10133,7 +10352,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -10156,7 +10375,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -10179,7 +10398,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -10202,7 +10421,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -10225,7 +10444,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -10248,7 +10467,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -10271,7 +10490,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -10294,1607 +10513,1759 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D161" s="16"/>
-      <c r="G161" s="15"/>
-    </row>
-    <row r="162" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D162" s="16"/>
-      <c r="G162" s="15"/>
-    </row>
-    <row r="163" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D163" s="16"/>
-      <c r="G163" s="15"/>
-    </row>
-    <row r="164" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D164" s="16"/>
-      <c r="G164" s="15"/>
-    </row>
-    <row r="165" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D165" s="16"/>
-      <c r="G165" s="15"/>
-    </row>
-    <row r="166" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D166" s="16"/>
-      <c r="G166" s="15"/>
-    </row>
-    <row r="167" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D167" s="16"/>
-      <c r="G167" s="15"/>
-    </row>
-    <row r="168" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D168" s="16"/>
-      <c r="G168" s="15"/>
-    </row>
-    <row r="169" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B161" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D161" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E161" s="15">
+        <v>53.75</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G161" s="15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B162" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C162" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D162" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E162" s="15">
+        <v>32.25</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G162" s="15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C163" s="14">
+        <v>500</v>
+      </c>
+      <c r="D163" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E163" s="15">
+        <v>10.75</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G163" s="15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B164" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C164" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D164" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E164" s="15">
+        <v>32.25</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G164" s="15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D165" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E165" s="15">
+        <v>21.5</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G165" s="15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B166" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C166" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D166" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E166" s="15">
+        <v>43</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G166" s="15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B167" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D167" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E167" s="15">
+        <v>43</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G167" s="15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="28">
+        <v>46011</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C168" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D168" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E168" s="15">
+        <v>21.5</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G168" s="15">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D170" s="16"/>
       <c r="G170" s="15"/>
     </row>
-    <row r="171" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D171" s="16"/>
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D172" s="16"/>
       <c r="G172" s="15"/>
     </row>
-    <row r="173" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D173" s="16"/>
       <c r="G173" s="15"/>
     </row>
-    <row r="174" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D174" s="16"/>
       <c r="G174" s="15"/>
     </row>
-    <row r="175" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D175" s="16"/>
       <c r="G175" s="15"/>
     </row>
-    <row r="176" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D176" s="16"/>
       <c r="G176" s="15"/>
     </row>
-    <row r="177" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D177" s="16"/>
       <c r="G177" s="15"/>
     </row>
-    <row r="178" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D179" s="16"/>
       <c r="G179" s="15"/>
     </row>
-    <row r="180" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D180" s="16"/>
       <c r="G180" s="15"/>
     </row>
-    <row r="181" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D181" s="16"/>
       <c r="G181" s="15"/>
     </row>
-    <row r="182" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D182" s="16"/>
       <c r="G182" s="15"/>
     </row>
-    <row r="183" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D183" s="16"/>
       <c r="G183" s="15"/>
     </row>
-    <row r="184" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D184" s="16"/>
       <c r="G184" s="15"/>
     </row>
-    <row r="185" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D185" s="16"/>
       <c r="G185" s="15"/>
     </row>
-    <row r="186" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D186" s="16"/>
       <c r="G186" s="15"/>
     </row>
-    <row r="187" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D188" s="16"/>
       <c r="G188" s="15"/>
     </row>
-    <row r="189" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D189" s="16"/>
       <c r="G189" s="15"/>
     </row>
-    <row r="190" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D190" s="16"/>
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D191" s="16"/>
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D192" s="16"/>
       <c r="G192" s="15"/>
     </row>
-    <row r="193" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D193" s="16"/>
       <c r="G193" s="15"/>
     </row>
-    <row r="194" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D194" s="16"/>
       <c r="G194" s="15"/>
     </row>
-    <row r="195" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D195" s="16"/>
       <c r="G195" s="15"/>
     </row>
-    <row r="196" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D197" s="16"/>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D198" s="16"/>
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D199" s="16"/>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D200" s="16"/>
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D201" s="16"/>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D202" s="16"/>
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D203" s="16"/>
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D204" s="16"/>
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D206" s="16"/>
       <c r="G206" s="15"/>
     </row>
-    <row r="207" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D207" s="16"/>
       <c r="G207" s="15"/>
     </row>
-    <row r="208" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D208" s="16"/>
       <c r="G208" s="15"/>
     </row>
-    <row r="209" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D209" s="16"/>
       <c r="G209" s="15"/>
     </row>
-    <row r="210" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D210" s="16"/>
       <c r="G210" s="15"/>
     </row>
-    <row r="211" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D211" s="16"/>
       <c r="G211" s="15"/>
     </row>
-    <row r="212" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D212" s="16"/>
       <c r="G212" s="15"/>
     </row>
-    <row r="213" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D213" s="16"/>
       <c r="G213" s="15"/>
     </row>
-    <row r="214" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D215" s="16"/>
       <c r="G215" s="15"/>
     </row>
-    <row r="216" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D216" s="16"/>
       <c r="G216" s="15"/>
     </row>
-    <row r="217" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D217" s="16"/>
       <c r="G217" s="15"/>
     </row>
-    <row r="218" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D218" s="16"/>
       <c r="G218" s="15"/>
     </row>
-    <row r="219" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D219" s="16"/>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D220" s="16"/>
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D221" s="16"/>
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D222" s="16"/>
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D224" s="16"/>
       <c r="G224" s="15"/>
     </row>
-    <row r="225" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D225" s="16"/>
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D226" s="16"/>
       <c r="G226" s="15"/>
     </row>
-    <row r="227" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D227" s="16"/>
       <c r="G227" s="15"/>
     </row>
-    <row r="228" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D228" s="16"/>
       <c r="G228" s="15"/>
     </row>
-    <row r="229" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D229" s="16"/>
       <c r="G229" s="15"/>
     </row>
-    <row r="230" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D230" s="16"/>
       <c r="G230" s="15"/>
     </row>
-    <row r="231" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D231" s="16"/>
       <c r="G231" s="15"/>
     </row>
-    <row r="232" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D233" s="16"/>
       <c r="G233" s="15"/>
     </row>
-    <row r="234" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D234" s="16"/>
       <c r="G234" s="15"/>
     </row>
-    <row r="235" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D235" s="16"/>
       <c r="G235" s="15"/>
     </row>
-    <row r="236" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D236" s="16"/>
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D237" s="16"/>
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D238" s="16"/>
       <c r="G238" s="15"/>
     </row>
-    <row r="239" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D239" s="16"/>
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D240" s="16"/>
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D242" s="16"/>
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D243" s="16"/>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D244" s="16"/>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D245" s="16"/>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D246" s="16"/>
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D247" s="16"/>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D248" s="16"/>
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D249" s="16"/>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D251" s="16"/>
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D252" s="16"/>
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D253" s="16"/>
       <c r="G253" s="15"/>
     </row>
-    <row r="254" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D254" s="16"/>
       <c r="G254" s="15"/>
     </row>
-    <row r="255" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D255" s="16"/>
       <c r="G255" s="15"/>
     </row>
-    <row r="256" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D256" s="16"/>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D257" s="16"/>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D258" s="16"/>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D260" s="16"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D261" s="16"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D262" s="16"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D263" s="16"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D264" s="16"/>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D265" s="16"/>
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D266" s="16"/>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D267" s="16"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D268" s="16"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D270" s="16"/>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D271" s="16"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D272" s="16"/>
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D273" s="16"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D274" s="16"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D275" s="16"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D276" s="16"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D277" s="16"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D278" s="16"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D280" s="16"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D281" s="16"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D282" s="16"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D283" s="16"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D284" s="16"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D285" s="16"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D286" s="16"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D288" s="16"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="79">
   <si>
     <t>UserID</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Aathithya</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -688,7 +685,13 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G602"/>
+  <autoFilter ref="A1:G602">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
     <tableColumn id="2" name="UserID" dataDxfId="18"/>
@@ -1019,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="K173" sqref="K173:K180"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="L173" sqref="L173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5960,7 +5963,7 @@
         <v>53.75</v>
       </c>
       <c r="L173" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -5991,7 +5994,7 @@
         <v>32.25</v>
       </c>
       <c r="L174" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -6022,7 +6025,7 @@
         <v>10.75</v>
       </c>
       <c r="L175" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -6053,7 +6056,7 @@
         <v>32.25</v>
       </c>
       <c r="L176" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -6084,7 +6087,7 @@
         <v>21.5</v>
       </c>
       <c r="L177" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
@@ -6115,7 +6118,7 @@
         <v>43</v>
       </c>
       <c r="L178" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -6146,7 +6149,7 @@
         <v>43</v>
       </c>
       <c r="L179" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -6177,7 +6180,7 @@
         <v>21.5</v>
       </c>
       <c r="L180" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -6983,7 +6986,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7202,8 +7205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="E170" sqref="E170"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F603" sqref="F603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7241,7 +7244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -7287,7 +7290,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -7310,11 +7313,11 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45981</v>
       </c>
@@ -7337,7 +7340,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -7360,7 +7363,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -7383,11 +7386,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -7410,7 +7413,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -7456,7 +7459,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -7479,7 +7482,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -7502,7 +7505,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -7525,11 +7528,11 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45992</v>
       </c>
@@ -7552,7 +7555,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -7575,7 +7578,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -7598,7 +7601,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -7621,7 +7624,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -7644,7 +7647,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -7667,11 +7670,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45993</v>
       </c>
@@ -7694,7 +7697,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -7717,7 +7720,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -7763,7 +7766,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -7786,7 +7789,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -7809,11 +7812,11 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45994</v>
       </c>
@@ -7836,7 +7839,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -7859,7 +7862,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -7905,7 +7908,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -7951,7 +7954,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -7974,11 +7977,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45995</v>
       </c>
@@ -8001,7 +8004,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -8093,7 +8096,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -8139,11 +8142,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45998</v>
       </c>
@@ -8166,7 +8169,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -8258,7 +8261,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -8281,7 +8284,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -8304,11 +8307,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45999</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -8354,7 +8357,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -8377,7 +8380,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -8400,7 +8403,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -8423,7 +8426,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -8446,7 +8449,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -8469,11 +8472,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>46000</v>
       </c>
@@ -8496,7 +8499,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -8519,7 +8522,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -8565,7 +8568,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -8588,7 +8591,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -8634,11 +8637,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>46001</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -8684,7 +8687,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -8707,7 +8710,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -8753,7 +8756,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -8776,7 +8779,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -8799,7 +8802,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -8822,11 +8825,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>46002</v>
       </c>
@@ -8849,7 +8852,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -8872,7 +8875,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -8895,7 +8898,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -8918,7 +8921,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -8941,7 +8944,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -8964,7 +8967,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -8987,7 +8990,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -9010,11 +9013,11 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>46003</v>
       </c>
@@ -9037,7 +9040,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -9060,7 +9063,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -9106,7 +9109,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -9129,7 +9132,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -9152,7 +9155,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -9175,7 +9178,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -9198,11 +9201,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>46004</v>
       </c>
@@ -9225,7 +9228,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -9248,7 +9251,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -9271,7 +9274,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -9294,7 +9297,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -9317,7 +9320,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -9386,11 +9389,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>46005</v>
       </c>
@@ -9413,7 +9416,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -9459,7 +9462,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -9482,7 +9485,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -9505,7 +9508,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -9528,7 +9531,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -9551,7 +9554,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -9574,10 +9577,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>46006</v>
       </c>
@@ -9600,7 +9603,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -9623,7 +9626,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -9646,7 +9649,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -9669,7 +9672,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -9692,7 +9695,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -9715,7 +9718,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -9738,7 +9741,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -9761,11 +9764,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>46007</v>
       </c>
@@ -9788,7 +9791,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -9811,7 +9814,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -9834,7 +9837,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -9857,7 +9860,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -9880,7 +9883,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -9903,7 +9906,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -9926,7 +9929,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -9949,11 +9952,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>46008</v>
       </c>
@@ -9976,7 +9979,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -9999,7 +10002,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -10022,7 +10025,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -10045,7 +10048,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -10068,7 +10071,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -10091,7 +10094,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -10114,7 +10117,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -10137,11 +10140,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="28">
         <v>46009</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -10187,7 +10190,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -10210,7 +10213,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -10233,7 +10236,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -10256,7 +10259,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -10279,7 +10282,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -10302,7 +10305,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -10325,11 +10328,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="28">
         <v>46010</v>
       </c>
@@ -10352,7 +10355,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -10375,7 +10378,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -10398,7 +10401,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -10421,7 +10424,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -10444,7 +10447,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -10467,7 +10470,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -10490,7 +10493,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -10513,7 +10516,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
@@ -10534,7 +10537,7 @@
         <v>53.75</v>
       </c>
       <c r="F161" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G161" s="15">
         <v>258</v>
@@ -10557,7 +10560,7 @@
         <v>32.25</v>
       </c>
       <c r="F162" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G162" s="15">
         <v>258</v>
@@ -10580,7 +10583,7 @@
         <v>10.75</v>
       </c>
       <c r="F163" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G163" s="15">
         <v>258</v>
@@ -10603,7 +10606,7 @@
         <v>32.25</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G164" s="15">
         <v>258</v>
@@ -10626,7 +10629,7 @@
         <v>21.5</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G165" s="15">
         <v>258</v>
@@ -10649,7 +10652,7 @@
         <v>43</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G166" s="15">
         <v>258</v>
@@ -10672,7 +10675,7 @@
         <v>43</v>
       </c>
       <c r="F167" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G167" s="15">
         <v>258</v>
@@ -10695,1577 +10698,1577 @@
         <v>21.5</v>
       </c>
       <c r="F168" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G168" s="15">
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D170" s="16"/>
       <c r="G170" s="15"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D171" s="16"/>
       <c r="G171" s="15"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D172" s="16"/>
       <c r="G172" s="15"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D173" s="16"/>
       <c r="G173" s="15"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D174" s="16"/>
       <c r="G174" s="15"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D175" s="16"/>
       <c r="G175" s="15"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D176" s="16"/>
       <c r="G176" s="15"/>
     </row>
-    <row r="177" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D177" s="16"/>
       <c r="G177" s="15"/>
     </row>
-    <row r="178" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D179" s="16"/>
       <c r="G179" s="15"/>
     </row>
-    <row r="180" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D180" s="16"/>
       <c r="G180" s="15"/>
     </row>
-    <row r="181" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D181" s="16"/>
       <c r="G181" s="15"/>
     </row>
-    <row r="182" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D182" s="16"/>
       <c r="G182" s="15"/>
     </row>
-    <row r="183" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D183" s="16"/>
       <c r="G183" s="15"/>
     </row>
-    <row r="184" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D184" s="16"/>
       <c r="G184" s="15"/>
     </row>
-    <row r="185" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D185" s="16"/>
       <c r="G185" s="15"/>
     </row>
-    <row r="186" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D186" s="16"/>
       <c r="G186" s="15"/>
     </row>
-    <row r="187" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D188" s="16"/>
       <c r="G188" s="15"/>
     </row>
-    <row r="189" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D189" s="16"/>
       <c r="G189" s="15"/>
     </row>
-    <row r="190" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D190" s="16"/>
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D191" s="16"/>
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D192" s="16"/>
       <c r="G192" s="15"/>
     </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D193" s="16"/>
       <c r="G193" s="15"/>
     </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D194" s="16"/>
       <c r="G194" s="15"/>
     </row>
-    <row r="195" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D195" s="16"/>
       <c r="G195" s="15"/>
     </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D197" s="16"/>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D198" s="16"/>
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D199" s="16"/>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D200" s="16"/>
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D201" s="16"/>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D202" s="16"/>
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D203" s="16"/>
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D204" s="16"/>
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D206" s="16"/>
       <c r="G206" s="15"/>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D207" s="16"/>
       <c r="G207" s="15"/>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D208" s="16"/>
       <c r="G208" s="15"/>
     </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D209" s="16"/>
       <c r="G209" s="15"/>
     </row>
-    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D210" s="16"/>
       <c r="G210" s="15"/>
     </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D211" s="16"/>
       <c r="G211" s="15"/>
     </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D212" s="16"/>
       <c r="G212" s="15"/>
     </row>
-    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D213" s="16"/>
       <c r="G213" s="15"/>
     </row>
-    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D215" s="16"/>
       <c r="G215" s="15"/>
     </row>
-    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D216" s="16"/>
       <c r="G216" s="15"/>
     </row>
-    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D217" s="16"/>
       <c r="G217" s="15"/>
     </row>
-    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D218" s="16"/>
       <c r="G218" s="15"/>
     </row>
-    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D219" s="16"/>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D220" s="16"/>
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D221" s="16"/>
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D222" s="16"/>
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D224" s="16"/>
       <c r="G224" s="15"/>
     </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D225" s="16"/>
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D226" s="16"/>
       <c r="G226" s="15"/>
     </row>
-    <row r="227" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D227" s="16"/>
       <c r="G227" s="15"/>
     </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D228" s="16"/>
       <c r="G228" s="15"/>
     </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D229" s="16"/>
       <c r="G229" s="15"/>
     </row>
-    <row r="230" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D230" s="16"/>
       <c r="G230" s="15"/>
     </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D231" s="16"/>
       <c r="G231" s="15"/>
     </row>
-    <row r="232" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D233" s="16"/>
       <c r="G233" s="15"/>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D234" s="16"/>
       <c r="G234" s="15"/>
     </row>
-    <row r="235" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D235" s="16"/>
       <c r="G235" s="15"/>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D236" s="16"/>
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D237" s="16"/>
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D238" s="16"/>
       <c r="G238" s="15"/>
     </row>
-    <row r="239" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D239" s="16"/>
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D240" s="16"/>
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D242" s="16"/>
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D243" s="16"/>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D244" s="16"/>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D245" s="16"/>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D246" s="16"/>
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D247" s="16"/>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D248" s="16"/>
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D249" s="16"/>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D251" s="16"/>
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D252" s="16"/>
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D253" s="16"/>
       <c r="G253" s="15"/>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D254" s="16"/>
       <c r="G254" s="15"/>
     </row>
-    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D255" s="16"/>
       <c r="G255" s="15"/>
     </row>
-    <row r="256" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D256" s="16"/>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D257" s="16"/>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D258" s="16"/>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D260" s="16"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D261" s="16"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D262" s="16"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D263" s="16"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D264" s="16"/>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D265" s="16"/>
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D266" s="16"/>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D267" s="16"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D268" s="16"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D270" s="16"/>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D271" s="16"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D272" s="16"/>
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D273" s="16"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D274" s="16"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D275" s="16"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D276" s="16"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D277" s="16"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D278" s="16"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D280" s="16"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D281" s="16"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D282" s="16"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D283" s="16"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D284" s="16"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D285" s="16"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D286" s="16"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D288" s="16"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Aathithya</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -685,13 +688,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G602">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G602"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
     <tableColumn id="2" name="UserID" dataDxfId="18"/>
@@ -1022,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
-      <selection activeCell="L173" sqref="L173"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6187,28 +6184,252 @@
       <c r="I181" s="15"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I182" s="15"/>
+      <c r="A182" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G182" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H182" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I182" s="15">
+        <v>402</v>
+      </c>
+      <c r="J182" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K182" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>83.75</v>
+      </c>
+      <c r="L182" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I183" s="15"/>
+      <c r="A183" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G183" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H183" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I183" s="15">
+        <v>402</v>
+      </c>
+      <c r="J183" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K183" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>50.25</v>
+      </c>
+      <c r="L183" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I184" s="15"/>
+      <c r="A184" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G184" s="14">
+        <v>500</v>
+      </c>
+      <c r="H184" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I184" s="15">
+        <v>402</v>
+      </c>
+      <c r="J184" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K184" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>16.75</v>
+      </c>
+      <c r="L184" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I185" s="15"/>
+      <c r="A185" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H185" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I185" s="15">
+        <v>402</v>
+      </c>
+      <c r="J185" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K185" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>50.25</v>
+      </c>
+      <c r="L185" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I186" s="15"/>
+      <c r="A186" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G186" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H186" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I186" s="15">
+        <v>402</v>
+      </c>
+      <c r="J186" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K186" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>33.5</v>
+      </c>
+      <c r="L186" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I187" s="15"/>
+      <c r="A187" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B187" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C187" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G187" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H187" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I187" s="15">
+        <v>402</v>
+      </c>
+      <c r="J187" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K187" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>67</v>
+      </c>
+      <c r="L187" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I188" s="15"/>
+      <c r="A188" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C188" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G188" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H188" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I188" s="15">
+        <v>402</v>
+      </c>
+      <c r="J188" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K188" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>67</v>
+      </c>
+      <c r="L188" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I189" s="15"/>
+      <c r="A189" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G189" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H189" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I189" s="15">
+        <v>402</v>
+      </c>
+      <c r="J189" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K189" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>33.5</v>
+      </c>
+      <c r="L189" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I190" s="15"/>
@@ -7034,7 +7255,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1770.8304329363286</v>
+        <v>1854.5804329363286</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -7055,7 +7276,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1088.6938439117544</v>
+        <v>1138.9438439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -7076,7 +7297,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>380.71202572993616</v>
+        <v>397.46202572993616</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -7097,7 +7318,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1085.5249660786974</v>
+        <v>1135.7749660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -7118,7 +7339,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>485.96665535956578</v>
+        <v>519.46665535956572</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -7139,7 +7360,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1447.3666214382631</v>
+        <v>1514.3666214382631</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -7160,7 +7381,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1254.4636363636366</v>
+        <v>1321.4636363636366</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -7181,7 +7402,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>404.43181818181813</v>
+        <v>437.93181818181813</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -7205,8 +7426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F603" sqref="F603"/>
+    <sheetView topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7244,7 +7465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -7267,7 +7488,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -7290,7 +7511,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -7313,11 +7534,11 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45981</v>
       </c>
@@ -7340,7 +7561,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -7363,7 +7584,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -7386,11 +7607,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -7413,7 +7634,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -7436,7 +7657,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -7459,7 +7680,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -7482,7 +7703,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -7505,7 +7726,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -7528,11 +7749,11 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45992</v>
       </c>
@@ -7555,7 +7776,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -7578,7 +7799,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -7601,7 +7822,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -7624,7 +7845,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -7647,7 +7868,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -7670,11 +7891,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45993</v>
       </c>
@@ -7697,7 +7918,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -7720,7 +7941,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -7743,7 +7964,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -7766,7 +7987,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -7789,7 +8010,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -7812,11 +8033,11 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45994</v>
       </c>
@@ -7839,7 +8060,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -7862,7 +8083,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -7885,7 +8106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -7908,7 +8129,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -7931,7 +8152,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -7954,7 +8175,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -7977,11 +8198,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45995</v>
       </c>
@@ -8004,7 +8225,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -8027,7 +8248,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -8050,7 +8271,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -8073,7 +8294,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -8096,7 +8317,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -8119,7 +8340,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -8142,11 +8363,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45998</v>
       </c>
@@ -8169,7 +8390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -8192,7 +8413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -8215,7 +8436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -8238,7 +8459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -8261,7 +8482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -8284,7 +8505,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -8307,11 +8528,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45999</v>
       </c>
@@ -8334,7 +8555,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -8357,7 +8578,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -8380,7 +8601,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -8403,7 +8624,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -8426,7 +8647,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -8449,7 +8670,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -8472,11 +8693,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>46000</v>
       </c>
@@ -8499,7 +8720,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -8522,7 +8743,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -8545,7 +8766,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -8568,7 +8789,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -8591,7 +8812,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -8614,7 +8835,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -8637,11 +8858,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>46001</v>
       </c>
@@ -8664,7 +8885,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -8687,7 +8908,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -8710,7 +8931,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -8733,7 +8954,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -8756,7 +8977,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -8779,7 +9000,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -8802,7 +9023,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -8825,11 +9046,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>46002</v>
       </c>
@@ -8852,7 +9073,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -8875,7 +9096,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -8898,7 +9119,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -8921,7 +9142,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -8944,7 +9165,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -8967,7 +9188,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -8990,7 +9211,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -9013,11 +9234,11 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>46003</v>
       </c>
@@ -9040,7 +9261,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -9063,7 +9284,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -9086,7 +9307,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -9109,7 +9330,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -9132,7 +9353,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -9155,7 +9376,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -9178,7 +9399,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -9201,11 +9422,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>46004</v>
       </c>
@@ -9228,7 +9449,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -9251,7 +9472,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -9274,7 +9495,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -9297,7 +9518,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -9320,7 +9541,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -9343,7 +9564,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -9366,7 +9587,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -9389,11 +9610,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>46005</v>
       </c>
@@ -9416,7 +9637,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -9439,7 +9660,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -9462,7 +9683,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -9485,7 +9706,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -9508,7 +9729,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -9531,7 +9752,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -9554,7 +9775,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -9577,10 +9798,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>46006</v>
       </c>
@@ -9603,7 +9824,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -9626,7 +9847,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -9649,7 +9870,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -9672,7 +9893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -9695,7 +9916,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -9718,7 +9939,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -9741,7 +9962,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -9764,11 +9985,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>46007</v>
       </c>
@@ -9791,7 +10012,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -9814,7 +10035,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -9837,7 +10058,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -9860,7 +10081,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -9883,7 +10104,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -9906,7 +10127,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -9929,7 +10150,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -9952,11 +10173,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>46008</v>
       </c>
@@ -9979,7 +10200,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -10002,7 +10223,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -10025,7 +10246,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -10048,7 +10269,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -10071,7 +10292,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -10094,7 +10315,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -10117,7 +10338,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -10140,11 +10361,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="28">
         <v>46009</v>
       </c>
@@ -10167,7 +10388,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -10190,7 +10411,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -10213,7 +10434,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -10236,7 +10457,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -10259,7 +10480,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -10282,7 +10503,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -10305,7 +10526,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -10328,11 +10549,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="28">
         <v>46010</v>
       </c>
@@ -10355,7 +10576,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -10378,7 +10599,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -10401,7 +10622,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -10424,7 +10645,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -10447,7 +10668,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -10470,7 +10691,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -10493,7 +10714,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -10516,7 +10737,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
@@ -10704,1571 +10925,1723 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D170" s="16"/>
-      <c r="G170" s="15"/>
-    </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D171" s="16"/>
-      <c r="G171" s="15"/>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D172" s="16"/>
-      <c r="G172" s="15"/>
-    </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D173" s="16"/>
-      <c r="G173" s="15"/>
-    </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D174" s="16"/>
-      <c r="G174" s="15"/>
-    </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D175" s="16"/>
-      <c r="G175" s="15"/>
-    </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D176" s="16"/>
-      <c r="G176" s="15"/>
-    </row>
-    <row r="177" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D177" s="16"/>
-      <c r="G177" s="15"/>
-    </row>
-    <row r="178" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D170" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E170" s="15">
+        <v>83.75</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G170" s="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C171" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D171" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E171" s="15">
+        <v>50.25</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G171" s="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C172" s="14">
+        <v>500</v>
+      </c>
+      <c r="D172" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E172" s="15">
+        <v>16.75</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G172" s="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C173" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D173" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E173" s="15">
+        <v>50.25</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G173" s="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C174" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D174" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E174" s="15">
+        <v>33.5</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G174" s="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B175" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C175" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D175" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E175" s="15">
+        <v>67</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G175" s="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C176" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D176" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E176" s="15">
+        <v>67</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G176" s="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="28">
+        <v>46012</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D177" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E177" s="15">
+        <v>33.5</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G177" s="15">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D179" s="16"/>
       <c r="G179" s="15"/>
     </row>
-    <row r="180" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D180" s="16"/>
       <c r="G180" s="15"/>
     </row>
-    <row r="181" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D181" s="16"/>
       <c r="G181" s="15"/>
     </row>
-    <row r="182" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D182" s="16"/>
       <c r="G182" s="15"/>
     </row>
-    <row r="183" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D183" s="16"/>
       <c r="G183" s="15"/>
     </row>
-    <row r="184" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D184" s="16"/>
       <c r="G184" s="15"/>
     </row>
-    <row r="185" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D185" s="16"/>
       <c r="G185" s="15"/>
     </row>
-    <row r="186" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D186" s="16"/>
       <c r="G186" s="15"/>
     </row>
-    <row r="187" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D188" s="16"/>
       <c r="G188" s="15"/>
     </row>
-    <row r="189" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D189" s="16"/>
       <c r="G189" s="15"/>
     </row>
-    <row r="190" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D190" s="16"/>
       <c r="G190" s="15"/>
     </row>
-    <row r="191" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D191" s="16"/>
       <c r="G191" s="15"/>
     </row>
-    <row r="192" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D192" s="16"/>
       <c r="G192" s="15"/>
     </row>
-    <row r="193" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D193" s="16"/>
       <c r="G193" s="15"/>
     </row>
-    <row r="194" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D194" s="16"/>
       <c r="G194" s="15"/>
     </row>
-    <row r="195" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D195" s="16"/>
       <c r="G195" s="15"/>
     </row>
-    <row r="196" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D197" s="16"/>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D198" s="16"/>
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D199" s="16"/>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D200" s="16"/>
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D201" s="16"/>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D202" s="16"/>
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D203" s="16"/>
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D204" s="16"/>
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D206" s="16"/>
       <c r="G206" s="15"/>
     </row>
-    <row r="207" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D207" s="16"/>
       <c r="G207" s="15"/>
     </row>
-    <row r="208" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D208" s="16"/>
       <c r="G208" s="15"/>
     </row>
-    <row r="209" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D209" s="16"/>
       <c r="G209" s="15"/>
     </row>
-    <row r="210" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D210" s="16"/>
       <c r="G210" s="15"/>
     </row>
-    <row r="211" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D211" s="16"/>
       <c r="G211" s="15"/>
     </row>
-    <row r="212" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D212" s="16"/>
       <c r="G212" s="15"/>
     </row>
-    <row r="213" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D213" s="16"/>
       <c r="G213" s="15"/>
     </row>
-    <row r="214" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D215" s="16"/>
       <c r="G215" s="15"/>
     </row>
-    <row r="216" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D216" s="16"/>
       <c r="G216" s="15"/>
     </row>
-    <row r="217" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D217" s="16"/>
       <c r="G217" s="15"/>
     </row>
-    <row r="218" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D218" s="16"/>
       <c r="G218" s="15"/>
     </row>
-    <row r="219" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D219" s="16"/>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D220" s="16"/>
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D221" s="16"/>
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D222" s="16"/>
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D224" s="16"/>
       <c r="G224" s="15"/>
     </row>
-    <row r="225" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D225" s="16"/>
       <c r="G225" s="15"/>
     </row>
-    <row r="226" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D226" s="16"/>
       <c r="G226" s="15"/>
     </row>
-    <row r="227" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D227" s="16"/>
       <c r="G227" s="15"/>
     </row>
-    <row r="228" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D228" s="16"/>
       <c r="G228" s="15"/>
     </row>
-    <row r="229" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D229" s="16"/>
       <c r="G229" s="15"/>
     </row>
-    <row r="230" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D230" s="16"/>
       <c r="G230" s="15"/>
     </row>
-    <row r="231" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D231" s="16"/>
       <c r="G231" s="15"/>
     </row>
-    <row r="232" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D233" s="16"/>
       <c r="G233" s="15"/>
     </row>
-    <row r="234" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D234" s="16"/>
       <c r="G234" s="15"/>
     </row>
-    <row r="235" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D235" s="16"/>
       <c r="G235" s="15"/>
     </row>
-    <row r="236" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D236" s="16"/>
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D237" s="16"/>
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D238" s="16"/>
       <c r="G238" s="15"/>
     </row>
-    <row r="239" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D239" s="16"/>
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D240" s="16"/>
       <c r="G240" s="15"/>
     </row>
-    <row r="241" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D242" s="16"/>
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D243" s="16"/>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D244" s="16"/>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D245" s="16"/>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D246" s="16"/>
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D247" s="16"/>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D248" s="16"/>
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D249" s="16"/>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D251" s="16"/>
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D252" s="16"/>
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D253" s="16"/>
       <c r="G253" s="15"/>
     </row>
-    <row r="254" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D254" s="16"/>
       <c r="G254" s="15"/>
     </row>
-    <row r="255" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D255" s="16"/>
       <c r="G255" s="15"/>
     </row>
-    <row r="256" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D256" s="16"/>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D257" s="16"/>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D258" s="16"/>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D260" s="16"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D261" s="16"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D262" s="16"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D263" s="16"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D264" s="16"/>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D265" s="16"/>
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D266" s="16"/>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D267" s="16"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D268" s="16"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D270" s="16"/>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D271" s="16"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D272" s="16"/>
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D273" s="16"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D274" s="16"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D275" s="16"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D276" s="16"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D277" s="16"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D278" s="16"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D280" s="16"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D281" s="16"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D282" s="16"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D283" s="16"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D284" s="16"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D285" s="16"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D286" s="16"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D288" s="16"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="H186" sqref="H186"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="J199" sqref="J199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6435,57 +6435,281 @@
       <c r="I190" s="15"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I191" s="15"/>
+      <c r="A191" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H191" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I191" s="15">
+        <v>379</v>
+      </c>
+      <c r="J191" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K191" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>78.958333333333343</v>
+      </c>
+      <c r="L191" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I192" s="15"/>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I193" s="15"/>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I194" s="15"/>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I195" s="15"/>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I196" s="15"/>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I197" s="15"/>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I198" s="15"/>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="A192" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G192" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H192" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I192" s="15">
+        <v>379</v>
+      </c>
+      <c r="J192" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K192" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>47.375</v>
+      </c>
+      <c r="L192" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A193" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C193" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G193" s="14">
+        <v>500</v>
+      </c>
+      <c r="H193" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I193" s="15">
+        <v>379</v>
+      </c>
+      <c r="J193" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K193" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>15.791666666666666</v>
+      </c>
+      <c r="L193" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A194" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C194" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H194" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I194" s="15">
+        <v>379</v>
+      </c>
+      <c r="J194" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K194" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>47.375</v>
+      </c>
+      <c r="L194" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A195" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G195" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H195" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I195" s="15">
+        <v>379</v>
+      </c>
+      <c r="J195" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K195" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>31.583333333333332</v>
+      </c>
+      <c r="L195" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A196" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B196" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C196" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G196" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H196" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I196" s="15">
+        <v>379</v>
+      </c>
+      <c r="J196" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K196" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>63.166666666666664</v>
+      </c>
+      <c r="L196" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A197" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C197" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G197" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H197" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I197" s="15">
+        <v>379</v>
+      </c>
+      <c r="J197" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K197" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>63.166666666666664</v>
+      </c>
+      <c r="L197" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A198" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C198" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G198" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H198" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I198" s="15">
+        <v>379</v>
+      </c>
+      <c r="J198" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K198" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>31.583333333333332</v>
+      </c>
+      <c r="L198" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I199" s="15"/>
     </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I200" s="15"/>
     </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I201" s="15"/>
     </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I202" s="15"/>
     </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I203" s="15"/>
     </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I204" s="15"/>
     </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I205" s="15"/>
     </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I206" s="15"/>
     </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I207" s="15"/>
     </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I208" s="15"/>
     </row>
     <row r="209" spans="9:9" x14ac:dyDescent="0.25">
@@ -7207,7 +7431,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7255,7 +7479,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1854.5804329363286</v>
+        <v>1933.5387662696619</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -7276,7 +7500,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1138.9438439117544</v>
+        <v>1186.3188439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -7297,7 +7521,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>397.46202572993616</v>
+        <v>413.25369239660284</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -7318,7 +7542,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1135.7749660786974</v>
+        <v>1183.1499660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -7339,7 +7563,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>519.46665535956572</v>
+        <v>551.04998869289909</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -7360,7 +7584,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1514.3666214382631</v>
+        <v>1577.5332881049299</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -7381,7 +7605,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1321.4636363636366</v>
+        <v>1384.6303030303034</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -7402,7 +7626,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>437.93181818181813</v>
+        <v>469.51515151515144</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -7426,8 +7650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="F178" sqref="F178"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11118,36 +11342,188 @@
       <c r="G178" s="15"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D179" s="16"/>
-      <c r="G179" s="15"/>
+      <c r="A179" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D179" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E179" s="15">
+        <v>78.958333333333343</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G179" s="15">
+        <v>379</v>
+      </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D180" s="16"/>
-      <c r="G180" s="15"/>
+      <c r="A180" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B180" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D180" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E180" s="15">
+        <v>47.375</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G180" s="15">
+        <v>379</v>
+      </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D181" s="16"/>
-      <c r="G181" s="15"/>
+      <c r="A181" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C181" s="14">
+        <v>500</v>
+      </c>
+      <c r="D181" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E181" s="15">
+        <v>15.791666666666666</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G181" s="15">
+        <v>379</v>
+      </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D182" s="16"/>
-      <c r="G182" s="15"/>
+      <c r="A182" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B182" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C182" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D182" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E182" s="15">
+        <v>47.375</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G182" s="15">
+        <v>379</v>
+      </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D183" s="16"/>
-      <c r="G183" s="15"/>
+      <c r="A183" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B183" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C183" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D183" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E183" s="15">
+        <v>31.583333333333332</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G183" s="15">
+        <v>379</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D184" s="16"/>
-      <c r="G184" s="15"/>
+      <c r="A184" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B184" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C184" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D184" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E184" s="15">
+        <v>63.166666666666664</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G184" s="15">
+        <v>379</v>
+      </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D185" s="16"/>
-      <c r="G185" s="15"/>
+      <c r="A185" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C185" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D185" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E185" s="15">
+        <v>63.166666666666664</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G185" s="15">
+        <v>379</v>
+      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D186" s="16"/>
-      <c r="G186" s="15"/>
+      <c r="A186" s="28">
+        <v>46013</v>
+      </c>
+      <c r="B186" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C186" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D186" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E186" s="15">
+        <v>31.583333333333332</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G186" s="15">
+        <v>379</v>
+      </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="79">
   <si>
     <t>UserID</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Aathithya</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1017,7 @@
   <dimension ref="A1:L5641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="J199" sqref="J199"/>
+      <selection activeCell="L191" sqref="L191:L198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6211,7 +6208,7 @@
         <v>83.75</v>
       </c>
       <c r="L182" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
@@ -6242,7 +6239,7 @@
         <v>50.25</v>
       </c>
       <c r="L183" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -6273,7 +6270,7 @@
         <v>16.75</v>
       </c>
       <c r="L184" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -6304,7 +6301,7 @@
         <v>50.25</v>
       </c>
       <c r="L185" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
@@ -6335,7 +6332,7 @@
         <v>33.5</v>
       </c>
       <c r="L186" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -6366,7 +6363,7 @@
         <v>67</v>
       </c>
       <c r="L187" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -6397,7 +6394,7 @@
         <v>67</v>
       </c>
       <c r="L188" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -6428,7 +6425,7 @@
         <v>33.5</v>
       </c>
       <c r="L189" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -6462,7 +6459,7 @@
         <v>78.958333333333343</v>
       </c>
       <c r="L191" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -6493,7 +6490,7 @@
         <v>47.375</v>
       </c>
       <c r="L192" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -6524,7 +6521,7 @@
         <v>15.791666666666666</v>
       </c>
       <c r="L193" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -6555,7 +6552,7 @@
         <v>47.375</v>
       </c>
       <c r="L194" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -6586,7 +6583,7 @@
         <v>31.583333333333332</v>
       </c>
       <c r="L195" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -6617,7 +6614,7 @@
         <v>63.166666666666664</v>
       </c>
       <c r="L196" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -6648,7 +6645,7 @@
         <v>63.166666666666664</v>
       </c>
       <c r="L197" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -6679,7 +6676,7 @@
         <v>31.583333333333332</v>
       </c>
       <c r="L198" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -7431,7 +7428,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7651,7 +7648,7 @@
   <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F603" sqref="F603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11170,7 +11167,7 @@
         <v>83.75</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G170" s="15">
         <v>402</v>
@@ -11193,7 +11190,7 @@
         <v>50.25</v>
       </c>
       <c r="F171" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G171" s="15">
         <v>402</v>
@@ -11216,7 +11213,7 @@
         <v>16.75</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G172" s="15">
         <v>402</v>
@@ -11239,7 +11236,7 @@
         <v>50.25</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G173" s="15">
         <v>402</v>
@@ -11262,7 +11259,7 @@
         <v>33.5</v>
       </c>
       <c r="F174" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G174" s="15">
         <v>402</v>
@@ -11285,7 +11282,7 @@
         <v>67</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G175" s="15">
         <v>402</v>
@@ -11308,7 +11305,7 @@
         <v>67</v>
       </c>
       <c r="F176" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G176" s="15">
         <v>402</v>
@@ -11331,7 +11328,7 @@
         <v>33.5</v>
       </c>
       <c r="F177" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G177" s="15">
         <v>402</v>
@@ -11358,7 +11355,7 @@
         <v>78.958333333333343</v>
       </c>
       <c r="F179" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G179" s="15">
         <v>379</v>
@@ -11381,7 +11378,7 @@
         <v>47.375</v>
       </c>
       <c r="F180" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G180" s="15">
         <v>379</v>
@@ -11404,7 +11401,7 @@
         <v>15.791666666666666</v>
       </c>
       <c r="F181" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G181" s="15">
         <v>379</v>
@@ -11427,7 +11424,7 @@
         <v>47.375</v>
       </c>
       <c r="F182" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G182" s="15">
         <v>379</v>
@@ -11450,7 +11447,7 @@
         <v>31.583333333333332</v>
       </c>
       <c r="F183" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G183" s="15">
         <v>379</v>
@@ -11473,7 +11470,7 @@
         <v>63.166666666666664</v>
       </c>
       <c r="F184" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G184" s="15">
         <v>379</v>
@@ -11496,7 +11493,7 @@
         <v>63.166666666666664</v>
       </c>
       <c r="F185" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G185" s="15">
         <v>379</v>
@@ -11519,7 +11516,7 @@
         <v>31.583333333333332</v>
       </c>
       <c r="F186" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G186" s="15">
         <v>379</v>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Aathithya</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="L191" sqref="L191:L198"/>
+    <sheetView topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="K200" sqref="K200:K207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6683,28 +6686,252 @@
       <c r="I199" s="15"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I200" s="15"/>
+      <c r="A200" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H200" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I200" s="15">
+        <v>522</v>
+      </c>
+      <c r="J200" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K200" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>108.75</v>
+      </c>
+      <c r="L200" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I201" s="15"/>
+      <c r="A201" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C201" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G201" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H201" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I201" s="15">
+        <v>522</v>
+      </c>
+      <c r="J201" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K201" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>65.25</v>
+      </c>
+      <c r="L201" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I202" s="15"/>
+      <c r="A202" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C202" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G202" s="14">
+        <v>500</v>
+      </c>
+      <c r="H202" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I202" s="15">
+        <v>522</v>
+      </c>
+      <c r="J202" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K202" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>21.75</v>
+      </c>
+      <c r="L202" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I203" s="15"/>
+      <c r="A203" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C203" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G203" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H203" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I203" s="15">
+        <v>522</v>
+      </c>
+      <c r="J203" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K203" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>65.25</v>
+      </c>
+      <c r="L203" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I204" s="15"/>
+      <c r="A204" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C204" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G204" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H204" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I204" s="15">
+        <v>522</v>
+      </c>
+      <c r="J204" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K204" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>43.5</v>
+      </c>
+      <c r="L204" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I205" s="15"/>
+      <c r="A205" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C205" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G205" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H205" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I205" s="15">
+        <v>522</v>
+      </c>
+      <c r="J205" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K205" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>87</v>
+      </c>
+      <c r="L205" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I206" s="15"/>
+      <c r="A206" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G206" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H206" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I206" s="15">
+        <v>522</v>
+      </c>
+      <c r="J206" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K206" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>87</v>
+      </c>
+      <c r="L206" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I207" s="15"/>
+      <c r="A207" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C207" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G207" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H207" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I207" s="15">
+        <v>522</v>
+      </c>
+      <c r="J207" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K207" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>43.5</v>
+      </c>
+      <c r="L207" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I208" s="15"/>
@@ -7476,7 +7703,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1933.5387662696619</v>
+        <v>2042.2887662696619</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -7497,7 +7724,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1186.3188439117544</v>
+        <v>1251.5688439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -7518,7 +7745,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>413.25369239660284</v>
+        <v>435.00369239660284</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -7539,7 +7766,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1183.1499660786974</v>
+        <v>1248.3999660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -7560,7 +7787,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>551.04998869289909</v>
+        <v>594.54998869289909</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -7581,7 +7808,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1577.5332881049299</v>
+        <v>1664.5332881049299</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -7602,7 +7829,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1384.6303030303034</v>
+        <v>1471.6303030303034</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -7623,7 +7850,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>469.51515151515144</v>
+        <v>513.0151515151515</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -7647,8 +7874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F603" sqref="F603"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11527,86 +11754,238 @@
       <c r="G187" s="15"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D188" s="16"/>
-      <c r="G188" s="15"/>
+      <c r="A188" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B188" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D188" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E188" s="15">
+        <v>108.75</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G188" s="15">
+        <v>522</v>
+      </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D189" s="16"/>
-      <c r="G189" s="15"/>
+      <c r="A189" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B189" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C189" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D189" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E189" s="15">
+        <v>65.25</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G189" s="15">
+        <v>522</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D190" s="16"/>
-      <c r="G190" s="15"/>
+      <c r="A190" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B190" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C190" s="14">
+        <v>500</v>
+      </c>
+      <c r="D190" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E190" s="15">
+        <v>21.75</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G190" s="15">
+        <v>522</v>
+      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D191" s="16"/>
-      <c r="G191" s="15"/>
+      <c r="A191" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B191" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C191" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D191" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E191" s="15">
+        <v>65.25</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G191" s="15">
+        <v>522</v>
+      </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D192" s="16"/>
-      <c r="G192" s="15"/>
-    </row>
-    <row r="193" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D193" s="16"/>
-      <c r="G193" s="15"/>
-    </row>
-    <row r="194" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D194" s="16"/>
-      <c r="G194" s="15"/>
-    </row>
-    <row r="195" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D195" s="16"/>
-      <c r="G195" s="15"/>
-    </row>
-    <row r="196" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B192" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D192" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E192" s="15">
+        <v>43.5</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G192" s="15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B193" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C193" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D193" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E193" s="15">
+        <v>87</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G193" s="15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B194" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C194" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D194" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E194" s="15">
+        <v>87</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G194" s="15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="28">
+        <v>46014</v>
+      </c>
+      <c r="B195" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C195" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D195" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E195" s="15">
+        <v>43.5</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G195" s="15">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D197" s="16"/>
       <c r="G197" s="15"/>
     </row>
-    <row r="198" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D198" s="16"/>
       <c r="G198" s="15"/>
     </row>
-    <row r="199" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D199" s="16"/>
       <c r="G199" s="15"/>
     </row>
-    <row r="200" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D200" s="16"/>
       <c r="G200" s="15"/>
     </row>
-    <row r="201" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D201" s="16"/>
       <c r="G201" s="15"/>
     </row>
-    <row r="202" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D202" s="16"/>
       <c r="G202" s="15"/>
     </row>
-    <row r="203" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D203" s="16"/>
       <c r="G203" s="15"/>
     </row>
-    <row r="204" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D204" s="16"/>
       <c r="G204" s="15"/>
     </row>
-    <row r="205" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D206" s="16"/>
       <c r="G206" s="15"/>
     </row>
-    <row r="207" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D207" s="16"/>
       <c r="G207" s="15"/>
     </row>
-    <row r="208" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D208" s="16"/>
       <c r="G208" s="15"/>
     </row>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="K200" sqref="K200:K207"/>
+    <sheetView topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="K209" sqref="K209:K216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6936,52 +6936,276 @@
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I208" s="15"/>
     </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I209" s="15"/>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I210" s="15"/>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I211" s="15"/>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I212" s="15"/>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I213" s="15"/>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I214" s="15"/>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I215" s="15"/>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I216" s="15"/>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A209" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H209" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I209" s="15">
+        <v>337</v>
+      </c>
+      <c r="J209" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K209" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>70.208333333333343</v>
+      </c>
+      <c r="L209" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A210" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G210" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H210" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I210" s="15">
+        <v>337</v>
+      </c>
+      <c r="J210" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K210" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>42.125</v>
+      </c>
+      <c r="L210" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A211" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C211" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G211" s="14">
+        <v>500</v>
+      </c>
+      <c r="H211" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I211" s="15">
+        <v>337</v>
+      </c>
+      <c r="J211" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K211" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>14.041666666666666</v>
+      </c>
+      <c r="L211" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A212" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B212" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G212" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H212" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I212" s="15">
+        <v>337</v>
+      </c>
+      <c r="J212" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K212" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>42.125</v>
+      </c>
+      <c r="L212" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A213" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C213" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G213" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H213" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I213" s="15">
+        <v>337</v>
+      </c>
+      <c r="J213" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K213" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>28.083333333333332</v>
+      </c>
+      <c r="L213" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A214" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B214" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G214" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H214" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I214" s="15">
+        <v>337</v>
+      </c>
+      <c r="J214" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K214" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>56.166666666666664</v>
+      </c>
+      <c r="L214" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A215" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B215" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C215" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G215" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H215" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I215" s="15">
+        <v>337</v>
+      </c>
+      <c r="J215" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K215" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>56.166666666666664</v>
+      </c>
+      <c r="L215" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A216" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B216" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C216" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G216" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H216" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I216" s="15">
+        <v>337</v>
+      </c>
+      <c r="J216" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K216" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>28.083333333333332</v>
+      </c>
+      <c r="L216" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I217" s="15"/>
     </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I218" s="15"/>
     </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I219" s="15"/>
     </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I220" s="15"/>
     </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I221" s="15"/>
     </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I222" s="15"/>
     </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I223" s="15"/>
     </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I224" s="15"/>
     </row>
     <row r="225" spans="9:9" x14ac:dyDescent="0.25">
@@ -7703,7 +7927,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2042.2887662696619</v>
+        <v>2112.4970996029951</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -7724,7 +7948,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1251.5688439117544</v>
+        <v>1293.6938439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -7745,7 +7969,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>435.00369239660284</v>
+        <v>449.04535906326953</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -7766,7 +7990,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1248.3999660786974</v>
+        <v>1290.5249660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -7787,7 +8011,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>594.54998869289909</v>
+        <v>622.63332202623246</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -7808,7 +8032,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1664.5332881049299</v>
+        <v>1720.6999547715966</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -7829,7 +8053,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1471.6303030303034</v>
+        <v>1527.7969696969701</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -7850,7 +8074,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>513.0151515151515</v>
+        <v>541.09848484848487</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -7875,7 +8099,7 @@
   <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="G195" sqref="G195"/>
+      <selection activeCell="E197" sqref="E197:E204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11942,36 +12166,188 @@
       <c r="G196" s="15"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D197" s="16"/>
-      <c r="G197" s="15"/>
+      <c r="A197" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B197" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D197" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E197" s="15">
+        <v>70.208333333333343</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G197" s="15">
+        <v>337</v>
+      </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D198" s="16"/>
-      <c r="G198" s="15"/>
+      <c r="A198" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B198" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C198" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D198" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E198" s="15">
+        <v>42.125</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G198" s="15">
+        <v>337</v>
+      </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D199" s="16"/>
-      <c r="G199" s="15"/>
+      <c r="A199" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B199" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C199" s="14">
+        <v>500</v>
+      </c>
+      <c r="D199" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E199" s="15">
+        <v>14.041666666666666</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G199" s="15">
+        <v>337</v>
+      </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D200" s="16"/>
-      <c r="G200" s="15"/>
+      <c r="A200" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B200" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C200" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D200" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E200" s="15">
+        <v>42.125</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G200" s="15">
+        <v>337</v>
+      </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D201" s="16"/>
-      <c r="G201" s="15"/>
+      <c r="A201" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B201" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D201" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E201" s="15">
+        <v>28.083333333333332</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G201" s="15">
+        <v>337</v>
+      </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D202" s="16"/>
-      <c r="G202" s="15"/>
+      <c r="A202" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B202" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C202" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D202" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E202" s="15">
+        <v>56.166666666666664</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G202" s="15">
+        <v>337</v>
+      </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D203" s="16"/>
-      <c r="G203" s="15"/>
+      <c r="A203" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B203" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C203" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D203" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E203" s="15">
+        <v>56.166666666666664</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G203" s="15">
+        <v>337</v>
+      </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D204" s="16"/>
-      <c r="G204" s="15"/>
+      <c r="A204" s="28">
+        <v>46015</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C204" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D204" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E204" s="15">
+        <v>28.083333333333332</v>
+      </c>
+      <c r="F204" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G204" s="15">
+        <v>337</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="79">
   <si>
     <t>UserID</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Aathithya</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1019,8 +1016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="K209" sqref="K209:K216"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="G213" sqref="G213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6713,7 +6710,7 @@
         <v>108.75</v>
       </c>
       <c r="L200" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
@@ -6744,7 +6741,7 @@
         <v>65.25</v>
       </c>
       <c r="L201" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
@@ -6775,7 +6772,7 @@
         <v>21.75</v>
       </c>
       <c r="L202" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
@@ -6806,7 +6803,7 @@
         <v>65.25</v>
       </c>
       <c r="L203" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
@@ -6837,7 +6834,7 @@
         <v>43.5</v>
       </c>
       <c r="L204" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
@@ -6868,7 +6865,7 @@
         <v>87</v>
       </c>
       <c r="L205" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
@@ -6899,7 +6896,7 @@
         <v>87</v>
       </c>
       <c r="L206" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
@@ -6930,7 +6927,7 @@
         <v>43.5</v>
       </c>
       <c r="L207" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
@@ -6964,7 +6961,7 @@
         <v>70.208333333333343</v>
       </c>
       <c r="L209" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
@@ -6995,7 +6992,7 @@
         <v>42.125</v>
       </c>
       <c r="L210" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
@@ -7026,7 +7023,7 @@
         <v>14.041666666666666</v>
       </c>
       <c r="L211" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
@@ -7057,7 +7054,7 @@
         <v>42.125</v>
       </c>
       <c r="L212" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
@@ -7088,7 +7085,7 @@
         <v>28.083333333333332</v>
       </c>
       <c r="L213" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
@@ -7119,7 +7116,7 @@
         <v>56.166666666666664</v>
       </c>
       <c r="L214" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
@@ -7150,7 +7147,7 @@
         <v>56.166666666666664</v>
       </c>
       <c r="L215" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
@@ -7181,7 +7178,7 @@
         <v>28.083333333333332</v>
       </c>
       <c r="L216" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
@@ -7879,7 +7876,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8098,8 +8095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197:E204"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11994,7 +11991,7 @@
         <v>108.75</v>
       </c>
       <c r="F188" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G188" s="15">
         <v>522</v>
@@ -12017,7 +12014,7 @@
         <v>65.25</v>
       </c>
       <c r="F189" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G189" s="15">
         <v>522</v>
@@ -12040,7 +12037,7 @@
         <v>21.75</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G190" s="15">
         <v>522</v>
@@ -12063,7 +12060,7 @@
         <v>65.25</v>
       </c>
       <c r="F191" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G191" s="15">
         <v>522</v>
@@ -12086,7 +12083,7 @@
         <v>43.5</v>
       </c>
       <c r="F192" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G192" s="15">
         <v>522</v>
@@ -12109,7 +12106,7 @@
         <v>87</v>
       </c>
       <c r="F193" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G193" s="15">
         <v>522</v>
@@ -12132,7 +12129,7 @@
         <v>87</v>
       </c>
       <c r="F194" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G194" s="15">
         <v>522</v>
@@ -12155,7 +12152,7 @@
         <v>43.5</v>
       </c>
       <c r="F195" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G195" s="15">
         <v>522</v>
@@ -12182,7 +12179,7 @@
         <v>70.208333333333343</v>
       </c>
       <c r="F197" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G197" s="15">
         <v>337</v>
@@ -12205,7 +12202,7 @@
         <v>42.125</v>
       </c>
       <c r="F198" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G198" s="15">
         <v>337</v>
@@ -12228,7 +12225,7 @@
         <v>14.041666666666666</v>
       </c>
       <c r="F199" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G199" s="15">
         <v>337</v>
@@ -12251,7 +12248,7 @@
         <v>42.125</v>
       </c>
       <c r="F200" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G200" s="15">
         <v>337</v>
@@ -12274,7 +12271,7 @@
         <v>28.083333333333332</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G201" s="15">
         <v>337</v>
@@ -12297,7 +12294,7 @@
         <v>56.166666666666664</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G202" s="15">
         <v>337</v>
@@ -12320,7 +12317,7 @@
         <v>56.166666666666664</v>
       </c>
       <c r="F203" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G203" s="15">
         <v>337</v>
@@ -12343,7 +12340,7 @@
         <v>28.083333333333332</v>
       </c>
       <c r="F204" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G204" s="15">
         <v>337</v>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Aathithya</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="G213" sqref="G213"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="K232" sqref="K232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7185,72 +7188,296 @@
       <c r="I217" s="15"/>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I218" s="15"/>
+      <c r="A218" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H218" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I218" s="15">
+        <v>424</v>
+      </c>
+      <c r="J218" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K218" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>88.333333333333343</v>
+      </c>
+      <c r="L218" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I219" s="15"/>
+      <c r="A219" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B219" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C219" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G219" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H219" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I219" s="15">
+        <v>424</v>
+      </c>
+      <c r="J219" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K219" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>53</v>
+      </c>
+      <c r="L219" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I220" s="15"/>
+      <c r="A220" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B220" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C220" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G220" s="14">
+        <v>500</v>
+      </c>
+      <c r="H220" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I220" s="15">
+        <v>424</v>
+      </c>
+      <c r="J220" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K220" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>17.666666666666664</v>
+      </c>
+      <c r="L220" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I221" s="15"/>
+      <c r="A221" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C221" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G221" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H221" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I221" s="15">
+        <v>424</v>
+      </c>
+      <c r="J221" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K221" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>53</v>
+      </c>
+      <c r="L221" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I222" s="15"/>
+      <c r="A222" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B222" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C222" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G222" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H222" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I222" s="15">
+        <v>424</v>
+      </c>
+      <c r="J222" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K222" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>35.333333333333329</v>
+      </c>
+      <c r="L222" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I223" s="15"/>
+      <c r="A223" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B223" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G223" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H223" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I223" s="15">
+        <v>424</v>
+      </c>
+      <c r="J223" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K223" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>70.666666666666657</v>
+      </c>
+      <c r="L223" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I224" s="15"/>
-    </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I225" s="15"/>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="A224" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B224" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G224" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H224" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I224" s="15">
+        <v>424</v>
+      </c>
+      <c r="J224" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K224" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>70.666666666666657</v>
+      </c>
+      <c r="L224" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A225" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B225" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C225" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G225" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H225" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I225" s="15">
+        <v>424</v>
+      </c>
+      <c r="J225" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K225" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>35.333333333333329</v>
+      </c>
+      <c r="L225" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I226" s="15"/>
     </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I227" s="15"/>
     </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I228" s="15"/>
     </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I229" s="15"/>
     </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I230" s="15"/>
     </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I231" s="15"/>
     </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I232" s="15"/>
     </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I233" s="15"/>
     </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I234" s="15"/>
     </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I235" s="15"/>
     </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I236" s="15"/>
     </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I237" s="15"/>
     </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I238" s="15"/>
     </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I239" s="15"/>
     </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I240" s="15"/>
     </row>
     <row r="241" spans="9:9" x14ac:dyDescent="0.25">
@@ -7924,7 +8151,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2112.4970996029951</v>
+        <v>2200.8304329363286</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -7945,7 +8172,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1293.6938439117544</v>
+        <v>1346.6938439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -7966,7 +8193,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>449.04535906326953</v>
+        <v>466.71202572993622</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -7987,7 +8214,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1290.5249660786974</v>
+        <v>1343.5249660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -8008,7 +8235,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>622.63332202623246</v>
+        <v>657.96665535956583</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -8029,7 +8256,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1720.6999547715966</v>
+        <v>1791.3666214382633</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -8050,7 +8277,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1527.7969696969701</v>
+        <v>1598.4636363636369</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -8071,7 +8298,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>541.09848484848487</v>
+        <v>576.43181818181824</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -8095,8 +8322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="E206" sqref="E206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12351,78 +12578,230 @@
       <c r="G205" s="15"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D206" s="16"/>
-      <c r="G206" s="15"/>
+      <c r="A206" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D206" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E206" s="15">
+        <v>88.333333333333343</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G206" s="15">
+        <v>424</v>
+      </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D207" s="16"/>
-      <c r="G207" s="15"/>
+      <c r="A207" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D207" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E207" s="15">
+        <v>53</v>
+      </c>
+      <c r="F207" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G207" s="15">
+        <v>424</v>
+      </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D208" s="16"/>
-      <c r="G208" s="15"/>
-    </row>
-    <row r="209" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D209" s="16"/>
-      <c r="G209" s="15"/>
-    </row>
-    <row r="210" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D210" s="16"/>
-      <c r="G210" s="15"/>
-    </row>
-    <row r="211" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D211" s="16"/>
-      <c r="G211" s="15"/>
-    </row>
-    <row r="212" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D212" s="16"/>
-      <c r="G212" s="15"/>
-    </row>
-    <row r="213" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D213" s="16"/>
-      <c r="G213" s="15"/>
-    </row>
-    <row r="214" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C208" s="14">
+        <v>500</v>
+      </c>
+      <c r="D208" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E208" s="15">
+        <v>17.666666666666664</v>
+      </c>
+      <c r="F208" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G208" s="15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C209" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D209" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E209" s="15">
+        <v>53</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G209" s="15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C210" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D210" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E210" s="15">
+        <v>35.333333333333329</v>
+      </c>
+      <c r="F210" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G210" s="15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C211" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D211" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E211" s="15">
+        <v>70.666666666666657</v>
+      </c>
+      <c r="F211" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G211" s="15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B212" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C212" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D212" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E212" s="15">
+        <v>70.666666666666657</v>
+      </c>
+      <c r="F212" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G212" s="15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="28">
+        <v>46016</v>
+      </c>
+      <c r="B213" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C213" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D213" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E213" s="15">
+        <v>35.333333333333329</v>
+      </c>
+      <c r="F213" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G213" s="15">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D215" s="16"/>
       <c r="G215" s="15"/>
     </row>
-    <row r="216" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D216" s="16"/>
       <c r="G216" s="15"/>
     </row>
-    <row r="217" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D217" s="16"/>
       <c r="G217" s="15"/>
     </row>
-    <row r="218" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D218" s="16"/>
       <c r="G218" s="15"/>
     </row>
-    <row r="219" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D219" s="16"/>
       <c r="G219" s="15"/>
     </row>
-    <row r="220" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D220" s="16"/>
       <c r="G220" s="15"/>
     </row>
-    <row r="221" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D221" s="16"/>
       <c r="G221" s="15"/>
     </row>
-    <row r="222" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D222" s="16"/>
       <c r="G222" s="15"/>
     </row>
-    <row r="223" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D224" s="16"/>
       <c r="G224" s="15"/>
     </row>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="K232" sqref="K232"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="J227" sqref="J227:J234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7439,28 +7439,252 @@
       <c r="I226" s="15"/>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I227" s="15"/>
+      <c r="A227" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H227" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I227" s="15">
+        <v>346</v>
+      </c>
+      <c r="J227" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K227" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>72.083333333333343</v>
+      </c>
+      <c r="L227" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I228" s="15"/>
+      <c r="A228" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C228" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G228" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H228" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I228" s="15">
+        <v>346</v>
+      </c>
+      <c r="J228" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K228" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>43.25</v>
+      </c>
+      <c r="L228" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I229" s="15"/>
+      <c r="A229" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B229" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C229" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G229" s="14">
+        <v>500</v>
+      </c>
+      <c r="H229" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I229" s="15">
+        <v>346</v>
+      </c>
+      <c r="J229" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K229" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>14.416666666666666</v>
+      </c>
+      <c r="L229" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I230" s="15"/>
+      <c r="A230" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B230" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C230" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G230" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H230" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I230" s="15">
+        <v>346</v>
+      </c>
+      <c r="J230" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K230" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>43.25</v>
+      </c>
+      <c r="L230" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I231" s="15"/>
+      <c r="A231" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B231" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C231" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G231" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H231" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I231" s="15">
+        <v>346</v>
+      </c>
+      <c r="J231" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K231" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="L231" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I232" s="15"/>
+      <c r="A232" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B232" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G232" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H232" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I232" s="15">
+        <v>346</v>
+      </c>
+      <c r="J232" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K232" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>57.666666666666664</v>
+      </c>
+      <c r="L232" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I233" s="15"/>
+      <c r="A233" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C233" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G233" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H233" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I233" s="15">
+        <v>346</v>
+      </c>
+      <c r="J233" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K233" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>57.666666666666664</v>
+      </c>
+      <c r="L233" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I234" s="15"/>
+      <c r="A234" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C234" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G234" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H234" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I234" s="15">
+        <v>346</v>
+      </c>
+      <c r="J234" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K234" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>28.833333333333332</v>
+      </c>
+      <c r="L234" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I235" s="15"/>
@@ -8151,7 +8375,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2200.8304329363286</v>
+        <v>2272.9137662696621</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -8172,7 +8396,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1346.6938439117544</v>
+        <v>1389.9438439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -8193,7 +8417,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>466.71202572993622</v>
+        <v>481.1286923966029</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -8214,7 +8438,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1343.5249660786974</v>
+        <v>1386.7749660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -8235,7 +8459,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>657.96665535956583</v>
+        <v>686.79998869289921</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -8256,7 +8480,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1791.3666214382633</v>
+        <v>1849.0332881049301</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -8277,7 +8501,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1598.4636363636369</v>
+        <v>1656.1303030303036</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -8298,7 +8522,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>576.43181818181824</v>
+        <v>605.26515151515162</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -8322,8 +8546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="E206" sqref="E206"/>
+    <sheetView topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12766,36 +12990,188 @@
       <c r="G214" s="15"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D215" s="16"/>
-      <c r="G215" s="15"/>
+      <c r="A215" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B215" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D215" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E215" s="15">
+        <v>72.083333333333343</v>
+      </c>
+      <c r="F215" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G215" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D216" s="16"/>
-      <c r="G216" s="15"/>
+      <c r="A216" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B216" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C216" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D216" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E216" s="15">
+        <v>43.25</v>
+      </c>
+      <c r="F216" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G216" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D217" s="16"/>
-      <c r="G217" s="15"/>
+      <c r="A217" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B217" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="14">
+        <v>500</v>
+      </c>
+      <c r="D217" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E217" s="15">
+        <v>14.416666666666666</v>
+      </c>
+      <c r="F217" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G217" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D218" s="16"/>
-      <c r="G218" s="15"/>
+      <c r="A218" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B218" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C218" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D218" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E218" s="15">
+        <v>43.25</v>
+      </c>
+      <c r="F218" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G218" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D219" s="16"/>
-      <c r="G219" s="15"/>
+      <c r="A219" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B219" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D219" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E219" s="15">
+        <v>28.833333333333332</v>
+      </c>
+      <c r="F219" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G219" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D220" s="16"/>
-      <c r="G220" s="15"/>
+      <c r="A220" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B220" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D220" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E220" s="15">
+        <v>57.666666666666664</v>
+      </c>
+      <c r="F220" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G220" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D221" s="16"/>
-      <c r="G221" s="15"/>
+      <c r="A221" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B221" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C221" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D221" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E221" s="15">
+        <v>57.666666666666664</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G221" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D222" s="16"/>
-      <c r="G222" s="15"/>
+      <c r="A222" s="28">
+        <v>46017</v>
+      </c>
+      <c r="B222" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C222" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D222" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E222" s="15">
+        <v>28.833333333333332</v>
+      </c>
+      <c r="F222" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G222" s="15">
+        <v>346</v>
+      </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="79">
   <si>
     <t>UserID</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t>Aathithya</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1017,7 @@
   <dimension ref="A1:L5641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="J227" sqref="J227:J234"/>
+      <selection activeCell="L225" sqref="L218:L225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7215,7 +7212,7 @@
         <v>88.333333333333343</v>
       </c>
       <c r="L218" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
@@ -7246,7 +7243,7 @@
         <v>53</v>
       </c>
       <c r="L219" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
@@ -7277,7 +7274,7 @@
         <v>17.666666666666664</v>
       </c>
       <c r="L220" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
@@ -7308,7 +7305,7 @@
         <v>53</v>
       </c>
       <c r="L221" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
@@ -7339,7 +7336,7 @@
         <v>35.333333333333329</v>
       </c>
       <c r="L222" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
@@ -7370,7 +7367,7 @@
         <v>70.666666666666657</v>
       </c>
       <c r="L223" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
@@ -7401,7 +7398,7 @@
         <v>70.666666666666657</v>
       </c>
       <c r="L224" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
@@ -7432,7 +7429,7 @@
         <v>35.333333333333329</v>
       </c>
       <c r="L225" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
@@ -7466,7 +7463,7 @@
         <v>72.083333333333343</v>
       </c>
       <c r="L227" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
@@ -7497,7 +7494,7 @@
         <v>43.25</v>
       </c>
       <c r="L228" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
@@ -7528,7 +7525,7 @@
         <v>14.416666666666666</v>
       </c>
       <c r="L229" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
@@ -7559,7 +7556,7 @@
         <v>43.25</v>
       </c>
       <c r="L230" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
@@ -7590,7 +7587,7 @@
         <v>28.833333333333332</v>
       </c>
       <c r="L231" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
@@ -7621,7 +7618,7 @@
         <v>57.666666666666664</v>
       </c>
       <c r="L232" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
@@ -7652,7 +7649,7 @@
         <v>57.666666666666664</v>
       </c>
       <c r="L233" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
@@ -7683,7 +7680,7 @@
         <v>28.833333333333332</v>
       </c>
       <c r="L234" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
@@ -8327,7 +8324,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8546,8 +8543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227"/>
+    <sheetView topLeftCell="A208" workbookViewId="0">
+      <selection activeCell="I221" sqref="I221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12818,7 +12815,7 @@
         <v>88.333333333333343</v>
       </c>
       <c r="F206" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G206" s="15">
         <v>424</v>
@@ -12841,7 +12838,7 @@
         <v>53</v>
       </c>
       <c r="F207" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G207" s="15">
         <v>424</v>
@@ -12864,7 +12861,7 @@
         <v>17.666666666666664</v>
       </c>
       <c r="F208" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G208" s="15">
         <v>424</v>
@@ -12887,7 +12884,7 @@
         <v>53</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G209" s="15">
         <v>424</v>
@@ -12910,7 +12907,7 @@
         <v>35.333333333333329</v>
       </c>
       <c r="F210" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G210" s="15">
         <v>424</v>
@@ -12933,7 +12930,7 @@
         <v>70.666666666666657</v>
       </c>
       <c r="F211" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G211" s="15">
         <v>424</v>
@@ -12956,7 +12953,7 @@
         <v>70.666666666666657</v>
       </c>
       <c r="F212" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G212" s="15">
         <v>424</v>
@@ -12979,7 +12976,7 @@
         <v>35.333333333333329</v>
       </c>
       <c r="F213" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G213" s="15">
         <v>424</v>
@@ -13006,7 +13003,7 @@
         <v>72.083333333333343</v>
       </c>
       <c r="F215" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G215" s="15">
         <v>346</v>
@@ -13029,7 +13026,7 @@
         <v>43.25</v>
       </c>
       <c r="F216" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G216" s="15">
         <v>346</v>
@@ -13052,7 +13049,7 @@
         <v>14.416666666666666</v>
       </c>
       <c r="F217" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G217" s="15">
         <v>346</v>
@@ -13075,7 +13072,7 @@
         <v>43.25</v>
       </c>
       <c r="F218" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G218" s="15">
         <v>346</v>
@@ -13098,7 +13095,7 @@
         <v>28.833333333333332</v>
       </c>
       <c r="F219" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G219" s="15">
         <v>346</v>
@@ -13121,7 +13118,7 @@
         <v>57.666666666666664</v>
       </c>
       <c r="F220" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G220" s="15">
         <v>346</v>
@@ -13144,7 +13141,7 @@
         <v>57.666666666666664</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G221" s="15">
         <v>346</v>
@@ -13167,7 +13164,7 @@
         <v>28.833333333333332</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G222" s="15">
         <v>346</v>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Aathithya</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -1016,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="L225" sqref="L218:L225"/>
+    <sheetView topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="K236" sqref="K236:K243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7687,66 +7690,290 @@
       <c r="I235" s="15"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I236" s="15"/>
+      <c r="A236" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G236" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H236" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I236" s="15">
+        <v>333</v>
+      </c>
+      <c r="J236" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K236" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>69.375</v>
+      </c>
+      <c r="L236" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I237" s="15"/>
+      <c r="A237" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C237" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G237" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H237" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I237" s="15">
+        <v>333</v>
+      </c>
+      <c r="J237" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K237" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>41.625</v>
+      </c>
+      <c r="L237" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I238" s="15"/>
+      <c r="A238" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C238" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G238" s="14">
+        <v>500</v>
+      </c>
+      <c r="H238" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I238" s="15">
+        <v>333</v>
+      </c>
+      <c r="J238" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K238" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>13.875</v>
+      </c>
+      <c r="L238" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I239" s="15"/>
+      <c r="A239" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C239" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G239" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H239" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I239" s="15">
+        <v>333</v>
+      </c>
+      <c r="J239" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K239" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>41.625</v>
+      </c>
+      <c r="L239" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I240" s="15"/>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I241" s="15"/>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I242" s="15"/>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I243" s="15"/>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="A240" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G240" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H240" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I240" s="15">
+        <v>333</v>
+      </c>
+      <c r="J240" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K240" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>27.75</v>
+      </c>
+      <c r="L240" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A241" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B241" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G241" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H241" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I241" s="15">
+        <v>333</v>
+      </c>
+      <c r="J241" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K241" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>55.5</v>
+      </c>
+      <c r="L241" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A242" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C242" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G242" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H242" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I242" s="15">
+        <v>333</v>
+      </c>
+      <c r="J242" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K242" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>55.5</v>
+      </c>
+      <c r="L242" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A243" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C243" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G243" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H243" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I243" s="15">
+        <v>333</v>
+      </c>
+      <c r="J243" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K243" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>27.75</v>
+      </c>
+      <c r="L243" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I244" s="15"/>
     </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I245" s="15"/>
     </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I246" s="15"/>
     </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I247" s="15"/>
     </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I248" s="15"/>
     </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I249" s="15"/>
     </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I250" s="15"/>
     </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I251" s="15"/>
     </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I252" s="15"/>
     </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I253" s="15"/>
     </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I254" s="15"/>
     </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I255" s="15"/>
     </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I256" s="15"/>
     </row>
     <row r="257" spans="9:9" x14ac:dyDescent="0.25">
@@ -8324,7 +8551,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8372,7 +8599,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2272.9137662696621</v>
+        <v>2342.2887662696621</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -8393,7 +8620,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1389.9438439117544</v>
+        <v>1431.5688439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -8414,7 +8641,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>481.1286923966029</v>
+        <v>495.0036923966029</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -8435,7 +8662,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1386.7749660786974</v>
+        <v>1428.3999660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -8456,7 +8683,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>686.79998869289921</v>
+        <v>714.54998869289921</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -8477,7 +8704,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1849.0332881049301</v>
+        <v>1904.5332881049301</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -8498,7 +8725,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1656.1303030303036</v>
+        <v>1711.6303030303036</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -8519,7 +8746,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>605.26515151515162</v>
+        <v>633.01515151515162</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -8543,8 +8770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="I221" sqref="I221"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="E224" sqref="E224:E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13175,70 +13402,222 @@
       <c r="G223" s="15"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D224" s="16"/>
-      <c r="G224" s="15"/>
-    </row>
-    <row r="225" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D225" s="16"/>
-      <c r="G225" s="15"/>
-    </row>
-    <row r="226" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D226" s="16"/>
-      <c r="G226" s="15"/>
-    </row>
-    <row r="227" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D227" s="16"/>
-      <c r="G227" s="15"/>
-    </row>
-    <row r="228" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D228" s="16"/>
-      <c r="G228" s="15"/>
-    </row>
-    <row r="229" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D229" s="16"/>
-      <c r="G229" s="15"/>
-    </row>
-    <row r="230" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D230" s="16"/>
-      <c r="G230" s="15"/>
-    </row>
-    <row r="231" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D231" s="16"/>
-      <c r="G231" s="15"/>
-    </row>
-    <row r="232" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B224" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D224" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E224" s="15">
+        <v>69.375</v>
+      </c>
+      <c r="F224" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G224" s="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B225" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C225" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D225" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E225" s="15">
+        <v>41.625</v>
+      </c>
+      <c r="F225" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G225" s="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B226" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="14">
+        <v>500</v>
+      </c>
+      <c r="D226" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E226" s="15">
+        <v>13.875</v>
+      </c>
+      <c r="F226" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G226" s="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B227" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C227" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D227" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E227" s="15">
+        <v>41.625</v>
+      </c>
+      <c r="F227" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G227" s="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B228" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C228" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D228" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E228" s="15">
+        <v>27.75</v>
+      </c>
+      <c r="F228" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G228" s="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B229" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C229" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D229" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E229" s="15">
+        <v>55.5</v>
+      </c>
+      <c r="F229" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G229" s="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B230" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C230" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D230" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E230" s="15">
+        <v>55.5</v>
+      </c>
+      <c r="F230" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G230" s="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" s="28">
+        <v>46018</v>
+      </c>
+      <c r="B231" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C231" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D231" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E231" s="15">
+        <v>27.75</v>
+      </c>
+      <c r="F231" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G231" s="15">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D233" s="16"/>
       <c r="G233" s="15"/>
     </row>
-    <row r="234" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D234" s="16"/>
       <c r="G234" s="15"/>
     </row>
-    <row r="235" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D235" s="16"/>
       <c r="G235" s="15"/>
     </row>
-    <row r="236" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D236" s="16"/>
       <c r="G236" s="15"/>
     </row>
-    <row r="237" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D237" s="16"/>
       <c r="G237" s="15"/>
     </row>
-    <row r="238" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D238" s="16"/>
       <c r="G238" s="15"/>
     </row>
-    <row r="239" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D239" s="16"/>
       <c r="G239" s="15"/>
     </row>
-    <row r="240" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D240" s="16"/>
       <c r="G240" s="15"/>
     </row>
@@ -14997,7 +15376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="B2" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="80">
   <si>
     <t>UserID</t>
   </si>
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="K236" sqref="K236:K243"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7941,28 +7941,252 @@
       <c r="I244" s="15"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I245" s="15"/>
+      <c r="A245" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H245" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I245" s="15">
+        <v>720</v>
+      </c>
+      <c r="J245" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="K245" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>150</v>
+      </c>
+      <c r="L245" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I246" s="15"/>
+      <c r="A246" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B246" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C246" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G246" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H246" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I246" s="15">
+        <v>720</v>
+      </c>
+      <c r="J246" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K246" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>90</v>
+      </c>
+      <c r="L246" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I247" s="15"/>
+      <c r="A247" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C247" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G247" s="14">
+        <v>500</v>
+      </c>
+      <c r="H247" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I247" s="15">
+        <v>720</v>
+      </c>
+      <c r="J247" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="K247" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>30</v>
+      </c>
+      <c r="L247" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I248" s="15"/>
+      <c r="A248" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G248" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H248" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I248" s="15">
+        <v>720</v>
+      </c>
+      <c r="J248" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K248" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>90</v>
+      </c>
+      <c r="L248" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I249" s="15"/>
+      <c r="A249" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G249" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H249" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I249" s="15">
+        <v>720</v>
+      </c>
+      <c r="J249" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K249" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60</v>
+      </c>
+      <c r="L249" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I250" s="15"/>
+      <c r="A250" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B250" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C250" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G250" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H250" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I250" s="15">
+        <v>720</v>
+      </c>
+      <c r="J250" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K250" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>120</v>
+      </c>
+      <c r="L250" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I251" s="15"/>
+      <c r="A251" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C251" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G251" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H251" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I251" s="15">
+        <v>720</v>
+      </c>
+      <c r="J251" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K251" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>120</v>
+      </c>
+      <c r="L251" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I252" s="15"/>
+      <c r="A252" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G252" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H252" s="14">
+        <v>12000</v>
+      </c>
+      <c r="I252" s="15">
+        <v>720</v>
+      </c>
+      <c r="J252" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K252" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60</v>
+      </c>
+      <c r="L252" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I253" s="15"/>
@@ -8599,7 +8823,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2342.2887662696621</v>
+        <v>2492.2887662696621</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -8620,7 +8844,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1431.5688439117544</v>
+        <v>1521.5688439117544</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -8641,7 +8865,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>495.0036923966029</v>
+        <v>525.0036923966029</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -8662,7 +8886,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1428.3999660786974</v>
+        <v>1518.3999660786974</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -8683,7 +8907,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>714.54998869289921</v>
+        <v>774.54998869289921</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -8704,7 +8928,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1904.5332881049301</v>
+        <v>2024.5332881049301</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -8725,7 +8949,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1711.6303030303036</v>
+        <v>1831.6303030303036</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -8746,7 +8970,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>633.01515151515162</v>
+        <v>693.01515151515162</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -8770,8 +8994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="E224" sqref="E224:E231"/>
+    <sheetView topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="G233" sqref="G233:G240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13590,36 +13814,188 @@
       <c r="G232" s="15"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D233" s="16"/>
-      <c r="G233" s="15"/>
+      <c r="A233" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B233" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D233" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E233" s="15">
+        <v>150</v>
+      </c>
+      <c r="F233" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G233" s="15">
+        <v>720</v>
+      </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D234" s="16"/>
-      <c r="G234" s="15"/>
+      <c r="A234" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B234" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C234" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D234" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E234" s="15">
+        <v>90</v>
+      </c>
+      <c r="F234" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G234" s="15">
+        <v>720</v>
+      </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D235" s="16"/>
-      <c r="G235" s="15"/>
+      <c r="A235" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B235" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C235" s="14">
+        <v>500</v>
+      </c>
+      <c r="D235" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E235" s="15">
+        <v>30</v>
+      </c>
+      <c r="F235" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G235" s="15">
+        <v>720</v>
+      </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D236" s="16"/>
-      <c r="G236" s="15"/>
+      <c r="A236" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B236" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C236" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D236" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E236" s="15">
+        <v>90</v>
+      </c>
+      <c r="F236" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G236" s="15">
+        <v>720</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D237" s="16"/>
-      <c r="G237" s="15"/>
+      <c r="A237" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B237" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C237" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D237" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E237" s="15">
+        <v>60</v>
+      </c>
+      <c r="F237" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G237" s="15">
+        <v>720</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D238" s="16"/>
-      <c r="G238" s="15"/>
+      <c r="A238" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B238" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D238" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E238" s="15">
+        <v>120</v>
+      </c>
+      <c r="F238" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G238" s="15">
+        <v>720</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D239" s="16"/>
-      <c r="G239" s="15"/>
+      <c r="A239" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B239" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C239" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D239" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E239" s="15">
+        <v>120</v>
+      </c>
+      <c r="F239" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G239" s="15">
+        <v>720</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D240" s="16"/>
-      <c r="G240" s="15"/>
+      <c r="A240" s="28">
+        <v>46019</v>
+      </c>
+      <c r="B240" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C240" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D240" s="16">
+        <v>12000</v>
+      </c>
+      <c r="E240" s="15">
+        <v>60</v>
+      </c>
+      <c r="F240" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G240" s="15">
+        <v>720</v>
+      </c>
     </row>
     <row r="241" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -688,7 +688,18 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G602"/>
+  <autoFilter ref="A1:G602">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="U008"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
     <tableColumn id="2" name="UserID" dataDxfId="18"/>
@@ -1020,7 +1031,7 @@
   <dimension ref="A1:L5641"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="E249" sqref="E249"/>
+      <selection activeCell="L245" sqref="L245:L252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7717,7 +7728,7 @@
         <v>69.375</v>
       </c>
       <c r="L236" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
@@ -7748,7 +7759,7 @@
         <v>41.625</v>
       </c>
       <c r="L237" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
@@ -7779,7 +7790,7 @@
         <v>13.875</v>
       </c>
       <c r="L238" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
@@ -7810,7 +7821,7 @@
         <v>41.625</v>
       </c>
       <c r="L239" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
@@ -7841,7 +7852,7 @@
         <v>27.75</v>
       </c>
       <c r="L240" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
@@ -7872,7 +7883,7 @@
         <v>55.5</v>
       </c>
       <c r="L241" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
@@ -7903,7 +7914,7 @@
         <v>55.5</v>
       </c>
       <c r="L242" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
@@ -7934,7 +7945,7 @@
         <v>27.75</v>
       </c>
       <c r="L243" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
@@ -7968,7 +7979,7 @@
         <v>150</v>
       </c>
       <c r="L245" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
@@ -7999,7 +8010,7 @@
         <v>90</v>
       </c>
       <c r="L246" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
@@ -8030,7 +8041,7 @@
         <v>30</v>
       </c>
       <c r="L247" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
@@ -8061,7 +8072,7 @@
         <v>90</v>
       </c>
       <c r="L248" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
@@ -8092,7 +8103,7 @@
         <v>60</v>
       </c>
       <c r="L249" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
@@ -8123,7 +8134,7 @@
         <v>120</v>
       </c>
       <c r="L250" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
@@ -8154,7 +8165,7 @@
         <v>120</v>
       </c>
       <c r="L251" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
@@ -8185,7 +8196,7 @@
         <v>60</v>
       </c>
       <c r="L252" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
@@ -8775,7 +8786,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8994,8 +9005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A213" workbookViewId="0">
-      <selection activeCell="G233" sqref="G233:G240"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F603" sqref="F603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9033,7 +9044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -9056,7 +9067,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -9079,7 +9090,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -9102,11 +9113,11 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45981</v>
       </c>
@@ -9129,7 +9140,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -9152,7 +9163,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -9175,11 +9186,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -9202,7 +9213,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -9225,7 +9236,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -9248,7 +9259,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -9271,7 +9282,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -9294,7 +9305,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -9317,11 +9328,11 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45992</v>
       </c>
@@ -9344,7 +9355,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -9367,7 +9378,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -9390,7 +9401,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -9413,7 +9424,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -9436,7 +9447,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -9459,11 +9470,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45993</v>
       </c>
@@ -9486,7 +9497,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -9509,7 +9520,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -9532,7 +9543,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -9555,7 +9566,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -9578,7 +9589,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -9601,11 +9612,11 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45994</v>
       </c>
@@ -9628,7 +9639,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -9651,7 +9662,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -9674,7 +9685,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -9697,7 +9708,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -9720,7 +9731,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -9743,7 +9754,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -9766,11 +9777,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45995</v>
       </c>
@@ -9793,7 +9804,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -9816,7 +9827,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -9839,7 +9850,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -9862,7 +9873,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -9885,7 +9896,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -9908,7 +9919,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -9931,11 +9942,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45998</v>
       </c>
@@ -9958,7 +9969,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -9981,7 +9992,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -10004,7 +10015,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -10027,7 +10038,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -10050,7 +10061,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -10073,7 +10084,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -10096,11 +10107,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45999</v>
       </c>
@@ -10123,7 +10134,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -10146,7 +10157,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -10169,7 +10180,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -10192,7 +10203,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -10215,7 +10226,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -10238,7 +10249,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -10261,11 +10272,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>46000</v>
       </c>
@@ -10288,7 +10299,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -10311,7 +10322,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -10334,7 +10345,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -10357,7 +10368,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -10380,7 +10391,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -10403,7 +10414,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -10426,11 +10437,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>46001</v>
       </c>
@@ -10453,7 +10464,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -10476,7 +10487,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -10499,7 +10510,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -10522,7 +10533,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -10545,7 +10556,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -10568,7 +10579,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -10591,7 +10602,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -10614,11 +10625,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>46002</v>
       </c>
@@ -10641,7 +10652,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -10664,7 +10675,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -10687,7 +10698,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -10710,7 +10721,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -10733,7 +10744,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -10756,7 +10767,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -10779,7 +10790,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -10802,11 +10813,11 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>46003</v>
       </c>
@@ -10829,7 +10840,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -10852,7 +10863,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -10875,7 +10886,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -10898,7 +10909,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -10921,7 +10932,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -10944,7 +10955,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -10967,7 +10978,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -10990,11 +11001,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>46004</v>
       </c>
@@ -11017,7 +11028,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -11040,7 +11051,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -11063,7 +11074,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -11086,7 +11097,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -11109,7 +11120,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -11132,7 +11143,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -11155,7 +11166,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -11178,11 +11189,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>46005</v>
       </c>
@@ -11205,7 +11216,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -11228,7 +11239,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -11251,7 +11262,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -11274,7 +11285,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -11297,7 +11308,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -11320,7 +11331,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -11343,7 +11354,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -11366,10 +11377,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>46006</v>
       </c>
@@ -11392,7 +11403,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -11415,7 +11426,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -11438,7 +11449,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -11461,7 +11472,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -11484,7 +11495,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -11507,7 +11518,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -11530,7 +11541,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -11553,11 +11564,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>46007</v>
       </c>
@@ -11580,7 +11591,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -11603,7 +11614,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -11626,7 +11637,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -11649,7 +11660,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -11672,7 +11683,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -11695,7 +11706,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -11718,7 +11729,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -11741,11 +11752,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>46008</v>
       </c>
@@ -11768,7 +11779,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -11791,7 +11802,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -11814,7 +11825,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -11837,7 +11848,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -11860,7 +11871,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -11883,7 +11894,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -11906,7 +11917,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -11929,11 +11940,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="28">
         <v>46009</v>
       </c>
@@ -11956,7 +11967,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -11979,7 +11990,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -12002,7 +12013,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -12025,7 +12036,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -12048,7 +12059,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -12071,7 +12082,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -12094,7 +12105,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -12117,11 +12128,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="28">
         <v>46010</v>
       </c>
@@ -12144,7 +12155,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -12167,7 +12178,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -12190,7 +12201,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -12213,7 +12224,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -12236,7 +12247,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -12259,7 +12270,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -12282,7 +12293,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -12305,11 +12316,11 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="28">
         <v>46011</v>
       </c>
@@ -12332,7 +12343,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="28">
         <v>46011</v>
       </c>
@@ -12355,7 +12366,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="28">
         <v>46011</v>
       </c>
@@ -12378,7 +12389,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="28">
         <v>46011</v>
       </c>
@@ -12401,7 +12412,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="28">
         <v>46011</v>
       </c>
@@ -12424,7 +12435,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="28">
         <v>46011</v>
       </c>
@@ -12447,7 +12458,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="28">
         <v>46011</v>
       </c>
@@ -12470,7 +12481,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="28">
         <v>46011</v>
       </c>
@@ -12493,11 +12504,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="28">
         <v>46012</v>
       </c>
@@ -12520,7 +12531,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="28">
         <v>46012</v>
       </c>
@@ -12543,7 +12554,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="28">
         <v>46012</v>
       </c>
@@ -12566,7 +12577,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="28">
         <v>46012</v>
       </c>
@@ -12589,7 +12600,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="28">
         <v>46012</v>
       </c>
@@ -12612,7 +12623,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="28">
         <v>46012</v>
       </c>
@@ -12635,7 +12646,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="28">
         <v>46012</v>
       </c>
@@ -12658,7 +12669,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="28">
         <v>46012</v>
       </c>
@@ -12681,11 +12692,11 @@
         <v>402</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="28">
         <v>46013</v>
       </c>
@@ -12708,7 +12719,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="28">
         <v>46013</v>
       </c>
@@ -12731,7 +12742,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
         <v>46013</v>
       </c>
@@ -12754,7 +12765,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="28">
         <v>46013</v>
       </c>
@@ -12777,7 +12788,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="28">
         <v>46013</v>
       </c>
@@ -12800,7 +12811,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="28">
         <v>46013</v>
       </c>
@@ -12823,7 +12834,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
         <v>46013</v>
       </c>
@@ -12846,7 +12857,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="28">
         <v>46013</v>
       </c>
@@ -12869,11 +12880,11 @@
         <v>379</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="28">
         <v>46014</v>
       </c>
@@ -12896,7 +12907,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="28">
         <v>46014</v>
       </c>
@@ -12919,7 +12930,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="28">
         <v>46014</v>
       </c>
@@ -12942,7 +12953,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="28">
         <v>46014</v>
       </c>
@@ -12965,7 +12976,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="28">
         <v>46014</v>
       </c>
@@ -12988,7 +12999,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
         <v>46014</v>
       </c>
@@ -13011,7 +13022,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="28">
         <v>46014</v>
       </c>
@@ -13034,7 +13045,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="28">
         <v>46014</v>
       </c>
@@ -13057,11 +13068,11 @@
         <v>522</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="28">
         <v>46015</v>
       </c>
@@ -13084,7 +13095,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="28">
         <v>46015</v>
       </c>
@@ -13107,7 +13118,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="28">
         <v>46015</v>
       </c>
@@ -13130,7 +13141,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="28">
         <v>46015</v>
       </c>
@@ -13153,7 +13164,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="28">
         <v>46015</v>
       </c>
@@ -13176,7 +13187,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="28">
         <v>46015</v>
       </c>
@@ -13199,7 +13210,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="28">
         <v>46015</v>
       </c>
@@ -13222,7 +13233,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="28">
         <v>46015</v>
       </c>
@@ -13245,11 +13256,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="28">
         <v>46016</v>
       </c>
@@ -13272,7 +13283,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="28">
         <v>46016</v>
       </c>
@@ -13295,7 +13306,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="28">
         <v>46016</v>
       </c>
@@ -13318,7 +13329,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="28">
         <v>46016</v>
       </c>
@@ -13341,7 +13352,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28">
         <v>46016</v>
       </c>
@@ -13364,7 +13375,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="28">
         <v>46016</v>
       </c>
@@ -13387,7 +13398,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
         <v>46016</v>
       </c>
@@ -13410,7 +13421,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="28">
         <v>46016</v>
       </c>
@@ -13433,11 +13444,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28">
         <v>46017</v>
       </c>
@@ -13460,7 +13471,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="28">
         <v>46017</v>
       </c>
@@ -13483,7 +13494,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="28">
         <v>46017</v>
       </c>
@@ -13506,7 +13517,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="28">
         <v>46017</v>
       </c>
@@ -13529,7 +13540,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="28">
         <v>46017</v>
       </c>
@@ -13552,7 +13563,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="28">
         <v>46017</v>
       </c>
@@ -13575,7 +13586,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="28">
         <v>46017</v>
       </c>
@@ -13598,7 +13609,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="28">
         <v>46017</v>
       </c>
@@ -13621,11 +13632,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="28">
         <v>46018</v>
       </c>
@@ -13648,7 +13659,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="28">
         <v>46018</v>
       </c>
@@ -13665,13 +13676,13 @@
         <v>41.625</v>
       </c>
       <c r="F225" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G225" s="15">
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="28">
         <v>46018</v>
       </c>
@@ -13688,13 +13699,13 @@
         <v>13.875</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G226" s="15">
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="28">
         <v>46018</v>
       </c>
@@ -13711,13 +13722,13 @@
         <v>41.625</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G227" s="15">
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="28">
         <v>46018</v>
       </c>
@@ -13734,13 +13745,13 @@
         <v>27.75</v>
       </c>
       <c r="F228" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G228" s="15">
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="28">
         <v>46018</v>
       </c>
@@ -13757,13 +13768,13 @@
         <v>55.5</v>
       </c>
       <c r="F229" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G229" s="15">
         <v>333</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="28">
         <v>46018</v>
       </c>
@@ -13780,7 +13791,7 @@
         <v>55.5</v>
       </c>
       <c r="F230" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G230" s="15">
         <v>333</v>
@@ -13803,17 +13814,17 @@
         <v>27.75</v>
       </c>
       <c r="F231" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G231" s="15">
         <v>333</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="28">
         <v>46019</v>
       </c>
@@ -13836,7 +13847,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="28">
         <v>46019</v>
       </c>
@@ -13853,13 +13864,13 @@
         <v>90</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G234" s="15">
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="28">
         <v>46019</v>
       </c>
@@ -13876,13 +13887,13 @@
         <v>30</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G235" s="15">
         <v>720</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="28">
         <v>46019</v>
       </c>
@@ -13899,13 +13910,13 @@
         <v>90</v>
       </c>
       <c r="F236" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G236" s="15">
         <v>720</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="28">
         <v>46019</v>
       </c>
@@ -13922,13 +13933,13 @@
         <v>60</v>
       </c>
       <c r="F237" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G237" s="15">
         <v>720</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="28">
         <v>46019</v>
       </c>
@@ -13945,13 +13956,13 @@
         <v>120</v>
       </c>
       <c r="F238" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G238" s="15">
         <v>720</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="28">
         <v>46019</v>
       </c>
@@ -13968,7 +13979,7 @@
         <v>120</v>
       </c>
       <c r="F239" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G239" s="15">
         <v>720</v>
@@ -13991,1289 +14002,1289 @@
         <v>60</v>
       </c>
       <c r="F240" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G240" s="15">
         <v>720</v>
       </c>
     </row>
-    <row r="241" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D242" s="16"/>
       <c r="G242" s="15"/>
     </row>
-    <row r="243" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D243" s="16"/>
       <c r="G243" s="15"/>
     </row>
-    <row r="244" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D244" s="16"/>
       <c r="G244" s="15"/>
     </row>
-    <row r="245" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D245" s="16"/>
       <c r="G245" s="15"/>
     </row>
-    <row r="246" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D246" s="16"/>
       <c r="G246" s="15"/>
     </row>
-    <row r="247" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D247" s="16"/>
       <c r="G247" s="15"/>
     </row>
-    <row r="248" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D248" s="16"/>
       <c r="G248" s="15"/>
     </row>
-    <row r="249" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D249" s="16"/>
       <c r="G249" s="15"/>
     </row>
-    <row r="250" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D251" s="16"/>
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D252" s="16"/>
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D253" s="16"/>
       <c r="G253" s="15"/>
     </row>
-    <row r="254" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D254" s="16"/>
       <c r="G254" s="15"/>
     </row>
-    <row r="255" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D255" s="16"/>
       <c r="G255" s="15"/>
     </row>
-    <row r="256" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D256" s="16"/>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D257" s="16"/>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D258" s="16"/>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D260" s="16"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D261" s="16"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D262" s="16"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D263" s="16"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D264" s="16"/>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D265" s="16"/>
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D266" s="16"/>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D267" s="16"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D268" s="16"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D270" s="16"/>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D271" s="16"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D272" s="16"/>
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D273" s="16"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D274" s="16"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D275" s="16"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D276" s="16"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D277" s="16"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D278" s="16"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D280" s="16"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D281" s="16"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D282" s="16"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D283" s="16"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D284" s="16"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D285" s="16"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D286" s="16"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D288" s="16"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="81">
   <si>
     <t>UserID</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>T013ADD1000</t>
   </si>
 </sst>
 </file>
@@ -688,18 +691,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G602">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="U008"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G602"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
     <tableColumn id="2" name="UserID" dataDxfId="18"/>
@@ -1030,16 +1022,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="L245" sqref="L245:L252"/>
+    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
+      <selection activeCell="F262" sqref="F262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="12.42578125" style="14" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="11" style="14" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="14" customWidth="1"/>
     <col min="7" max="7" width="26" style="14" customWidth="1"/>
     <col min="8" max="8" width="22.28515625" style="14" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" style="14" customWidth="1"/>
@@ -8203,60 +8196,293 @@
       <c r="I253" s="15"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I254" s="15"/>
+      <c r="A254" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B254" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C254" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E254" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F254" s="28">
+        <v>46019</v>
+      </c>
+      <c r="G254" s="14">
+        <v>3500</v>
+      </c>
+      <c r="H254" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I254" s="15">
+        <v>745</v>
+      </c>
+      <c r="J254" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="K254" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>200.57692307692307</v>
+      </c>
+      <c r="L254" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I255" s="15"/>
+      <c r="A255" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C255" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G255" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H255" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I255" s="15">
+        <v>745</v>
+      </c>
+      <c r="J255" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="K255" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>85.961538461538467</v>
+      </c>
+      <c r="L255" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I256" s="15"/>
-    </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I257" s="15"/>
-    </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I258" s="15"/>
-    </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I259" s="15"/>
-    </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I260" s="15"/>
-    </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I261" s="15"/>
-    </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="A256" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B256" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G256" s="14">
+        <v>500</v>
+      </c>
+      <c r="H256" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I256" s="15">
+        <v>745</v>
+      </c>
+      <c r="J256" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="K256" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>28.653846153846157</v>
+      </c>
+      <c r="L256" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A257" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C257" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G257" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H257" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I257" s="15">
+        <v>745</v>
+      </c>
+      <c r="J257" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="K257" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>85.961538461538467</v>
+      </c>
+      <c r="L257" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A258" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B258" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G258" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H258" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I258" s="15">
+        <v>745</v>
+      </c>
+      <c r="J258" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K258" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>57.307692307692314</v>
+      </c>
+      <c r="L258" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A259" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B259" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G259" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H259" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I259" s="15">
+        <v>745</v>
+      </c>
+      <c r="J259" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="K259" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>114.61538461538463</v>
+      </c>
+      <c r="L259" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A260" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B260" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G260" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H260" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I260" s="15">
+        <v>745</v>
+      </c>
+      <c r="J260" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="K260" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>114.61538461538463</v>
+      </c>
+      <c r="L260" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A261" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B261" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C261" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G261" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H261" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I261" s="15">
+        <v>745</v>
+      </c>
+      <c r="J261" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K261" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>57.307692307692314</v>
+      </c>
+      <c r="L261" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I262" s="15"/>
     </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I263" s="15"/>
     </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I264" s="15"/>
     </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I265" s="15"/>
     </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I266" s="15"/>
     </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I267" s="15"/>
     </row>
-    <row r="268" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I268" s="15"/>
     </row>
-    <row r="269" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I269" s="15"/>
     </row>
-    <row r="270" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I270" s="15"/>
     </row>
-    <row r="271" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I271" s="15"/>
     </row>
-    <row r="272" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I272" s="15"/>
     </row>
     <row r="273" spans="9:9" x14ac:dyDescent="0.25">
@@ -8786,7 +9012,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8830,11 +9056,11 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>2500</v>
+        <v>3500</v>
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2492.2887662696621</v>
+        <v>2692.865689346585</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -8855,7 +9081,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1521.5688439117544</v>
+        <v>1607.5303823732929</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -8876,7 +9102,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>525.0036923966029</v>
+        <v>553.65753855044909</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -8897,7 +9123,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1518.3999660786974</v>
+        <v>1604.361504540236</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -8918,7 +9144,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>774.54998869289921</v>
+        <v>831.85768100059147</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -8939,7 +9165,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2024.5332881049301</v>
+        <v>2139.1486727203146</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -8960,7 +9186,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1831.6303030303036</v>
+        <v>1946.2456876456881</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -8981,7 +9207,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>693.01515151515162</v>
+        <v>750.32284382284388</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -9005,8 +9231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F603" sqref="F603"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="G242" sqref="G242:G249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9044,7 +9270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -9067,7 +9293,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -9090,7 +9316,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -9113,11 +9339,11 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45981</v>
       </c>
@@ -9140,7 +9366,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -9163,7 +9389,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -9186,11 +9412,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -9213,7 +9439,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -9236,7 +9462,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -9259,7 +9485,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -9282,7 +9508,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -9305,7 +9531,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -9328,11 +9554,11 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45992</v>
       </c>
@@ -9355,7 +9581,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -9378,7 +9604,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -9401,7 +9627,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -9424,7 +9650,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -9447,7 +9673,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -9470,11 +9696,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45993</v>
       </c>
@@ -9497,7 +9723,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -9520,7 +9746,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -9543,7 +9769,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -9566,7 +9792,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -9589,7 +9815,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -9612,11 +9838,11 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45994</v>
       </c>
@@ -9639,7 +9865,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -9662,7 +9888,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -9685,7 +9911,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -9708,7 +9934,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -9731,7 +9957,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -9754,7 +9980,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -9777,11 +10003,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45995</v>
       </c>
@@ -9804,7 +10030,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -9827,7 +10053,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -9850,7 +10076,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -9873,7 +10099,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -9896,7 +10122,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -9919,7 +10145,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -9942,11 +10168,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45998</v>
       </c>
@@ -9969,7 +10195,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -9992,7 +10218,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -10015,7 +10241,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -10038,7 +10264,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -10061,7 +10287,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -10084,7 +10310,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -10107,11 +10333,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45999</v>
       </c>
@@ -10134,7 +10360,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -10157,7 +10383,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -10180,7 +10406,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -10203,7 +10429,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -10226,7 +10452,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -10249,7 +10475,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -10272,11 +10498,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>46000</v>
       </c>
@@ -10299,7 +10525,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -10322,7 +10548,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -10345,7 +10571,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -10368,7 +10594,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -10391,7 +10617,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -10414,7 +10640,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -10437,11 +10663,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>46001</v>
       </c>
@@ -10464,7 +10690,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -10487,7 +10713,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -10510,7 +10736,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -10533,7 +10759,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -10556,7 +10782,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -10579,7 +10805,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -10602,7 +10828,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -10625,11 +10851,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>46002</v>
       </c>
@@ -10652,7 +10878,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -10675,7 +10901,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -10698,7 +10924,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -10721,7 +10947,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -10744,7 +10970,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -10767,7 +10993,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -10790,7 +11016,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -10813,11 +11039,11 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>46003</v>
       </c>
@@ -10840,7 +11066,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -10863,7 +11089,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -10886,7 +11112,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -10909,7 +11135,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -10932,7 +11158,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -10955,7 +11181,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -10978,7 +11204,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -11001,11 +11227,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>46004</v>
       </c>
@@ -11028,7 +11254,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -11051,7 +11277,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -11074,7 +11300,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -11097,7 +11323,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -11120,7 +11346,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -11143,7 +11369,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -11166,7 +11392,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -11189,11 +11415,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>46005</v>
       </c>
@@ -11216,7 +11442,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -11239,7 +11465,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -11262,7 +11488,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -11285,7 +11511,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -11308,7 +11534,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -11331,7 +11557,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -11354,7 +11580,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -11377,10 +11603,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>46006</v>
       </c>
@@ -11403,7 +11629,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -11426,7 +11652,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -11449,7 +11675,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -11472,7 +11698,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -11495,7 +11721,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -11518,7 +11744,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -11541,7 +11767,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -11564,11 +11790,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>46007</v>
       </c>
@@ -11591,7 +11817,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -11614,7 +11840,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -11637,7 +11863,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -11660,7 +11886,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -11683,7 +11909,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -11706,7 +11932,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -11729,7 +11955,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -11752,11 +11978,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>46008</v>
       </c>
@@ -11779,7 +12005,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -11802,7 +12028,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -11825,7 +12051,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -11848,7 +12074,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -11871,7 +12097,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -11894,7 +12120,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -11917,7 +12143,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -11940,11 +12166,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="28">
         <v>46009</v>
       </c>
@@ -11967,7 +12193,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -11990,7 +12216,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -12013,7 +12239,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -12036,7 +12262,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -12059,7 +12285,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -12082,7 +12308,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -12105,7 +12331,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -12128,11 +12354,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="28">
         <v>46010</v>
       </c>
@@ -12155,7 +12381,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -12178,7 +12404,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -12201,7 +12427,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -12224,7 +12450,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -12247,7 +12473,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -12270,7 +12496,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -12293,7 +12519,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -12316,11 +12542,11 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="28">
         <v>46011</v>
       </c>
@@ -12343,7 +12569,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="28">
         <v>46011</v>
       </c>
@@ -12366,7 +12592,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="28">
         <v>46011</v>
       </c>
@@ -12389,7 +12615,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="28">
         <v>46011</v>
       </c>
@@ -12412,7 +12638,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="28">
         <v>46011</v>
       </c>
@@ -12435,7 +12661,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="28">
         <v>46011</v>
       </c>
@@ -12458,7 +12684,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="28">
         <v>46011</v>
       </c>
@@ -12481,7 +12707,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="28">
         <v>46011</v>
       </c>
@@ -12504,11 +12730,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="28">
         <v>46012</v>
       </c>
@@ -12531,7 +12757,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="28">
         <v>46012</v>
       </c>
@@ -12554,7 +12780,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="28">
         <v>46012</v>
       </c>
@@ -12577,7 +12803,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="28">
         <v>46012</v>
       </c>
@@ -12600,7 +12826,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="28">
         <v>46012</v>
       </c>
@@ -12623,7 +12849,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="28">
         <v>46012</v>
       </c>
@@ -12646,7 +12872,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="28">
         <v>46012</v>
       </c>
@@ -12669,7 +12895,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="28">
         <v>46012</v>
       </c>
@@ -12692,11 +12918,11 @@
         <v>402</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="28">
         <v>46013</v>
       </c>
@@ -12719,7 +12945,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="28">
         <v>46013</v>
       </c>
@@ -12742,7 +12968,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
         <v>46013</v>
       </c>
@@ -12765,7 +12991,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="28">
         <v>46013</v>
       </c>
@@ -12788,7 +13014,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="28">
         <v>46013</v>
       </c>
@@ -12811,7 +13037,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="28">
         <v>46013</v>
       </c>
@@ -12834,7 +13060,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
         <v>46013</v>
       </c>
@@ -12857,7 +13083,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="28">
         <v>46013</v>
       </c>
@@ -12880,11 +13106,11 @@
         <v>379</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="28">
         <v>46014</v>
       </c>
@@ -12907,7 +13133,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="28">
         <v>46014</v>
       </c>
@@ -12930,7 +13156,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="28">
         <v>46014</v>
       </c>
@@ -12953,7 +13179,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="28">
         <v>46014</v>
       </c>
@@ -12976,7 +13202,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="28">
         <v>46014</v>
       </c>
@@ -12999,7 +13225,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
         <v>46014</v>
       </c>
@@ -13022,7 +13248,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="28">
         <v>46014</v>
       </c>
@@ -13045,7 +13271,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="28">
         <v>46014</v>
       </c>
@@ -13068,11 +13294,11 @@
         <v>522</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="28">
         <v>46015</v>
       </c>
@@ -13095,7 +13321,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="28">
         <v>46015</v>
       </c>
@@ -13118,7 +13344,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="28">
         <v>46015</v>
       </c>
@@ -13141,7 +13367,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="28">
         <v>46015</v>
       </c>
@@ -13164,7 +13390,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="28">
         <v>46015</v>
       </c>
@@ -13187,7 +13413,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="28">
         <v>46015</v>
       </c>
@@ -13210,7 +13436,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="28">
         <v>46015</v>
       </c>
@@ -13233,7 +13459,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="28">
         <v>46015</v>
       </c>
@@ -13256,11 +13482,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="28">
         <v>46016</v>
       </c>
@@ -13283,7 +13509,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="28">
         <v>46016</v>
       </c>
@@ -13306,7 +13532,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="28">
         <v>46016</v>
       </c>
@@ -13329,7 +13555,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="28">
         <v>46016</v>
       </c>
@@ -13352,7 +13578,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="28">
         <v>46016</v>
       </c>
@@ -13375,7 +13601,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="28">
         <v>46016</v>
       </c>
@@ -13398,7 +13624,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
         <v>46016</v>
       </c>
@@ -13421,7 +13647,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="28">
         <v>46016</v>
       </c>
@@ -13444,11 +13670,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="28">
         <v>46017</v>
       </c>
@@ -13471,7 +13697,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="28">
         <v>46017</v>
       </c>
@@ -13494,7 +13720,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="28">
         <v>46017</v>
       </c>
@@ -13517,7 +13743,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="28">
         <v>46017</v>
       </c>
@@ -13540,7 +13766,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="28">
         <v>46017</v>
       </c>
@@ -13563,7 +13789,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="28">
         <v>46017</v>
       </c>
@@ -13586,7 +13812,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="28">
         <v>46017</v>
       </c>
@@ -13609,7 +13835,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="28">
         <v>46017</v>
       </c>
@@ -13632,11 +13858,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="28">
         <v>46018</v>
       </c>
@@ -13653,13 +13879,13 @@
         <v>69.375</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G224" s="15">
         <v>333</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="28">
         <v>46018</v>
       </c>
@@ -13682,7 +13908,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="28">
         <v>46018</v>
       </c>
@@ -13705,7 +13931,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="28">
         <v>46018</v>
       </c>
@@ -13728,7 +13954,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="28">
         <v>46018</v>
       </c>
@@ -13751,7 +13977,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="28">
         <v>46018</v>
       </c>
@@ -13774,7 +14000,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="28">
         <v>46018</v>
       </c>
@@ -13820,11 +14046,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="28">
         <v>46019</v>
       </c>
@@ -13841,13 +14067,13 @@
         <v>150</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G233" s="15">
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="28">
         <v>46019</v>
       </c>
@@ -13870,7 +14096,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="28">
         <v>46019</v>
       </c>
@@ -13893,7 +14119,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="28">
         <v>46019</v>
       </c>
@@ -13916,7 +14142,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="28">
         <v>46019</v>
       </c>
@@ -13939,7 +14165,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="28">
         <v>46019</v>
       </c>
@@ -13962,7 +14188,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="28">
         <v>46019</v>
       </c>
@@ -14008,1283 +14234,1435 @@
         <v>720</v>
       </c>
     </row>
-    <row r="241" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
-    <row r="242" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D242" s="16"/>
-      <c r="G242" s="15"/>
-    </row>
-    <row r="243" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D243" s="16"/>
-      <c r="G243" s="15"/>
-    </row>
-    <row r="244" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D244" s="16"/>
-      <c r="G244" s="15"/>
-    </row>
-    <row r="245" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D245" s="16"/>
-      <c r="G245" s="15"/>
-    </row>
-    <row r="246" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D246" s="16"/>
-      <c r="G246" s="15"/>
-    </row>
-    <row r="247" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D247" s="16"/>
-      <c r="G247" s="15"/>
-    </row>
-    <row r="248" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D248" s="16"/>
-      <c r="G248" s="15"/>
-    </row>
-    <row r="249" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D249" s="16"/>
-      <c r="G249" s="15"/>
-    </row>
-    <row r="250" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B242" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D242" s="16">
+        <v>13000</v>
+      </c>
+      <c r="E242" s="15">
+        <v>200.57692307692307</v>
+      </c>
+      <c r="F242" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G242" s="15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B243" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D243" s="16">
+        <v>13000</v>
+      </c>
+      <c r="E243" s="15">
+        <v>85.961538461538467</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G243" s="15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B244" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C244" s="14">
+        <v>500</v>
+      </c>
+      <c r="D244" s="16">
+        <v>13000</v>
+      </c>
+      <c r="E244" s="15">
+        <v>28.653846153846157</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G244" s="15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B245" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C245" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D245" s="16">
+        <v>13000</v>
+      </c>
+      <c r="E245" s="15">
+        <v>85.961538461538467</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G245" s="15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B246" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C246" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D246" s="16">
+        <v>13000</v>
+      </c>
+      <c r="E246" s="15">
+        <v>57.307692307692314</v>
+      </c>
+      <c r="F246" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G246" s="15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B247" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C247" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D247" s="16">
+        <v>13000</v>
+      </c>
+      <c r="E247" s="15">
+        <v>114.61538461538463</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G247" s="15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B248" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C248" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D248" s="16">
+        <v>13000</v>
+      </c>
+      <c r="E248" s="15">
+        <v>114.61538461538463</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G248" s="15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" s="28">
+        <v>46020</v>
+      </c>
+      <c r="B249" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C249" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D249" s="16">
+        <v>13000</v>
+      </c>
+      <c r="E249" s="15">
+        <v>57.307692307692314</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G249" s="15">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
-    <row r="251" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D251" s="16"/>
       <c r="G251" s="15"/>
     </row>
-    <row r="252" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D252" s="16"/>
       <c r="G252" s="15"/>
     </row>
-    <row r="253" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D253" s="16"/>
       <c r="G253" s="15"/>
     </row>
-    <row r="254" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D254" s="16"/>
       <c r="G254" s="15"/>
     </row>
-    <row r="255" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D255" s="16"/>
       <c r="G255" s="15"/>
     </row>
-    <row r="256" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D256" s="16"/>
       <c r="G256" s="15"/>
     </row>
-    <row r="257" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D257" s="16"/>
       <c r="G257" s="15"/>
     </row>
-    <row r="258" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D258" s="16"/>
       <c r="G258" s="15"/>
     </row>
-    <row r="259" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D260" s="16"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D261" s="16"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D262" s="16"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D263" s="16"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D264" s="16"/>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D265" s="16"/>
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D266" s="16"/>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D267" s="16"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D268" s="16"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D270" s="16"/>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D271" s="16"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D272" s="16"/>
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D273" s="16"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D274" s="16"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D275" s="16"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D276" s="16"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D277" s="16"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D278" s="16"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D280" s="16"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D281" s="16"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D282" s="16"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D283" s="16"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D284" s="16"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D285" s="16"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D286" s="16"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D288" s="16"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="86">
   <si>
     <t>UserID</t>
   </si>
@@ -262,6 +262,21 @@
   </si>
   <si>
     <t>T013ADD1000</t>
+  </si>
+  <si>
+    <t>U009</t>
+  </si>
+  <si>
+    <t>VPS Charges For 10th Dec'2025_for 10 days</t>
+  </si>
+  <si>
+    <t>Ajitesh Behara</t>
+  </si>
+  <si>
+    <t>Grp Mem Supporting Me</t>
+  </si>
+  <si>
+    <t>T014ADD1000</t>
   </si>
 </sst>
 </file>
@@ -673,8 +688,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F9" totalsRowShown="0">
-  <autoFilter ref="A1:F9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F10" totalsRowShown="0">
+  <autoFilter ref="A1:F10"/>
   <tableColumns count="6">
     <tableColumn id="1" name="UserID"/>
     <tableColumn id="2" name="Contact_Name"/>
@@ -717,8 +732,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F16" totalsRowShown="0">
-  <autoFilter ref="A1:F16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F17" totalsRowShown="0">
+  <autoFilter ref="A1:F17"/>
   <tableColumns count="6">
     <tableColumn id="1" name="UserID"/>
     <tableColumn id="2" name="Reason_For_Charge"/>
@@ -1022,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" workbookViewId="0">
-      <selection activeCell="F262" sqref="F262"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="E275" sqref="E275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8456,81 +8471,419 @@
       <c r="I262" s="15"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I263" s="15"/>
+      <c r="A263" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G263" s="14">
+        <v>3500</v>
+      </c>
+      <c r="H263" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I263" s="15">
+        <v>0</v>
+      </c>
+      <c r="J263" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.26923076923076922</v>
+      </c>
+      <c r="K263" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>0</v>
+      </c>
+      <c r="L263" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I264" s="15"/>
+      <c r="A264" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G264" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H264" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I264" s="15">
+        <v>0</v>
+      </c>
+      <c r="J264" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="K264" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>0</v>
+      </c>
+      <c r="L264" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I265" s="15"/>
+      <c r="A265" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G265" s="14">
+        <v>500</v>
+      </c>
+      <c r="H265" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I265" s="15">
+        <v>0</v>
+      </c>
+      <c r="J265" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="K265" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>0</v>
+      </c>
+      <c r="L265" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I266" s="15"/>
+      <c r="A266" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B266" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C266" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G266" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H266" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I266" s="15">
+        <v>0</v>
+      </c>
+      <c r="J266" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.11538461538461539</v>
+      </c>
+      <c r="K266" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>0</v>
+      </c>
+      <c r="L266" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I267" s="15"/>
+      <c r="A267" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C267" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G267" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H267" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I267" s="15">
+        <v>0</v>
+      </c>
+      <c r="J267" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K267" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>0</v>
+      </c>
+      <c r="L267" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I268" s="15"/>
+      <c r="A268" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C268" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G268" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H268" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I268" s="15">
+        <v>0</v>
+      </c>
+      <c r="J268" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="K268" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>0</v>
+      </c>
+      <c r="L268" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I269" s="15"/>
+      <c r="A269" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B269" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C269" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G269" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H269" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I269" s="15">
+        <v>0</v>
+      </c>
+      <c r="J269" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="K269" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>0</v>
+      </c>
+      <c r="L269" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I270" s="15"/>
+      <c r="A270" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G270" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H270" s="14">
+        <v>13000</v>
+      </c>
+      <c r="I270" s="15">
+        <v>0</v>
+      </c>
+      <c r="J270" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="K270" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>0</v>
+      </c>
+      <c r="L270" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I271" s="15"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A272" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B272" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G272" s="14">
+        <v>3500</v>
+      </c>
       <c r="I272" s="15"/>
     </row>
-    <row r="273" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A273" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B273" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G273" s="14">
+        <v>1500</v>
+      </c>
       <c r="I273" s="15"/>
     </row>
-    <row r="274" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A274" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B274" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C274" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G274" s="14">
+        <v>500</v>
+      </c>
       <c r="I274" s="15"/>
     </row>
-    <row r="275" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A275" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B275" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C275" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G275" s="14">
+        <v>1500</v>
+      </c>
       <c r="I275" s="15"/>
     </row>
-    <row r="276" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A276" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C276" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G276" s="14">
+        <v>1000</v>
+      </c>
       <c r="I276" s="15"/>
     </row>
-    <row r="277" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A277" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C277" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G277" s="14">
+        <v>2000</v>
+      </c>
       <c r="I277" s="15"/>
     </row>
-    <row r="278" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A278" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B278" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C278" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G278" s="14">
+        <v>2000</v>
+      </c>
       <c r="I278" s="15"/>
     </row>
-    <row r="279" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A279" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B279" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C279" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G279" s="14">
+        <v>1000</v>
+      </c>
       <c r="I279" s="15"/>
     </row>
-    <row r="280" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A280" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B280" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C280" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D280" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E280" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G280" s="14">
+        <v>1000</v>
+      </c>
       <c r="I280" s="15"/>
     </row>
-    <row r="281" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I281" s="15"/>
     </row>
-    <row r="282" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I282" s="15"/>
     </row>
-    <row r="283" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I283" s="15"/>
     </row>
-    <row r="284" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I284" s="15"/>
     </row>
-    <row r="285" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I285" s="15"/>
     </row>
-    <row r="286" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I286" s="15"/>
     </row>
-    <row r="287" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I287" s="15"/>
     </row>
-    <row r="288" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I288" s="15"/>
     </row>
     <row r="289" spans="9:9" x14ac:dyDescent="0.25">
@@ -9009,10 +9362,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9211,6 +9564,24 @@
       </c>
       <c r="F9" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
+        <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9231,8 +9602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="G242" sqref="G242:G249"/>
+    <sheetView topLeftCell="A240" workbookViewId="0">
+      <selection activeCell="D268" sqref="D268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14427,90 +14798,299 @@
       <c r="G250" s="15"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D251" s="16"/>
-      <c r="G251" s="15"/>
+      <c r="A251" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B251" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C251" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D251" s="16">
+        <v>13000</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G251" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D252" s="16"/>
-      <c r="G252" s="15"/>
+      <c r="A252" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B252" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C252" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D252" s="16">
+        <v>13000</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G252" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D253" s="16"/>
-      <c r="G253" s="15"/>
+      <c r="A253" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B253" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="14">
+        <v>500</v>
+      </c>
+      <c r="D253" s="16">
+        <v>13000</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G253" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D254" s="16"/>
-      <c r="G254" s="15"/>
+      <c r="A254" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B254" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C254" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D254" s="16">
+        <v>13000</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G254" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D255" s="16"/>
-      <c r="G255" s="15"/>
+      <c r="A255" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B255" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C255" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D255" s="16">
+        <v>13000</v>
+      </c>
+      <c r="F255" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G255" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D256" s="16"/>
-      <c r="G256" s="15"/>
-    </row>
-    <row r="257" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D257" s="16"/>
-      <c r="G257" s="15"/>
-    </row>
-    <row r="258" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D258" s="16"/>
-      <c r="G258" s="15"/>
-    </row>
-    <row r="259" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="A256" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B256" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C256" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D256" s="16">
+        <v>13000</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G256" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B257" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C257" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D257" s="16">
+        <v>13000</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G257" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" s="28">
+        <v>46021</v>
+      </c>
+      <c r="B258" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C258" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D258" s="16">
+        <v>13000</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G258" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B260" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C260" s="14">
+        <v>3500</v>
+      </c>
       <c r="D260" s="16"/>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B261" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C261" s="14">
+        <v>1500</v>
+      </c>
       <c r="D261" s="16"/>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B262" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C262" s="14">
+        <v>500</v>
+      </c>
       <c r="D262" s="16"/>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B263" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" s="14">
+        <v>1500</v>
+      </c>
       <c r="D263" s="16"/>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B264" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C264" s="14">
+        <v>1000</v>
+      </c>
       <c r="D264" s="16"/>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B265" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C265" s="14">
+        <v>2000</v>
+      </c>
       <c r="D265" s="16"/>
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B266" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C266" s="14">
+        <v>2000</v>
+      </c>
       <c r="D266" s="16"/>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B267" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C267" s="14">
+        <v>1000</v>
+      </c>
       <c r="D267" s="16"/>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" s="28">
+        <v>46022</v>
+      </c>
+      <c r="B268" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C268" s="14">
+        <v>1000</v>
+      </c>
       <c r="D268" s="16"/>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D270" s="16"/>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D271" s="16"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D272" s="16"/>
       <c r="G272" s="15"/>
     </row>
@@ -15778,10 +16358,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16129,6 +16709,27 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17">
+        <v>1764</v>
+      </c>
+      <c r="D17">
+        <v>65.33</v>
+      </c>
+      <c r="E17">
+        <v>65.33</v>
+      </c>
+      <c r="F17" s="29">
+        <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -16139,10 +16740,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:P29"/>
+  <dimension ref="C4:R29"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16150,7 +16751,7 @@
     <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -16158,7 +16759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C5" s="20" t="s">
         <v>7</v>
       </c>
@@ -16166,7 +16767,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C6" s="19" t="s">
         <v>12</v>
       </c>
@@ -16174,7 +16775,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C7" s="20" t="s">
         <v>14</v>
       </c>
@@ -16182,7 +16783,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
@@ -16196,7 +16797,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
@@ -16210,7 +16811,7 @@
         <v>26.72</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C10" s="19" t="s">
         <v>21</v>
       </c>
@@ -16224,13 +16825,16 @@
         <v>23.55</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C11" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="22">
         <v>2000</v>
       </c>
+      <c r="L11">
+        <v>196</v>
+      </c>
       <c r="O11" s="17" t="s">
         <v>48</v>
       </c>
@@ -16238,7 +16842,10 @@
         <v>7.85</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>30</v>
+      </c>
       <c r="O12" t="s">
         <v>49</v>
       </c>
@@ -16246,7 +16853,13 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f>L11/L12</f>
+        <v>6.5333333333333332</v>
+      </c>
+    </row>
+    <row r="14" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G14" s="4" t="s">
         <v>0</v>
       </c>
@@ -16256,8 +16869,12 @@
       <c r="I14" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>L13*10</f>
+        <v>65.333333333333329</v>
+      </c>
+    </row>
+    <row r="15" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G15" s="20" t="s">
         <v>7</v>
       </c>
@@ -16267,8 +16884,11 @@
       <c r="I15" s="23">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="16" spans="3:18" x14ac:dyDescent="0.25">
       <c r="G16" s="19" t="s">
         <v>12</v>
       </c>
@@ -16278,8 +16898,11 @@
       <c r="I16" s="25">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G17" s="20" t="s">
         <v>14</v>
       </c>
@@ -16289,8 +16912,12 @@
       <c r="I17" s="23">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <f>R15/R16</f>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G18" s="19" t="s">
         <v>17</v>
       </c>
@@ -16301,7 +16928,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G19" s="20" t="s">
         <v>19</v>
       </c>
@@ -16312,7 +16939,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:18" x14ac:dyDescent="0.25">
       <c r="G20" s="19" t="s">
         <v>21</v>
       </c>
@@ -16333,17 +16960,17 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:18" x14ac:dyDescent="0.25">
       <c r="L24">
         <v>60.25</v>
       </c>
     </row>
-    <row r="25" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:18" x14ac:dyDescent="0.25">
       <c r="L25">
         <v>180.75</v>
       </c>
     </row>
-    <row r="26" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:18" x14ac:dyDescent="0.25">
       <c r="L26">
         <v>60.25</v>
       </c>
@@ -16358,17 +16985,17 @@
         <v>732</v>
       </c>
     </row>
-    <row r="27" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="7:18" x14ac:dyDescent="0.25">
       <c r="L27">
         <v>180.75</v>
       </c>
     </row>
-    <row r="28" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:18" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="7:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="7:18" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>209</v>
       </c>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Loss_Recovery" sheetId="5" r:id="rId4"/>
     <sheet name="Platofrm_Maintaince_Charges" sheetId="7" r:id="rId5"/>
     <sheet name="Rough Sheet" sheetId="6" r:id="rId6"/>
+    <sheet name="Current_System" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="87">
   <si>
     <t>UserID</t>
   </si>
@@ -277,6 +278,9 @@
   </si>
   <si>
     <t>T014ADD1000</t>
+  </si>
+  <si>
+    <t>Current System Is Running 11 Stages With 2 Loss Auto-Invest Activation</t>
   </si>
 </sst>
 </file>
@@ -1037,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
-      <selection activeCell="E275" sqref="E275"/>
+    <sheetView topLeftCell="D253" workbookViewId="0">
+      <selection activeCell="K263" sqref="K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17003,4 +17007,27 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,13 @@
     <sheet name="Loss_Recovery" sheetId="5" r:id="rId4"/>
     <sheet name="Platofrm_Maintaince_Charges" sheetId="7" r:id="rId5"/>
     <sheet name="Rough Sheet" sheetId="6" r:id="rId6"/>
-    <sheet name="Current_System" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="88">
   <si>
     <t>UserID</t>
   </si>
@@ -280,7 +279,10 @@
     <t>T014ADD1000</t>
   </si>
   <si>
-    <t>Current System Is Running 11 Stages With 2 Loss Auto-Invest Activation</t>
+    <t>T015ADD500</t>
+  </si>
+  <si>
+    <t>Profit Calculates Next Day</t>
   </si>
 </sst>
 </file>
@@ -316,6 +318,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1042,7 +1045,7 @@
   <dimension ref="A1:L5641"/>
   <sheetViews>
     <sheetView topLeftCell="D253" workbookViewId="0">
-      <selection activeCell="K263" sqref="K263"/>
+      <selection activeCell="I278" sqref="I278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8491,7 +8494,7 @@
         <v>13000</v>
       </c>
       <c r="I263" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J263" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -8499,7 +8502,7 @@
       </c>
       <c r="K263" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>0</v>
+        <v>201.38461538461539</v>
       </c>
       <c r="L263" s="14" t="s">
         <v>79</v>
@@ -8522,7 +8525,7 @@
         <v>13000</v>
       </c>
       <c r="I264" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J264" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -8530,7 +8533,7 @@
       </c>
       <c r="K264" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>0</v>
+        <v>86.307692307692307</v>
       </c>
       <c r="L264" s="14" t="s">
         <v>79</v>
@@ -8553,7 +8556,7 @@
         <v>13000</v>
       </c>
       <c r="I265" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J265" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -8561,7 +8564,7 @@
       </c>
       <c r="K265" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>0</v>
+        <v>28.76923076923077</v>
       </c>
       <c r="L265" s="14" t="s">
         <v>79</v>
@@ -8584,7 +8587,7 @@
         <v>13000</v>
       </c>
       <c r="I266" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J266" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -8592,7 +8595,7 @@
       </c>
       <c r="K266" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>0</v>
+        <v>86.307692307692307</v>
       </c>
       <c r="L266" s="14" t="s">
         <v>79</v>
@@ -8615,7 +8618,7 @@
         <v>13000</v>
       </c>
       <c r="I267" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J267" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -8623,7 +8626,7 @@
       </c>
       <c r="K267" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>0</v>
+        <v>57.53846153846154</v>
       </c>
       <c r="L267" s="14" t="s">
         <v>79</v>
@@ -8646,7 +8649,7 @@
         <v>13000</v>
       </c>
       <c r="I268" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J268" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -8654,7 +8657,7 @@
       </c>
       <c r="K268" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>0</v>
+        <v>115.07692307692308</v>
       </c>
       <c r="L268" s="14" t="s">
         <v>79</v>
@@ -8677,7 +8680,7 @@
         <v>13000</v>
       </c>
       <c r="I269" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J269" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -8685,7 +8688,7 @@
       </c>
       <c r="K269" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>0</v>
+        <v>115.07692307692308</v>
       </c>
       <c r="L269" s="14" t="s">
         <v>79</v>
@@ -8708,7 +8711,7 @@
         <v>13000</v>
       </c>
       <c r="I270" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="J270" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -8716,7 +8719,7 @@
       </c>
       <c r="K270" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>0</v>
+        <v>57.53846153846154</v>
       </c>
       <c r="L270" s="14" t="s">
         <v>79</v>
@@ -8738,9 +8741,19 @@
       <c r="G272" s="14">
         <v>3500</v>
       </c>
+      <c r="H272" s="14">
+        <v>14500</v>
+      </c>
       <c r="I272" s="15"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L272" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="28">
         <v>46022</v>
       </c>
@@ -8753,9 +8766,19 @@
       <c r="G273" s="14">
         <v>1500</v>
       </c>
+      <c r="H273" s="14">
+        <v>14500</v>
+      </c>
       <c r="I273" s="15"/>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="L273" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="28">
         <v>46022</v>
       </c>
@@ -8765,12 +8788,28 @@
       <c r="C274" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="D274" s="14">
+        <v>500</v>
+      </c>
+      <c r="E274" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="G274" s="14">
-        <v>500</v>
+        <v>1000</v>
+      </c>
+      <c r="H274" s="14">
+        <v>14500</v>
       </c>
       <c r="I274" s="15"/>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L274" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>46022</v>
       </c>
@@ -8783,9 +8822,19 @@
       <c r="G275" s="14">
         <v>1500</v>
       </c>
+      <c r="H275" s="14">
+        <v>14500</v>
+      </c>
       <c r="I275" s="15"/>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="L275" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>46022</v>
       </c>
@@ -8798,9 +8847,19 @@
       <c r="G276" s="14">
         <v>1000</v>
       </c>
+      <c r="H276" s="14">
+        <v>14500</v>
+      </c>
       <c r="I276" s="15"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L276" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="28">
         <v>46022</v>
       </c>
@@ -8813,9 +8872,19 @@
       <c r="G277" s="14">
         <v>2000</v>
       </c>
+      <c r="H277" s="14">
+        <v>14500</v>
+      </c>
       <c r="I277" s="15"/>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="L277" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="28">
         <v>46022</v>
       </c>
@@ -8828,9 +8897,19 @@
       <c r="G278" s="14">
         <v>2000</v>
       </c>
+      <c r="H278" s="14">
+        <v>14500</v>
+      </c>
       <c r="I278" s="15"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="L278" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="28">
         <v>46022</v>
       </c>
@@ -8843,9 +8922,19 @@
       <c r="G279" s="14">
         <v>1000</v>
       </c>
+      <c r="H279" s="14">
+        <v>14500</v>
+      </c>
       <c r="I279" s="15"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L279" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="28">
         <v>46022</v>
       </c>
@@ -8864,30 +8953,40 @@
       <c r="G280" s="14">
         <v>1000</v>
       </c>
+      <c r="H280" s="14">
+        <v>14500</v>
+      </c>
       <c r="I280" s="15"/>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L280" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I281" s="15"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I282" s="15"/>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I283" s="15"/>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I284" s="15"/>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I285" s="15"/>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I286" s="15"/>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I287" s="15"/>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I288" s="15"/>
     </row>
     <row r="289" spans="9:9" x14ac:dyDescent="0.25">
@@ -9369,7 +9468,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9417,7 +9516,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2692.865689346585</v>
+        <v>2894.2503047312002</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -9438,7 +9537,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1607.5303823732929</v>
+        <v>1693.8380746809853</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -9455,11 +9554,11 @@
         <v>74</v>
       </c>
       <c r="D4">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>553.65753855044909</v>
+        <v>582.42676931967981</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -9480,7 +9579,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1604.361504540236</v>
+        <v>1690.6691968479283</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -9501,7 +9600,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>831.85768100059147</v>
+        <v>889.39614253905302</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -9522,7 +9621,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2139.1486727203146</v>
+        <v>2254.2255957972375</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -9543,7 +9642,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1946.2456876456881</v>
+        <v>2061.322610722611</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -9564,7 +9663,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>750.32284382284388</v>
+        <v>807.86130536130543</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -9606,8 +9705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="D268" sqref="D268"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D260" sqref="D260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14814,11 +14913,14 @@
       <c r="D251" s="16">
         <v>13000</v>
       </c>
+      <c r="E251" s="15">
+        <v>201.38461538461539</v>
+      </c>
       <c r="F251" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G251" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -14834,11 +14936,14 @@
       <c r="D252" s="16">
         <v>13000</v>
       </c>
+      <c r="E252" s="15">
+        <v>86.307692307692307</v>
+      </c>
       <c r="F252" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G252" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -14854,11 +14959,14 @@
       <c r="D253" s="16">
         <v>13000</v>
       </c>
+      <c r="E253" s="15">
+        <v>28.76923076923077</v>
+      </c>
       <c r="F253" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G253" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -14874,11 +14982,14 @@
       <c r="D254" s="16">
         <v>13000</v>
       </c>
+      <c r="E254" s="15">
+        <v>86.307692307692307</v>
+      </c>
       <c r="F254" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G254" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -14894,11 +15005,14 @@
       <c r="D255" s="16">
         <v>13000</v>
       </c>
+      <c r="E255" s="15">
+        <v>57.53846153846154</v>
+      </c>
       <c r="F255" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G255" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
@@ -14914,11 +15028,14 @@
       <c r="D256" s="16">
         <v>13000</v>
       </c>
+      <c r="E256" s="15">
+        <v>115.07692307692308</v>
+      </c>
       <c r="F256" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G256" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -14934,11 +15051,14 @@
       <c r="D257" s="16">
         <v>13000</v>
       </c>
+      <c r="E257" s="15">
+        <v>115.07692307692308</v>
+      </c>
       <c r="F257" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G257" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -14954,11 +15074,14 @@
       <c r="D258" s="16">
         <v>13000</v>
       </c>
+      <c r="E258" s="15">
+        <v>57.53846153846154</v>
+      </c>
       <c r="F258" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G258" s="15">
-        <v>0</v>
+        <v>748</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -14975,8 +15098,18 @@
       <c r="C260" s="14">
         <v>3500</v>
       </c>
-      <c r="D260" s="16"/>
-      <c r="G260" s="15"/>
+      <c r="D260" s="16">
+        <v>14500</v>
+      </c>
+      <c r="E260" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F260" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G260" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="28">
@@ -14988,8 +15121,18 @@
       <c r="C261" s="14">
         <v>1500</v>
       </c>
-      <c r="D261" s="16"/>
-      <c r="G261" s="15"/>
+      <c r="D261" s="16">
+        <v>14500</v>
+      </c>
+      <c r="E261" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F261" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G261" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="28">
@@ -14999,10 +15142,20 @@
         <v>14</v>
       </c>
       <c r="C262" s="14">
-        <v>500</v>
-      </c>
-      <c r="D262" s="16"/>
-      <c r="G262" s="15"/>
+        <v>1000</v>
+      </c>
+      <c r="D262" s="16">
+        <v>14500</v>
+      </c>
+      <c r="E262" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F262" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G262" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="28">
@@ -15014,8 +15167,18 @@
       <c r="C263" s="14">
         <v>1500</v>
       </c>
-      <c r="D263" s="16"/>
-      <c r="G263" s="15"/>
+      <c r="D263" s="16">
+        <v>14500</v>
+      </c>
+      <c r="E263" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G263" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="28">
@@ -15027,8 +15190,18 @@
       <c r="C264" s="14">
         <v>1000</v>
       </c>
-      <c r="D264" s="16"/>
-      <c r="G264" s="15"/>
+      <c r="D264" s="16">
+        <v>14500</v>
+      </c>
+      <c r="E264" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F264" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G264" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
@@ -15040,8 +15213,18 @@
       <c r="C265" s="14">
         <v>2000</v>
       </c>
-      <c r="D265" s="16"/>
-      <c r="G265" s="15"/>
+      <c r="D265" s="16">
+        <v>14500</v>
+      </c>
+      <c r="E265" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F265" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G265" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
@@ -15053,8 +15236,18 @@
       <c r="C266" s="14">
         <v>2000</v>
       </c>
-      <c r="D266" s="16"/>
-      <c r="G266" s="15"/>
+      <c r="D266" s="16">
+        <v>14500</v>
+      </c>
+      <c r="E266" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F266" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G266" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
@@ -15066,8 +15259,18 @@
       <c r="C267" s="14">
         <v>1000</v>
       </c>
-      <c r="D267" s="16"/>
-      <c r="G267" s="15"/>
+      <c r="D267" s="16">
+        <v>14500</v>
+      </c>
+      <c r="E267" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F267" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G267" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
@@ -15079,8 +15282,18 @@
       <c r="C268" s="14">
         <v>1000</v>
       </c>
-      <c r="D268" s="16"/>
-      <c r="G268" s="15"/>
+      <c r="D268" s="16">
+        <v>14500</v>
+      </c>
+      <c r="E268" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F268" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G268" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
@@ -16364,8 +16577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16747,7 +16960,7 @@
   <dimension ref="C4:R29"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17007,27 +17220,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="65.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="87">
   <si>
     <t>UserID</t>
   </si>
@@ -280,9 +280,6 @@
   </si>
   <si>
     <t>T015ADD500</t>
-  </si>
-  <si>
-    <t>Profit Calculates Next Day</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="D253" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D253" workbookViewId="0">
       <selection activeCell="I278" sqref="I278"/>
     </sheetView>
   </sheetViews>
@@ -8745,15 +8742,8 @@
         <v>14500</v>
       </c>
       <c r="I272" s="15"/>
-      <c r="J272" s="15">
-        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.2413793103448276</v>
-      </c>
-      <c r="L272" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="28">
         <v>46022</v>
       </c>
@@ -8770,15 +8760,8 @@
         <v>14500</v>
       </c>
       <c r="I273" s="15"/>
-      <c r="J273" s="15">
-        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="L273" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="28">
         <v>46022</v>
       </c>
@@ -8801,15 +8784,8 @@
         <v>14500</v>
       </c>
       <c r="I274" s="15"/>
-      <c r="J274" s="15">
-        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="L274" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>46022</v>
       </c>
@@ -8826,15 +8802,8 @@
         <v>14500</v>
       </c>
       <c r="I275" s="15"/>
-      <c r="J275" s="15">
-        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.10344827586206896</v>
-      </c>
-      <c r="L275" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>46022</v>
       </c>
@@ -8851,15 +8820,8 @@
         <v>14500</v>
       </c>
       <c r="I276" s="15"/>
-      <c r="J276" s="15">
-        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="L276" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="28">
         <v>46022</v>
       </c>
@@ -8876,15 +8838,8 @@
         <v>14500</v>
       </c>
       <c r="I277" s="15"/>
-      <c r="J277" s="15">
-        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.13793103448275862</v>
-      </c>
-      <c r="L277" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="28">
         <v>46022</v>
       </c>
@@ -8901,15 +8856,8 @@
         <v>14500</v>
       </c>
       <c r="I278" s="15"/>
-      <c r="J278" s="15">
-        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.13793103448275862</v>
-      </c>
-      <c r="L278" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="28">
         <v>46022</v>
       </c>
@@ -8926,15 +8874,8 @@
         <v>14500</v>
       </c>
       <c r="I279" s="15"/>
-      <c r="J279" s="15">
-        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="L279" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="28">
         <v>46022</v>
       </c>
@@ -8957,36 +8898,29 @@
         <v>14500</v>
       </c>
       <c r="I280" s="15"/>
-      <c r="J280" s="15">
-        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="L280" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I281" s="15"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I282" s="15"/>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I283" s="15"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I284" s="15"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I285" s="15"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I286" s="15"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I287" s="15"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I288" s="15"/>
     </row>
     <row r="289" spans="9:9" x14ac:dyDescent="0.25">
@@ -9706,7 +9640,7 @@
   <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D260" sqref="D260"/>
+      <selection activeCell="G260" sqref="G260:G268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15101,15 +15035,10 @@
       <c r="D260" s="16">
         <v>14500</v>
       </c>
-      <c r="E260" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F260" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G260" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="G260" s="15"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="28">
@@ -15124,15 +15053,10 @@
       <c r="D261" s="16">
         <v>14500</v>
       </c>
-      <c r="E261" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F261" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G261" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="G261" s="15"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="28">
@@ -15147,15 +15071,10 @@
       <c r="D262" s="16">
         <v>14500</v>
       </c>
-      <c r="E262" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F262" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G262" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="G262" s="15"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="28">
@@ -15170,15 +15089,10 @@
       <c r="D263" s="16">
         <v>14500</v>
       </c>
-      <c r="E263" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F263" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G263" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="G263" s="15"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="28">
@@ -15193,15 +15107,10 @@
       <c r="D264" s="16">
         <v>14500</v>
       </c>
-      <c r="E264" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F264" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G264" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="G264" s="15"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
@@ -15216,15 +15125,10 @@
       <c r="D265" s="16">
         <v>14500</v>
       </c>
-      <c r="E265" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F265" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G265" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="G265" s="15"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
@@ -15239,15 +15143,10 @@
       <c r="D266" s="16">
         <v>14500</v>
       </c>
-      <c r="E266" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F266" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G266" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="G266" s="15"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
@@ -15262,15 +15161,10 @@
       <c r="D267" s="16">
         <v>14500</v>
       </c>
-      <c r="E267" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F267" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G267" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="G267" s="15"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
@@ -15285,15 +15179,10 @@
       <c r="D268" s="16">
         <v>14500</v>
       </c>
-      <c r="E268" s="15" t="s">
-        <v>87</v>
-      </c>
       <c r="F268" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G268" s="15" t="s">
-        <v>87</v>
-      </c>
+      <c r="G268" s="15"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
@@ -16577,7 +16466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -710,7 +710,18 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G602"/>
+  <autoFilter ref="A1:G602">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="U001"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Pending"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
     <tableColumn id="2" name="UserID" dataDxfId="18"/>
@@ -1041,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D253" workbookViewId="0">
-      <selection activeCell="I278" sqref="I278"/>
+    <sheetView tabSelected="1" topLeftCell="D252" workbookViewId="0">
+      <selection activeCell="I274" sqref="I274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8251,7 +8262,7 @@
         <v>200.57692307692307</v>
       </c>
       <c r="L254" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
@@ -8282,7 +8293,7 @@
         <v>85.961538461538467</v>
       </c>
       <c r="L255" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
@@ -8313,7 +8324,7 @@
         <v>28.653846153846157</v>
       </c>
       <c r="L256" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
@@ -8344,7 +8355,7 @@
         <v>85.961538461538467</v>
       </c>
       <c r="L257" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
@@ -8375,7 +8386,7 @@
         <v>57.307692307692314</v>
       </c>
       <c r="L258" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
@@ -8406,7 +8417,7 @@
         <v>114.61538461538463</v>
       </c>
       <c r="L259" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
@@ -8437,7 +8448,7 @@
         <v>114.61538461538463</v>
       </c>
       <c r="L260" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
@@ -8468,7 +8479,7 @@
         <v>57.307692307692314</v>
       </c>
       <c r="L261" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
@@ -8502,7 +8513,7 @@
         <v>201.38461538461539</v>
       </c>
       <c r="L263" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
@@ -8533,7 +8544,7 @@
         <v>86.307692307692307</v>
       </c>
       <c r="L264" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
@@ -8564,7 +8575,7 @@
         <v>28.76923076923077</v>
       </c>
       <c r="L265" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
@@ -8595,7 +8606,7 @@
         <v>86.307692307692307</v>
       </c>
       <c r="L266" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
@@ -8626,7 +8637,7 @@
         <v>57.53846153846154</v>
       </c>
       <c r="L267" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
@@ -8657,7 +8668,7 @@
         <v>115.07692307692308</v>
       </c>
       <c r="L268" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
@@ -8688,7 +8699,7 @@
         <v>115.07692307692308</v>
       </c>
       <c r="L269" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
@@ -8719,7 +8730,7 @@
         <v>57.53846153846154</v>
       </c>
       <c r="L270" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
@@ -9402,7 +9413,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9639,8 +9650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="G260" sqref="G260:G268"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F260" sqref="F260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9678,7 +9689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -9701,7 +9712,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -9724,7 +9735,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -9747,11 +9758,11 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45981</v>
       </c>
@@ -9774,7 +9785,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -9797,7 +9808,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -9820,11 +9831,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -9847,7 +9858,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -9870,7 +9881,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -9893,7 +9904,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -9916,7 +9927,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -9939,7 +9950,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -9962,11 +9973,11 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45992</v>
       </c>
@@ -9989,7 +10000,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -10012,7 +10023,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -10035,7 +10046,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -10058,7 +10069,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -10081,7 +10092,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -10104,11 +10115,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45993</v>
       </c>
@@ -10131,7 +10142,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -10154,7 +10165,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -10177,7 +10188,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -10200,7 +10211,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -10223,7 +10234,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -10246,11 +10257,11 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45994</v>
       </c>
@@ -10273,7 +10284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -10296,7 +10307,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -10319,7 +10330,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -10342,7 +10353,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -10365,7 +10376,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -10388,7 +10399,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -10411,11 +10422,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45995</v>
       </c>
@@ -10438,7 +10449,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -10461,7 +10472,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -10484,7 +10495,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -10507,7 +10518,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -10530,7 +10541,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -10553,7 +10564,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -10576,11 +10587,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45998</v>
       </c>
@@ -10603,7 +10614,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -10626,7 +10637,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -10649,7 +10660,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -10672,7 +10683,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -10695,7 +10706,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -10718,7 +10729,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -10741,11 +10752,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45999</v>
       </c>
@@ -10768,7 +10779,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -10791,7 +10802,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -10814,7 +10825,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -10837,7 +10848,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -10860,7 +10871,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -10883,7 +10894,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -10906,11 +10917,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>46000</v>
       </c>
@@ -10933,7 +10944,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -10956,7 +10967,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -10979,7 +10990,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -11002,7 +11013,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -11025,7 +11036,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -11048,7 +11059,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -11071,11 +11082,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>46001</v>
       </c>
@@ -11098,7 +11109,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -11121,7 +11132,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -11144,7 +11155,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -11167,7 +11178,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -11190,7 +11201,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -11213,7 +11224,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -11236,7 +11247,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -11259,11 +11270,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>46002</v>
       </c>
@@ -11286,7 +11297,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -11309,7 +11320,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -11332,7 +11343,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -11355,7 +11366,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -11378,7 +11389,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -11401,7 +11412,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -11424,7 +11435,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -11447,11 +11458,11 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>46003</v>
       </c>
@@ -11474,7 +11485,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -11497,7 +11508,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -11520,7 +11531,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -11543,7 +11554,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -11566,7 +11577,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -11589,7 +11600,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -11612,7 +11623,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -11635,11 +11646,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>46004</v>
       </c>
@@ -11662,7 +11673,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -11685,7 +11696,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -11708,7 +11719,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -11731,7 +11742,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -11754,7 +11765,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -11777,7 +11788,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -11800,7 +11811,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -11823,11 +11834,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>46005</v>
       </c>
@@ -11850,7 +11861,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -11873,7 +11884,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -11896,7 +11907,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -11919,7 +11930,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -11942,7 +11953,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -11965,7 +11976,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -11988,7 +11999,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -12011,10 +12022,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>46006</v>
       </c>
@@ -12037,7 +12048,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -12060,7 +12071,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -12083,7 +12094,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -12106,7 +12117,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -12129,7 +12140,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -12152,7 +12163,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -12175,7 +12186,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -12198,11 +12209,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>46007</v>
       </c>
@@ -12225,7 +12236,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -12248,7 +12259,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -12271,7 +12282,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -12294,7 +12305,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -12317,7 +12328,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -12340,7 +12351,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -12363,7 +12374,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -12386,11 +12397,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>46008</v>
       </c>
@@ -12413,7 +12424,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -12436,7 +12447,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -12459,7 +12470,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -12482,7 +12493,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -12505,7 +12516,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -12528,7 +12539,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -12551,7 +12562,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -12574,11 +12585,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="28">
         <v>46009</v>
       </c>
@@ -12601,7 +12612,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -12624,7 +12635,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -12647,7 +12658,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -12670,7 +12681,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -12693,7 +12704,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -12716,7 +12727,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -12739,7 +12750,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -12762,11 +12773,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="28">
         <v>46010</v>
       </c>
@@ -12789,7 +12800,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -12812,7 +12823,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -12835,7 +12846,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -12858,7 +12869,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -12881,7 +12892,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -12904,7 +12915,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -12927,7 +12938,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -12950,11 +12961,11 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="28">
         <v>46011</v>
       </c>
@@ -12977,7 +12988,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="28">
         <v>46011</v>
       </c>
@@ -13000,7 +13011,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="28">
         <v>46011</v>
       </c>
@@ -13023,7 +13034,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="28">
         <v>46011</v>
       </c>
@@ -13046,7 +13057,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="28">
         <v>46011</v>
       </c>
@@ -13069,7 +13080,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="28">
         <v>46011</v>
       </c>
@@ -13092,7 +13103,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="28">
         <v>46011</v>
       </c>
@@ -13115,7 +13126,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="28">
         <v>46011</v>
       </c>
@@ -13138,11 +13149,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="28">
         <v>46012</v>
       </c>
@@ -13165,7 +13176,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="28">
         <v>46012</v>
       </c>
@@ -13188,7 +13199,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="28">
         <v>46012</v>
       </c>
@@ -13211,7 +13222,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="28">
         <v>46012</v>
       </c>
@@ -13234,7 +13245,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="28">
         <v>46012</v>
       </c>
@@ -13257,7 +13268,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="28">
         <v>46012</v>
       </c>
@@ -13280,7 +13291,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="28">
         <v>46012</v>
       </c>
@@ -13303,7 +13314,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="28">
         <v>46012</v>
       </c>
@@ -13326,11 +13337,11 @@
         <v>402</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="28">
         <v>46013</v>
       </c>
@@ -13353,7 +13364,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="28">
         <v>46013</v>
       </c>
@@ -13376,7 +13387,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
         <v>46013</v>
       </c>
@@ -13399,7 +13410,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="28">
         <v>46013</v>
       </c>
@@ -13422,7 +13433,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="28">
         <v>46013</v>
       </c>
@@ -13445,7 +13456,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="28">
         <v>46013</v>
       </c>
@@ -13468,7 +13479,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
         <v>46013</v>
       </c>
@@ -13491,7 +13502,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="28">
         <v>46013</v>
       </c>
@@ -13514,11 +13525,11 @@
         <v>379</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="28">
         <v>46014</v>
       </c>
@@ -13541,7 +13552,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="28">
         <v>46014</v>
       </c>
@@ -13564,7 +13575,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="28">
         <v>46014</v>
       </c>
@@ -13587,7 +13598,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="28">
         <v>46014</v>
       </c>
@@ -13610,7 +13621,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="28">
         <v>46014</v>
       </c>
@@ -13633,7 +13644,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
         <v>46014</v>
       </c>
@@ -13656,7 +13667,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="28">
         <v>46014</v>
       </c>
@@ -13679,7 +13690,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="28">
         <v>46014</v>
       </c>
@@ -13702,11 +13713,11 @@
         <v>522</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="28">
         <v>46015</v>
       </c>
@@ -13729,7 +13740,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="28">
         <v>46015</v>
       </c>
@@ -13752,7 +13763,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="28">
         <v>46015</v>
       </c>
@@ -13775,7 +13786,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="28">
         <v>46015</v>
       </c>
@@ -13798,7 +13809,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="28">
         <v>46015</v>
       </c>
@@ -13821,7 +13832,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="28">
         <v>46015</v>
       </c>
@@ -13844,7 +13855,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="28">
         <v>46015</v>
       </c>
@@ -13867,7 +13878,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="28">
         <v>46015</v>
       </c>
@@ -13890,11 +13901,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="28">
         <v>46016</v>
       </c>
@@ -13917,7 +13928,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="28">
         <v>46016</v>
       </c>
@@ -13940,7 +13951,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="28">
         <v>46016</v>
       </c>
@@ -13963,7 +13974,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="28">
         <v>46016</v>
       </c>
@@ -13986,7 +13997,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28">
         <v>46016</v>
       </c>
@@ -14009,7 +14020,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="28">
         <v>46016</v>
       </c>
@@ -14032,7 +14043,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
         <v>46016</v>
       </c>
@@ -14055,7 +14066,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="28">
         <v>46016</v>
       </c>
@@ -14078,11 +14089,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="28">
         <v>46017</v>
       </c>
@@ -14105,7 +14116,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="28">
         <v>46017</v>
       </c>
@@ -14128,7 +14139,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="28">
         <v>46017</v>
       </c>
@@ -14151,7 +14162,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="28">
         <v>46017</v>
       </c>
@@ -14174,7 +14185,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="28">
         <v>46017</v>
       </c>
@@ -14197,7 +14208,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="28">
         <v>46017</v>
       </c>
@@ -14220,7 +14231,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="28">
         <v>46017</v>
       </c>
@@ -14243,7 +14254,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="28">
         <v>46017</v>
       </c>
@@ -14266,11 +14277,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="28">
         <v>46018</v>
       </c>
@@ -14293,7 +14304,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="28">
         <v>46018</v>
       </c>
@@ -14316,7 +14327,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="28">
         <v>46018</v>
       </c>
@@ -14339,7 +14350,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="28">
         <v>46018</v>
       </c>
@@ -14362,7 +14373,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="28">
         <v>46018</v>
       </c>
@@ -14385,7 +14396,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="28">
         <v>46018</v>
       </c>
@@ -14408,7 +14419,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="28">
         <v>46018</v>
       </c>
@@ -14431,7 +14442,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="28">
         <v>46018</v>
       </c>
@@ -14454,11 +14465,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="28">
         <v>46019</v>
       </c>
@@ -14481,7 +14492,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="28">
         <v>46019</v>
       </c>
@@ -14504,7 +14515,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="28">
         <v>46019</v>
       </c>
@@ -14527,7 +14538,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="28">
         <v>46019</v>
       </c>
@@ -14550,7 +14561,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="28">
         <v>46019</v>
       </c>
@@ -14573,7 +14584,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="28">
         <v>46019</v>
       </c>
@@ -14596,7 +14607,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="28">
         <v>46019</v>
       </c>
@@ -14619,7 +14630,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="28">
         <v>46019</v>
       </c>
@@ -14642,7 +14653,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
@@ -14663,13 +14674,13 @@
         <v>200.57692307692307</v>
       </c>
       <c r="F242" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G242" s="15">
         <v>745</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="28">
         <v>46020</v>
       </c>
@@ -14686,13 +14697,13 @@
         <v>85.961538461538467</v>
       </c>
       <c r="F243" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G243" s="15">
         <v>745</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="28">
         <v>46020</v>
       </c>
@@ -14709,13 +14720,13 @@
         <v>28.653846153846157</v>
       </c>
       <c r="F244" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G244" s="15">
         <v>745</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="28">
         <v>46020</v>
       </c>
@@ -14732,13 +14743,13 @@
         <v>85.961538461538467</v>
       </c>
       <c r="F245" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G245" s="15">
         <v>745</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="28">
         <v>46020</v>
       </c>
@@ -14755,13 +14766,13 @@
         <v>57.307692307692314</v>
       </c>
       <c r="F246" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G246" s="15">
         <v>745</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="28">
         <v>46020</v>
       </c>
@@ -14778,13 +14789,13 @@
         <v>114.61538461538463</v>
       </c>
       <c r="F247" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G247" s="15">
         <v>745</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="28">
         <v>46020</v>
       </c>
@@ -14801,13 +14812,13 @@
         <v>114.61538461538463</v>
       </c>
       <c r="F248" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G248" s="15">
         <v>745</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="28">
         <v>46020</v>
       </c>
@@ -14824,13 +14835,13 @@
         <v>57.307692307692314</v>
       </c>
       <c r="F249" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G249" s="15">
         <v>745</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
@@ -14851,13 +14862,13 @@
         <v>201.38461538461539</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G251" s="15">
         <v>748</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="28">
         <v>46021</v>
       </c>
@@ -14874,13 +14885,13 @@
         <v>86.307692307692307</v>
       </c>
       <c r="F252" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G252" s="15">
         <v>748</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="28">
         <v>46021</v>
       </c>
@@ -14897,13 +14908,13 @@
         <v>28.76923076923077</v>
       </c>
       <c r="F253" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G253" s="15">
         <v>748</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="28">
         <v>46021</v>
       </c>
@@ -14920,13 +14931,13 @@
         <v>86.307692307692307</v>
       </c>
       <c r="F254" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G254" s="15">
         <v>748</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="28">
         <v>46021</v>
       </c>
@@ -14943,13 +14954,13 @@
         <v>57.53846153846154</v>
       </c>
       <c r="F255" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G255" s="15">
         <v>748</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="28">
         <v>46021</v>
       </c>
@@ -14966,13 +14977,13 @@
         <v>115.07692307692308</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G256" s="15">
         <v>748</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="28">
         <v>46021</v>
       </c>
@@ -14989,13 +15000,13 @@
         <v>115.07692307692308</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G257" s="15">
         <v>748</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="28">
         <v>46021</v>
       </c>
@@ -15012,13 +15023,13 @@
         <v>57.53846153846154</v>
       </c>
       <c r="F258" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G258" s="15">
         <v>748</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
@@ -15040,7 +15051,7 @@
       </c>
       <c r="G260" s="15"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="28">
         <v>46022</v>
       </c>
@@ -15058,7 +15069,7 @@
       </c>
       <c r="G261" s="15"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="28">
         <v>46022</v>
       </c>
@@ -15076,7 +15087,7 @@
       </c>
       <c r="G262" s="15"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="28">
         <v>46022</v>
       </c>
@@ -15094,7 +15105,7 @@
       </c>
       <c r="G263" s="15"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="28">
         <v>46022</v>
       </c>
@@ -15112,7 +15123,7 @@
       </c>
       <c r="G264" s="15"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
         <v>46022</v>
       </c>
@@ -15130,7 +15141,7 @@
       </c>
       <c r="G265" s="15"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
         <v>46022</v>
       </c>
@@ -15148,7 +15159,7 @@
       </c>
       <c r="G266" s="15"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
         <v>46022</v>
       </c>
@@ -15166,7 +15177,7 @@
       </c>
       <c r="G267" s="15"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
         <v>46022</v>
       </c>
@@ -15184,1171 +15195,1171 @@
       </c>
       <c r="G268" s="15"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D270" s="16"/>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D271" s="16"/>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D272" s="16"/>
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D273" s="16"/>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D274" s="16"/>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D275" s="16"/>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D276" s="16"/>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D277" s="16"/>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D278" s="16"/>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D280" s="16"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D281" s="16"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D282" s="16"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D283" s="16"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D284" s="16"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D285" s="16"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D286" s="16"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D288" s="16"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="87">
   <si>
     <t>UserID</t>
   </si>
@@ -710,18 +710,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G602">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="U001"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Pending"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G602"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
     <tableColumn id="2" name="UserID" dataDxfId="18"/>
@@ -1052,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D252" workbookViewId="0">
-      <selection activeCell="I274" sqref="I274"/>
+    <sheetView tabSelected="1" topLeftCell="D262" workbookViewId="0">
+      <selection activeCell="I282" sqref="I282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8752,9 +8741,22 @@
       <c r="H272" s="14">
         <v>14500</v>
       </c>
-      <c r="I272" s="15"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I272" s="15">
+        <v>880</v>
+      </c>
+      <c r="J272" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="K272" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>212.41379310344828</v>
+      </c>
+      <c r="L272" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="28">
         <v>46022</v>
       </c>
@@ -8770,9 +8772,22 @@
       <c r="H273" s="14">
         <v>14500</v>
       </c>
-      <c r="I273" s="15"/>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I273" s="15">
+        <v>880</v>
+      </c>
+      <c r="J273" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="K273" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>91.034482758620683</v>
+      </c>
+      <c r="L273" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="28">
         <v>46022</v>
       </c>
@@ -8794,9 +8809,22 @@
       <c r="H274" s="14">
         <v>14500</v>
       </c>
-      <c r="I274" s="15"/>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I274" s="15">
+        <v>880</v>
+      </c>
+      <c r="J274" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="K274" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60.689655172413794</v>
+      </c>
+      <c r="L274" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>46022</v>
       </c>
@@ -8812,9 +8840,22 @@
       <c r="H275" s="14">
         <v>14500</v>
       </c>
-      <c r="I275" s="15"/>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I275" s="15">
+        <v>880</v>
+      </c>
+      <c r="J275" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="K275" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>91.034482758620683</v>
+      </c>
+      <c r="L275" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>46022</v>
       </c>
@@ -8830,9 +8871,22 @@
       <c r="H276" s="14">
         <v>14500</v>
       </c>
-      <c r="I276" s="15"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I276" s="15">
+        <v>880</v>
+      </c>
+      <c r="J276" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="K276" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60.689655172413794</v>
+      </c>
+      <c r="L276" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="28">
         <v>46022</v>
       </c>
@@ -8848,9 +8902,22 @@
       <c r="H277" s="14">
         <v>14500</v>
       </c>
-      <c r="I277" s="15"/>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I277" s="15">
+        <v>880</v>
+      </c>
+      <c r="J277" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="K277" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>121.37931034482759</v>
+      </c>
+      <c r="L277" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="28">
         <v>46022</v>
       </c>
@@ -8866,9 +8933,22 @@
       <c r="H278" s="14">
         <v>14500</v>
       </c>
-      <c r="I278" s="15"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I278" s="15">
+        <v>880</v>
+      </c>
+      <c r="J278" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="K278" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>121.37931034482759</v>
+      </c>
+      <c r="L278" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="28">
         <v>46022</v>
       </c>
@@ -8884,9 +8964,22 @@
       <c r="H279" s="14">
         <v>14500</v>
       </c>
-      <c r="I279" s="15"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I279" s="15">
+        <v>880</v>
+      </c>
+      <c r="J279" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="K279" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60.689655172413794</v>
+      </c>
+      <c r="L279" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="28">
         <v>46022</v>
       </c>
@@ -8908,78 +9001,289 @@
       <c r="H280" s="14">
         <v>14500</v>
       </c>
-      <c r="I280" s="15"/>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I280" s="15">
+        <v>880</v>
+      </c>
+      <c r="J280" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="K280" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60.689655172413794</v>
+      </c>
+      <c r="L280" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I281" s="15"/>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A282" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C282" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G282" s="14">
+        <v>3500</v>
+      </c>
+      <c r="H282" s="14">
+        <v>14500</v>
+      </c>
       <c r="I282" s="15"/>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="L282" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A283" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G283" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H283" s="14">
+        <v>14500</v>
+      </c>
       <c r="I283" s="15"/>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="L283" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A284" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B284" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C284" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G284" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H284" s="14">
+        <v>14500</v>
+      </c>
       <c r="I284" s="15"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L284" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A285" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B285" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C285" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G285" s="14">
+        <v>1500</v>
+      </c>
+      <c r="H285" s="14">
+        <v>14500</v>
+      </c>
       <c r="I285" s="15"/>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="L285" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A286" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B286" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C286" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G286" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H286" s="14">
+        <v>14500</v>
+      </c>
       <c r="I286" s="15"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L286" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A287" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B287" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C287" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G287" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H287" s="14">
+        <v>14500</v>
+      </c>
       <c r="I287" s="15"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="L287" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A288" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B288" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C288" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G288" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H288" s="14">
+        <v>14500</v>
+      </c>
       <c r="I288" s="15"/>
-    </row>
-    <row r="289" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="L288" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A289" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B289" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C289" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G289" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H289" s="14">
+        <v>14500</v>
+      </c>
       <c r="I289" s="15"/>
-    </row>
-    <row r="290" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L289" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A290" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B290" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C290" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G290" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H290" s="14">
+        <v>14500</v>
+      </c>
       <c r="I290" s="15"/>
-    </row>
-    <row r="291" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L290" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I291" s="15"/>
     </row>
-    <row r="292" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I292" s="15"/>
     </row>
-    <row r="293" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I293" s="15"/>
     </row>
-    <row r="294" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I294" s="15"/>
     </row>
-    <row r="295" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I295" s="15"/>
     </row>
-    <row r="296" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I296" s="15"/>
     </row>
-    <row r="297" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I297" s="15"/>
     </row>
-    <row r="298" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I298" s="15"/>
     </row>
-    <row r="299" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I299" s="15"/>
     </row>
-    <row r="300" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I300" s="15"/>
     </row>
-    <row r="301" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I301" s="15"/>
     </row>
-    <row r="302" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I302" s="15"/>
     </row>
-    <row r="303" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I303" s="15"/>
     </row>
-    <row r="304" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I304" s="15"/>
     </row>
     <row r="305" spans="9:9" x14ac:dyDescent="0.25">
@@ -9461,7 +9765,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2894.2503047312002</v>
+        <v>3106.6640978346486</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -9482,7 +9786,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1693.8380746809853</v>
+        <v>1784.872557439606</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -9503,7 +9807,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>582.42676931967981</v>
+        <v>643.11642449209364</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -9524,7 +9828,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1690.6691968479283</v>
+        <v>1781.703679606549</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -9545,7 +9849,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>889.39614253905302</v>
+        <v>950.08579771146685</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -9566,7 +9870,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2254.2255957972375</v>
+        <v>2375.6049061420649</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -9587,7 +9891,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2061.322610722611</v>
+        <v>2182.7019210674384</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -9608,7 +9912,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>807.86130536130543</v>
+        <v>868.55096053371926</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -9629,7 +9933,7 @@
       </c>
       <c r="E10" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>0</v>
+        <v>60.689655172413794</v>
       </c>
     </row>
   </sheetData>
@@ -9650,8 +9954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F260" sqref="F260"/>
+    <sheetView topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9689,7 +9993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -9712,7 +10016,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -9735,7 +10039,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -9758,11 +10062,11 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45981</v>
       </c>
@@ -9785,7 +10089,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -9808,7 +10112,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -9831,11 +10135,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -9858,7 +10162,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -9881,7 +10185,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -9904,7 +10208,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -9927,7 +10231,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -9950,7 +10254,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -9973,11 +10277,11 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>45992</v>
       </c>
@@ -10000,7 +10304,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -10023,7 +10327,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -10046,7 +10350,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -10069,7 +10373,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -10092,7 +10396,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -10115,11 +10419,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28">
         <v>45993</v>
       </c>
@@ -10142,7 +10446,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -10165,7 +10469,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -10188,7 +10492,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -10211,7 +10515,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -10234,7 +10538,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -10257,11 +10561,11 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="28">
         <v>45994</v>
       </c>
@@ -10284,7 +10588,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -10307,7 +10611,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -10330,7 +10634,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -10353,7 +10657,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -10376,7 +10680,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -10399,7 +10703,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -10422,11 +10726,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="28">
         <v>45995</v>
       </c>
@@ -10449,7 +10753,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -10472,7 +10776,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -10495,7 +10799,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -10518,7 +10822,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -10541,7 +10845,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -10564,7 +10868,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -10587,11 +10891,11 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="28">
         <v>45998</v>
       </c>
@@ -10614,7 +10918,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -10637,7 +10941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -10660,7 +10964,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -10683,7 +10987,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -10706,7 +11010,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -10729,7 +11033,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -10752,11 +11056,11 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="28">
         <v>45999</v>
       </c>
@@ -10779,7 +11083,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -10802,7 +11106,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -10825,7 +11129,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -10848,7 +11152,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -10871,7 +11175,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -10894,7 +11198,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -10917,11 +11221,11 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="28">
         <v>46000</v>
       </c>
@@ -10944,7 +11248,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -10967,7 +11271,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -10990,7 +11294,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -11013,7 +11317,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -11036,7 +11340,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -11059,7 +11363,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -11082,11 +11386,11 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>46001</v>
       </c>
@@ -11109,7 +11413,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -11132,7 +11436,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -11155,7 +11459,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -11178,7 +11482,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -11201,7 +11505,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -11224,7 +11528,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -11247,7 +11551,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -11270,11 +11574,11 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="28">
         <v>46002</v>
       </c>
@@ -11297,7 +11601,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -11320,7 +11624,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -11343,7 +11647,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -11366,7 +11670,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -11389,7 +11693,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -11412,7 +11716,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -11435,7 +11739,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -11458,11 +11762,11 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="G88" s="15"/>
     </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="28">
         <v>46003</v>
       </c>
@@ -11485,7 +11789,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -11508,7 +11812,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -11531,7 +11835,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -11554,7 +11858,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -11577,7 +11881,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -11600,7 +11904,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -11623,7 +11927,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -11646,11 +11950,11 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="28">
         <v>46004</v>
       </c>
@@ -11673,7 +11977,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -11696,7 +12000,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -11719,7 +12023,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -11742,7 +12046,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -11765,7 +12069,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -11788,7 +12092,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -11811,7 +12115,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -11834,11 +12138,11 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="28">
         <v>46005</v>
       </c>
@@ -11861,7 +12165,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -11884,7 +12188,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -11907,7 +12211,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -11930,7 +12234,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -11953,7 +12257,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -11976,7 +12280,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -11999,7 +12303,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -12022,10 +12326,10 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="28">
         <v>46006</v>
       </c>
@@ -12048,7 +12352,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -12071,7 +12375,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -12094,7 +12398,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -12117,7 +12421,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -12140,7 +12444,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -12163,7 +12467,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -12186,7 +12490,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -12209,11 +12513,11 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="28">
         <v>46007</v>
       </c>
@@ -12236,7 +12540,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -12259,7 +12563,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -12282,7 +12586,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -12305,7 +12609,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -12328,7 +12632,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -12351,7 +12655,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -12374,7 +12678,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -12397,11 +12701,11 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="28">
         <v>46008</v>
       </c>
@@ -12424,7 +12728,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -12447,7 +12751,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -12470,7 +12774,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -12493,7 +12797,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -12516,7 +12820,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -12539,7 +12843,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -12562,7 +12866,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -12585,11 +12889,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="28">
         <v>46009</v>
       </c>
@@ -12612,7 +12916,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -12635,7 +12939,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -12658,7 +12962,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -12681,7 +12985,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -12704,7 +13008,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -12727,7 +13031,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -12750,7 +13054,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -12773,11 +13077,11 @@
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="28">
         <v>46010</v>
       </c>
@@ -12800,7 +13104,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -12823,7 +13127,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -12846,7 +13150,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -12869,7 +13173,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -12892,7 +13196,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -12915,7 +13219,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -12938,7 +13242,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -12961,11 +13265,11 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="28">
         <v>46011</v>
       </c>
@@ -12988,7 +13292,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="28">
         <v>46011</v>
       </c>
@@ -13011,7 +13315,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="28">
         <v>46011</v>
       </c>
@@ -13034,7 +13338,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="28">
         <v>46011</v>
       </c>
@@ -13057,7 +13361,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="28">
         <v>46011</v>
       </c>
@@ -13080,7 +13384,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="28">
         <v>46011</v>
       </c>
@@ -13103,7 +13407,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="28">
         <v>46011</v>
       </c>
@@ -13126,7 +13430,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="28">
         <v>46011</v>
       </c>
@@ -13149,11 +13453,11 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="28">
         <v>46012</v>
       </c>
@@ -13176,7 +13480,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="28">
         <v>46012</v>
       </c>
@@ -13199,7 +13503,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="28">
         <v>46012</v>
       </c>
@@ -13222,7 +13526,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="28">
         <v>46012</v>
       </c>
@@ -13245,7 +13549,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="28">
         <v>46012</v>
       </c>
@@ -13268,7 +13572,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="28">
         <v>46012</v>
       </c>
@@ -13291,7 +13595,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="28">
         <v>46012</v>
       </c>
@@ -13314,7 +13618,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="28">
         <v>46012</v>
       </c>
@@ -13337,11 +13641,11 @@
         <v>402</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="28">
         <v>46013</v>
       </c>
@@ -13364,7 +13668,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="28">
         <v>46013</v>
       </c>
@@ -13387,7 +13691,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
         <v>46013</v>
       </c>
@@ -13410,7 +13714,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="28">
         <v>46013</v>
       </c>
@@ -13433,7 +13737,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="28">
         <v>46013</v>
       </c>
@@ -13456,7 +13760,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="28">
         <v>46013</v>
       </c>
@@ -13479,7 +13783,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
         <v>46013</v>
       </c>
@@ -13502,7 +13806,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="28">
         <v>46013</v>
       </c>
@@ -13525,11 +13829,11 @@
         <v>379</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="28">
         <v>46014</v>
       </c>
@@ -13552,7 +13856,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="28">
         <v>46014</v>
       </c>
@@ -13575,7 +13879,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="28">
         <v>46014</v>
       </c>
@@ -13598,7 +13902,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="28">
         <v>46014</v>
       </c>
@@ -13621,7 +13925,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="28">
         <v>46014</v>
       </c>
@@ -13644,7 +13948,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
         <v>46014</v>
       </c>
@@ -13667,7 +13971,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="28">
         <v>46014</v>
       </c>
@@ -13690,7 +13994,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="28">
         <v>46014</v>
       </c>
@@ -13713,11 +14017,11 @@
         <v>522</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="28">
         <v>46015</v>
       </c>
@@ -13740,7 +14044,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="28">
         <v>46015</v>
       </c>
@@ -13763,7 +14067,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="28">
         <v>46015</v>
       </c>
@@ -13786,7 +14090,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="28">
         <v>46015</v>
       </c>
@@ -13809,7 +14113,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="28">
         <v>46015</v>
       </c>
@@ -13832,7 +14136,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="28">
         <v>46015</v>
       </c>
@@ -13855,7 +14159,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="28">
         <v>46015</v>
       </c>
@@ -13878,7 +14182,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="28">
         <v>46015</v>
       </c>
@@ -13901,11 +14205,11 @@
         <v>337</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="28">
         <v>46016</v>
       </c>
@@ -13928,7 +14232,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="28">
         <v>46016</v>
       </c>
@@ -13951,7 +14255,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="28">
         <v>46016</v>
       </c>
@@ -13974,7 +14278,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="28">
         <v>46016</v>
       </c>
@@ -13997,7 +14301,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="28">
         <v>46016</v>
       </c>
@@ -14020,7 +14324,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="28">
         <v>46016</v>
       </c>
@@ -14043,7 +14347,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
         <v>46016</v>
       </c>
@@ -14066,7 +14370,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="28">
         <v>46016</v>
       </c>
@@ -14089,11 +14393,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="28">
         <v>46017</v>
       </c>
@@ -14116,7 +14420,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="28">
         <v>46017</v>
       </c>
@@ -14139,7 +14443,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="28">
         <v>46017</v>
       </c>
@@ -14162,7 +14466,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="28">
         <v>46017</v>
       </c>
@@ -14185,7 +14489,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="28">
         <v>46017</v>
       </c>
@@ -14208,7 +14512,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="28">
         <v>46017</v>
       </c>
@@ -14231,7 +14535,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="28">
         <v>46017</v>
       </c>
@@ -14254,7 +14558,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="28">
         <v>46017</v>
       </c>
@@ -14277,11 +14581,11 @@
         <v>346</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="28">
         <v>46018</v>
       </c>
@@ -14304,7 +14608,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="28">
         <v>46018</v>
       </c>
@@ -14327,7 +14631,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="28">
         <v>46018</v>
       </c>
@@ -14350,7 +14654,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="28">
         <v>46018</v>
       </c>
@@ -14373,7 +14677,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="28">
         <v>46018</v>
       </c>
@@ -14396,7 +14700,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="28">
         <v>46018</v>
       </c>
@@ -14419,7 +14723,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="28">
         <v>46018</v>
       </c>
@@ -14442,7 +14746,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="28">
         <v>46018</v>
       </c>
@@ -14465,11 +14769,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="28">
         <v>46019</v>
       </c>
@@ -14492,7 +14796,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="28">
         <v>46019</v>
       </c>
@@ -14515,7 +14819,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="28">
         <v>46019</v>
       </c>
@@ -14538,7 +14842,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="28">
         <v>46019</v>
       </c>
@@ -14561,7 +14865,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="28">
         <v>46019</v>
       </c>
@@ -14584,7 +14888,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="28">
         <v>46019</v>
       </c>
@@ -14607,7 +14911,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="28">
         <v>46019</v>
       </c>
@@ -14630,7 +14934,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="28">
         <v>46019</v>
       </c>
@@ -14653,7 +14957,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
@@ -14680,7 +14984,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="28">
         <v>46020</v>
       </c>
@@ -14703,7 +15007,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="28">
         <v>46020</v>
       </c>
@@ -14726,7 +15030,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="28">
         <v>46020</v>
       </c>
@@ -14749,7 +15053,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="28">
         <v>46020</v>
       </c>
@@ -14772,7 +15076,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="28">
         <v>46020</v>
       </c>
@@ -14795,7 +15099,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="28">
         <v>46020</v>
       </c>
@@ -14818,7 +15122,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="28">
         <v>46020</v>
       </c>
@@ -14841,7 +15145,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
@@ -14868,7 +15172,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="28">
         <v>46021</v>
       </c>
@@ -14891,7 +15195,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="28">
         <v>46021</v>
       </c>
@@ -14914,7 +15218,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="28">
         <v>46021</v>
       </c>
@@ -14937,7 +15241,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="28">
         <v>46021</v>
       </c>
@@ -14960,7 +15264,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="28">
         <v>46021</v>
       </c>
@@ -14983,7 +15287,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="28">
         <v>46021</v>
       </c>
@@ -15006,7 +15310,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="28">
         <v>46021</v>
       </c>
@@ -15029,7 +15333,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
@@ -15046,12 +15350,17 @@
       <c r="D260" s="16">
         <v>14500</v>
       </c>
+      <c r="E260" s="15">
+        <v>212.41379310344828</v>
+      </c>
       <c r="F260" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G260" s="15"/>
-    </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G260" s="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="28">
         <v>46022</v>
       </c>
@@ -15064,12 +15373,17 @@
       <c r="D261" s="16">
         <v>14500</v>
       </c>
+      <c r="E261" s="15">
+        <v>91.034482758620683</v>
+      </c>
       <c r="F261" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G261" s="15"/>
-    </row>
-    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G261" s="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="28">
         <v>46022</v>
       </c>
@@ -15082,12 +15396,17 @@
       <c r="D262" s="16">
         <v>14500</v>
       </c>
+      <c r="E262" s="15">
+        <v>60.689655172413794</v>
+      </c>
       <c r="F262" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G262" s="15"/>
-    </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G262" s="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="28">
         <v>46022</v>
       </c>
@@ -15100,12 +15419,17 @@
       <c r="D263" s="16">
         <v>14500</v>
       </c>
+      <c r="E263" s="15">
+        <v>91.034482758620683</v>
+      </c>
       <c r="F263" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G263" s="15"/>
-    </row>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G263" s="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="28">
         <v>46022</v>
       </c>
@@ -15118,12 +15442,17 @@
       <c r="D264" s="16">
         <v>14500</v>
       </c>
+      <c r="E264" s="15">
+        <v>60.689655172413794</v>
+      </c>
       <c r="F264" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G264" s="15"/>
-    </row>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G264" s="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
         <v>46022</v>
       </c>
@@ -15136,12 +15465,17 @@
       <c r="D265" s="16">
         <v>14500</v>
       </c>
+      <c r="E265" s="15">
+        <v>121.37931034482759</v>
+      </c>
       <c r="F265" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G265" s="15"/>
-    </row>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G265" s="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
         <v>46022</v>
       </c>
@@ -15154,12 +15488,17 @@
       <c r="D266" s="16">
         <v>14500</v>
       </c>
+      <c r="E266" s="15">
+        <v>121.37931034482759</v>
+      </c>
       <c r="F266" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G266" s="15"/>
-    </row>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G266" s="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
         <v>46022</v>
       </c>
@@ -15172,12 +15511,17 @@
       <c r="D267" s="16">
         <v>14500</v>
       </c>
+      <c r="E267" s="15">
+        <v>60.689655172413794</v>
+      </c>
       <c r="F267" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G267" s="15"/>
-    </row>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G267" s="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
         <v>46022</v>
       </c>
@@ -15190,1176 +15534,1307 @@
       <c r="D268" s="16">
         <v>14500</v>
       </c>
+      <c r="E268" s="15">
+        <v>60.689655172413794</v>
+      </c>
       <c r="F268" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G268" s="15"/>
-    </row>
-    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G268" s="15">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D270" s="16"/>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B270" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C270" s="14">
+        <v>3500</v>
+      </c>
+      <c r="D270" s="16">
+        <v>14500</v>
+      </c>
+      <c r="F270" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G270" s="15"/>
     </row>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D271" s="16"/>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B271" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D271" s="16">
+        <v>14500</v>
+      </c>
+      <c r="F271" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G271" s="15"/>
     </row>
-    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D272" s="16"/>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B272" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C272" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D272" s="16">
+        <v>14500</v>
+      </c>
+      <c r="F272" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G272" s="15"/>
     </row>
-    <row r="273" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D273" s="16"/>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B273" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C273" s="14">
+        <v>1500</v>
+      </c>
+      <c r="D273" s="16">
+        <v>14500</v>
+      </c>
+      <c r="F273" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G273" s="15"/>
     </row>
-    <row r="274" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D274" s="16"/>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B274" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C274" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D274" s="16">
+        <v>14500</v>
+      </c>
+      <c r="F274" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G274" s="15"/>
     </row>
-    <row r="275" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D275" s="16"/>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B275" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C275" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D275" s="16">
+        <v>14500</v>
+      </c>
+      <c r="F275" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G275" s="15"/>
     </row>
-    <row r="276" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D276" s="16"/>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B276" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C276" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D276" s="16">
+        <v>14500</v>
+      </c>
+      <c r="F276" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G276" s="15"/>
     </row>
-    <row r="277" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D277" s="16"/>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B277" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C277" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D277" s="16">
+        <v>14500</v>
+      </c>
+      <c r="F277" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G277" s="15"/>
     </row>
-    <row r="278" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D278" s="16"/>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" s="28">
+        <v>46023</v>
+      </c>
+      <c r="B278" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C278" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D278" s="16">
+        <v>14500</v>
+      </c>
+      <c r="F278" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G278" s="15"/>
     </row>
-    <row r="279" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D280" s="16"/>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D281" s="16"/>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D282" s="16"/>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D283" s="16"/>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D284" s="16"/>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D285" s="16"/>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D286" s="16"/>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D287" s="16"/>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D288" s="16"/>
       <c r="G288" s="15"/>
     </row>
-    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="90">
   <si>
     <t>UserID</t>
   </si>
@@ -280,6 +280,15 @@
   </si>
   <si>
     <t>T015ADD500</t>
+  </si>
+  <si>
+    <t>T016ADD300</t>
+  </si>
+  <si>
+    <t>T017ADD200</t>
+  </si>
+  <si>
+    <t>T018ADD1000</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D262" workbookViewId="0">
-      <selection activeCell="I282" sqref="I282"/>
+    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="G289" sqref="G289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9029,16 +9038,22 @@
       <c r="C282" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="D282" s="14">
+        <v>300</v>
+      </c>
+      <c r="E282" s="14" t="s">
+        <v>87</v>
+      </c>
       <c r="G282" s="14">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="H282" s="14">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I282" s="15"/>
       <c r="J282" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.2413793103448276</v>
+        <v>0.25675675675675674</v>
       </c>
       <c r="L282" s="14" t="s">
         <v>79</v>
@@ -9058,12 +9073,12 @@
         <v>1500</v>
       </c>
       <c r="H283" s="14">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I283" s="15"/>
       <c r="J283" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.10344827586206896</v>
+        <v>0.10135135135135136</v>
       </c>
       <c r="L283" s="14" t="s">
         <v>79</v>
@@ -9083,12 +9098,12 @@
         <v>1000</v>
       </c>
       <c r="H284" s="14">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I284" s="15"/>
       <c r="J284" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>6.8965517241379309E-2</v>
+        <v>6.7567567567567571E-2</v>
       </c>
       <c r="L284" s="14" t="s">
         <v>79</v>
@@ -9108,12 +9123,12 @@
         <v>1500</v>
       </c>
       <c r="H285" s="14">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I285" s="15"/>
       <c r="J285" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.10344827586206896</v>
+        <v>0.10135135135135136</v>
       </c>
       <c r="L285" s="14" t="s">
         <v>79</v>
@@ -9133,12 +9148,12 @@
         <v>1000</v>
       </c>
       <c r="H286" s="14">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I286" s="15"/>
       <c r="J286" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>6.8965517241379309E-2</v>
+        <v>6.7567567567567571E-2</v>
       </c>
       <c r="L286" s="14" t="s">
         <v>79</v>
@@ -9158,12 +9173,12 @@
         <v>2000</v>
       </c>
       <c r="H287" s="14">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I287" s="15"/>
       <c r="J287" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.13793103448275862</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="L287" s="14" t="s">
         <v>79</v>
@@ -9183,12 +9198,12 @@
         <v>2000</v>
       </c>
       <c r="H288" s="14">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I288" s="15"/>
       <c r="J288" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>0.13793103448275862</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="L288" s="14" t="s">
         <v>79</v>
@@ -9208,12 +9223,12 @@
         <v>1000</v>
       </c>
       <c r="H289" s="14">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I289" s="15"/>
       <c r="J289" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>6.8965517241379309E-2</v>
+        <v>6.7567567567567571E-2</v>
       </c>
       <c r="L289" s="14" t="s">
         <v>79</v>
@@ -9233,12 +9248,12 @@
         <v>1000</v>
       </c>
       <c r="H290" s="14">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="I290" s="15"/>
       <c r="J290" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
-        <v>6.8965517241379309E-2</v>
+        <v>6.7567567567567571E-2</v>
       </c>
       <c r="L290" s="14" t="s">
         <v>79</v>
@@ -9248,31 +9263,205 @@
       <c r="I291" s="15"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B292" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G292" s="14">
+        <v>3800</v>
+      </c>
+      <c r="H292" s="14">
+        <v>16000</v>
+      </c>
       <c r="I292" s="15"/>
+      <c r="L292" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B293" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C293" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D293" s="14">
+        <v>200</v>
+      </c>
+      <c r="E293" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G293" s="14">
+        <v>1700</v>
+      </c>
+      <c r="H293" s="14">
+        <v>16000</v>
+      </c>
       <c r="I293" s="15"/>
+      <c r="L293" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B294" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G294" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H294" s="14">
+        <v>16000</v>
+      </c>
       <c r="I294" s="15"/>
+      <c r="L294" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A295" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B295" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C295" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D295" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E295" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="G295" s="14">
+        <v>2500</v>
+      </c>
+      <c r="H295" s="14">
+        <v>16000</v>
+      </c>
       <c r="I295" s="15"/>
+      <c r="L295" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A296" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B296" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C296" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G296" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H296" s="14">
+        <v>16000</v>
+      </c>
       <c r="I296" s="15"/>
+      <c r="L296" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A297" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B297" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C297" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G297" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H297" s="14">
+        <v>16000</v>
+      </c>
       <c r="I297" s="15"/>
+      <c r="L297" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A298" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B298" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C298" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="G298" s="14">
+        <v>2000</v>
+      </c>
+      <c r="H298" s="14">
+        <v>16000</v>
+      </c>
       <c r="I298" s="15"/>
+      <c r="L298" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A299" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B299" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C299" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G299" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H299" s="14">
+        <v>16000</v>
+      </c>
       <c r="I299" s="15"/>
+      <c r="L299" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A300" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B300" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C300" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G300" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H300" s="14">
+        <v>16000</v>
+      </c>
       <c r="I300" s="15"/>
+      <c r="L300" s="14" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I301" s="15"/>
@@ -9717,7 +9906,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9761,7 +9950,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
@@ -9782,7 +9971,7 @@
         <v>73</v>
       </c>
       <c r="D3">
-        <v>1500</v>
+        <v>1700</v>
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
@@ -9824,7 +10013,7 @@
         <v>75</v>
       </c>
       <c r="D5">
-        <v>1500</v>
+        <v>2500</v>
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
@@ -9954,8 +10143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G602"/>
   <sheetViews>
-    <sheetView topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="I277" sqref="I277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15556,10 +15745,10 @@
         <v>7</v>
       </c>
       <c r="C270" s="14">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="D270" s="16">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F270" s="14" t="s">
         <v>79</v>
@@ -15577,7 +15766,7 @@
         <v>1500</v>
       </c>
       <c r="D271" s="16">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F271" s="14" t="s">
         <v>79</v>
@@ -15595,7 +15784,7 @@
         <v>1000</v>
       </c>
       <c r="D272" s="16">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F272" s="14" t="s">
         <v>79</v>
@@ -15613,7 +15802,7 @@
         <v>1500</v>
       </c>
       <c r="D273" s="16">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F273" s="14" t="s">
         <v>79</v>
@@ -15631,7 +15820,7 @@
         <v>1000</v>
       </c>
       <c r="D274" s="16">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F274" s="14" t="s">
         <v>79</v>
@@ -15649,7 +15838,7 @@
         <v>2000</v>
       </c>
       <c r="D275" s="16">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F275" s="14" t="s">
         <v>79</v>
@@ -15667,7 +15856,7 @@
         <v>2000</v>
       </c>
       <c r="D276" s="16">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F276" s="14" t="s">
         <v>79</v>
@@ -15685,7 +15874,7 @@
         <v>1000</v>
       </c>
       <c r="D277" s="16">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F277" s="14" t="s">
         <v>79</v>
@@ -15703,7 +15892,7 @@
         <v>1000</v>
       </c>
       <c r="D278" s="16">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F278" s="14" t="s">
         <v>79</v>
@@ -15715,39 +15904,165 @@
       <c r="G279" s="15"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D280" s="16"/>
+      <c r="A280" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B280" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C280" s="14">
+        <v>3800</v>
+      </c>
+      <c r="D280" s="14">
+        <v>16000</v>
+      </c>
+      <c r="F280" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G280" s="15"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D281" s="16"/>
+      <c r="A281" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B281" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C281" s="14">
+        <v>1700</v>
+      </c>
+      <c r="D281" s="14">
+        <v>16000</v>
+      </c>
+      <c r="F281" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G281" s="15"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D282" s="16"/>
+      <c r="A282" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B282" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C282" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D282" s="14">
+        <v>16000</v>
+      </c>
+      <c r="F282" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G282" s="15"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D283" s="16"/>
+      <c r="A283" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B283" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C283" s="14">
+        <v>2500</v>
+      </c>
+      <c r="D283" s="14">
+        <v>16000</v>
+      </c>
+      <c r="F283" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G283" s="15"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D284" s="16"/>
+      <c r="A284" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B284" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C284" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D284" s="14">
+        <v>16000</v>
+      </c>
+      <c r="F284" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G284" s="15"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D285" s="16"/>
+      <c r="A285" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B285" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C285" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D285" s="14">
+        <v>16000</v>
+      </c>
+      <c r="F285" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G285" s="15"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D286" s="16"/>
+      <c r="A286" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B286" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C286" s="14">
+        <v>2000</v>
+      </c>
+      <c r="D286" s="14">
+        <v>16000</v>
+      </c>
+      <c r="F286" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G286" s="15"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D287" s="16"/>
+      <c r="A287" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B287" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C287" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D287" s="14">
+        <v>16000</v>
+      </c>
+      <c r="F287" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G287" s="15"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D288" s="16"/>
+      <c r="A288" s="28">
+        <v>46024</v>
+      </c>
+      <c r="B288" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C288" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D288" s="14">
+        <v>16000</v>
+      </c>
+      <c r="F288" s="14" t="s">
+        <v>79</v>
+      </c>
       <c r="G288" s="15"/>
     </row>
     <row r="289" spans="4:7" x14ac:dyDescent="0.25">

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1455" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="91">
   <si>
     <t>UserID</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>T018ADD1000</t>
+  </si>
+  <si>
+    <t>7205160299@ybl</t>
   </si>
 </sst>
 </file>
@@ -1050,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" workbookViewId="0">
-      <selection activeCell="G289" sqref="G289"/>
+    <sheetView topLeftCell="D276" workbookViewId="0">
+      <selection activeCell="I291" sqref="I291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9050,10 +9053,16 @@
       <c r="H282" s="14">
         <v>14800</v>
       </c>
-      <c r="I282" s="15"/>
+      <c r="I282" s="15">
+        <v>787</v>
+      </c>
       <c r="J282" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
         <v>0.25675675675675674</v>
+      </c>
+      <c r="K282" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>202.06756756756755</v>
       </c>
       <c r="L282" s="14" t="s">
         <v>79</v>
@@ -9075,10 +9084,16 @@
       <c r="H283" s="14">
         <v>14800</v>
       </c>
-      <c r="I283" s="15"/>
+      <c r="I283" s="15">
+        <v>787</v>
+      </c>
       <c r="J283" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
         <v>0.10135135135135136</v>
+      </c>
+      <c r="K283" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>79.763513513513516</v>
       </c>
       <c r="L283" s="14" t="s">
         <v>79</v>
@@ -9100,10 +9115,16 @@
       <c r="H284" s="14">
         <v>14800</v>
       </c>
-      <c r="I284" s="15"/>
+      <c r="I284" s="15">
+        <v>787</v>
+      </c>
       <c r="J284" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
         <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="K284" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>53.175675675675677</v>
       </c>
       <c r="L284" s="14" t="s">
         <v>79</v>
@@ -9125,10 +9146,16 @@
       <c r="H285" s="14">
         <v>14800</v>
       </c>
-      <c r="I285" s="15"/>
+      <c r="I285" s="15">
+        <v>787</v>
+      </c>
       <c r="J285" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
         <v>0.10135135135135136</v>
+      </c>
+      <c r="K285" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>79.763513513513516</v>
       </c>
       <c r="L285" s="14" t="s">
         <v>79</v>
@@ -9150,10 +9177,16 @@
       <c r="H286" s="14">
         <v>14800</v>
       </c>
-      <c r="I286" s="15"/>
+      <c r="I286" s="15">
+        <v>787</v>
+      </c>
       <c r="J286" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
         <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="K286" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>53.175675675675677</v>
       </c>
       <c r="L286" s="14" t="s">
         <v>79</v>
@@ -9175,10 +9208,16 @@
       <c r="H287" s="14">
         <v>14800</v>
       </c>
-      <c r="I287" s="15"/>
+      <c r="I287" s="15">
+        <v>787</v>
+      </c>
       <c r="J287" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
         <v>0.13513513513513514</v>
+      </c>
+      <c r="K287" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>106.35135135135135</v>
       </c>
       <c r="L287" s="14" t="s">
         <v>79</v>
@@ -9200,10 +9239,16 @@
       <c r="H288" s="14">
         <v>14800</v>
       </c>
-      <c r="I288" s="15"/>
+      <c r="I288" s="15">
+        <v>787</v>
+      </c>
       <c r="J288" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
         <v>0.13513513513513514</v>
+      </c>
+      <c r="K288" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>106.35135135135135</v>
       </c>
       <c r="L288" s="14" t="s">
         <v>79</v>
@@ -9225,10 +9270,16 @@
       <c r="H289" s="14">
         <v>14800</v>
       </c>
-      <c r="I289" s="15"/>
+      <c r="I289" s="15">
+        <v>787</v>
+      </c>
       <c r="J289" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
         <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="K289" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>53.175675675675677</v>
       </c>
       <c r="L289" s="14" t="s">
         <v>79</v>
@@ -9250,10 +9301,16 @@
       <c r="H290" s="14">
         <v>14800</v>
       </c>
-      <c r="I290" s="15"/>
+      <c r="I290" s="15">
+        <v>787</v>
+      </c>
       <c r="J290" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
         <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="K290" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>53.175675675675677</v>
       </c>
       <c r="L290" s="14" t="s">
         <v>79</v>
@@ -9905,8 +9962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9954,7 +10011,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>3106.6640978346486</v>
+        <v>3308.7316654022161</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -9975,7 +10032,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1784.872557439606</v>
+        <v>1864.6360709531195</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -9996,7 +10053,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>643.11642449209364</v>
+        <v>696.29210016776938</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -10017,7 +10074,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1781.703679606549</v>
+        <v>1861.4671931200626</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -10038,7 +10095,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>950.08579771146685</v>
+        <v>1003.2614733871426</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -10059,7 +10116,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2375.6049061420649</v>
+        <v>2481.9562574934162</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -10080,7 +10137,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2182.7019210674384</v>
+        <v>2289.0532724187897</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -10101,7 +10158,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>868.55096053371926</v>
+        <v>921.72663620939488</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -10122,7 +10179,10 @@
       </c>
       <c r="E10" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>60.689655172413794</v>
+        <v>113.86533084808947</v>
+      </c>
+      <c r="F10" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -10130,11 +10190,12 @@
     <hyperlink ref="F6" r:id="rId1"/>
     <hyperlink ref="F8" r:id="rId2"/>
     <hyperlink ref="F9" r:id="rId3"/>
+    <hyperlink ref="F10" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10144,7 +10205,7 @@
   <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="I277" sqref="I277"/>
+      <selection activeCell="G280" sqref="G280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15750,10 +15811,15 @@
       <c r="D270" s="16">
         <v>14800</v>
       </c>
+      <c r="E270" s="15">
+        <v>202.06756756756755</v>
+      </c>
       <c r="F270" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G270" s="15"/>
+      <c r="G270" s="15">
+        <v>787</v>
+      </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="28">
@@ -15768,10 +15834,15 @@
       <c r="D271" s="16">
         <v>14800</v>
       </c>
+      <c r="E271" s="15">
+        <v>79.763513513513516</v>
+      </c>
       <c r="F271" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G271" s="15"/>
+      <c r="G271" s="15">
+        <v>787</v>
+      </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="28">
@@ -15786,10 +15857,15 @@
       <c r="D272" s="16">
         <v>14800</v>
       </c>
+      <c r="E272" s="15">
+        <v>53.175675675675677</v>
+      </c>
       <c r="F272" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G272" s="15"/>
+      <c r="G272" s="15">
+        <v>787</v>
+      </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="28">
@@ -15804,10 +15880,15 @@
       <c r="D273" s="16">
         <v>14800</v>
       </c>
+      <c r="E273" s="15">
+        <v>79.763513513513516</v>
+      </c>
       <c r="F273" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G273" s="15"/>
+      <c r="G273" s="15">
+        <v>787</v>
+      </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="28">
@@ -15822,10 +15903,15 @@
       <c r="D274" s="16">
         <v>14800</v>
       </c>
+      <c r="E274" s="15">
+        <v>53.175675675675677</v>
+      </c>
       <c r="F274" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G274" s="15"/>
+      <c r="G274" s="15">
+        <v>787</v>
+      </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
@@ -15840,10 +15926,15 @@
       <c r="D275" s="16">
         <v>14800</v>
       </c>
+      <c r="E275" s="15">
+        <v>106.35135135135135</v>
+      </c>
       <c r="F275" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G275" s="15"/>
+      <c r="G275" s="15">
+        <v>787</v>
+      </c>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
@@ -15858,10 +15949,15 @@
       <c r="D276" s="16">
         <v>14800</v>
       </c>
+      <c r="E276" s="15">
+        <v>106.35135135135135</v>
+      </c>
       <c r="F276" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G276" s="15"/>
+      <c r="G276" s="15">
+        <v>787</v>
+      </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="28">
@@ -15876,10 +15972,15 @@
       <c r="D277" s="16">
         <v>14800</v>
       </c>
+      <c r="E277" s="15">
+        <v>53.175675675675677</v>
+      </c>
       <c r="F277" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G277" s="15"/>
+      <c r="G277" s="15">
+        <v>787</v>
+      </c>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="28">
@@ -15894,10 +15995,15 @@
       <c r="D278" s="16">
         <v>14800</v>
       </c>
+      <c r="E278" s="15">
+        <v>53.175675675675677</v>
+      </c>
       <c r="F278" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G278" s="15"/>
+      <c r="G278" s="15">
+        <v>787</v>
+      </c>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Loss_Recovery" sheetId="5" r:id="rId4"/>
     <sheet name="Platofrm_Maintaince_Charges" sheetId="7" r:id="rId5"/>
     <sheet name="Rough Sheet" sheetId="6" r:id="rId6"/>
+    <sheet name="Self_Investment" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1456" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="95">
   <si>
     <t>UserID</t>
   </si>
@@ -292,6 +293,18 @@
   </si>
   <si>
     <t>7205160299@ybl</t>
+  </si>
+  <si>
+    <t>Requested_Amount</t>
+  </si>
+  <si>
+    <t>Total_Added_Amount</t>
+  </si>
+  <si>
+    <t>Added_Amount</t>
+  </si>
+  <si>
+    <t>Re-Invest</t>
   </si>
 </sst>
 </file>
@@ -764,6 +777,19 @@
 </table>
 </file>
 
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D30" totalsRowShown="0">
+  <autoFilter ref="A1:D30"/>
+  <tableColumns count="4">
+    <tableColumn id="2" name="UserID"/>
+    <tableColumn id="3" name="Requested_Amount"/>
+    <tableColumn id="4" name="Added_Amount"/>
+    <tableColumn id="5" name="Total_Added_Amount"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1053,8 +1079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView topLeftCell="D276" workbookViewId="0">
-      <selection activeCell="I291" sqref="I291"/>
+    <sheetView tabSelected="1" topLeftCell="D270" workbookViewId="0">
+      <selection activeCell="G288" sqref="G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9025,7 +9051,7 @@
         <v>60.689655172413794</v>
       </c>
       <c r="L280" s="14" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -9313,7 +9339,7 @@
         <v>53.175675675675677</v>
       </c>
       <c r="L290" s="14" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -9962,8 +9988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10205,7 +10231,7 @@
   <dimension ref="A1:G602"/>
   <sheetViews>
     <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="G280" sqref="G280"/>
+      <selection activeCell="F278" sqref="F278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15788,7 +15814,7 @@
         <v>60.689655172413794</v>
       </c>
       <c r="F268" s="14" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G268" s="15">
         <v>880</v>
@@ -15999,7 +16025,7 @@
         <v>53.175675675675677</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G278" s="15">
         <v>787</v>
@@ -17374,7 +17400,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18016,4 +18042,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Loss_Recovery" sheetId="5" r:id="rId4"/>
     <sheet name="Platofrm_Maintaince_Charges" sheetId="7" r:id="rId5"/>
     <sheet name="Rough Sheet" sheetId="6" r:id="rId6"/>
-    <sheet name="Self_Investment" sheetId="8" r:id="rId7"/>
+    <sheet name="Re_Investment_Details" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1461" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="99">
   <si>
     <t>UserID</t>
   </si>
@@ -301,10 +301,22 @@
     <t>Total_Added_Amount</t>
   </si>
   <si>
-    <t>Added_Amount</t>
+    <t>Re-Invest</t>
   </si>
   <si>
-    <t>Re-Invest</t>
+    <t>Re-Invest_ID</t>
+  </si>
+  <si>
+    <t>R001U009</t>
+  </si>
+  <si>
+    <t>Pending_Amount_To_Be_Add</t>
+  </si>
+  <si>
+    <t>Applied_To_Main_Investment_Status</t>
+  </si>
+  <si>
+    <t>Not-Yet</t>
   </si>
 </sst>
 </file>
@@ -498,7 +510,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="44">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -536,6 +548,15 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -696,21 +717,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L5641" totalsRowCount="1" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L5641" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
   <autoFilter ref="A1:L5640"/>
   <tableColumns count="12">
-    <tableColumn id="9" name="Date" dataDxfId="37" totalsRowDxfId="11"/>
-    <tableColumn id="13" name="UserID" dataDxfId="36" totalsRowDxfId="10"/>
-    <tableColumn id="8" name="Name" dataDxfId="35" totalsRowDxfId="9"/>
-    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="34" totalsRowDxfId="8"/>
-    <tableColumn id="17" name="Transaction_ID" dataDxfId="33" totalsRowDxfId="7"/>
-    <tableColumn id="16" name="Transaction_Date" dataDxfId="32" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="31" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="30" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Total_Profit" dataDxfId="29" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Profit_%" dataDxfId="28" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Profit" dataDxfId="27" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="Payment_Status" dataDxfId="26" totalsRowDxfId="0"/>
+    <tableColumn id="9" name="Date" dataDxfId="40" totalsRowDxfId="11"/>
+    <tableColumn id="13" name="UserID" dataDxfId="39" totalsRowDxfId="10"/>
+    <tableColumn id="8" name="Name" dataDxfId="38" totalsRowDxfId="9"/>
+    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="37" totalsRowDxfId="8"/>
+    <tableColumn id="17" name="Transaction_ID" dataDxfId="36" totalsRowDxfId="7"/>
+    <tableColumn id="16" name="Transaction_Date" dataDxfId="35" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="34" totalsRowDxfId="5"/>
+    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="33" totalsRowDxfId="4"/>
+    <tableColumn id="10" name="Total_Profit" dataDxfId="32" totalsRowDxfId="3"/>
+    <tableColumn id="11" name="Profit_%" dataDxfId="31" totalsRowDxfId="2"/>
+    <tableColumn id="7" name="Profit" dataDxfId="30" totalsRowDxfId="1"/>
+    <tableColumn id="4" name="Payment_Status" dataDxfId="29" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -724,7 +745,7 @@
     <tableColumn id="2" name="Contact_Name"/>
     <tableColumn id="9" name="Name"/>
     <tableColumn id="3" name="Total_Invested_Amount"/>
-    <tableColumn id="6" name="Total Profit Earned" dataDxfId="25">
+    <tableColumn id="6" name="Total Profit Earned" dataDxfId="28">
       <calculatedColumnFormula>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="UPI"/>
@@ -734,16 +755,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G602" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
-  <autoFilter ref="A1:G602"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="Date" dataDxfId="19"/>
-    <tableColumn id="2" name="UserID" dataDxfId="18"/>
-    <tableColumn id="3" name="Invest_Amount" dataDxfId="17"/>
-    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="16"/>
-    <tableColumn id="4" name="Profit" dataDxfId="15"/>
-    <tableColumn id="5" name="Payment" dataDxfId="14"/>
-    <tableColumn id="7" name="Total_Profit" dataDxfId="13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H602" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
+  <autoFilter ref="A1:H602"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Date" dataDxfId="22"/>
+    <tableColumn id="2" name="UserID" dataDxfId="21"/>
+    <tableColumn id="3" name="Invest_Amount" dataDxfId="20"/>
+    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="19"/>
+    <tableColumn id="4" name="Profit" dataDxfId="18"/>
+    <tableColumn id="5" name="Payment" dataDxfId="17"/>
+    <tableColumn id="7" name="Total_Profit" dataDxfId="16"/>
+    <tableColumn id="8" name="Re-Invest_ID" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -769,7 +791,7 @@
     <tableColumn id="3" name="Charge_Amt"/>
     <tableColumn id="6" name="Charge_Per_Head"/>
     <tableColumn id="4" name="Paid_Amt"/>
-    <tableColumn id="5" name="Pending_Amt" dataDxfId="12">
+    <tableColumn id="5" name="Pending_Amt" dataDxfId="15">
       <calculatedColumnFormula>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -778,13 +800,19 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:D30" totalsRowShown="0">
-  <autoFilter ref="A1:D30"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30"/>
+  <tableColumns count="6">
     <tableColumn id="2" name="UserID"/>
     <tableColumn id="3" name="Requested_Amount"/>
-    <tableColumn id="4" name="Added_Amount"/>
-    <tableColumn id="5" name="Total_Added_Amount"/>
+    <tableColumn id="6" name="Re-Invest_ID"/>
+    <tableColumn id="4" name="Total_Added_Amount" dataDxfId="13">
+      <calculatedColumnFormula>SUMIFS(Daily_Report!E:E,Daily_Report!H:H,Re_Investment_Details!C:C)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="Pending_Amount_To_Be_Add" dataDxfId="12">
+      <calculatedColumnFormula>Table6[[#This Row],[Requested_Amount]]-Table6[[#This Row],[Total_Added_Amount]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" name="Applied_To_Main_Investment_Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1079,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D270" workbookViewId="0">
-      <selection activeCell="G288" sqref="G288"/>
+    <sheetView topLeftCell="D273" workbookViewId="0">
+      <selection activeCell="K292" sqref="K292:K300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9051,7 +9079,7 @@
         <v>60.689655172413794</v>
       </c>
       <c r="L280" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.25">
@@ -9339,7 +9367,7 @@
         <v>53.175675675675677</v>
       </c>
       <c r="L290" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
@@ -9361,7 +9389,17 @@
       <c r="H292" s="14">
         <v>16000</v>
       </c>
-      <c r="I292" s="15"/>
+      <c r="I292" s="15">
+        <v>962</v>
+      </c>
+      <c r="J292" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="K292" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>228.47499999999999</v>
+      </c>
       <c r="L292" s="14" t="s">
         <v>79</v>
       </c>
@@ -9388,7 +9426,17 @@
       <c r="H293" s="14">
         <v>16000</v>
       </c>
-      <c r="I293" s="15"/>
+      <c r="I293" s="15">
+        <v>962</v>
+      </c>
+      <c r="J293" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.10625</v>
+      </c>
+      <c r="K293" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>102.21249999999999</v>
+      </c>
       <c r="L293" s="14" t="s">
         <v>79</v>
       </c>
@@ -9409,7 +9457,17 @@
       <c r="H294" s="14">
         <v>16000</v>
       </c>
-      <c r="I294" s="15"/>
+      <c r="I294" s="15">
+        <v>962</v>
+      </c>
+      <c r="J294" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K294" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60.125</v>
+      </c>
       <c r="L294" s="14" t="s">
         <v>79</v>
       </c>
@@ -9436,7 +9494,17 @@
       <c r="H295" s="14">
         <v>16000</v>
       </c>
-      <c r="I295" s="15"/>
+      <c r="I295" s="15">
+        <v>962</v>
+      </c>
+      <c r="J295" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.15625</v>
+      </c>
+      <c r="K295" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>150.3125</v>
+      </c>
       <c r="L295" s="14" t="s">
         <v>79</v>
       </c>
@@ -9457,7 +9525,17 @@
       <c r="H296" s="14">
         <v>16000</v>
       </c>
-      <c r="I296" s="15"/>
+      <c r="I296" s="15">
+        <v>962</v>
+      </c>
+      <c r="J296" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K296" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60.125</v>
+      </c>
       <c r="L296" s="14" t="s">
         <v>79</v>
       </c>
@@ -9478,7 +9556,17 @@
       <c r="H297" s="14">
         <v>16000</v>
       </c>
-      <c r="I297" s="15"/>
+      <c r="I297" s="15">
+        <v>962</v>
+      </c>
+      <c r="J297" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K297" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>120.25</v>
+      </c>
       <c r="L297" s="14" t="s">
         <v>79</v>
       </c>
@@ -9499,7 +9587,17 @@
       <c r="H298" s="14">
         <v>16000</v>
       </c>
-      <c r="I298" s="15"/>
+      <c r="I298" s="15">
+        <v>962</v>
+      </c>
+      <c r="J298" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K298" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>120.25</v>
+      </c>
       <c r="L298" s="14" t="s">
         <v>79</v>
       </c>
@@ -9520,7 +9618,17 @@
       <c r="H299" s="14">
         <v>16000</v>
       </c>
-      <c r="I299" s="15"/>
+      <c r="I299" s="15">
+        <v>962</v>
+      </c>
+      <c r="J299" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K299" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60.125</v>
+      </c>
       <c r="L299" s="14" t="s">
         <v>79</v>
       </c>
@@ -9541,7 +9649,17 @@
       <c r="H300" s="14">
         <v>16000</v>
       </c>
-      <c r="I300" s="15"/>
+      <c r="I300" s="15">
+        <v>962</v>
+      </c>
+      <c r="J300" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K300" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>60.125</v>
+      </c>
       <c r="L300" s="14" t="s">
         <v>79</v>
       </c>
@@ -10037,7 +10155,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>3308.7316654022161</v>
+        <v>3537.206665402216</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -10058,7 +10176,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1864.6360709531195</v>
+        <v>1966.8485709531196</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -10079,7 +10197,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>696.29210016776938</v>
+        <v>756.41710016776938</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -10100,7 +10218,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1861.4671931200626</v>
+        <v>2011.7796931200626</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -10121,7 +10239,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1003.2614733871426</v>
+        <v>1063.3864733871426</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -10142,7 +10260,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2481.9562574934162</v>
+        <v>2602.2062574934162</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -10163,7 +10281,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2289.0532724187897</v>
+        <v>2409.3032724187897</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -10184,7 +10302,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>921.72663620939488</v>
+        <v>981.85163620939488</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -10205,7 +10323,7 @@
       </c>
       <c r="E10" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>113.86533084808947</v>
+        <v>173.99033084808946</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
@@ -10228,10 +10346,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G602"/>
+  <dimension ref="A1:H602"/>
   <sheetViews>
-    <sheetView topLeftCell="A261" workbookViewId="0">
-      <selection activeCell="F278" sqref="F278"/>
+    <sheetView topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="G283" sqref="G283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10246,7 +10364,7 @@
     <col min="8" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -10268,8 +10386,11 @@
       <c r="G1" s="32" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -10292,7 +10413,7 @@
         <v>10.130000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -10315,7 +10436,7 @@
         <v>31.68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -10338,11 +10459,11 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>45981</v>
       </c>
@@ -10365,7 +10486,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -10388,7 +10509,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -10411,11 +10532,11 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -10438,7 +10559,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -10461,7 +10582,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -10484,7 +10605,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -10507,7 +10628,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -10530,7 +10651,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -10553,7 +10674,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
@@ -15563,7 +15684,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="28">
         <v>46021</v>
       </c>
@@ -15586,7 +15707,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="28">
         <v>46021</v>
       </c>
@@ -15609,11 +15730,11 @@
         <v>748</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="28">
         <v>46022</v>
       </c>
@@ -15636,7 +15757,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="28">
         <v>46022</v>
       </c>
@@ -15659,7 +15780,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="28">
         <v>46022</v>
       </c>
@@ -15682,7 +15803,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="28">
         <v>46022</v>
       </c>
@@ -15705,7 +15826,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="28">
         <v>46022</v>
       </c>
@@ -15728,7 +15849,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
         <v>46022</v>
       </c>
@@ -15751,7 +15872,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
         <v>46022</v>
       </c>
@@ -15774,7 +15895,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
         <v>46022</v>
       </c>
@@ -15797,7 +15918,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
         <v>46022</v>
       </c>
@@ -15814,17 +15935,20 @@
         <v>60.689655172413794</v>
       </c>
       <c r="F268" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G268" s="15">
         <v>880</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H268" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="28">
         <v>46023</v>
       </c>
@@ -15847,7 +15971,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="28">
         <v>46023</v>
       </c>
@@ -15870,7 +15994,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="28">
         <v>46023</v>
       </c>
@@ -15893,7 +16017,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="28">
         <v>46023</v>
       </c>
@@ -15916,7 +16040,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="28">
         <v>46023</v>
       </c>
@@ -15939,7 +16063,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>46023</v>
       </c>
@@ -15962,7 +16086,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>46023</v>
       </c>
@@ -15985,7 +16109,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="28">
         <v>46023</v>
       </c>
@@ -16008,7 +16132,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="28">
         <v>46023</v>
       </c>
@@ -16025,17 +16149,20 @@
         <v>53.175675675675677</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G278" s="15">
         <v>787</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H278" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="28">
         <v>46024</v>
       </c>
@@ -16048,12 +16175,15 @@
       <c r="D280" s="14">
         <v>16000</v>
       </c>
+      <c r="E280" s="15">
+        <v>228.47499999999999</v>
+      </c>
       <c r="F280" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G280" s="15"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="28">
         <v>46024</v>
       </c>
@@ -16066,12 +16196,15 @@
       <c r="D281" s="14">
         <v>16000</v>
       </c>
+      <c r="E281" s="15">
+        <v>102.21249999999999</v>
+      </c>
       <c r="F281" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G281" s="15"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="28">
         <v>46024</v>
       </c>
@@ -16084,12 +16217,15 @@
       <c r="D282" s="14">
         <v>16000</v>
       </c>
+      <c r="E282" s="15">
+        <v>60.125</v>
+      </c>
       <c r="F282" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G282" s="15"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="28">
         <v>46024</v>
       </c>
@@ -16102,12 +16238,15 @@
       <c r="D283" s="14">
         <v>16000</v>
       </c>
+      <c r="E283" s="15">
+        <v>150.3125</v>
+      </c>
       <c r="F283" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G283" s="15"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="28">
         <v>46024</v>
       </c>
@@ -16120,12 +16259,15 @@
       <c r="D284" s="14">
         <v>16000</v>
       </c>
+      <c r="E284" s="15">
+        <v>60.125</v>
+      </c>
       <c r="F284" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G284" s="15"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="28">
         <v>46024</v>
       </c>
@@ -16138,12 +16280,15 @@
       <c r="D285" s="14">
         <v>16000</v>
       </c>
+      <c r="E285" s="15">
+        <v>120.25</v>
+      </c>
       <c r="F285" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G285" s="15"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="28">
         <v>46024</v>
       </c>
@@ -16156,12 +16301,15 @@
       <c r="D286" s="14">
         <v>16000</v>
       </c>
+      <c r="E286" s="15">
+        <v>120.25</v>
+      </c>
       <c r="F286" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G286" s="15"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="28">
         <v>46024</v>
       </c>
@@ -16174,12 +16322,15 @@
       <c r="D287" s="14">
         <v>16000</v>
       </c>
+      <c r="E287" s="15">
+        <v>60.125</v>
+      </c>
       <c r="F287" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G287" s="15"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="28">
         <v>46024</v>
       </c>
@@ -16192,10 +16343,16 @@
       <c r="D288" s="14">
         <v>16000</v>
       </c>
+      <c r="E288" s="15">
+        <v>60.125</v>
+      </c>
       <c r="F288" s="14" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G288" s="15"/>
+      <c r="H288" s="14" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="289" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
@@ -17298,7 +17455,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18046,20 +18203,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="2" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18067,18 +18225,38 @@
         <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
       <c r="B2">
         <v>500</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <f>SUMIFS(Daily_Report!E:E,Daily_Report!H:H,Re_Investment_Details!C:C)</f>
+        <v>173.99033084808946</v>
+      </c>
+      <c r="E2">
+        <f>Table6[[#This Row],[Requested_Amount]]-Table6[[#This Row],[Total_Added_Amount]]</f>
+        <v>326.00966915191054</v>
+      </c>
+      <c r="F2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -10348,8 +10348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H602"/>
   <sheetViews>
-    <sheetView topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="G283" sqref="G283"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="G280" sqref="G280:G288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16181,7 +16181,9 @@
       <c r="F280" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G280" s="15"/>
+      <c r="G280" s="15">
+        <v>962</v>
+      </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="28">
@@ -16202,7 +16204,9 @@
       <c r="F281" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G281" s="15"/>
+      <c r="G281" s="15">
+        <v>962</v>
+      </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="28">
@@ -16223,7 +16227,9 @@
       <c r="F282" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G282" s="15"/>
+      <c r="G282" s="15">
+        <v>962</v>
+      </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="28">
@@ -16244,7 +16250,9 @@
       <c r="F283" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G283" s="15"/>
+      <c r="G283" s="15">
+        <v>962</v>
+      </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="28">
@@ -16265,7 +16273,9 @@
       <c r="F284" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G284" s="15"/>
+      <c r="G284" s="15">
+        <v>962</v>
+      </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="28">
@@ -16286,7 +16296,9 @@
       <c r="F285" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G285" s="15"/>
+      <c r="G285" s="15">
+        <v>962</v>
+      </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="28">
@@ -16307,7 +16319,9 @@
       <c r="F286" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G286" s="15"/>
+      <c r="G286" s="15">
+        <v>962</v>
+      </c>
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="28">
@@ -16328,7 +16342,9 @@
       <c r="F287" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G287" s="15"/>
+      <c r="G287" s="15">
+        <v>962</v>
+      </c>
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="28">
@@ -16349,7 +16365,9 @@
       <c r="F288" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="G288" s="15"/>
+      <c r="G288" s="15">
+        <v>962</v>
+      </c>
       <c r="H288" s="14" t="s">
         <v>95</v>
       </c>
@@ -18205,7 +18223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="101">
   <si>
     <t>UserID</t>
   </si>
@@ -318,6 +318,12 @@
   <si>
     <t>Not-Yet</t>
   </si>
+  <si>
+    <t>Next Adjustments</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
 </sst>
 </file>
 
@@ -430,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,11 +512,17 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="46">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -548,6 +560,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -717,21 +732,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:L5641" totalsRowCount="1" headerRowDxfId="43" dataDxfId="42" totalsRowDxfId="41">
-  <autoFilter ref="A1:L5640"/>
-  <tableColumns count="12">
-    <tableColumn id="9" name="Date" dataDxfId="40" totalsRowDxfId="11"/>
-    <tableColumn id="13" name="UserID" dataDxfId="39" totalsRowDxfId="10"/>
-    <tableColumn id="8" name="Name" dataDxfId="38" totalsRowDxfId="9"/>
-    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="37" totalsRowDxfId="8"/>
-    <tableColumn id="17" name="Transaction_ID" dataDxfId="36" totalsRowDxfId="7"/>
-    <tableColumn id="16" name="Transaction_Date" dataDxfId="35" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="34" totalsRowDxfId="5"/>
-    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="33" totalsRowDxfId="4"/>
-    <tableColumn id="10" name="Total_Profit" dataDxfId="32" totalsRowDxfId="3"/>
-    <tableColumn id="11" name="Profit_%" dataDxfId="31" totalsRowDxfId="2"/>
-    <tableColumn id="7" name="Profit" dataDxfId="30" totalsRowDxfId="1"/>
-    <tableColumn id="4" name="Payment_Status" dataDxfId="29" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M5641" totalsRowCount="1" headerRowDxfId="45" dataDxfId="44" totalsRowDxfId="43">
+  <autoFilter ref="A1:M5640"/>
+  <tableColumns count="13">
+    <tableColumn id="9" name="Date" dataDxfId="42" totalsRowDxfId="12"/>
+    <tableColumn id="13" name="UserID" dataDxfId="41" totalsRowDxfId="11"/>
+    <tableColumn id="8" name="Name" dataDxfId="40" totalsRowDxfId="10"/>
+    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="39" totalsRowDxfId="9"/>
+    <tableColumn id="17" name="Transaction_ID" dataDxfId="38" totalsRowDxfId="8"/>
+    <tableColumn id="16" name="Transaction_Date" dataDxfId="37" totalsRowDxfId="7"/>
+    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="36" totalsRowDxfId="6"/>
+    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="35" totalsRowDxfId="5"/>
+    <tableColumn id="10" name="Total_Profit" dataDxfId="34" totalsRowDxfId="4"/>
+    <tableColumn id="11" name="Profit_%" dataDxfId="33" totalsRowDxfId="3"/>
+    <tableColumn id="7" name="Profit" dataDxfId="32" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Payment_Status" dataDxfId="31" totalsRowDxfId="1"/>
+    <tableColumn id="1" name="Tax" dataDxfId="13" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -745,7 +761,7 @@
     <tableColumn id="2" name="Contact_Name"/>
     <tableColumn id="9" name="Name"/>
     <tableColumn id="3" name="Total_Invested_Amount"/>
-    <tableColumn id="6" name="Total Profit Earned" dataDxfId="28">
+    <tableColumn id="6" name="Total Profit Earned" dataDxfId="30">
       <calculatedColumnFormula>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="UPI"/>
@@ -755,17 +771,23 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H602" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A1:H602"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H602" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
+  <autoFilter ref="A1:H602">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="U001"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Date" dataDxfId="22"/>
-    <tableColumn id="2" name="UserID" dataDxfId="21"/>
-    <tableColumn id="3" name="Invest_Amount" dataDxfId="20"/>
-    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="19"/>
-    <tableColumn id="4" name="Profit" dataDxfId="18"/>
-    <tableColumn id="5" name="Payment" dataDxfId="17"/>
-    <tableColumn id="7" name="Total_Profit" dataDxfId="16"/>
-    <tableColumn id="8" name="Re-Invest_ID" dataDxfId="14"/>
+    <tableColumn id="1" name="Date" dataDxfId="24"/>
+    <tableColumn id="2" name="UserID" dataDxfId="23"/>
+    <tableColumn id="3" name="Invest_Amount" dataDxfId="22"/>
+    <tableColumn id="6" name="Company_Total_Invest" dataDxfId="21"/>
+    <tableColumn id="4" name="Profit" dataDxfId="20"/>
+    <tableColumn id="5" name="Payment" dataDxfId="19"/>
+    <tableColumn id="7" name="Total_Profit" dataDxfId="18"/>
+    <tableColumn id="8" name="Re-Invest_ID" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -791,7 +813,7 @@
     <tableColumn id="3" name="Charge_Amt"/>
     <tableColumn id="6" name="Charge_Per_Head"/>
     <tableColumn id="4" name="Paid_Amt"/>
-    <tableColumn id="5" name="Pending_Amt" dataDxfId="15">
+    <tableColumn id="5" name="Pending_Amt" dataDxfId="17">
       <calculatedColumnFormula>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -806,10 +828,10 @@
     <tableColumn id="2" name="UserID"/>
     <tableColumn id="3" name="Requested_Amount"/>
     <tableColumn id="6" name="Re-Invest_ID"/>
-    <tableColumn id="4" name="Total_Added_Amount" dataDxfId="13">
+    <tableColumn id="4" name="Total_Added_Amount" dataDxfId="15">
       <calculatedColumnFormula>SUMIFS(Daily_Report!E:E,Daily_Report!H:H,Re_Investment_Details!C:C)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Pending_Amount_To_Be_Add" dataDxfId="12">
+    <tableColumn id="5" name="Pending_Amount_To_Be_Add" dataDxfId="14">
       <calculatedColumnFormula>Table6[[#This Row],[Requested_Amount]]-Table6[[#This Row],[Total_Added_Amount]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Applied_To_Main_Investment_Status"/>
@@ -1105,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5641"/>
+  <dimension ref="A1:M5641"/>
   <sheetViews>
-    <sheetView topLeftCell="D273" workbookViewId="0">
-      <selection activeCell="K292" sqref="K292:K300"/>
+    <sheetView tabSelected="1" topLeftCell="C274" workbookViewId="0">
+      <selection activeCell="H298" sqref="H298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1149,7 @@
     <col min="13" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1164,8 +1186,11 @@
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="28">
         <v>45978</v>
       </c>
@@ -1204,7 +1229,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="28">
         <v>45979</v>
       </c>
@@ -1234,7 +1259,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="28">
         <v>45980</v>
       </c>
@@ -1264,7 +1289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="28">
         <v>45981</v>
       </c>
@@ -1295,7 +1320,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="28">
         <v>45981</v>
       </c>
@@ -1335,7 +1360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -1375,7 +1400,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>45982</v>
       </c>
@@ -1406,7 +1431,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>45982</v>
       </c>
@@ -1437,7 +1462,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="28">
         <v>45982</v>
       </c>
@@ -1468,7 +1493,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -1508,7 +1533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -1548,7 +1573,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -1588,7 +1613,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45983</v>
       </c>
@@ -1619,7 +1644,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45983</v>
       </c>
@@ -1659,7 +1684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="28">
         <v>45983</v>
       </c>
@@ -8819,10 +8844,10 @@
         <v>212.41379310344828</v>
       </c>
       <c r="L272" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" s="28">
         <v>46022</v>
       </c>
@@ -8850,10 +8875,10 @@
         <v>91.034482758620683</v>
       </c>
       <c r="L273" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" s="28">
         <v>46022</v>
       </c>
@@ -8887,10 +8912,10 @@
         <v>60.689655172413794</v>
       </c>
       <c r="L274" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>46022</v>
       </c>
@@ -8918,10 +8943,10 @@
         <v>91.034482758620683</v>
       </c>
       <c r="L275" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>46022</v>
       </c>
@@ -8949,10 +8974,10 @@
         <v>60.689655172413794</v>
       </c>
       <c r="L276" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" s="28">
         <v>46022</v>
       </c>
@@ -8980,10 +9005,10 @@
         <v>121.37931034482759</v>
       </c>
       <c r="L277" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" s="28">
         <v>46022</v>
       </c>
@@ -9011,10 +9036,10 @@
         <v>121.37931034482759</v>
       </c>
       <c r="L278" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" s="28">
         <v>46022</v>
       </c>
@@ -9042,10 +9067,10 @@
         <v>60.689655172413794</v>
       </c>
       <c r="L279" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" s="28">
         <v>46022</v>
       </c>
@@ -9082,10 +9107,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I281" s="15"/>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" s="28">
         <v>46023</v>
       </c>
@@ -9119,10 +9144,13 @@
         <v>202.06756756756755</v>
       </c>
       <c r="L282" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M282" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" s="28">
         <v>46023</v>
       </c>
@@ -9150,10 +9178,13 @@
         <v>79.763513513513516</v>
       </c>
       <c r="L283" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M283" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" s="28">
         <v>46023</v>
       </c>
@@ -9181,10 +9212,13 @@
         <v>53.175675675675677</v>
       </c>
       <c r="L284" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M284" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" s="28">
         <v>46023</v>
       </c>
@@ -9212,10 +9246,13 @@
         <v>79.763513513513516</v>
       </c>
       <c r="L285" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M285" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286" s="28">
         <v>46023</v>
       </c>
@@ -9243,10 +9280,13 @@
         <v>53.175675675675677</v>
       </c>
       <c r="L286" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M286" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" s="28">
         <v>46023</v>
       </c>
@@ -9274,10 +9314,13 @@
         <v>106.35135135135135</v>
       </c>
       <c r="L287" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M287" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" s="28">
         <v>46023</v>
       </c>
@@ -9305,10 +9348,13 @@
         <v>106.35135135135135</v>
       </c>
       <c r="L288" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M288" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" s="28">
         <v>46023</v>
       </c>
@@ -9336,10 +9382,13 @@
         <v>53.175675675675677</v>
       </c>
       <c r="L289" s="14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="M289" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" s="28">
         <v>46023</v>
       </c>
@@ -9369,11 +9418,14 @@
       <c r="L290" s="14" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I291" s="15"/>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" s="28">
         <v>46024</v>
       </c>
@@ -9390,7 +9442,7 @@
         <v>16000</v>
       </c>
       <c r="I292" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="J292" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -9398,13 +9450,13 @@
       </c>
       <c r="K292" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>228.47499999999999</v>
+        <v>221.35</v>
       </c>
       <c r="L292" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" s="28">
         <v>46024</v>
       </c>
@@ -9427,7 +9479,7 @@
         <v>16000</v>
       </c>
       <c r="I293" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="J293" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -9435,13 +9487,13 @@
       </c>
       <c r="K293" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>102.21249999999999</v>
+        <v>99.024999999999991</v>
       </c>
       <c r="L293" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" s="28">
         <v>46024</v>
       </c>
@@ -9458,7 +9510,7 @@
         <v>16000</v>
       </c>
       <c r="I294" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="J294" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -9466,13 +9518,13 @@
       </c>
       <c r="K294" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>60.125</v>
+        <v>58.25</v>
       </c>
       <c r="L294" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" s="28">
         <v>46024</v>
       </c>
@@ -9495,7 +9547,7 @@
         <v>16000</v>
       </c>
       <c r="I295" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="J295" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -9503,13 +9555,13 @@
       </c>
       <c r="K295" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>150.3125</v>
+        <v>145.625</v>
       </c>
       <c r="L295" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="28">
         <v>46024</v>
       </c>
@@ -9526,7 +9578,7 @@
         <v>16000</v>
       </c>
       <c r="I296" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="J296" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -9534,13 +9586,13 @@
       </c>
       <c r="K296" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>60.125</v>
+        <v>58.25</v>
       </c>
       <c r="L296" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="28">
         <v>46024</v>
       </c>
@@ -9557,7 +9609,7 @@
         <v>16000</v>
       </c>
       <c r="I297" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="J297" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -9565,13 +9617,13 @@
       </c>
       <c r="K297" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>120.25</v>
+        <v>116.5</v>
       </c>
       <c r="L297" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" s="28">
         <v>46024</v>
       </c>
@@ -9588,7 +9640,7 @@
         <v>16000</v>
       </c>
       <c r="I298" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="J298" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -9596,13 +9648,13 @@
       </c>
       <c r="K298" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>120.25</v>
+        <v>116.5</v>
       </c>
       <c r="L298" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" s="28">
         <v>46024</v>
       </c>
@@ -9619,7 +9671,7 @@
         <v>16000</v>
       </c>
       <c r="I299" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="J299" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -9627,13 +9679,13 @@
       </c>
       <c r="K299" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>60.125</v>
+        <v>58.25</v>
       </c>
       <c r="L299" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" s="28">
         <v>46024</v>
       </c>
@@ -9650,7 +9702,7 @@
         <v>16000</v>
       </c>
       <c r="I300" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="J300" s="15">
         <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
@@ -9658,22 +9710,22 @@
       </c>
       <c r="K300" s="15">
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
-        <v>60.125</v>
+        <v>58.25</v>
       </c>
       <c r="L300" s="14" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I301" s="15"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I302" s="15"/>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I303" s="15"/>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I304" s="15"/>
     </row>
     <row r="305" spans="9:9" x14ac:dyDescent="0.25">
@@ -10107,7 +10159,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10155,7 +10207,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>3537.206665402216</v>
+        <v>3530.081665402216</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -10176,7 +10228,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1966.8485709531196</v>
+        <v>1963.6610709531196</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -10197,7 +10249,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>756.41710016776938</v>
+        <v>754.54210016776938</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -10218,7 +10270,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2011.7796931200626</v>
+        <v>2007.0921931200626</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -10239,7 +10291,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1063.3864733871426</v>
+        <v>1061.5114733871426</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -10260,7 +10312,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2602.2062574934162</v>
+        <v>2598.4562574934162</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -10281,7 +10333,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2409.3032724187897</v>
+        <v>2405.5532724187897</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -10302,7 +10354,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>981.85163620939488</v>
+        <v>979.97663620939488</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -10323,7 +10375,7 @@
       </c>
       <c r="E10" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>173.99033084808946</v>
+        <v>172.11533084808946</v>
       </c>
       <c r="F10" t="s">
         <v>90</v>
@@ -10348,8 +10400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="G280" sqref="G280:G288"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10459,7 +10511,7 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
@@ -10486,7 +10538,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -10509,7 +10561,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -10532,7 +10584,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
@@ -10559,7 +10611,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -10582,7 +10634,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -10605,7 +10657,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -10628,7 +10680,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -10651,7 +10703,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -10674,7 +10726,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
@@ -10701,7 +10753,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -10724,7 +10776,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -10747,7 +10799,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -10770,7 +10822,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -10793,7 +10845,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -10816,7 +10868,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
@@ -10843,7 +10895,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -10866,7 +10918,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -10889,7 +10941,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -10912,7 +10964,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -10935,7 +10987,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -10958,7 +11010,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
@@ -10985,7 +11037,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -11008,7 +11060,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -11031,7 +11083,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -11054,7 +11106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -11077,7 +11129,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -11100,7 +11152,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -11123,7 +11175,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
@@ -11150,7 +11202,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -11173,7 +11225,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -11196,7 +11248,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -11219,7 +11271,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -11242,7 +11294,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -11265,7 +11317,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -11288,7 +11340,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
@@ -11315,7 +11367,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -11338,7 +11390,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -11361,7 +11413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -11384,7 +11436,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -11407,7 +11459,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -11430,7 +11482,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -11453,7 +11505,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
@@ -11480,7 +11532,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -11503,7 +11555,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -11526,7 +11578,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -11549,7 +11601,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -11572,7 +11624,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -11595,7 +11647,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -11618,7 +11670,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
@@ -11645,7 +11697,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -11668,7 +11720,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -11691,7 +11743,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -11714,7 +11766,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -11737,7 +11789,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -11760,7 +11812,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -11783,7 +11835,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
@@ -11810,7 +11862,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -11833,7 +11885,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -11856,7 +11908,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -11879,7 +11931,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -11902,7 +11954,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -11925,7 +11977,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -11948,7 +12000,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -11971,7 +12023,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
@@ -11998,7 +12050,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -12021,7 +12073,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -12044,7 +12096,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -12067,7 +12119,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -12090,7 +12142,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -12113,7 +12165,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -12136,7 +12188,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -12159,7 +12211,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="G88" s="15"/>
     </row>
@@ -12186,7 +12238,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -12209,7 +12261,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -12232,7 +12284,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -12255,7 +12307,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -12278,7 +12330,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -12301,7 +12353,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -12324,7 +12376,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -12347,7 +12399,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
@@ -12374,7 +12426,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -12397,7 +12449,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -12420,7 +12472,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -12443,7 +12495,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -12466,7 +12518,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -12489,7 +12541,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -12512,7 +12564,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -12535,7 +12587,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
@@ -12562,7 +12614,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -12585,7 +12637,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -12608,7 +12660,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -12631,7 +12683,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -12654,7 +12706,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -12677,7 +12729,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -12700,7 +12752,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -12723,7 +12775,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -12749,7 +12801,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -12772,7 +12824,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -12795,7 +12847,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -12818,7 +12870,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -12841,7 +12893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -12864,7 +12916,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -12887,7 +12939,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -12910,7 +12962,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
@@ -12937,7 +12989,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -12960,7 +13012,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -12983,7 +13035,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -13006,7 +13058,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -13029,7 +13081,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -13052,7 +13104,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -13075,7 +13127,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -13098,7 +13150,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
@@ -13125,7 +13177,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -13148,7 +13200,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -13171,7 +13223,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -13194,7 +13246,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -13217,7 +13269,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -13240,7 +13292,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -13263,7 +13315,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -13286,7 +13338,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
@@ -13313,7 +13365,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -13336,7 +13388,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -13359,7 +13411,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -13382,7 +13434,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -13405,7 +13457,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -13428,7 +13480,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -13451,7 +13503,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -13474,7 +13526,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
@@ -13501,7 +13553,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -13524,7 +13576,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -13547,7 +13599,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -13570,7 +13622,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -13593,7 +13645,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -13616,7 +13668,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -13639,7 +13691,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -13662,7 +13714,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
@@ -13689,7 +13741,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="28">
         <v>46011</v>
       </c>
@@ -13712,7 +13764,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="28">
         <v>46011</v>
       </c>
@@ -13735,7 +13787,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="28">
         <v>46011</v>
       </c>
@@ -13758,7 +13810,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="28">
         <v>46011</v>
       </c>
@@ -13781,7 +13833,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="28">
         <v>46011</v>
       </c>
@@ -13804,7 +13856,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="28">
         <v>46011</v>
       </c>
@@ -13827,7 +13879,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="28">
         <v>46011</v>
       </c>
@@ -13850,7 +13902,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
@@ -13877,7 +13929,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="28">
         <v>46012</v>
       </c>
@@ -13900,7 +13952,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="28">
         <v>46012</v>
       </c>
@@ -13923,7 +13975,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="28">
         <v>46012</v>
       </c>
@@ -13946,7 +13998,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="28">
         <v>46012</v>
       </c>
@@ -13969,7 +14021,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="28">
         <v>46012</v>
       </c>
@@ -13992,7 +14044,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="28">
         <v>46012</v>
       </c>
@@ -14015,7 +14067,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="28">
         <v>46012</v>
       </c>
@@ -14038,7 +14090,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
@@ -14065,7 +14117,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="28">
         <v>46013</v>
       </c>
@@ -14088,7 +14140,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
         <v>46013</v>
       </c>
@@ -14111,7 +14163,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="28">
         <v>46013</v>
       </c>
@@ -14134,7 +14186,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="28">
         <v>46013</v>
       </c>
@@ -14157,7 +14209,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="28">
         <v>46013</v>
       </c>
@@ -14180,7 +14232,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
         <v>46013</v>
       </c>
@@ -14203,7 +14255,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="28">
         <v>46013</v>
       </c>
@@ -14226,7 +14278,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
@@ -14253,7 +14305,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="28">
         <v>46014</v>
       </c>
@@ -14276,7 +14328,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="28">
         <v>46014</v>
       </c>
@@ -14299,7 +14351,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="28">
         <v>46014</v>
       </c>
@@ -14322,7 +14374,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="28">
         <v>46014</v>
       </c>
@@ -14345,7 +14397,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
         <v>46014</v>
       </c>
@@ -14368,7 +14420,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="28">
         <v>46014</v>
       </c>
@@ -14391,7 +14443,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="28">
         <v>46014</v>
       </c>
@@ -14414,7 +14466,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
@@ -14441,7 +14493,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="28">
         <v>46015</v>
       </c>
@@ -14464,7 +14516,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="28">
         <v>46015</v>
       </c>
@@ -14487,7 +14539,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="28">
         <v>46015</v>
       </c>
@@ -14510,7 +14562,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="28">
         <v>46015</v>
       </c>
@@ -14533,7 +14585,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="28">
         <v>46015</v>
       </c>
@@ -14556,7 +14608,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="28">
         <v>46015</v>
       </c>
@@ -14579,7 +14631,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="28">
         <v>46015</v>
       </c>
@@ -14602,7 +14654,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
@@ -14629,7 +14681,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="28">
         <v>46016</v>
       </c>
@@ -14652,7 +14704,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="28">
         <v>46016</v>
       </c>
@@ -14675,7 +14727,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="28">
         <v>46016</v>
       </c>
@@ -14698,7 +14750,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28">
         <v>46016</v>
       </c>
@@ -14721,7 +14773,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="28">
         <v>46016</v>
       </c>
@@ -14744,7 +14796,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
         <v>46016</v>
       </c>
@@ -14767,7 +14819,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="28">
         <v>46016</v>
       </c>
@@ -14790,7 +14842,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
@@ -14817,7 +14869,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="28">
         <v>46017</v>
       </c>
@@ -14840,7 +14892,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="28">
         <v>46017</v>
       </c>
@@ -14863,7 +14915,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="28">
         <v>46017</v>
       </c>
@@ -14886,7 +14938,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="28">
         <v>46017</v>
       </c>
@@ -14909,7 +14961,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="28">
         <v>46017</v>
       </c>
@@ -14932,7 +14984,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="28">
         <v>46017</v>
       </c>
@@ -14955,7 +15007,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="28">
         <v>46017</v>
       </c>
@@ -14978,7 +15030,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
@@ -15005,7 +15057,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="28">
         <v>46018</v>
       </c>
@@ -15028,7 +15080,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="28">
         <v>46018</v>
       </c>
@@ -15051,7 +15103,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="28">
         <v>46018</v>
       </c>
@@ -15074,7 +15126,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="28">
         <v>46018</v>
       </c>
@@ -15097,7 +15149,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="28">
         <v>46018</v>
       </c>
@@ -15120,7 +15172,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="28">
         <v>46018</v>
       </c>
@@ -15143,7 +15195,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="28">
         <v>46018</v>
       </c>
@@ -15166,7 +15218,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
@@ -15193,7 +15245,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="28">
         <v>46019</v>
       </c>
@@ -15216,7 +15268,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="28">
         <v>46019</v>
       </c>
@@ -15239,7 +15291,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="28">
         <v>46019</v>
       </c>
@@ -15262,7 +15314,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="28">
         <v>46019</v>
       </c>
@@ -15285,7 +15337,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="28">
         <v>46019</v>
       </c>
@@ -15308,7 +15360,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="28">
         <v>46019</v>
       </c>
@@ -15331,7 +15383,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="28">
         <v>46019</v>
       </c>
@@ -15354,7 +15406,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
@@ -15381,7 +15433,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="28">
         <v>46020</v>
       </c>
@@ -15404,7 +15456,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="28">
         <v>46020</v>
       </c>
@@ -15427,7 +15479,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="28">
         <v>46020</v>
       </c>
@@ -15450,7 +15502,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="28">
         <v>46020</v>
       </c>
@@ -15473,7 +15525,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="28">
         <v>46020</v>
       </c>
@@ -15496,7 +15548,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="28">
         <v>46020</v>
       </c>
@@ -15519,7 +15571,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="28">
         <v>46020</v>
       </c>
@@ -15542,7 +15594,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
@@ -15569,7 +15621,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="28">
         <v>46021</v>
       </c>
@@ -15592,7 +15644,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="28">
         <v>46021</v>
       </c>
@@ -15615,7 +15667,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="28">
         <v>46021</v>
       </c>
@@ -15638,7 +15690,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="28">
         <v>46021</v>
       </c>
@@ -15661,7 +15713,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="28">
         <v>46021</v>
       </c>
@@ -15684,7 +15736,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="28">
         <v>46021</v>
       </c>
@@ -15707,7 +15759,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="28">
         <v>46021</v>
       </c>
@@ -15730,7 +15782,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
@@ -15751,13 +15803,13 @@
         <v>212.41379310344828</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G260" s="15">
         <v>880</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="28">
         <v>46022</v>
       </c>
@@ -15774,13 +15826,13 @@
         <v>91.034482758620683</v>
       </c>
       <c r="F261" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G261" s="15">
         <v>880</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="28">
         <v>46022</v>
       </c>
@@ -15797,13 +15849,13 @@
         <v>60.689655172413794</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G262" s="15">
         <v>880</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="28">
         <v>46022</v>
       </c>
@@ -15820,13 +15872,13 @@
         <v>91.034482758620683</v>
       </c>
       <c r="F263" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G263" s="15">
         <v>880</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="28">
         <v>46022</v>
       </c>
@@ -15843,13 +15895,13 @@
         <v>60.689655172413794</v>
       </c>
       <c r="F264" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G264" s="15">
         <v>880</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
         <v>46022</v>
       </c>
@@ -15866,13 +15918,13 @@
         <v>121.37931034482759</v>
       </c>
       <c r="F265" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G265" s="15">
         <v>880</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
         <v>46022</v>
       </c>
@@ -15889,13 +15941,13 @@
         <v>121.37931034482759</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G266" s="15">
         <v>880</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
         <v>46022</v>
       </c>
@@ -15912,13 +15964,13 @@
         <v>60.689655172413794</v>
       </c>
       <c r="F267" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G267" s="15">
         <v>880</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
         <v>46022</v>
       </c>
@@ -15944,7 +15996,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
@@ -15965,13 +16017,13 @@
         <v>202.06756756756755</v>
       </c>
       <c r="F270" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G270" s="15">
         <v>787</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="28">
         <v>46023</v>
       </c>
@@ -15988,13 +16040,13 @@
         <v>79.763513513513516</v>
       </c>
       <c r="F271" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G271" s="15">
         <v>787</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="28">
         <v>46023</v>
       </c>
@@ -16011,13 +16063,13 @@
         <v>53.175675675675677</v>
       </c>
       <c r="F272" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G272" s="15">
         <v>787</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="28">
         <v>46023</v>
       </c>
@@ -16034,13 +16086,13 @@
         <v>79.763513513513516</v>
       </c>
       <c r="F273" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G273" s="15">
         <v>787</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="28">
         <v>46023</v>
       </c>
@@ -16057,13 +16109,13 @@
         <v>53.175675675675677</v>
       </c>
       <c r="F274" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G274" s="15">
         <v>787</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>46023</v>
       </c>
@@ -16080,13 +16132,13 @@
         <v>106.35135135135135</v>
       </c>
       <c r="F275" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G275" s="15">
         <v>787</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>46023</v>
       </c>
@@ -16103,13 +16155,13 @@
         <v>106.35135135135135</v>
       </c>
       <c r="F276" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G276" s="15">
         <v>787</v>
       </c>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="28">
         <v>46023</v>
       </c>
@@ -16126,13 +16178,13 @@
         <v>53.175675675675677</v>
       </c>
       <c r="F277" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G277" s="15">
         <v>787</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="28">
         <v>46023</v>
       </c>
@@ -16158,7 +16210,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
@@ -16176,16 +16228,16 @@
         <v>16000</v>
       </c>
       <c r="E280" s="15">
-        <v>228.47499999999999</v>
+        <v>221.35</v>
       </c>
       <c r="F280" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G280" s="15">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="28">
         <v>46024</v>
       </c>
@@ -16199,16 +16251,16 @@
         <v>16000</v>
       </c>
       <c r="E281" s="15">
-        <v>102.21249999999999</v>
+        <v>99.024999999999991</v>
       </c>
       <c r="F281" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G281" s="15">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="28">
         <v>46024</v>
       </c>
@@ -16222,16 +16274,16 @@
         <v>16000</v>
       </c>
       <c r="E282" s="15">
-        <v>60.125</v>
+        <v>58.25</v>
       </c>
       <c r="F282" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G282" s="15">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="28">
         <v>46024</v>
       </c>
@@ -16245,16 +16297,16 @@
         <v>16000</v>
       </c>
       <c r="E283" s="15">
-        <v>150.3125</v>
+        <v>145.625</v>
       </c>
       <c r="F283" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G283" s="15">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="28">
         <v>46024</v>
       </c>
@@ -16268,16 +16320,16 @@
         <v>16000</v>
       </c>
       <c r="E284" s="15">
-        <v>60.125</v>
+        <v>58.25</v>
       </c>
       <c r="F284" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G284" s="15">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="28">
         <v>46024</v>
       </c>
@@ -16291,16 +16343,16 @@
         <v>16000</v>
       </c>
       <c r="E285" s="15">
-        <v>120.25</v>
+        <v>116.5</v>
       </c>
       <c r="F285" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G285" s="15">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="28">
         <v>46024</v>
       </c>
@@ -16314,16 +16366,16 @@
         <v>16000</v>
       </c>
       <c r="E286" s="15">
-        <v>120.25</v>
+        <v>116.5</v>
       </c>
       <c r="F286" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G286" s="15">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="28">
         <v>46024</v>
       </c>
@@ -16337,16 +16389,16 @@
         <v>16000</v>
       </c>
       <c r="E287" s="15">
-        <v>60.125</v>
+        <v>58.25</v>
       </c>
       <c r="F287" s="14" t="s">
         <v>79</v>
       </c>
       <c r="G287" s="15">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="28">
         <v>46024</v>
       </c>
@@ -16360,1103 +16412,1103 @@
         <v>16000</v>
       </c>
       <c r="E288" s="15">
-        <v>60.125</v>
+        <v>58.25</v>
       </c>
       <c r="F288" s="14" t="s">
         <v>93</v>
       </c>
       <c r="G288" s="15">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="H288" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>
@@ -17957,7 +18009,7 @@
   <dimension ref="C4:R29"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18116,7 +18168,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G17" s="20" t="s">
         <v>14</v>
       </c>
@@ -18131,7 +18183,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G18" s="19" t="s">
         <v>17</v>
       </c>
@@ -18142,7 +18194,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="19" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G19" s="20" t="s">
         <v>19</v>
       </c>
@@ -18153,7 +18205,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="20" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:18" x14ac:dyDescent="0.25">
       <c r="G20" s="19" t="s">
         <v>21</v>
       </c>
@@ -18174,17 +18226,33 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F24" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="33"/>
       <c r="L24">
         <v>60.25</v>
       </c>
     </row>
-    <row r="25" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>10.25</v>
+      </c>
       <c r="L25">
         <v>180.75</v>
       </c>
     </row>
-    <row r="26" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26">
+        <v>6.83</v>
+      </c>
       <c r="L26">
         <v>60.25</v>
       </c>
@@ -18199,22 +18267,25 @@
         <v>732</v>
       </c>
     </row>
-    <row r="27" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L27">
         <v>180.75</v>
       </c>
     </row>
-    <row r="28" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L28">
         <v>241</v>
       </c>
     </row>
-    <row r="29" spans="7:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:18" x14ac:dyDescent="0.25">
       <c r="L29">
         <v>209</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F24:G24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18224,7 +18295,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18267,11 +18338,11 @@
       </c>
       <c r="D2">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!H:H,Re_Investment_Details!C:C)</f>
-        <v>173.99033084808946</v>
+        <v>172.11533084808946</v>
       </c>
       <c r="E2">
         <f>Table6[[#This Row],[Requested_Amount]]-Table6[[#This Row],[Total_Added_Amount]]</f>
-        <v>326.00966915191054</v>
+        <v>327.88466915191054</v>
       </c>
       <c r="F2" t="s">
         <v>98</v>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -772,13 +772,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H602" totalsRowShown="0" headerRowDxfId="29" dataDxfId="27" headerRowBorderDxfId="28" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A1:H602">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="U001"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H602"/>
   <tableColumns count="8">
     <tableColumn id="1" name="Date" dataDxfId="24"/>
     <tableColumn id="2" name="UserID" dataDxfId="23"/>
@@ -1129,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C274" workbookViewId="0">
-      <selection activeCell="H298" sqref="H298"/>
+    <sheetView topLeftCell="D274" workbookViewId="0">
+      <selection activeCell="J301" sqref="J301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10400,8 +10394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H602"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G280"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10511,7 +10505,7 @@
         <v>98.08</v>
       </c>
     </row>
-    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D5" s="16"/>
       <c r="G5" s="15"/>
     </row>
@@ -10538,7 +10532,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>45981</v>
       </c>
@@ -10561,7 +10555,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="27">
         <v>45981</v>
       </c>
@@ -10584,7 +10578,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D9" s="16"/>
       <c r="G9" s="15"/>
     </row>
@@ -10611,7 +10605,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>45982</v>
       </c>
@@ -10634,7 +10628,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="28">
         <v>45982</v>
       </c>
@@ -10657,7 +10651,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="28">
         <v>45982</v>
       </c>
@@ -10680,7 +10674,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="28">
         <v>45982</v>
       </c>
@@ -10703,7 +10697,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="28">
         <v>45982</v>
       </c>
@@ -10726,7 +10720,7 @@
         <v>105.2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="16"/>
       <c r="G16" s="15"/>
     </row>
@@ -10753,7 +10747,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="28">
         <v>45992</v>
       </c>
@@ -10776,7 +10770,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
         <v>45992</v>
       </c>
@@ -10799,7 +10793,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>45992</v>
       </c>
@@ -10822,7 +10816,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28">
         <v>45992</v>
       </c>
@@ -10845,7 +10839,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28">
         <v>45992</v>
       </c>
@@ -10868,7 +10862,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="G23" s="15"/>
     </row>
@@ -10895,7 +10889,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="28">
         <v>45993</v>
       </c>
@@ -10918,7 +10912,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28">
         <v>45993</v>
       </c>
@@ -10941,7 +10935,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="28">
         <v>45993</v>
       </c>
@@ -10964,7 +10958,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="28">
         <v>45993</v>
       </c>
@@ -10987,7 +10981,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28">
         <v>45993</v>
       </c>
@@ -11010,7 +11004,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="G30" s="15"/>
     </row>
@@ -11037,7 +11031,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="28">
         <v>45994</v>
       </c>
@@ -11060,7 +11054,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="28">
         <v>45994</v>
       </c>
@@ -11083,7 +11077,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="28">
         <v>45994</v>
       </c>
@@ -11106,7 +11100,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="28">
         <v>45994</v>
       </c>
@@ -11129,7 +11123,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="28">
         <v>45994</v>
       </c>
@@ -11152,7 +11146,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="28">
         <v>45994</v>
       </c>
@@ -11175,7 +11169,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D38" s="16"/>
       <c r="G38" s="15"/>
     </row>
@@ -11202,7 +11196,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="28">
         <v>45995</v>
       </c>
@@ -11225,7 +11219,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28">
         <v>45995</v>
       </c>
@@ -11248,7 +11242,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="28">
         <v>45995</v>
       </c>
@@ -11271,7 +11265,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28">
         <v>45995</v>
       </c>
@@ -11294,7 +11288,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28">
         <v>45995</v>
       </c>
@@ -11317,7 +11311,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28">
         <v>45995</v>
       </c>
@@ -11340,7 +11334,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D46" s="16"/>
       <c r="G46" s="15"/>
     </row>
@@ -11367,7 +11361,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="28">
         <v>45998</v>
       </c>
@@ -11390,7 +11384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="28">
         <v>45998</v>
       </c>
@@ -11413,7 +11407,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="28">
         <v>45998</v>
       </c>
@@ -11436,7 +11430,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="28">
         <v>45998</v>
       </c>
@@ -11459,7 +11453,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="28">
         <v>45998</v>
       </c>
@@ -11482,7 +11476,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="28">
         <v>45998</v>
       </c>
@@ -11505,7 +11499,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D54" s="16"/>
       <c r="G54" s="15"/>
     </row>
@@ -11532,7 +11526,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="28">
         <v>45999</v>
       </c>
@@ -11555,7 +11549,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="28">
         <v>45999</v>
       </c>
@@ -11578,7 +11572,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="28">
         <v>45999</v>
       </c>
@@ -11601,7 +11595,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="28">
         <v>45999</v>
       </c>
@@ -11624,7 +11618,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="28">
         <v>45999</v>
       </c>
@@ -11647,7 +11641,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="28">
         <v>45999</v>
       </c>
@@ -11670,7 +11664,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D62" s="16"/>
       <c r="G62" s="15"/>
     </row>
@@ -11697,7 +11691,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="28">
         <v>46000</v>
       </c>
@@ -11720,7 +11714,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="28">
         <v>46000</v>
       </c>
@@ -11743,7 +11737,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="28">
         <v>46000</v>
       </c>
@@ -11766,7 +11760,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="28">
         <v>46000</v>
       </c>
@@ -11789,7 +11783,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>46000</v>
       </c>
@@ -11812,7 +11806,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>46000</v>
       </c>
@@ -11835,7 +11829,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D70" s="16"/>
       <c r="G70" s="15"/>
     </row>
@@ -11862,7 +11856,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>46001</v>
       </c>
@@ -11885,7 +11879,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>46001</v>
       </c>
@@ -11908,7 +11902,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>46001</v>
       </c>
@@ -11931,7 +11925,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="28">
         <v>46001</v>
       </c>
@@ -11954,7 +11948,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="28">
         <v>46001</v>
       </c>
@@ -11977,7 +11971,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="28">
         <v>46001</v>
       </c>
@@ -12000,7 +11994,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="28">
         <v>46001</v>
       </c>
@@ -12023,7 +12017,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D79" s="16"/>
       <c r="G79" s="15"/>
     </row>
@@ -12050,7 +12044,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="28">
         <v>46002</v>
       </c>
@@ -12073,7 +12067,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="28">
         <v>46002</v>
       </c>
@@ -12096,7 +12090,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="28">
         <v>46002</v>
       </c>
@@ -12119,7 +12113,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="28">
         <v>46002</v>
       </c>
@@ -12142,7 +12136,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="28">
         <v>46002</v>
       </c>
@@ -12165,7 +12159,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="28">
         <v>46002</v>
       </c>
@@ -12188,7 +12182,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="28">
         <v>46002</v>
       </c>
@@ -12211,7 +12205,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D88" s="16"/>
       <c r="G88" s="15"/>
     </row>
@@ -12238,7 +12232,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="28">
         <v>46003</v>
       </c>
@@ -12261,7 +12255,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="28">
         <v>46003</v>
       </c>
@@ -12284,7 +12278,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="28">
         <v>46003</v>
       </c>
@@ -12307,7 +12301,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="28">
         <v>46003</v>
       </c>
@@ -12330,7 +12324,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="28">
         <v>46003</v>
       </c>
@@ -12353,7 +12347,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="28">
         <v>46003</v>
       </c>
@@ -12376,7 +12370,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="28">
         <v>46003</v>
       </c>
@@ -12399,7 +12393,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D97" s="16"/>
       <c r="G97" s="15"/>
     </row>
@@ -12426,7 +12420,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="28">
         <v>46004</v>
       </c>
@@ -12449,7 +12443,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="28">
         <v>46004</v>
       </c>
@@ -12472,7 +12466,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="28">
         <v>46004</v>
       </c>
@@ -12495,7 +12489,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="28">
         <v>46004</v>
       </c>
@@ -12518,7 +12512,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="28">
         <v>46004</v>
       </c>
@@ -12541,7 +12535,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="28">
         <v>46004</v>
       </c>
@@ -12564,7 +12558,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="28">
         <v>46004</v>
       </c>
@@ -12587,7 +12581,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D106" s="16"/>
       <c r="G106" s="15"/>
     </row>
@@ -12614,7 +12608,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="28">
         <v>46005</v>
       </c>
@@ -12637,7 +12631,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="28">
         <v>46005</v>
       </c>
@@ -12660,7 +12654,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="28">
         <v>46005</v>
       </c>
@@ -12683,7 +12677,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="28">
         <v>46005</v>
       </c>
@@ -12706,7 +12700,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="28">
         <v>46005</v>
       </c>
@@ -12729,7 +12723,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="28">
         <v>46005</v>
       </c>
@@ -12752,7 +12746,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="28">
         <v>46005</v>
       </c>
@@ -12775,7 +12769,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D115" s="16"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
@@ -12801,7 +12795,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="28">
         <v>46006</v>
       </c>
@@ -12824,7 +12818,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="28">
         <v>46006</v>
       </c>
@@ -12847,7 +12841,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="28">
         <v>46006</v>
       </c>
@@ -12870,7 +12864,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="28">
         <v>46006</v>
       </c>
@@ -12893,7 +12887,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="28">
         <v>46006</v>
       </c>
@@ -12916,7 +12910,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="28">
         <v>46006</v>
       </c>
@@ -12939,7 +12933,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="28">
         <v>46006</v>
       </c>
@@ -12962,7 +12956,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D124" s="16"/>
       <c r="G124" s="15"/>
     </row>
@@ -12989,7 +12983,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="28">
         <v>46007</v>
       </c>
@@ -13012,7 +13006,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="28">
         <v>46007</v>
       </c>
@@ -13035,7 +13029,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="28">
         <v>46007</v>
       </c>
@@ -13058,7 +13052,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="28">
         <v>46007</v>
       </c>
@@ -13081,7 +13075,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="28">
         <v>46007</v>
       </c>
@@ -13104,7 +13098,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="28">
         <v>46007</v>
       </c>
@@ -13127,7 +13121,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="28">
         <v>46007</v>
       </c>
@@ -13150,7 +13144,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D133" s="16"/>
       <c r="G133" s="15"/>
     </row>
@@ -13177,7 +13171,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="28">
         <v>46008</v>
       </c>
@@ -13200,7 +13194,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="28">
         <v>46008</v>
       </c>
@@ -13223,7 +13217,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="28">
         <v>46008</v>
       </c>
@@ -13246,7 +13240,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="28">
         <v>46008</v>
       </c>
@@ -13269,7 +13263,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="28">
         <v>46008</v>
       </c>
@@ -13292,7 +13286,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="28">
         <v>46008</v>
       </c>
@@ -13315,7 +13309,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="28">
         <v>46008</v>
       </c>
@@ -13338,7 +13332,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D142" s="16"/>
       <c r="G142" s="15"/>
     </row>
@@ -13365,7 +13359,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="28">
         <v>46009</v>
       </c>
@@ -13388,7 +13382,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="28">
         <v>46009</v>
       </c>
@@ -13411,7 +13405,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="28">
         <v>46009</v>
       </c>
@@ -13434,7 +13428,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="28">
         <v>46009</v>
       </c>
@@ -13457,7 +13451,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="28">
         <v>46009</v>
       </c>
@@ -13480,7 +13474,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="28">
         <v>46009</v>
       </c>
@@ -13503,7 +13497,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="28">
         <v>46009</v>
       </c>
@@ -13526,7 +13520,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D151" s="16"/>
       <c r="G151" s="15"/>
     </row>
@@ -13553,7 +13547,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="28">
         <v>46010</v>
       </c>
@@ -13576,7 +13570,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="28">
         <v>46010</v>
       </c>
@@ -13599,7 +13593,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="28">
         <v>46010</v>
       </c>
@@ -13622,7 +13616,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="28">
         <v>46010</v>
       </c>
@@ -13645,7 +13639,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="28">
         <v>46010</v>
       </c>
@@ -13668,7 +13662,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="28">
         <v>46010</v>
       </c>
@@ -13691,7 +13685,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="28">
         <v>46010</v>
       </c>
@@ -13714,7 +13708,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D160" s="16"/>
       <c r="G160" s="15"/>
     </row>
@@ -13741,7 +13735,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="28">
         <v>46011</v>
       </c>
@@ -13764,7 +13758,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="28">
         <v>46011</v>
       </c>
@@ -13787,7 +13781,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="28">
         <v>46011</v>
       </c>
@@ -13810,7 +13804,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="28">
         <v>46011</v>
       </c>
@@ -13833,7 +13827,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="28">
         <v>46011</v>
       </c>
@@ -13856,7 +13850,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="28">
         <v>46011</v>
       </c>
@@ -13879,7 +13873,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="28">
         <v>46011</v>
       </c>
@@ -13902,7 +13896,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D169" s="16"/>
       <c r="G169" s="15"/>
     </row>
@@ -13929,7 +13923,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="28">
         <v>46012</v>
       </c>
@@ -13952,7 +13946,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="28">
         <v>46012</v>
       </c>
@@ -13975,7 +13969,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="28">
         <v>46012</v>
       </c>
@@ -13998,7 +13992,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="28">
         <v>46012</v>
       </c>
@@ -14021,7 +14015,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="28">
         <v>46012</v>
       </c>
@@ -14044,7 +14038,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="28">
         <v>46012</v>
       </c>
@@ -14067,7 +14061,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="28">
         <v>46012</v>
       </c>
@@ -14090,7 +14084,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D178" s="16"/>
       <c r="G178" s="15"/>
     </row>
@@ -14117,7 +14111,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="28">
         <v>46013</v>
       </c>
@@ -14140,7 +14134,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="28">
         <v>46013</v>
       </c>
@@ -14163,7 +14157,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="28">
         <v>46013</v>
       </c>
@@ -14186,7 +14180,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="28">
         <v>46013</v>
       </c>
@@ -14209,7 +14203,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="28">
         <v>46013</v>
       </c>
@@ -14232,7 +14226,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="28">
         <v>46013</v>
       </c>
@@ -14255,7 +14249,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="28">
         <v>46013</v>
       </c>
@@ -14278,7 +14272,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D187" s="16"/>
       <c r="G187" s="15"/>
     </row>
@@ -14305,7 +14299,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="28">
         <v>46014</v>
       </c>
@@ -14328,7 +14322,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="28">
         <v>46014</v>
       </c>
@@ -14351,7 +14345,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="28">
         <v>46014</v>
       </c>
@@ -14374,7 +14368,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="28">
         <v>46014</v>
       </c>
@@ -14397,7 +14391,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="28">
         <v>46014</v>
       </c>
@@ -14420,7 +14414,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="28">
         <v>46014</v>
       </c>
@@ -14443,7 +14437,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="28">
         <v>46014</v>
       </c>
@@ -14466,7 +14460,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D196" s="16"/>
       <c r="G196" s="15"/>
     </row>
@@ -14493,7 +14487,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="28">
         <v>46015</v>
       </c>
@@ -14516,7 +14510,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="28">
         <v>46015</v>
       </c>
@@ -14539,7 +14533,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="28">
         <v>46015</v>
       </c>
@@ -14562,7 +14556,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="28">
         <v>46015</v>
       </c>
@@ -14585,7 +14579,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="28">
         <v>46015</v>
       </c>
@@ -14608,7 +14602,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="28">
         <v>46015</v>
       </c>
@@ -14631,7 +14625,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="28">
         <v>46015</v>
       </c>
@@ -14654,7 +14648,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D205" s="16"/>
       <c r="G205" s="15"/>
     </row>
@@ -14681,7 +14675,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="28">
         <v>46016</v>
       </c>
@@ -14704,7 +14698,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="28">
         <v>46016</v>
       </c>
@@ -14727,7 +14721,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="28">
         <v>46016</v>
       </c>
@@ -14750,7 +14744,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="28">
         <v>46016</v>
       </c>
@@ -14773,7 +14767,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="28">
         <v>46016</v>
       </c>
@@ -14796,7 +14790,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="28">
         <v>46016</v>
       </c>
@@ -14819,7 +14813,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="28">
         <v>46016</v>
       </c>
@@ -14842,7 +14836,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D214" s="16"/>
       <c r="G214" s="15"/>
     </row>
@@ -14869,7 +14863,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="28">
         <v>46017</v>
       </c>
@@ -14892,7 +14886,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="28">
         <v>46017</v>
       </c>
@@ -14915,7 +14909,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="28">
         <v>46017</v>
       </c>
@@ -14938,7 +14932,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="28">
         <v>46017</v>
       </c>
@@ -14961,7 +14955,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="28">
         <v>46017</v>
       </c>
@@ -14984,7 +14978,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="28">
         <v>46017</v>
       </c>
@@ -15007,7 +15001,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="28">
         <v>46017</v>
       </c>
@@ -15030,7 +15024,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D223" s="16"/>
       <c r="G223" s="15"/>
     </row>
@@ -15057,7 +15051,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="28">
         <v>46018</v>
       </c>
@@ -15080,7 +15074,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="28">
         <v>46018</v>
       </c>
@@ -15103,7 +15097,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="28">
         <v>46018</v>
       </c>
@@ -15126,7 +15120,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="28">
         <v>46018</v>
       </c>
@@ -15149,7 +15143,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="28">
         <v>46018</v>
       </c>
@@ -15172,7 +15166,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="28">
         <v>46018</v>
       </c>
@@ -15195,7 +15189,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="28">
         <v>46018</v>
       </c>
@@ -15218,7 +15212,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D232" s="16"/>
       <c r="G232" s="15"/>
     </row>
@@ -15245,7 +15239,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="28">
         <v>46019</v>
       </c>
@@ -15268,7 +15262,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="28">
         <v>46019</v>
       </c>
@@ -15291,7 +15285,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="28">
         <v>46019</v>
       </c>
@@ -15314,7 +15308,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="28">
         <v>46019</v>
       </c>
@@ -15337,7 +15331,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="28">
         <v>46019</v>
       </c>
@@ -15360,7 +15354,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="28">
         <v>46019</v>
       </c>
@@ -15383,7 +15377,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="28">
         <v>46019</v>
       </c>
@@ -15406,7 +15400,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D241" s="16"/>
       <c r="G241" s="15"/>
     </row>
@@ -15433,7 +15427,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="28">
         <v>46020</v>
       </c>
@@ -15456,7 +15450,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="28">
         <v>46020</v>
       </c>
@@ -15479,7 +15473,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="28">
         <v>46020</v>
       </c>
@@ -15502,7 +15496,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="28">
         <v>46020</v>
       </c>
@@ -15525,7 +15519,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="28">
         <v>46020</v>
       </c>
@@ -15548,7 +15542,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="28">
         <v>46020</v>
       </c>
@@ -15571,7 +15565,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="28">
         <v>46020</v>
       </c>
@@ -15594,7 +15588,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D250" s="16"/>
       <c r="G250" s="15"/>
     </row>
@@ -15621,7 +15615,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="28">
         <v>46021</v>
       </c>
@@ -15644,7 +15638,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="28">
         <v>46021</v>
       </c>
@@ -15667,7 +15661,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="28">
         <v>46021</v>
       </c>
@@ -15690,7 +15684,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="28">
         <v>46021</v>
       </c>
@@ -15713,7 +15707,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="28">
         <v>46021</v>
       </c>
@@ -15736,7 +15730,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="28">
         <v>46021</v>
       </c>
@@ -15759,7 +15753,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="28">
         <v>46021</v>
       </c>
@@ -15782,7 +15776,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D259" s="16"/>
       <c r="G259" s="15"/>
     </row>
@@ -15809,7 +15803,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="28">
         <v>46022</v>
       </c>
@@ -15832,7 +15826,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="28">
         <v>46022</v>
       </c>
@@ -15855,7 +15849,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="28">
         <v>46022</v>
       </c>
@@ -15878,7 +15872,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="264" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="28">
         <v>46022</v>
       </c>
@@ -15901,7 +15895,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="28">
         <v>46022</v>
       </c>
@@ -15924,7 +15918,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="28">
         <v>46022</v>
       </c>
@@ -15947,7 +15941,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="28">
         <v>46022</v>
       </c>
@@ -15970,7 +15964,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="28">
         <v>46022</v>
       </c>
@@ -15996,7 +15990,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D269" s="16"/>
       <c r="G269" s="15"/>
     </row>
@@ -16023,7 +16017,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="28">
         <v>46023</v>
       </c>
@@ -16046,7 +16040,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="28">
         <v>46023</v>
       </c>
@@ -16069,7 +16063,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="28">
         <v>46023</v>
       </c>
@@ -16092,7 +16086,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="28">
         <v>46023</v>
       </c>
@@ -16115,7 +16109,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="28">
         <v>46023</v>
       </c>
@@ -16138,7 +16132,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="28">
         <v>46023</v>
       </c>
@@ -16161,7 +16155,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="28">
         <v>46023</v>
       </c>
@@ -16184,7 +16178,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="28">
         <v>46023</v>
       </c>
@@ -16210,7 +16204,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D279" s="16"/>
       <c r="G279" s="15"/>
     </row>
@@ -16237,7 +16231,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="28">
         <v>46024</v>
       </c>
@@ -16260,7 +16254,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="28">
         <v>46024</v>
       </c>
@@ -16283,7 +16277,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="28">
         <v>46024</v>
       </c>
@@ -16306,7 +16300,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="28">
         <v>46024</v>
       </c>
@@ -16329,7 +16323,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="28">
         <v>46024</v>
       </c>
@@ -16352,7 +16346,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="28">
         <v>46024</v>
       </c>
@@ -16375,7 +16369,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="28">
         <v>46024</v>
       </c>
@@ -16398,7 +16392,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="28">
         <v>46024</v>
       </c>
@@ -16424,1091 +16418,1091 @@
         <v>95</v>
       </c>
     </row>
-    <row r="289" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D290" s="16"/>
       <c r="G290" s="15"/>
     </row>
-    <row r="291" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D291" s="16"/>
       <c r="G291" s="15"/>
     </row>
-    <row r="292" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D292" s="16"/>
       <c r="G292" s="15"/>
     </row>
-    <row r="293" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D293" s="16"/>
       <c r="G293" s="15"/>
     </row>
-    <row r="294" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D294" s="16"/>
       <c r="G294" s="15"/>
     </row>
-    <row r="295" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D295" s="16"/>
       <c r="G295" s="15"/>
     </row>
-    <row r="296" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D296" s="16"/>
       <c r="G296" s="15"/>
     </row>
-    <row r="297" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D297" s="16"/>
       <c r="G297" s="15"/>
     </row>
-    <row r="298" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D298" s="16"/>
       <c r="G298" s="15"/>
     </row>
-    <row r="299" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
-    <row r="305" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D305" s="16"/>
       <c r="G305" s="15"/>
     </row>
-    <row r="306" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D306" s="16"/>
       <c r="G306" s="15"/>
     </row>
-    <row r="307" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D307" s="16"/>
       <c r="G307" s="15"/>
     </row>
-    <row r="308" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D308" s="16"/>
       <c r="G308" s="15"/>
     </row>
-    <row r="309" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D309" s="16"/>
       <c r="G309" s="15"/>
     </row>
-    <row r="310" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D310" s="16"/>
       <c r="G310" s="15"/>
     </row>
-    <row r="311" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D311" s="16"/>
       <c r="G311" s="15"/>
     </row>
-    <row r="312" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D312" s="16"/>
       <c r="G312" s="15"/>
     </row>
-    <row r="313" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D313" s="16"/>
       <c r="G313" s="15"/>
     </row>
-    <row r="314" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D314" s="16"/>
       <c r="G314" s="15"/>
     </row>
-    <row r="315" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D315" s="16"/>
       <c r="G315" s="15"/>
     </row>
-    <row r="316" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D316" s="16"/>
       <c r="G316" s="15"/>
     </row>
-    <row r="317" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D317" s="16"/>
       <c r="G317" s="15"/>
     </row>
-    <row r="318" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D318" s="16"/>
       <c r="G318" s="15"/>
     </row>
-    <row r="319" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D319" s="16"/>
       <c r="G319" s="15"/>
     </row>
-    <row r="320" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D320" s="16"/>
       <c r="G320" s="15"/>
     </row>
-    <row r="321" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D321" s="16"/>
       <c r="G321" s="15"/>
     </row>
-    <row r="322" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D322" s="16"/>
       <c r="G322" s="15"/>
     </row>
-    <row r="323" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D323" s="16"/>
       <c r="G323" s="15"/>
     </row>
-    <row r="324" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D324" s="16"/>
       <c r="G324" s="15"/>
     </row>
-    <row r="325" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D325" s="16"/>
       <c r="G325" s="15"/>
     </row>
-    <row r="326" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D326" s="16"/>
       <c r="G326" s="15"/>
     </row>
-    <row r="327" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D327" s="16"/>
       <c r="G327" s="15"/>
     </row>
-    <row r="328" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D328" s="16"/>
       <c r="G328" s="15"/>
     </row>
-    <row r="329" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D329" s="16"/>
       <c r="G329" s="15"/>
     </row>
-    <row r="330" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D330" s="16"/>
       <c r="G330" s="15"/>
     </row>
-    <row r="331" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D331" s="16"/>
       <c r="G331" s="15"/>
     </row>
-    <row r="332" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D332" s="16"/>
       <c r="G332" s="15"/>
     </row>
-    <row r="333" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D333" s="16"/>
       <c r="G333" s="15"/>
     </row>
-    <row r="334" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D334" s="16"/>
       <c r="G334" s="15"/>
     </row>
-    <row r="335" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D335" s="16"/>
       <c r="G335" s="15"/>
     </row>
-    <row r="336" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D336" s="16"/>
       <c r="G336" s="15"/>
     </row>
-    <row r="337" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D337" s="16"/>
       <c r="G337" s="15"/>
     </row>
-    <row r="338" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D338" s="16"/>
       <c r="G338" s="15"/>
     </row>
-    <row r="339" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D339" s="16"/>
       <c r="G339" s="15"/>
     </row>
-    <row r="340" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D340" s="16"/>
       <c r="G340" s="15"/>
     </row>
-    <row r="341" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D341" s="16"/>
       <c r="G341" s="15"/>
     </row>
-    <row r="342" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D342" s="16"/>
       <c r="G342" s="15"/>
     </row>
-    <row r="343" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D343" s="16"/>
       <c r="G343" s="15"/>
     </row>
-    <row r="344" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D344" s="16"/>
       <c r="G344" s="15"/>
     </row>
-    <row r="345" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D345" s="16"/>
       <c r="G345" s="15"/>
     </row>
-    <row r="346" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D346" s="16"/>
       <c r="G346" s="15"/>
     </row>
-    <row r="347" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D347" s="16"/>
       <c r="G347" s="15"/>
     </row>
-    <row r="348" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D348" s="16"/>
       <c r="G348" s="15"/>
     </row>
-    <row r="349" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D349" s="16"/>
       <c r="G349" s="15"/>
     </row>
-    <row r="350" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D350" s="16"/>
       <c r="G350" s="15"/>
     </row>
-    <row r="351" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D351" s="16"/>
       <c r="G351" s="15"/>
     </row>
-    <row r="352" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D352" s="16"/>
       <c r="G352" s="15"/>
     </row>
-    <row r="353" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D353" s="16"/>
       <c r="G353" s="15"/>
     </row>
-    <row r="354" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D354" s="16"/>
       <c r="G354" s="15"/>
     </row>
-    <row r="355" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D355" s="16"/>
       <c r="G355" s="15"/>
     </row>
-    <row r="356" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D356" s="16"/>
       <c r="G356" s="15"/>
     </row>
-    <row r="357" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D357" s="16"/>
       <c r="G357" s="15"/>
     </row>
-    <row r="358" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D358" s="16"/>
       <c r="G358" s="15"/>
     </row>
-    <row r="359" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D359" s="16"/>
       <c r="G359" s="15"/>
     </row>
-    <row r="360" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D360" s="16"/>
       <c r="G360" s="15"/>
     </row>
-    <row r="361" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D361" s="16"/>
       <c r="G361" s="15"/>
     </row>
-    <row r="362" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D362" s="16"/>
       <c r="G362" s="15"/>
     </row>
-    <row r="363" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D363" s="16"/>
       <c r="G363" s="15"/>
     </row>
-    <row r="364" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D364" s="16"/>
       <c r="G364" s="15"/>
     </row>
-    <row r="365" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D365" s="16"/>
       <c r="G365" s="15"/>
     </row>
-    <row r="366" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D366" s="16"/>
       <c r="G366" s="15"/>
     </row>
-    <row r="367" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D367" s="16"/>
       <c r="G367" s="15"/>
     </row>
-    <row r="368" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D368" s="16"/>
       <c r="G368" s="15"/>
     </row>
-    <row r="369" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D369" s="16"/>
       <c r="G369" s="15"/>
     </row>
-    <row r="370" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D370" s="16"/>
       <c r="G370" s="15"/>
     </row>
-    <row r="371" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D371" s="16"/>
       <c r="G371" s="15"/>
     </row>
-    <row r="372" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D372" s="16"/>
       <c r="G372" s="15"/>
     </row>
-    <row r="373" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D373" s="16"/>
       <c r="G373" s="15"/>
     </row>
-    <row r="374" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D374" s="16"/>
       <c r="G374" s="15"/>
     </row>
-    <row r="375" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D375" s="16"/>
       <c r="G375" s="15"/>
     </row>
-    <row r="376" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D376" s="16"/>
       <c r="G376" s="15"/>
     </row>
-    <row r="377" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D377" s="16"/>
       <c r="G377" s="15"/>
     </row>
-    <row r="378" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D378" s="16"/>
       <c r="G378" s="15"/>
     </row>
-    <row r="379" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D379" s="16"/>
       <c r="G379" s="15"/>
     </row>
-    <row r="380" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D380" s="16"/>
       <c r="G380" s="15"/>
     </row>
-    <row r="381" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D381" s="16"/>
       <c r="G381" s="15"/>
     </row>
-    <row r="382" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D382" s="16"/>
       <c r="G382" s="15"/>
     </row>
-    <row r="383" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D383" s="16"/>
       <c r="G383" s="15"/>
     </row>
-    <row r="384" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D384" s="16"/>
       <c r="G384" s="15"/>
     </row>
-    <row r="385" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D385" s="16"/>
       <c r="G385" s="15"/>
     </row>
-    <row r="386" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D386" s="16"/>
       <c r="G386" s="15"/>
     </row>
-    <row r="387" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D387" s="16"/>
       <c r="G387" s="15"/>
     </row>
-    <row r="388" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D388" s="16"/>
       <c r="G388" s="15"/>
     </row>
-    <row r="389" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D389" s="16"/>
       <c r="G389" s="15"/>
     </row>
-    <row r="390" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D390" s="16"/>
       <c r="G390" s="15"/>
     </row>
-    <row r="391" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D391" s="16"/>
       <c r="G391" s="15"/>
     </row>
-    <row r="392" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D392" s="16"/>
       <c r="G392" s="15"/>
     </row>
-    <row r="393" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D393" s="16"/>
       <c r="G393" s="15"/>
     </row>
-    <row r="394" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D394" s="16"/>
       <c r="G394" s="15"/>
     </row>
-    <row r="395" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D395" s="16"/>
       <c r="G395" s="15"/>
     </row>
-    <row r="396" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D396" s="16"/>
       <c r="G396" s="15"/>
     </row>
-    <row r="397" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D397" s="16"/>
       <c r="G397" s="15"/>
     </row>
-    <row r="398" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D398" s="16"/>
       <c r="G398" s="15"/>
     </row>
-    <row r="399" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D399" s="16"/>
       <c r="G399" s="15"/>
     </row>
-    <row r="400" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D400" s="16"/>
       <c r="G400" s="15"/>
     </row>
-    <row r="401" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D401" s="16"/>
       <c r="G401" s="15"/>
     </row>
-    <row r="402" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D402" s="16"/>
       <c r="G402" s="15"/>
     </row>
-    <row r="403" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D403" s="16"/>
       <c r="G403" s="15"/>
     </row>
-    <row r="404" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D404" s="16"/>
       <c r="G404" s="15"/>
     </row>
-    <row r="405" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D405" s="16"/>
       <c r="G405" s="15"/>
     </row>
-    <row r="406" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D406" s="16"/>
       <c r="G406" s="15"/>
     </row>
-    <row r="407" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D407" s="16"/>
       <c r="G407" s="15"/>
     </row>
-    <row r="408" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D408" s="16"/>
       <c r="G408" s="15"/>
     </row>
-    <row r="409" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D409" s="16"/>
       <c r="G409" s="15"/>
     </row>
-    <row r="410" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D410" s="16"/>
       <c r="G410" s="15"/>
     </row>
-    <row r="411" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D411" s="16"/>
       <c r="G411" s="15"/>
     </row>
-    <row r="412" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D412" s="16"/>
       <c r="G412" s="15"/>
     </row>
-    <row r="413" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D413" s="16"/>
       <c r="G413" s="15"/>
     </row>
-    <row r="414" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D414" s="16"/>
       <c r="G414" s="15"/>
     </row>
-    <row r="415" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D415" s="16"/>
       <c r="G415" s="15"/>
     </row>
-    <row r="416" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D416" s="16"/>
       <c r="G416" s="15"/>
     </row>
-    <row r="417" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D417" s="16"/>
       <c r="G417" s="15"/>
     </row>
-    <row r="418" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D418" s="16"/>
       <c r="G418" s="15"/>
     </row>
-    <row r="419" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D419" s="16"/>
       <c r="G419" s="15"/>
     </row>
-    <row r="420" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D420" s="16"/>
       <c r="G420" s="15"/>
     </row>
-    <row r="421" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D421" s="16"/>
       <c r="G421" s="15"/>
     </row>
-    <row r="422" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D422" s="16"/>
       <c r="G422" s="15"/>
     </row>
-    <row r="423" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D423" s="16"/>
       <c r="G423" s="15"/>
     </row>
-    <row r="424" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D424" s="16"/>
       <c r="G424" s="15"/>
     </row>
-    <row r="425" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D425" s="16"/>
       <c r="G425" s="15"/>
     </row>
-    <row r="426" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D426" s="16"/>
       <c r="G426" s="15"/>
     </row>
-    <row r="427" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D427" s="16"/>
       <c r="G427" s="15"/>
     </row>
-    <row r="428" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D428" s="16"/>
       <c r="G428" s="15"/>
     </row>
-    <row r="429" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D429" s="16"/>
       <c r="G429" s="15"/>
     </row>
-    <row r="430" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D430" s="16"/>
       <c r="G430" s="15"/>
     </row>
-    <row r="431" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D431" s="16"/>
       <c r="G431" s="15"/>
     </row>
-    <row r="432" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D432" s="16"/>
       <c r="G432" s="15"/>
     </row>
-    <row r="433" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D433" s="16"/>
       <c r="G433" s="15"/>
     </row>
-    <row r="434" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D434" s="16"/>
     </row>
-    <row r="435" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D435" s="16"/>
     </row>
-    <row r="436" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D436" s="16"/>
     </row>
-    <row r="437" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D437" s="16"/>
     </row>
-    <row r="438" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D438" s="16"/>
     </row>
-    <row r="439" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D439" s="16"/>
     </row>
-    <row r="440" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D440" s="16"/>
     </row>
-    <row r="441" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D441" s="16"/>
     </row>
-    <row r="442" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D442" s="16"/>
     </row>
-    <row r="443" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D443" s="16"/>
     </row>
-    <row r="444" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D444" s="16"/>
     </row>
-    <row r="445" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D445" s="16"/>
     </row>
-    <row r="446" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D446" s="16"/>
     </row>
-    <row r="447" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D447" s="16"/>
     </row>
-    <row r="448" spans="4:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D448" s="16"/>
     </row>
-    <row r="449" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D449" s="16"/>
     </row>
-    <row r="450" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D450" s="16"/>
     </row>
-    <row r="451" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D451" s="16"/>
     </row>
-    <row r="452" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D452" s="16"/>
     </row>
-    <row r="453" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D453" s="16"/>
     </row>
-    <row r="454" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D454" s="16"/>
     </row>
-    <row r="455" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D455" s="16"/>
     </row>
-    <row r="456" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D456" s="16"/>
     </row>
-    <row r="457" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D457" s="16"/>
     </row>
-    <row r="458" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D458" s="16"/>
     </row>
-    <row r="459" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D459" s="16"/>
     </row>
-    <row r="460" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D460" s="16"/>
     </row>
-    <row r="461" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D461" s="16"/>
     </row>
-    <row r="462" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D462" s="16"/>
     </row>
-    <row r="463" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D463" s="16"/>
     </row>
-    <row r="464" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D464" s="16"/>
     </row>
-    <row r="465" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D465" s="16"/>
     </row>
-    <row r="466" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D466" s="16"/>
     </row>
-    <row r="467" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D467" s="16"/>
     </row>
-    <row r="468" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D468" s="16"/>
     </row>
-    <row r="469" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D469" s="16"/>
     </row>
-    <row r="470" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D470" s="16"/>
     </row>
-    <row r="471" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D471" s="16"/>
     </row>
-    <row r="472" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D472" s="16"/>
     </row>
-    <row r="473" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D473" s="16"/>
     </row>
-    <row r="474" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D474" s="16"/>
     </row>
-    <row r="475" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D475" s="16"/>
     </row>
-    <row r="476" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D476" s="16"/>
     </row>
-    <row r="477" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D477" s="16"/>
     </row>
-    <row r="478" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D478" s="16"/>
     </row>
-    <row r="479" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D479" s="16"/>
     </row>
-    <row r="480" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D480" s="16"/>
     </row>
-    <row r="481" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D481" s="16"/>
     </row>
-    <row r="482" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D482" s="16"/>
     </row>
-    <row r="483" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D483" s="16"/>
     </row>
-    <row r="484" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D484" s="16"/>
     </row>
-    <row r="485" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D485" s="16"/>
     </row>
-    <row r="486" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D486" s="16"/>
     </row>
-    <row r="487" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D487" s="16"/>
     </row>
-    <row r="488" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D488" s="16"/>
     </row>
-    <row r="489" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D489" s="16"/>
     </row>
-    <row r="490" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D490" s="16"/>
     </row>
-    <row r="491" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D491" s="16"/>
     </row>
-    <row r="492" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D492" s="16"/>
     </row>
-    <row r="493" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D493" s="16"/>
     </row>
-    <row r="494" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D494" s="16"/>
     </row>
-    <row r="495" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D495" s="16"/>
     </row>
-    <row r="496" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D496" s="16"/>
     </row>
-    <row r="497" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D497" s="16"/>
     </row>
-    <row r="498" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D498" s="16"/>
     </row>
-    <row r="499" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D499" s="16"/>
     </row>
-    <row r="500" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D500" s="16"/>
     </row>
-    <row r="501" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D501" s="16"/>
     </row>
-    <row r="502" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D502" s="16"/>
     </row>
-    <row r="503" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D503" s="16"/>
     </row>
-    <row r="504" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D504" s="16"/>
     </row>
-    <row r="505" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D505" s="16"/>
     </row>
-    <row r="506" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D506" s="16"/>
     </row>
-    <row r="507" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D507" s="16"/>
     </row>
-    <row r="508" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D508" s="16"/>
     </row>
-    <row r="509" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D509" s="16"/>
     </row>
-    <row r="510" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D510" s="16"/>
     </row>
-    <row r="511" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D511" s="16"/>
     </row>
-    <row r="512" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D512" s="16"/>
     </row>
-    <row r="513" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D513" s="16"/>
     </row>
-    <row r="514" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D514" s="16"/>
     </row>
-    <row r="515" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D515" s="16"/>
     </row>
-    <row r="516" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D516" s="16"/>
     </row>
-    <row r="517" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D517" s="16"/>
     </row>
-    <row r="518" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D518" s="16"/>
     </row>
-    <row r="519" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D519" s="16"/>
     </row>
-    <row r="520" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D520" s="16"/>
     </row>
-    <row r="521" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D521" s="16"/>
     </row>
-    <row r="522" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D522" s="16"/>
     </row>
-    <row r="523" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D523" s="16"/>
     </row>
-    <row r="524" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D524" s="16"/>
     </row>
-    <row r="525" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D525" s="16"/>
     </row>
-    <row r="526" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D526" s="16"/>
     </row>
-    <row r="527" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D527" s="16"/>
     </row>
-    <row r="528" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D528" s="16"/>
     </row>
-    <row r="529" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D529" s="16"/>
     </row>
-    <row r="530" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D530" s="16"/>
     </row>
-    <row r="531" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D531" s="16"/>
     </row>
-    <row r="532" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D532" s="16"/>
     </row>
-    <row r="533" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D533" s="16"/>
     </row>
-    <row r="534" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D534" s="16"/>
     </row>
-    <row r="535" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D535" s="16"/>
     </row>
-    <row r="536" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D536" s="16"/>
     </row>
-    <row r="537" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D537" s="16"/>
     </row>
-    <row r="538" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D538" s="16"/>
     </row>
-    <row r="539" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D539" s="16"/>
     </row>
-    <row r="540" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D540" s="16"/>
     </row>
-    <row r="541" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D541" s="16"/>
     </row>
-    <row r="542" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D542" s="16"/>
     </row>
-    <row r="543" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D543" s="16"/>
     </row>
-    <row r="544" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D544" s="16"/>
     </row>
-    <row r="545" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D545" s="16"/>
     </row>
-    <row r="546" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D546" s="16"/>
     </row>
-    <row r="547" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D547" s="16"/>
     </row>
-    <row r="548" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D548" s="16"/>
     </row>
-    <row r="549" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D549" s="16"/>
     </row>
-    <row r="550" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D550" s="16"/>
     </row>
-    <row r="551" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D551" s="16"/>
     </row>
-    <row r="552" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D552" s="16"/>
     </row>
-    <row r="553" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D553" s="16"/>
     </row>
-    <row r="554" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D554" s="16"/>
     </row>
-    <row r="555" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D555" s="16"/>
     </row>
-    <row r="556" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D556" s="16"/>
     </row>
-    <row r="557" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D557" s="16"/>
     </row>
-    <row r="558" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D558" s="16"/>
     </row>
-    <row r="559" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D559" s="16"/>
     </row>
-    <row r="560" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D560" s="16"/>
     </row>
-    <row r="561" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D561" s="16"/>
     </row>
-    <row r="562" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D562" s="16"/>
     </row>
-    <row r="563" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D563" s="16"/>
     </row>
-    <row r="564" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D564" s="16"/>
     </row>
-    <row r="565" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D565" s="16"/>
     </row>
-    <row r="566" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D566" s="16"/>
     </row>
-    <row r="567" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D567" s="16"/>
     </row>
-    <row r="568" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D568" s="16"/>
     </row>
-    <row r="569" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D569" s="16"/>
     </row>
-    <row r="570" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D570" s="16"/>
     </row>
-    <row r="571" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D571" s="16"/>
     </row>
-    <row r="572" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D572" s="16"/>
     </row>
-    <row r="573" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D573" s="16"/>
     </row>
-    <row r="574" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D574" s="16"/>
     </row>
-    <row r="575" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D575" s="16"/>
     </row>
-    <row r="576" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D576" s="16"/>
     </row>
-    <row r="577" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D577" s="16"/>
     </row>
-    <row r="578" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D578" s="16"/>
     </row>
-    <row r="579" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D579" s="16"/>
     </row>
-    <row r="580" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D580" s="16"/>
     </row>
-    <row r="581" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D581" s="16"/>
     </row>
-    <row r="582" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D582" s="16"/>
     </row>
-    <row r="583" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D583" s="16"/>
     </row>
-    <row r="584" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D584" s="16"/>
     </row>
-    <row r="585" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D585" s="16"/>
     </row>
-    <row r="586" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D586" s="16"/>
     </row>
-    <row r="587" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D587" s="16"/>
     </row>
-    <row r="588" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D588" s="16"/>
     </row>
-    <row r="589" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D589" s="16"/>
     </row>
-    <row r="590" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D590" s="16"/>
     </row>
-    <row r="591" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D591" s="16"/>
     </row>
-    <row r="592" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D592" s="16"/>
     </row>
-    <row r="593" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D593" s="16"/>
     </row>
-    <row r="594" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D594" s="16"/>
     </row>
-    <row r="595" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D595" s="16"/>
     </row>
-    <row r="596" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D596" s="16"/>
     </row>
-    <row r="597" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D597" s="16"/>
     </row>
-    <row r="598" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D598" s="16"/>
     </row>
-    <row r="599" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D599" s="16"/>
     </row>
-    <row r="600" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D600" s="16"/>
     </row>
-    <row r="601" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D601" s="16"/>
     </row>
-    <row r="602" spans="4:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D602" s="16"/>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="102">
   <si>
     <t>UserID</t>
   </si>
@@ -257,9 +257,6 @@
   </si>
   <si>
     <t>Aathithya</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>T013ADD1000</t>
@@ -531,9 +528,6 @@
   <dxfs count="48">
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -577,6 +571,9 @@
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -752,20 +749,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:N5641" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
   <autoFilter ref="A1:N5640"/>
   <tableColumns count="14">
-    <tableColumn id="9" name="Date" dataDxfId="44" totalsRowDxfId="14"/>
-    <tableColumn id="13" name="UserID" dataDxfId="43" totalsRowDxfId="13"/>
-    <tableColumn id="8" name="Name" dataDxfId="42" totalsRowDxfId="12"/>
-    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="41" totalsRowDxfId="11"/>
-    <tableColumn id="17" name="Transaction_ID" dataDxfId="40" totalsRowDxfId="10"/>
-    <tableColumn id="16" name="Transaction_Date" dataDxfId="39" totalsRowDxfId="9"/>
-    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="38" totalsRowDxfId="8"/>
-    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="37" totalsRowDxfId="7"/>
-    <tableColumn id="10" name="Total_Profit" dataDxfId="36" totalsRowDxfId="6"/>
-    <tableColumn id="11" name="Profit_%" dataDxfId="35" totalsRowDxfId="5"/>
-    <tableColumn id="7" name="Profit_Without_Tax" dataDxfId="34" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="Payment_Status" dataDxfId="33" totalsRowDxfId="3"/>
-    <tableColumn id="1" name="Tax_Deduction_%" dataDxfId="16" totalsRowDxfId="2"/>
-    <tableColumn id="2" name="Profit_With_Tax" dataDxfId="15" totalsRowDxfId="1">
+    <tableColumn id="9" name="Date" dataDxfId="44" totalsRowDxfId="13"/>
+    <tableColumn id="13" name="UserID" dataDxfId="43" totalsRowDxfId="12"/>
+    <tableColumn id="8" name="Name" dataDxfId="42" totalsRowDxfId="11"/>
+    <tableColumn id="15" name="User_Invested_Amount" dataDxfId="41" totalsRowDxfId="10"/>
+    <tableColumn id="17" name="Transaction_ID" dataDxfId="40" totalsRowDxfId="9"/>
+    <tableColumn id="16" name="Transaction_Date" dataDxfId="39" totalsRowDxfId="8"/>
+    <tableColumn id="3" name="User_Invest_Amount_As_On_Date" dataDxfId="38" totalsRowDxfId="7"/>
+    <tableColumn id="6" name="Company_Total_Investment_As_On_Date" dataDxfId="37" totalsRowDxfId="6"/>
+    <tableColumn id="10" name="Total_Profit" dataDxfId="36" totalsRowDxfId="5"/>
+    <tableColumn id="11" name="Profit_%" dataDxfId="35" totalsRowDxfId="4"/>
+    <tableColumn id="7" name="Profit_Without_Tax" dataDxfId="34" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Payment_Status" dataDxfId="33" totalsRowDxfId="2"/>
+    <tableColumn id="1" name="Tax_Deduction_%" dataDxfId="16" totalsRowDxfId="1"/>
+    <tableColumn id="2" name="Profit_With_Tax" dataDxfId="15" totalsRowDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -842,7 +839,7 @@
     <tableColumn id="2" name="UserID"/>
     <tableColumn id="3" name="Requested_Amount"/>
     <tableColumn id="6" name="Re-Invest_ID"/>
-    <tableColumn id="4" name="Total_Added_Amount" dataDxfId="0">
+    <tableColumn id="4" name="Total_Added_Amount" dataDxfId="14">
       <calculatedColumnFormula>SUMIFS(Daily_Report!E:E,Daily_Report!H:H,Re_Investment_Details!C:C)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" name="Pending_Amount_To_Be_Add" dataDxfId="17">
@@ -1143,8 +1140,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5641"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M292" sqref="M292"/>
+    <sheetView topLeftCell="G290" workbookViewId="0">
+      <selection activeCell="L292" sqref="L292:L300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1197,16 +1194,16 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -10030,7 +10027,7 @@
         <v>1000</v>
       </c>
       <c r="E254" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F254" s="28">
         <v>46019</v>
@@ -10731,7 +10728,7 @@
         <v>500</v>
       </c>
       <c r="E274" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G274" s="14">
         <v>1000</v>
@@ -10956,16 +10953,16 @@
         <v>46022</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D280" s="14">
         <v>1000</v>
       </c>
       <c r="E280" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G280" s="14">
         <v>1000</v>
@@ -10985,7 +10982,7 @@
         <v>60.689655172413794</v>
       </c>
       <c r="L280" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M280" s="33">
         <v>0.94</v>
@@ -11013,7 +11010,7 @@
         <v>300</v>
       </c>
       <c r="E282" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G282" s="14">
         <v>3800</v>
@@ -11314,10 +11311,10 @@
         <v>46023</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G290" s="14">
         <v>1000</v>
@@ -11337,7 +11334,7 @@
         <v>53.175675675675677</v>
       </c>
       <c r="L290" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M290" s="33">
         <v>0.94</v>
@@ -11379,7 +11376,7 @@
         <v>221.35</v>
       </c>
       <c r="L292" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="M292" s="33">
         <v>0.94</v>
@@ -11403,7 +11400,7 @@
         <v>200</v>
       </c>
       <c r="E293" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G293" s="14">
         <v>1700</v>
@@ -11422,8 +11419,8 @@
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
         <v>99.024999999999991</v>
       </c>
-      <c r="L293" s="14" t="s">
-        <v>79</v>
+      <c r="L293" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="M293" s="33">
         <v>0.94</v>
@@ -11460,8 +11457,8 @@
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
         <v>58.25</v>
       </c>
-      <c r="L294" s="14" t="s">
-        <v>79</v>
+      <c r="L294" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="M294" s="33">
         <v>0.94</v>
@@ -11485,7 +11482,7 @@
         <v>1000</v>
       </c>
       <c r="E295" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G295" s="14">
         <v>2500</v>
@@ -11504,8 +11501,8 @@
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
         <v>145.625</v>
       </c>
-      <c r="L295" s="14" t="s">
-        <v>79</v>
+      <c r="L295" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="M295" s="33">
         <v>0.94</v>
@@ -11542,8 +11539,8 @@
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
         <v>58.25</v>
       </c>
-      <c r="L296" s="14" t="s">
-        <v>79</v>
+      <c r="L296" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="M296" s="33">
         <v>0.94</v>
@@ -11580,8 +11577,8 @@
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
         <v>116.5</v>
       </c>
-      <c r="L297" s="14" t="s">
-        <v>79</v>
+      <c r="L297" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="M297" s="33">
         <v>0.94</v>
@@ -11618,8 +11615,8 @@
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
         <v>116.5</v>
       </c>
-      <c r="L298" s="14" t="s">
-        <v>79</v>
+      <c r="L298" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="M298" s="33">
         <v>0.94</v>
@@ -11656,8 +11653,8 @@
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
         <v>58.25</v>
       </c>
-      <c r="L299" s="14" t="s">
-        <v>79</v>
+      <c r="L299" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="M299" s="33">
         <v>0.94</v>
@@ -11672,10 +11669,10 @@
         <v>46024</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G300" s="14">
         <v>1000</v>
@@ -11694,8 +11691,8 @@
         <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
         <v>58.25</v>
       </c>
-      <c r="L300" s="14" t="s">
-        <v>79</v>
+      <c r="L300" s="33" t="s">
+        <v>39</v>
       </c>
       <c r="M300" s="33">
         <v>0.94</v>
@@ -27893,8 +27890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28097,13 +28094,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -28113,7 +28110,7 @@
         <v>161.7884109972041</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -28135,8 +28132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="E280" sqref="E280"/>
+    <sheetView topLeftCell="A268" workbookViewId="0">
+      <selection activeCell="H294" sqref="H294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28175,7 +28172,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -33711,7 +33708,7 @@
         <v>46022</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C268" s="14">
         <v>1000</v>
@@ -33723,13 +33720,13 @@
         <v>57.048275862068962</v>
       </c>
       <c r="F268" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G268" s="15">
         <v>880</v>
       </c>
       <c r="H268" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -33925,7 +33922,7 @@
         <v>46023</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C278" s="14">
         <v>1000</v>
@@ -33937,13 +33934,13 @@
         <v>49.985135135135131</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G278" s="15">
         <v>787</v>
       </c>
       <c r="H278" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -33967,7 +33964,7 @@
         <v>208.06899999999999</v>
       </c>
       <c r="F280" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G280" s="15">
         <v>932</v>
@@ -33990,7 +33987,7 @@
         <v>93.083499999999987</v>
       </c>
       <c r="F281" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G281" s="15">
         <v>932</v>
@@ -34013,7 +34010,7 @@
         <v>54.754999999999995</v>
       </c>
       <c r="F282" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G282" s="15">
         <v>932</v>
@@ -34036,7 +34033,7 @@
         <v>136.88749999999999</v>
       </c>
       <c r="F283" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G283" s="15">
         <v>932</v>
@@ -34059,7 +34056,7 @@
         <v>54.754999999999995</v>
       </c>
       <c r="F284" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G284" s="15">
         <v>932</v>
@@ -34082,7 +34079,7 @@
         <v>109.50999999999999</v>
       </c>
       <c r="F285" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G285" s="15">
         <v>932</v>
@@ -34105,7 +34102,7 @@
         <v>109.50999999999999</v>
       </c>
       <c r="F286" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G286" s="15">
         <v>932</v>
@@ -34128,7 +34125,7 @@
         <v>54.754999999999995</v>
       </c>
       <c r="F287" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G287" s="15">
         <v>932</v>
@@ -34139,7 +34136,7 @@
         <v>46024</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C288" s="14">
         <v>1000</v>
@@ -34151,13 +34148,13 @@
         <v>54.754999999999995</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G288" s="15">
         <v>932</v>
       </c>
       <c r="H288" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="289" spans="4:7" x14ac:dyDescent="0.25">
@@ -35713,10 +35710,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
         <v>81</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
       </c>
       <c r="C17">
         <v>1764</v>
@@ -35745,7 +35742,7 @@
   <dimension ref="C4:R29"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35964,7 +35961,7 @@
     </row>
     <row r="24" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F24" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="34"/>
       <c r="L24">
@@ -36031,7 +36028,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36047,30 +36044,30 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="E1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" t="s">
         <v>96</v>
-      </c>
-      <c r="F1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!H:H,Re_Investment_Details!C:C)</f>
@@ -36081,7 +36078,7 @@
         <v>338.2115890027959</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="103">
   <si>
     <t>UserID</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Aathithya</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
   <si>
     <t>T013ADD1000</t>
@@ -1140,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5641"/>
   <sheetViews>
-    <sheetView topLeftCell="G290" workbookViewId="0">
-      <selection activeCell="L292" sqref="L292:L300"/>
+    <sheetView tabSelected="1" topLeftCell="G288" workbookViewId="0">
+      <selection activeCell="K307" sqref="K307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,16 +1197,16 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -10027,7 +10030,7 @@
         <v>1000</v>
       </c>
       <c r="E254" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F254" s="28">
         <v>46019</v>
@@ -10728,7 +10731,7 @@
         <v>500</v>
       </c>
       <c r="E274" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G274" s="14">
         <v>1000</v>
@@ -10953,16 +10956,16 @@
         <v>46022</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D280" s="14">
         <v>1000</v>
       </c>
       <c r="E280" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G280" s="14">
         <v>1000</v>
@@ -10982,7 +10985,7 @@
         <v>60.689655172413794</v>
       </c>
       <c r="L280" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M280" s="33">
         <v>0.94</v>
@@ -11010,7 +11013,7 @@
         <v>300</v>
       </c>
       <c r="E282" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G282" s="14">
         <v>3800</v>
@@ -11311,10 +11314,10 @@
         <v>46023</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G290" s="14">
         <v>1000</v>
@@ -11334,7 +11337,7 @@
         <v>53.175675675675677</v>
       </c>
       <c r="L290" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M290" s="33">
         <v>0.94</v>
@@ -11400,7 +11403,7 @@
         <v>200</v>
       </c>
       <c r="E293" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G293" s="14">
         <v>1700</v>
@@ -11482,7 +11485,7 @@
         <v>1000</v>
       </c>
       <c r="E295" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G295" s="14">
         <v>2500</v>
@@ -11669,10 +11672,10 @@
         <v>46024</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G300" s="14">
         <v>1000</v>
@@ -11692,7 +11695,7 @@
         <v>58.25</v>
       </c>
       <c r="L300" s="33" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="M300" s="33">
         <v>0.94</v>
@@ -11707,78 +11710,384 @@
       <c r="M301" s="33"/>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I302" s="15"/>
-      <c r="M302" s="33"/>
+      <c r="A302" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B302" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C302" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G302" s="33">
+        <v>3800</v>
+      </c>
+      <c r="H302" s="33">
+        <v>16000</v>
+      </c>
+      <c r="I302" s="15">
+        <v>786</v>
+      </c>
+      <c r="J302" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="K302" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>186.67499999999998</v>
+      </c>
+      <c r="L302" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="M302" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="N302" s="15">
+        <f>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</f>
+        <v>175.47449999999998</v>
+      </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I303" s="15"/>
-      <c r="M303" s="33"/>
+      <c r="A303" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B303" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" s="33">
+        <v>1700</v>
+      </c>
+      <c r="H303" s="33">
+        <v>16000</v>
+      </c>
+      <c r="I303" s="15">
+        <v>786</v>
+      </c>
+      <c r="J303" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.10625</v>
+      </c>
+      <c r="K303" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>83.512500000000003</v>
+      </c>
+      <c r="L303" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M303" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="N303" s="15">
+        <f>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</f>
+        <v>78.501750000000001</v>
+      </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="I304" s="15"/>
-      <c r="M304" s="33"/>
-    </row>
-    <row r="305" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I305" s="15"/>
-      <c r="M305" s="33"/>
-    </row>
-    <row r="306" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I306" s="15"/>
-      <c r="M306" s="33"/>
-    </row>
-    <row r="307" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I307" s="15"/>
-      <c r="M307" s="33"/>
-    </row>
-    <row r="308" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I308" s="15"/>
-      <c r="M308" s="33"/>
-    </row>
-    <row r="309" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I309" s="15"/>
-      <c r="M309" s="33"/>
-    </row>
-    <row r="310" spans="9:13" x14ac:dyDescent="0.25">
-      <c r="I310" s="15"/>
-      <c r="M310" s="33"/>
-    </row>
-    <row r="311" spans="9:13" x14ac:dyDescent="0.25">
+      <c r="A304" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B304" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G304" s="33">
+        <v>1000</v>
+      </c>
+      <c r="H304" s="33">
+        <v>16000</v>
+      </c>
+      <c r="I304" s="15">
+        <v>786</v>
+      </c>
+      <c r="J304" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K304" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>49.125</v>
+      </c>
+      <c r="L304" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M304" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="N304" s="15">
+        <f>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</f>
+        <v>46.177499999999995</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A305" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B305" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C305" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G305" s="33">
+        <v>2500</v>
+      </c>
+      <c r="H305" s="33">
+        <v>16000</v>
+      </c>
+      <c r="I305" s="15">
+        <v>786</v>
+      </c>
+      <c r="J305" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.15625</v>
+      </c>
+      <c r="K305" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>122.8125</v>
+      </c>
+      <c r="L305" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M305" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="N305" s="15">
+        <f>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</f>
+        <v>115.44374999999999</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A306" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B306" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C306" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G306" s="33">
+        <v>1000</v>
+      </c>
+      <c r="H306" s="33">
+        <v>16000</v>
+      </c>
+      <c r="I306" s="15">
+        <v>786</v>
+      </c>
+      <c r="J306" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K306" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>49.125</v>
+      </c>
+      <c r="L306" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M306" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="N306" s="15">
+        <f>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</f>
+        <v>46.177499999999995</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A307" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B307" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C307" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G307" s="33">
+        <v>2000</v>
+      </c>
+      <c r="H307" s="33">
+        <v>16000</v>
+      </c>
+      <c r="I307" s="15">
+        <v>786</v>
+      </c>
+      <c r="J307" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K307" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>98.25</v>
+      </c>
+      <c r="L307" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M307" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="N307" s="15">
+        <f>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</f>
+        <v>92.35499999999999</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A308" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B308" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C308" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G308" s="33">
+        <v>2000</v>
+      </c>
+      <c r="H308" s="33">
+        <v>16000</v>
+      </c>
+      <c r="I308" s="15">
+        <v>786</v>
+      </c>
+      <c r="J308" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>0.125</v>
+      </c>
+      <c r="K308" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>98.25</v>
+      </c>
+      <c r="L308" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M308" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="N308" s="15">
+        <f>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</f>
+        <v>92.35499999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A309" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B309" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C309" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="G309" s="33">
+        <v>1000</v>
+      </c>
+      <c r="H309" s="33">
+        <v>16000</v>
+      </c>
+      <c r="I309" s="15">
+        <v>786</v>
+      </c>
+      <c r="J309" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K309" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>49.125</v>
+      </c>
+      <c r="L309" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M309" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="N309" s="15">
+        <f>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</f>
+        <v>46.177499999999995</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A310" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B310" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C310" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G310" s="33">
+        <v>1000</v>
+      </c>
+      <c r="H310" s="33">
+        <v>16000</v>
+      </c>
+      <c r="I310" s="15">
+        <v>786</v>
+      </c>
+      <c r="J310" s="15">
+        <f>Table1[[#This Row],[User_Invest_Amount_As_On_Date]]/Table1[[#This Row],[Company_Total_Investment_As_On_Date]]</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K310" s="15">
+        <f>Table1[[#This Row],[Total_Profit]]*Table1[[#This Row],[Profit_%]]</f>
+        <v>49.125</v>
+      </c>
+      <c r="L310" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="M310" s="33">
+        <v>0.94</v>
+      </c>
+      <c r="N310" s="15">
+        <f>Table1[[#This Row],[Profit_Without_Tax]]*Table1[[#This Row],[Tax_Deduction_%]]</f>
+        <v>46.177499999999995</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I311" s="15"/>
       <c r="M311" s="33"/>
     </row>
-    <row r="312" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I312" s="15"/>
       <c r="M312" s="33"/>
     </row>
-    <row r="313" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I313" s="15"/>
       <c r="M313" s="33"/>
     </row>
-    <row r="314" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I314" s="15"/>
       <c r="M314" s="33"/>
     </row>
-    <row r="315" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I315" s="15"/>
       <c r="M315" s="33"/>
     </row>
-    <row r="316" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I316" s="15"/>
       <c r="M316" s="33"/>
     </row>
-    <row r="317" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I317" s="15"/>
       <c r="M317" s="33"/>
     </row>
-    <row r="318" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I318" s="15"/>
       <c r="M318" s="33"/>
     </row>
-    <row r="319" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I319" s="15"/>
       <c r="M319" s="33"/>
     </row>
-    <row r="320" spans="9:13" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="I320" s="15"/>
       <c r="M320" s="33"/>
     </row>
@@ -27890,8 +28199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27939,7 +28248,7 @@
       </c>
       <c r="E2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>3491.9317837619551</v>
+        <v>3667.4062837619549</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -27960,7 +28269,7 @@
       </c>
       <c r="E3" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1947.4716911767914</v>
+        <v>2025.9734411767913</v>
       </c>
       <c r="F3" t="s">
         <v>42</v>
@@ -27981,7 +28290,7 @@
       </c>
       <c r="E4" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>744.2151803168839</v>
+        <v>790.39268031688391</v>
       </c>
       <c r="F4" t="s">
         <v>44</v>
@@ -28002,7 +28311,7 @@
       </c>
       <c r="E5" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1988.1068133437345</v>
+        <v>2103.5505633437347</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -28023,7 +28332,7 @@
       </c>
       <c r="E6" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>1051.1845535362572</v>
+        <v>1097.3620535362572</v>
       </c>
       <c r="F6" t="s">
         <v>40</v>
@@ -28044,7 +28353,7 @@
       </c>
       <c r="E7" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2577.8024177916459</v>
+        <v>2670.1574177916459</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
@@ -28065,7 +28374,7 @@
       </c>
       <c r="E8" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>2384.8994327170194</v>
+        <v>2477.2544327170194</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -28086,7 +28395,7 @@
       </c>
       <c r="E9" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>969.64971635850952</v>
+        <v>1015.8272163585095</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
@@ -28094,23 +28403,23 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" t="s">
-        <v>82</v>
       </c>
       <c r="D10">
         <v>1000</v>
       </c>
       <c r="E10" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!B:B,Table2[[#This Row],[UserID]])</f>
-        <v>161.7884109972041</v>
+        <v>207.96591099720411</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -28132,8 +28441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H602"/>
   <sheetViews>
-    <sheetView topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="H294" sqref="H294"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="F298" sqref="F298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28172,7 +28481,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -33708,7 +34017,7 @@
         <v>46022</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C268" s="14">
         <v>1000</v>
@@ -33720,13 +34029,13 @@
         <v>57.048275862068962</v>
       </c>
       <c r="F268" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G268" s="15">
         <v>880</v>
       </c>
       <c r="H268" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -33922,7 +34231,7 @@
         <v>46023</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C278" s="14">
         <v>1000</v>
@@ -33934,13 +34243,13 @@
         <v>49.985135135135131</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G278" s="15">
         <v>787</v>
       </c>
       <c r="H278" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -34136,7 +34445,7 @@
         <v>46024</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C288" s="14">
         <v>1000</v>
@@ -34148,76 +34457,250 @@
         <v>54.754999999999995</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G288" s="15">
         <v>932</v>
       </c>
       <c r="H288" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="289" spans="4:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D289" s="16"/>
       <c r="G289" s="15"/>
     </row>
-    <row r="290" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D290" s="16"/>
-      <c r="G290" s="15"/>
-    </row>
-    <row r="291" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D291" s="16"/>
-      <c r="G291" s="15"/>
-    </row>
-    <row r="292" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D292" s="16"/>
-      <c r="G292" s="15"/>
-    </row>
-    <row r="293" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D293" s="16"/>
-      <c r="G293" s="15"/>
-    </row>
-    <row r="294" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D294" s="16"/>
-      <c r="G294" s="15"/>
-    </row>
-    <row r="295" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D295" s="16"/>
-      <c r="G295" s="15"/>
-    </row>
-    <row r="296" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D296" s="16"/>
-      <c r="G296" s="15"/>
-    </row>
-    <row r="297" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D297" s="16"/>
-      <c r="G297" s="15"/>
-    </row>
-    <row r="298" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D298" s="16"/>
-      <c r="G298" s="15"/>
-    </row>
-    <row r="299" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B290" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="33">
+        <v>3800</v>
+      </c>
+      <c r="D290" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E290" s="15">
+        <v>175.47449999999998</v>
+      </c>
+      <c r="F290" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G290" s="15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B291" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="33">
+        <v>1700</v>
+      </c>
+      <c r="D291" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E291" s="15">
+        <v>78.501750000000001</v>
+      </c>
+      <c r="F291" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G291" s="15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B292" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C292" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D292" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E292" s="15">
+        <v>46.177499999999995</v>
+      </c>
+      <c r="F292" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G292" s="15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B293" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="C293" s="33">
+        <v>2500</v>
+      </c>
+      <c r="D293" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E293" s="15">
+        <v>115.44374999999999</v>
+      </c>
+      <c r="F293" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G293" s="15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B294" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C294" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D294" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E294" s="15">
+        <v>46.177499999999995</v>
+      </c>
+      <c r="F294" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G294" s="15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A295" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B295" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C295" s="33">
+        <v>2000</v>
+      </c>
+      <c r="D295" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E295" s="15">
+        <v>92.35499999999999</v>
+      </c>
+      <c r="F295" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G295" s="15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B296" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C296" s="33">
+        <v>2000</v>
+      </c>
+      <c r="D296" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E296" s="15">
+        <v>92.35499999999999</v>
+      </c>
+      <c r="F296" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G296" s="15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A297" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B297" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C297" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D297" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E297" s="15">
+        <v>46.177499999999995</v>
+      </c>
+      <c r="F297" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="G297" s="15">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="28">
+        <v>46025</v>
+      </c>
+      <c r="B298" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C298" s="33">
+        <v>1000</v>
+      </c>
+      <c r="D298" s="33">
+        <v>16000</v>
+      </c>
+      <c r="E298" s="15">
+        <v>46.177499999999995</v>
+      </c>
+      <c r="F298" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G298" s="15">
+        <v>786</v>
+      </c>
+      <c r="H298" s="33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D299" s="16"/>
       <c r="G299" s="15"/>
     </row>
-    <row r="300" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D300" s="16"/>
       <c r="G300" s="15"/>
     </row>
-    <row r="301" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D301" s="16"/>
       <c r="G301" s="15"/>
     </row>
-    <row r="302" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D302" s="16"/>
       <c r="G302" s="15"/>
     </row>
-    <row r="303" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D303" s="16"/>
       <c r="G303" s="15"/>
     </row>
-    <row r="304" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D304" s="16"/>
       <c r="G304" s="15"/>
     </row>
@@ -35710,10 +36193,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C17">
         <v>1764</v>
@@ -35742,7 +36225,7 @@
   <dimension ref="C4:R29"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35961,7 +36444,7 @@
     </row>
     <row r="24" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F24" s="34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G24" s="34"/>
       <c r="L24">
@@ -35980,12 +36463,6 @@
       </c>
     </row>
     <row r="26" spans="6:18" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26">
-        <v>6.83</v>
-      </c>
       <c r="L26">
         <v>60.25</v>
       </c>
@@ -36028,7 +36505,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36044,41 +36521,41 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <v>500</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3">
         <f>SUMIFS(Daily_Report!E:E,Daily_Report!H:H,Re_Investment_Details!C:C)</f>
-        <v>161.7884109972041</v>
+        <v>207.96591099720411</v>
       </c>
       <c r="E2">
         <f>Table6[[#This Row],[Requested_Amount]]-Table6[[#This Row],[Total_Added_Amount]]</f>
-        <v>338.2115890027959</v>
+        <v>292.03408900279589</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/INVESTMENT_APP_DETAILS_UPDATE.xlsx
+++ b/INVESTMENT_APP_DETAILS_UPDATE.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="9000" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Daily_Profits_Calculations" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1519" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="105">
   <si>
     <t>UserID</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Aathithya</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>T013ADD1000</t>
   </si>
   <si>
@@ -329,6 +326,15 @@
   </si>
   <si>
     <t>Profit_With_Tax</t>
+  </si>
+  <si>
+    <t>Charge_ID</t>
+  </si>
+  <si>
+    <t>KYC1001</t>
+  </si>
+  <si>
+    <t>VPS1001</t>
   </si>
 </sst>
 </file>
@@ -819,9 +825,9 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:F17" totalsRowShown="0">
-  <autoFilter ref="A1:F17"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:G17" totalsRowShown="0">
+  <autoFilter ref="A1:G17"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="UserID"/>
     <tableColumn id="2" name="Reason_For_Charge"/>
     <tableColumn id="3" name="Charge_Amt"/>
@@ -830,6 +836,7 @@
     <tableColumn id="5" name="Pending_Amt" dataDxfId="18">
       <calculatedColumnFormula>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="7" name="Charge_ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1143,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5641"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G288" workbookViewId="0">
+    <sheetView topLeftCell="G288" workbookViewId="0">
       <selection activeCell="K307" sqref="K307"/>
     </sheetView>
   </sheetViews>
@@ -1197,16 +1204,16 @@
         <v>6</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -10030,7 +10037,7 @@
         <v>1000</v>
       </c>
       <c r="E254" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F254" s="28">
         <v>46019</v>
@@ -10731,7 +10738,7 @@
         <v>500</v>
       </c>
       <c r="E274" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G274" s="14">
         <v>1000</v>
@@ -10956,16 +10963,16 @@
         <v>46022</v>
       </c>
       <c r="B280" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D280" s="14">
         <v>1000</v>
       </c>
       <c r="E280" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G280" s="14">
         <v>1000</v>
@@ -10985,7 +10992,7 @@
         <v>60.689655172413794</v>
       </c>
       <c r="L280" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M280" s="33">
         <v>0.94</v>
@@ -11013,7 +11020,7 @@
         <v>300</v>
       </c>
       <c r="E282" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G282" s="14">
         <v>3800</v>
@@ -11314,10 +11321,10 @@
         <v>46023</v>
       </c>
       <c r="B290" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C290" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G290" s="14">
         <v>1000</v>
@@ -11337,7 +11344,7 @@
         <v>53.175675675675677</v>
       </c>
       <c r="L290" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M290" s="33">
         <v>0.94</v>
@@ -11403,7 +11410,7 @@
         <v>200</v>
       </c>
       <c r="E293" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G293" s="14">
         <v>1700</v>
@@ -11485,7 +11492,7 @@
         <v>1000</v>
       </c>
       <c r="E295" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G295" s="14">
         <v>2500</v>
@@ -11672,10 +11679,10 @@
         <v>46024</v>
       </c>
       <c r="B300" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G300" s="14">
         <v>1000</v>
@@ -11695,7 +11702,7 @@
         <v>58.25</v>
       </c>
       <c r="L300" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M300" s="33">
         <v>0.94</v>
@@ -12018,10 +12025,10 @@
         <v>46025</v>
       </c>
       <c r="B310" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C310" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G310" s="33">
         <v>1000</v>
@@ -12041,7 +12048,7 @@
         <v>49.125</v>
       </c>
       <c r="L310" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M310" s="33">
         <v>0.94</v>
@@ -28403,13 +28410,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -28419,7 +28426,7 @@
         <v>207.96591099720411</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -28442,7 +28449,7 @@
   <dimension ref="A1:H602"/>
   <sheetViews>
     <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="F298" sqref="F298"/>
+      <selection activeCell="F291" sqref="F291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28481,7 +28488,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -34017,7 +34024,7 @@
         <v>46022</v>
       </c>
       <c r="B268" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C268" s="14">
         <v>1000</v>
@@ -34029,13 +34036,13 @@
         <v>57.048275862068962</v>
       </c>
       <c r="F268" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G268" s="15">
         <v>880</v>
       </c>
       <c r="H268" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
@@ -34231,7 +34238,7 @@
         <v>46023</v>
       </c>
       <c r="B278" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C278" s="14">
         <v>1000</v>
@@ -34243,13 +34250,13 @@
         <v>49.985135135135131</v>
       </c>
       <c r="F278" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G278" s="15">
         <v>787</v>
       </c>
       <c r="H278" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
@@ -34445,7 +34452,7 @@
         <v>46024</v>
       </c>
       <c r="B288" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C288" s="14">
         <v>1000</v>
@@ -34457,13 +34464,13 @@
         <v>54.754999999999995</v>
       </c>
       <c r="F288" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G288" s="15">
         <v>932</v>
       </c>
       <c r="H288" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
@@ -34487,7 +34494,7 @@
         <v>175.47449999999998</v>
       </c>
       <c r="F290" s="14" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G290" s="15">
         <v>786</v>
@@ -34659,7 +34666,7 @@
         <v>46025</v>
       </c>
       <c r="B298" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C298" s="33">
         <v>1000</v>
@@ -34671,13 +34678,13 @@
         <v>46.177499999999995</v>
       </c>
       <c r="F298" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G298" s="15">
         <v>786</v>
       </c>
       <c r="H298" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -35840,10 +35847,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35856,7 +35863,7 @@
     <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -35875,8 +35882,11 @@
       <c r="F1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -35896,8 +35906,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -35917,8 +35930,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -35938,8 +35954,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -35959,8 +35978,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -35980,8 +36002,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -36001,8 +36026,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -36022,8 +36050,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -36043,8 +36074,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -36064,8 +36098,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -36085,8 +36122,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -36106,8 +36146,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -36127,8 +36170,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -36148,8 +36194,11 @@
         <f>Table5[[#This Row],[Charge_Per_Head]]-Table5[[#This Row],[Paid_Amt]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
